--- a/data/outputs/excel/steam_exam_responses.xlsx
+++ b/data/outputs/excel/steam_exam_responses.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,264 +544,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Học tập qua trải nghiệm là một phương pháp giáo dục trong đó học sinh được tham gia trực tiếp vào các hoạt động thực tiễn, thay vì chỉ tiếp thu kiến thức qua sách vở hay giảng giải lý thuyết. Phương pháp này nhấn mạnh vào việc "học thông qua làm", khuyến khích học sinh chủ động khám phá, thử nghiệm và rút ra bài học từ chính trải nghiệm của mình. Tác động của học tập qua trải nghiệm đến học sinh rất sâu sắc. Thứ nhất, nó giúp học sinh ghi nhớ kiến thức lâu hơn vì kiến thức gắn liền với cảm xúc và hành động cụ thể. Thứ hai, phương pháp này phát triển kỹ năng giải quyết vấn đề, tư duy phản biện và khả năng làm việc nhóm – những kỹ năng quan trọng trong thế kỷ 21. Ngoài ra, học sinh cũng cảm thấy hứng thú và tự tin hơn khi được tham gia vào quá trình học tập một cách tích cực và sáng tạo. Ví dụ, trong một dự án STEAM về chủ đề “Bảo vệ môi trường”, học sinh có thể thu gom rác thải tái chế, thiết kế mô hình thùng rác thông minh hoặc làm poster tuyên truyền. Qua đó, các em không chỉ học kiến thức liên môn về khoa học, công nghệ, kỹ thuật, nghệ thuật và toán mà còn nhận thức rõ hơn về vai trò của mình trong việc bảo vệ môi trường. Như vậy, học tập qua trải nghiệm chính là cầu nối giúp kiến thức trở nên sống động, gần gũi và ý nghĩa hơn với học sinh.</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Tên hoạt động: “Thiết kế vật dụng đựng đồ cá nhân thông minh” Mục tiêu: Giúp học sinh cải thiện thói quen sắp xếp góc học tập và rèn luyện kỹ năng giải quyết vấn đề. Mô tả hoạt động: Học sinh sẽ được giao nhiệm vụ thiết kế và tạo ra một vật dụng đựng đồ cá nhân (bằng bìa cứng, que kem, chai nhựa, v.v.) để đựng sách, bút, thước hoặc các vật dụng nhỏ thường xuyên bị thất lạc trên bàn học. Trước khi bắt tay vào làm, các em sẽ thảo luận theo nhóm để tìm hiểu thói quen học tập của bản thân, xác định những khó khăn như bàn học bừa bộn, đồ dùng bị mất, mất thời gian tìm kiếm... Tiếp theo, các nhóm sẽ lên ý tưởng thiết kế, vẽ bản phác thảo, lựa chọn vật liệu tái chế, và cùng nhau tạo ra sản phẩm. Cuối hoạt động, mỗi nhóm sẽ thuyết trình về thiết kế của mình, giải thích vì sao giá đựng đó phù hợp với nhu cầu của nhóm và cách nó giúp cải thiện không gian học tập. Kỹ năng và năng lực phát triển: Tư duy thiết kế và sáng tạo Kỹ năng hợp tác, giao tiếp trong nhóm Giải quyết vấn đề và ra quyết định Ý thức giữ gìn không gian học tập ngăn nắp, khoa học Hoạt động này không chỉ gắn với đời sống hàng ngày mà còn giúp học sinh phát triển các phẩm chất và năng lực cần thiết của công dân trong tương lai.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Kế hoạch dạy học cho bài tập: “Bảo vệ viên phấn khi rơi từ độ cao 3 mét” 1. Khởi động và khơi gợi vấn đề: Tôi sẽ bắt đầu bằng cách thả một viên phấn từ độ cao 3 mét để học sinh quan sát hiện tượng viên phấn bị vỡ. Sau đó, đặt câu hỏi: Vì sao viên phấn lại vỡ khi rơi từ trên cao? Nếu em muốn bảo vệ viên phấn, em sẽ làm như thế nào? Giao nhiệm vụ: Học sinh được chia thành các nhóm nhỏ. Mỗi nhóm sẽ thiết kế và tạo ra một thiết bị đơn giản có thể bảo vệ viên phấn khi thả từ độ cao 3 mét. Các em có thể sử dụng các vật liệu đơn giản như: Bìa cứng, giấy báo, xốp, bong bóng, dây thun, cốc nhựa, vải vụn, ống hút, hộp nhỏ, băng dính... Hướng dẫn học sinh thực hiện: Tôi sẽ gợi mở qua các câu hỏi: Làm sao để giảm lực tác động khi viên phấn chạm đất? Vật liệu nào có thể giúp hấp thụ lực hoặc bao bọc viên phấn tốt nhất? Thiết kế của em có thể chịu được nhiều lần thử không? Thử nghiệm và điều chỉnh: Các nhóm thử nghiệm thiết bị, quan sát kết quả và điều chỉnh nếu cần. Mỗi nhóm sẽ ghi lại quá trình thiết kế, lý do lựa chọn vật liệu và cải tiến sau thử nghiệm. Trình bày và đánh giá: Cuối buổi, học sinh trình bày sản phẩm và rút ra bài học về cách bảo vệ vật dễ vỡ, nguyên lý giảm chấn và sáng tạo trong giải quyết vấn đề. Hoạt động này giúp học sinh phát triển tư duy kỹ thuật, hợp tác nhóm và kỹ năng thử nghiệm sáng tạo.</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Khi một học sinh yêu cầu “xem ví dụ” trong một hoạt động STEAM có yếu tố nghệ thuật, điều này thường phản ánh sự lo lắng, thiếu tự tin hoặc sợ sai. Trong tình huống đó, tôi sẽ phản hồi bằng cách hỗ trợ tâm lý và khuyến khích sự sáng tạo, thay vì đưa ra một mẫu cố định có thể làm hạn chế ý tưởng cá nhân. Phản hồi gợi mở: “Tuy cô không có một ví dụ cụ thể, nhưng cô tin rằng mỗi bạn đều có ý tưởng riêng rất thú vị. Em có thể bắt đầu bằng cách nghĩ xem: Em muốn sản phẩm của mình trông như thế nào? Em muốn truyền tải điều gì qua đó?” Các cách hỗ trợ cụ thể: Gợi ý mở, không mang tính ràng buộc: Tôi có thể đưa ra một số ví dụ đa dạng từ các hoạt động trước (qua tranh ảnh hoặc mô hình) nhưng nhấn mạnh: “Đây chỉ là vài ý tưởng tham khảo, không phải mẫu chuẩn. Em hoàn toàn có thể tạo ra sản phẩm độc đáo theo cách của mình.” Khuyến khích quá trình thử nghiệm: Tôi khuyến khích học sinh vẽ phác thảo trước, thử nhiều cách phối màu, chất liệu, hình khối khác nhau để tìm ra phiên bản mà các em thích nhất. Tạo không gian an toàn để sáng tạo: Tôi nhấn mạnh rằng trong STEAM không có đúng – sai, mỗi sản phẩm đều phản ánh suy nghĩ và cá tính riêng, và điều đó làm nên giá trị của nghệ thuật. Bằng cách này, tôi giúp học sinh tự tin khám phá và phát triển khả năng sáng tạo của bản thân một cách tự nhiên và vui vẻ.</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động dạy học: Tên hoạt động: “Thiết kế mô hình phương tiện giao thông từ vật liệu tái chế” Mô tả hoạt động: Học sinh sẽ thu thập các vật liệu tái chế như hộp giấy, chai nhựa, nắp chai, que kem, bìa cứng... để thiết kế mô hình một phương tiện giao thông mà các em yêu thích (xe đạp, ô tô, tàu hỏa, thuyền, máy bay...). Các em sẽ làm việc theo nhóm, từ khâu lên ý tưởng, vẽ bản thiết kế, chọn vật liệu đến lắp ráp và trang trí mô hình. Mục tiêu: Rèn luyện tư duy thiết kế, sáng tạo và kỹ năng hợp tác nhóm Giáo dục ý thức bảo vệ môi trường qua việc tái sử dụng rác thải Giúp học sinh kết nối kiến thức thực tế với nội dung môn học Vật liệu gợi ý: Hộp carton, chai/lon nhựa, ống hút, dây chun, que kem, giấy màu, bút vẽ, kéo, keo dán... Chủ đề/bài học theo CT GDPT 2018 có thể tích hợp: Lớp 1 – Tự nhiên và Xã hội: Bài: “Các phương tiện giao thông” → Nhận biết và phân loại các loại phương tiện, vai trò trong cuộc sống. Lớp 2 – Tự nhiên và Xã hội: Bài: “An toàn khi tham gia giao thông” → Nêu các quy tắc và cách sử dụng phương tiện an toàn. Lớp 3 – Tự nhiên và Xã hội: Bài: “Bảo vệ môi trường” → Tái chế vật liệu để giảm rác thải nhựa, bảo vệ môi trường sống. Lớp 4 – Khoa học: Bài: “Năng lượng” → Tìm hiểu cách các phương tiện hoạt động (năng lượng gió, xăng, điện...). Lớp 5 – Khoa học: Bài: “Tác động của con người đến môi trường” → Liên hệ giữa giao thông và ô nhiễm, cách sống thân thiện môi trường. Hoạt động này không chỉ mang tính giáo dục bền vững mà còn khơi gợi sự đam mê sáng tạo và tư duy kỹ thuật ở học sinh tiểu học.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>S004</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Học tập qua trải nghiệm là một quan điểm giáo dục, trong đó học sinh được tham gia các hoạt động nhằm phát triển tư duy, sáng tạo và khả năng giải quyết vấn đề. Qua các hoạt động khám phá, trải nghiệm như tìm hiểu thế giới tự nhiên như cách nhà khoa học đã thực hiện, thực hành những suy ngẫm để đánh giá cái tiến quá trình, phân tích và phát triển ý tưởng để thực hiện, tham gia các hoạt động tương tác xã hội,... tạo cơ hội cho học sinh từng bước tiếp cận tri thức, liên hệ và giải quyết các vấn đề của thực tiễn, phát triển hiểu biết, kỹ năng và thái độ của học sinh. Như vậy, hoạt động học tập qua trải nghiệm hướng tới việc phát triển những kỹ năng của thế kỷ 21 (sáng tạo - Creativity, hợp tác - Collaboration, tư duy phản biện - Critical Thinking và giao tiếp - Communication); các phẩm chất của công dân toàn cầu, có sự thích ứng với những biến đổi của xã hội. Ví dụ: Học sinh tham quan và tìm hiểu quy trình nhà máy cấp nước khai thác, xử lý nước và cung cấp đến hộ gia đình. Sau khi tìm hiểu về nhà máy nước, học sinh điều tra iểu vấn đề ô nhiễm nguồn nước tại khu vực quanh trường học và phân tích tác hại của ô nhiễm nước. Đồng thời, đề xuất cách giữ vệ sinh, làm sạch môi trường nước và có thể thực hiện một máy lọc nước đơn giản. Mô hình giới thiệu cho học sinh quan sát Sản phẩm học sinh thực hiện (dự kiến)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động đề xuất: Hãy thiết kế một sổ tay giúp phụ huynh dễ dàng theo dõi quá trình học tập hằng ngày và hỗ trợ học sinh chuẩn bị cho ngày học tiếp theo. Đối tượng: dành cho học sinh từ lớp 3 trở lên. Hoạt động của HS Kỹ năng/khả năng được phát triển 1. Tiếp nhận nhiệm vụ - Giáo viên đặt vấn đề: Mỗi ngày các bạn sẽ học rất nhiều môn học, mỗi môn học sẽ cần có sự chuẩn bị khác nhau cho bài học. Vì vậy, để phụ huynh có thể “đồng hành” cùng các bạn trong quá trình học tập, các bạn hãy thiết kế một sổ tay giúp phụ huynh có thể theo dõi quá trình học tập hẳng ngày và hỗ trợ học sinh trong việc chuẩn bị cho ngày học tiếp theo. - Lắng nghe, xác định vấn đề và nhiệm vụ cần thực hiện. - Giáo viên giới thiệu tiêu chí sản phẩm: ▪ Sổ tay gồm có 1 trang bìa và có từ 10 trang ghi thông tin. ▪ Trang bìa có các thông tin như: họ và tên, lớp học, tên trường. ▪ Trang ghi thông tin gồm: + Những hoạt động mà em yêu thích trong ngày học + Hoạt động ở nhà sẽ thực hiện có sự liên hệ với bài học + Đồ dùng học tập cần chuẩn bị cho buổi học tiếp theo + Có phần để phụ huynh ghi nhận xét, động viên ▪ Sổ tay chắc chắn và sử dụng được nhiều lần. ▪ Trình bày rõ ràng, bố cục hợp lý, có cá tính riêng - Chia sẻ, thảo luận với các bạn xung quanh về tiêu chí của sản phẩm. Đồng thời chia sẻ với giáo viên về những điểm chưa rõ hoặc cần bổ sung các tiêu chí sản phẩm. Lắng nghe các tiêu chí của sản phẩm. Giao tiếp và tư duy 2. Tìm ý tưởng và phác thảo ý tưởng - Thảo luận ý tưởng dự định thực hiện với các thành viên trong nhóm trong thời gian 8 phút. Phân tích và lựa chọn ý tưởng phù hợp để vẽ phác thảo sản phẩm (bản thiết kế cho sản phẩm). Trình bày được các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. Giới thiệu ý tưởng, bản thiết kế và lắng nghe góp ý. Động não, tư duy Lựa chọn và đánh giá những thuận lợi khó khăn của nhóm khi thực hiện ý tưởng. Phác thảo được sản phẩm. Xác định được các các nguyên vật liệu, dụng cụ cần dùng để có thể thiết kế sản phẩm. Lắng nghe, phản hồi tích cực, tiếp thu các ý kiến để điều chỉnh ý tưởng thiết kế sản phẩm. 3. Thiết kế sản phẩm Lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. Tiến hành thực hiện thiết kế. So sánh sản phẩm với tiêu chí đã đề ra. Kĩ năng ngôn ngữ, tính toán, cắt, dán, tính thẩm mĩ; hợp tác nhóm. Đánh giá được sản phẩm theo các tiêu chí 4. Giới thiệu sản phẩm và nhận xét - Đại diện các nhóm lần lượt giới thiệu sản phẩm và cách sử dụng sổ tay. - Lắng nghe, giao tiếp, tư duy phản biện. Giáo viên tổ chức cho tất cả học sinh nhận xét về sản phẩm và giáo viên cũng có một số góp ý. Giáo viên tổ chức cho các nhóm học sinh tự đánh giá về quá trình hoạt động và tổ chức cho học sinh bình chọn nhóm có sản phẩm được yêu thích. Lưu ý, học sinh không bình chọn cho nhóm của bản thân. Giáo viên tổng kết. Tiếp thu và cải tiến sản phẩm. Đánh giá và tự đánh giá</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động của GV Hoạt động của HS - Giáo viên dẫn dắt vào vấn đề: + Giảm thiệủ tai nạn thương tích do va chạm là một trong những yếu tố quan trọng trong cuộc sống. ? Bạn hãy tưởng tượng, điều gì sẽ xảy ra khi một quả sầu riêng hoặc một quả dừa rơi xuống mặt đất. + Hậu quả của va chạm thật nghiêm trọng. Do đó, việc tìm hiểu và chế tạo thiết bị hạn chế va chạm, giúp cho các sản phẩm nguyên vẹn là yếu tố cần thiết trong quá trình vận chuyển. Nội dung hoạt động này sẽ tìm hiểu và thiết kế thiết bị này. ? Trong trường hợp viên phấn khi từ độ cao lớn xuống mặt đất thì viên phấn như thế nào? ? Vậy có cách nào để bảo vệ viên phấn không bị vỡ khi được thả từ độ cao 3 mét hay không? - Giáo viên giao nhiệm vụ: Thiết kế và chế tạo ra một một thiết bị bảo vệ bảo vệ viên phấn không bị vỡ khi được thả từ độ cao 3 mét đảm bảo các tiêu chí sau: 1. Tiếp nhận nhiệm vụ Lắng nghe nội dung và trả lời câu hỏi. Xác định vấn đề tìm hiểu và nhiệm vụ cần thực hiện. + Bảo vệ viên phấn nguyên vẹn khi rơi từ độ cao 3 mét. + Sử dụng các vật liệu đơn giản. + Cầm tay được, không quá cồng kềnh, dễ mang theo. + Có tính thẩm mỹ. - Lắng nghe các tiêu chí của sản phẩm. Giáo viên chia lớp thành các nhóm, mỗi nhóm khoảng 6 thành viên. Giáo viên cung cấp cho học sinh một số vật liệu như: giấy, bút lông để thể hiện ý tưởng thực hiện sản phẩm. Giáo viên đề nghị các nhóm học sinh suy nghĩ và chia sẻ về ý tưởng thiết kế thiết bị. + Mẫu thiết kế + Các vật liệu cần thiết Trong trường hợp học sinh còn thụ động, chưa quen với việc đề xuất ý tưởng thì giáo viên khơi gợi ý tưởng thực hiện sản phẩm bằng cách đặt câu hỏi như sau: ? Tại sao viên phấn lại vỡ khi rơi từ độ cao lớn? ? Bằng cách nào để bảo vệ viên phấn không bị vỡ khi chạm đất? ? Thiết bị bảo vệ viên phấn không bị vỡ sẽ cần có những yếu tố nào? ? Bằng cách nào để thiết bị có thể tái sử dụng nhiều lần? Nhỏ gọn, dễ mang theo. ? Các nguyên vật liệu nào cần dùng làm thiết bị? Có dễ tìm kiếm hay không? Có thân thiện với môi trường không? ? Dự định sẽ trang trí thế nào? - Giáo viên tổ chức cho các nhóm trình bày ý tưởng thiết kế và góp ý. 2. Tìm ý tưởng và phác thảo ý tưởng về thiết bị Thảo luận nhóm và đề xuất ý tưởng. Thể hiện ý tưởng trên bảng vẽ và chi tiết hóa các thông tin nhằm làm rõ ý tưởng cho thiết kế của thiết bị. Đại diện các nhóm trình bày về ý tưởng thiết kế, lắng nghe và trao đổi với các ý kiến đóng góp. Tiếp thu các ý kiến để điều chỉnh ý tưởng thiết kế sản phẩm. - Giáo viên giới thiệu các nguyên vật liệu, dụng cụ: + 2 viên phấn + túi nilon + bông gòn 3. Thiết kế sản phẩm + dây + hộp giấy + băng keo + giấy bìa cứng + giấy A4 + kéo Giáo viên đề nghị học sinh căn cứ vào bản thiết kế và các dụng cụ, nguyên vật liệu được cung cấp để lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. Giáo viên tổ chức cho học sinh tiến hành thực hiện thiết kế. Lắng nghe và lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế. Tiến hành thực hiện sản phẩm theo mẫu để thiết kế. Thử nghiệm sản phẩm và so sánh sản phẩm với tiêu chí đã đề ra. (+ Bảo vệ viên phấn nguyên vẹn khi rơi từ độ cao 3 mét. + Sử dụng các vật liệu đơn giản. + Cầm tay được, không quá cồng kềnh, dễ mang theo. + Có tính thẩm mỹ.) Giáo viên tổ chức cho các nhóm giới thiệu sản phẩm đã thực hiện. Giáo viên tổ chức cho các nhóm nhận xét, đặt câu hỏi về sản phẩm do nhóm bạn thực hiện. Giáo viên đặt câu hỏi: ? Điều gì đã giúp cho sản phẩm của bạn có thể bảo vệ viên phấn? ? Bạn mong muốn thay đổi để cải thiện thiết bị không? Giáo viên tổ chức cho các nhóm học sinh tự đánh giá về quá trình hoạt động và tổ chức cho học sinh bình chọn nhóm có sản phẩm được yêu thích. Lưu ý, học sinh không bình chọn cho nhóm của bản thân. Giáo viên tổng kết. Giáo viên giới thiệu một số hình ảnh về quả của cây chò và cây dầu, cũng như sự phát tán hạt của loại cây này. 4. Giới thiệu sản phẩm và nhận xét - Đại diện các nhóm lần lượt giới thiệu sản phẩm. Đại diện các nhóm lắng nghe và phản hồi các câu hỏi. Tiến hành bình chọn. Lắng nghe.</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Khi một học sinh có mong muốn hiểu biết về “ví dụ” về sản phẩm STEAM có yếu tố nghệ thuật độc đáo thì tôi sẽ không cung cấp một câu trả lời mà thay vào đó là những gợi mở để giúp học sinh an tâm hơn và có sự củng cố về tính mở trong giáo dục STEAM thông qua cách thức như sau: Giới thiệu với học sinh một số sản phẩm STEAM đã được hoàn thành và gợi ý để học sinh nhận ra những thành tố của STEAM trong sản phẩm cũng như tính nghệ, sự sáng tạo qua từng sản phẩm. Ví dụ, việc tìm hiểu về mạch điện đơn giản, học sinh có thể tạo ra các sản phẩm như mô hình hải đăng, học sinh có thể trang trí, bố cục khác nhau để tạo thành những sản phẩm mang dấu ấn cá nhân riêng. Khi xem qua những sản phẩm này sẽ giúp học sinh nhận ra tính nghệ thuật, sự sáng tạo trong việc thực hiện sản phẩm. Đồng thời, nhấn mạnh việc chú trọng đến trải nghiệm, khám phá và sự cải tiến, nâng cao chất lượng sản phẩm chứ không phải việc tạo một sản phẩm hoàn hảo ngay lập tức. Bên cạnh đó, trong quá trình học sinh thực hiện sản phẩm sẽ có những gợi ý khác nhau để giúp học sinh tăng cường tính thẩm mỹ, tính cá nhân ở mỗi sản phẩm như việc trang trí thông qua hình dán có sẵn (sticker), hoặc tự cắt dán các hình sản phẩm, hoặc vẽ, tô màu,... (tùy vào khả năng vẽ của học sinh). Trong hoạt động đánh giá sản phẩm sẽ tập trung chính vào việc giải quyết các vấn đề, các thông tin khoa học, các yếu tố công nghệ, kỹ thuật trong việc thực hiện sản phẩm. Các yếu tố về nghệ thuật mang tính cá nhân sẽ là những góp ý giúp sản phẩm thẩm mỹ hơn nhưng không đánh giá, phê phán. Nhấn mạnh việc tôn trọng sự khác biệt trong việc đánh giá tính thẩm mỹ.</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Với ý tưởng này, giáo viên có thể tích hợp trong một số hoạt động như: + Tổ chức dạy học các nội dung liên quan đến giữa vệ sinh xung quanh trường, lớp. Trong môn Tự nhiên và Xã hội + Tổ chức cho học sinh trồng cây bằng chai nhựa để xem xét các điều kiện ảnh hưởng đến sự sinh trưởng, phát triển của cây xanh. Trong môn Khoa học, Công nghệ + Tổ chức dạy học các nội dung liên quan đến bảo vệ môi trường, giữ trái đất xanh sạch trong môn Lịch sử và Địa lí. + Ngoài ra, giáo viên có thể tổ chức cho học sinh làm một số sản phẩm như: mô hình vòng tuần hoàn của nước, mô hình vòng đời của động vật,... Ví dụ về việc tổ chức cho học sinh thiết kế bảng trưng bày về vòng đời của động vật bằng các vật liệu tái chế sau khi học sinh tìm hiểu nội dung về vòng đời của động vật. Hoạt động của GV Hoạt động của HS - Giáo viên dẫn dắt vào vấn đề: + Giới thiệu một số hình ảnh về vấn đề môi trường (bao gồm tích cực và tiêu cực), đề nghị học sinh chia sẻ sau khi xem qua những bức ảnh (phục lục) + Giáo viên đặt một vài câu hỏi: ? Chai nhựa, quần áo cũ, tập sách sau khi sử dụng sẽ đi đâu? ? Bạn hãy tưởng tượng, điều gì sẽ xảy ra khi môi trường xung quanh chúng ta càng ngày càng nhiều rác thải, nhất là rác thải nhựa? ? Bằng cách nào chúng ta có thể hạn chế giảm thiểu việc phát thải rác ra mô trường xung quanh? + Ô nhiễm do rác thải gây ra cho cuộc sống thật nghiêm trọng, đáng sợ. Do đó, việc tăng cường tái sử dụng hay sử dụng các vật liệu tái chế sẽ góp phần hạn chế việc phát thải rác ra mô trường xung quanh. Đây là một hành động thiết thực, vô cùng có ý nghĩa đối với môi trường sống. Nội dung, học tập hôm nay sẽ sử dụng vật liệu tái chế để tạo ra một sản phẩm mới. - Giáo viên giao nhiệm vụ: Hãy đề xuất và chế tạo bảng trưng bày về vòng đời của động vật bằng các vật liệu tái chế (quần áo cũ, chai nhựa, tập sách ....). Các sản phẩm này cần đảm bảo các yêu cầu sau: 1. Tiếp nhận nhiệm vụ Lắng nghe nội dung và trả lời câu hỏi. Xác định vấn đề tìm hiểu và nhiệm vụ cần thực hiện. + Minh họa được vòng đời của động vật. + Sử dụng các vật liệu tái chế. + Cầm tay được, không quá cồng kềnh, dễ sử dụng. + Đảm bảo an toàn khi sử dụng và tái sử dụng nhiều lần. + Có tính thẩm mỹ. - Lắng nghe các tiêu chí của sản phẩm. Giáo viên chia lớp thành các nhóm, mỗi nhóm khoảng 6 thành viên. Giáo viên đề nghị các nhóm học sinh suy nghĩ và chia sẻ về ý tưởng thiết kế thiết bị. + Mẫu thiết kế + Các vật liệu cần thiết Trong trường hợp học sinh còn thụ động, chưa quen với việc đề xuất ý tưởng thì giáo viên khơi gợi ý tưởng thực hiện sản phẩm bằng cách đặt câu hỏi như sau: ? Vòng đời của động vật gồm có những giai đoạn nào? ? Dự kiến những vật liệu tái chế nào sẽ sử dụng? ? Dự kiến trang trí gì cho sản phẩm. - Giáo viên tổ chức cho các nhóm trình bày ý tưởng thiết kế và góp ý. 2. Tìm ý tưởng và phác thảo ý tưởng về thiết bị Thảo luận nhóm và đề xuất ý tưởng. Thể hiện ý tưởng trên bảng vẽ và chi tiết hóa các thông tin nhằm làm rõ ý tưởng cho thiết kế của thiết bị. Đại diện các nhóm trình bày về ý tưởng thiết kế, lắng nghe và trao đổi với các ý kiến đóng góp. Tiếp thu các ý kiến để điều chỉnh ý tưởng thiết kế sản phẩm. Giáo viên giới thiệu các nguyên vật liệu, dụng cụ: + chai nhựa + vỏ lon + quần áo cũ + túi nilon + giấy bìa + bút màu + muỗng nhựa + băng keo + kéo Giáo viên đề nghị học sinh căn cứ vào bản thiết kế và các dụng cụ, nguyên vật 3. Thiết kế sản phẩm - Lắng nghe và lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế. liệu được cung cấp để lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. - Giáo viên tổ chức cho học sinh tiến hành thực hiện thiết kế. Tiến hành thực hiện sản phẩm theo mẫu để thiết kế. Thử nghiệm sản phẩm và so sánh sản phẩm với tiêu chí đã đề ra. Giáo viên tổ chức cho các nhóm giới thiệu sản phẩm đã thực hiện. Giáo viên tổ chức cho các nhóm nhận xét, đặt câu hỏi về sản phẩm do nhóm bạn thực hiện. Giáo viên tổ chức cho các nhóm học sinh tự đánh giá về quá trình hoạt động và tổ chức cho học sinh bình chọn nhóm có sản phẩm được yêu thích. Lưu ý, học sinh không bình chọn cho nhóm của bản thân. Giáo viên tổng kết. 4. Giới thiệu sản phẩm và nhận xét - Đại diện các nhóm lần lượt giới thiệu sản phẩm. Đại diện các nhóm lắng nghe và phản hồi các câu hỏi. Tiến hành bình chọn. Lắng nghe. Một số sản phẩm (dự kiến)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>S005</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Học tập qua trải nghiệm là quá trình học sinh tham gia trực tiếp vào các hoạt động thực tế để khám phá kiến thức thay vì chỉ nghe giảng. Khi được tự tay làm, quan sát và rút ra kết luận, học sinh dễ hiểu và nhớ lâu hơn. Phương pháp này giúp các em phát triển tư duy phản biện, kỹ năng giải quyết vấn đề và tăng sự tự tin. Học tập qua trải nghiệm là một phương pháp giáo dục mà học sinh học hỏi thông qua việc tham gia trực tiếp vào các hoạt động thực tế, thay vì chỉ tiếp thu kiến thức một cách thụ động từ sách vở hoặc giảng dạy lý thuyết. Phương pháp này nhấn mạnh sự tham gia, thực hành và phản ánh, giúp học sinh hiểu sâu hơn về nội dung học tập và rèn luyện các kỹ năng cần thiết trong cuộc sống. Tác động của học tập qua trải nghiệm đến học sinh: Phát triển kỹ năng thực tiễn: Học tập qua trải nghiệm giúp học sinh phát triển các kỹ năng như giải quyết vấn đề, làm việc nhóm, tư duy phản biện và sáng tạo. Thay vì chỉ ghi nhớ lý thuyết, học sinh được ứng dụng trực tiếp vào thực tế, từ đó hiểu sâu hơn và ghi nhớ lâu hơn. Tăng cường sự hứng thú và động lực học tập: Khi học sinh tham gia vào các dự án thực tế, sự tò mò và hứng thú của các em được khơi dậy, giúp các em thấy rõ ý nghĩa của kiến thức và kỹ năng học được. Xây dựng sự tự tin và trách nhiệm: Khi học sinh tự mình thực hiện các nhiệm vụ hoặc dự án, các em có cơ hội thấy rõ kết quả của nỗ lực bản thân, từ đó xây dựng sự tự tin và tinh thần trách nhiệm. Liên kết giữa lý thuyết và thực tế: Học sinh hiểu được cách kiến thức trong sách vở áp dụng vào cuộc sống, làm rõ hơn mối liên hệ giữa việc học và các tình huống thực tế. Ví dụ 1: “Kiến Trúc sư mơ ước - Thiết kế mô hình ngôi nhà mơ ước của em” Hình ảnh minh họa mô hình nhà Theo sáng tạo của mình bằng que diêm, que kem, tăm bông, bìa cạt tông, thân cây, các trụ gỗ hình chữ nhật và đất sét và keo nến với số lượng theo yêu cầu. Học sẽ tự phát thảo và xây dựng ngôi nhà/ toà nhà mơ ước của mình. Qua hoạt động trải nghiệm này, các em học được: Khoa học: Quan sát các toà nhà và quan sát sự phân bố lực. Kỹ thuật: Biết được cách làm sao cho ngôi nhà vững chắc. Nghệ Thuật: Thiết kế ngôi nhà phù hợp nơi mình chọn Toán học: Khi xây đựng học sinh sẽ đúc rút ra và điều chỉnh để tăng sức bền cho ngôi nhà của mình. Qua hoạt động này học sinh biết được khi mình tự làm được một điều gì đó cần phải suy nghĩ và cần nhiều công sức. Vì vậy phải biết quý trọng đồ của người khác và để người khác hiểu chúng ta phải tự luyện tập chia sẻ và học hỏi thì sẽ thành công. Ví dụ 2: Khi học về sự nổi và chìm Thế giới xung quanh có rất nhiều điều kì diệu, chúng luôn kích thích và sáng tạo sự hứng thú của học sinh với mong muốn được tham gia, khám phá và trải nghiệm để các em được hòa mình vào thiên nhiên tươi đẹp với nhiều trải nghiệm thú vị. + Đặt vấn đề: Khi thả các đồ vật vào nước thì điều gì sẽ sảy ra nhỉ? Hôm nay cô và các bạn lớp làm thí nghiệm “Vật chìm nổi” + Nguyên vật liệu để làm thí nghiệm như: Lá cây, sỏi, bóng, thuyền giấy, quả cam + Dự đoán xem, trong đồ vật đó, vật nào chìm, vật nào nổi nhé. + Tiến hành thí nghiệm: Học sinh được thả các vật như gỗ, sắt vào nước để quan sát. + Kết luận: Từ đó, các em hiểu rõ khái niệm nổi – chìm thay vì chỉ học lý thuyết. Học qua trải nghiệm còn giúp học sinh hứng thú, chủ động hơn trong học tập. Các em cũng học được cách hợp tác khi làm việc nhóm. Giáo dục STEAM là kết hợp các lĩnh vực này lại để tạo ra một phương pháp giáo dục toàn diện, khuyến khích học sinh: Tư duy sáng tạo: Khám phá, sáng tạo và đưa ra những ý tưởng mới. Giải quyết vấn đề: Áp dụng kiến thức đã học để giải quyết các tình huống thực tế. Làm việc nhóm: Hợp tác với người khác để đạt được mục tiêu chung. Học hỏi suốt đời: Luôn tò mò và tìm kiếm kiến thức mới. Các hoạt động của Steam Xây dựng robot: Học sinh thiết kế và lập trình robot để thực hiện các nhiệm vụ khác nhau. Thiết kế sản phẩm: Học sinh sử dụng các công cụ thiết kế để tạo ra sản phẩm thực tế. - Thí nghiệm khoa học: Học sinh thực hiện các thí nghiệm để khám phá các hiện tượng khoa học. Giải quyết vấn đề thực tế: Học sinh áp dụng kiến thức STEAM để giải quyết các vấn đề trong cuộc sống hàng ngày. Tóm lại, học tập qua trải nghiệm không chỉ giúp học sinh tiếp thu kiến thức tốt hơn mà còn rèn luyện nhiều kỹ năng sống quan trọng. Đây là nền tảng của giáo dục STEAM hiện đại, giúp học sinh học từ thực tiễn để ứng dụng vào cuộc sống hàng ngày.</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động: “Góc Cảm Xúc – Lớp Học Thân Thiện” 1. Mục tiêu: Tạo không khí lớp học thoải mái, giúp học sinh thể hiện cảm xúc, đồng thời cải thiện kỹ năng giao tiếp, làm việc nhóm và khả năng thấu hiểu người khác. Mô tả hoạt động: 1. Thiết kế “Góc Cảm Xúc” trong lớp học: Dành một góc nhỏ trong lớp, trang trí bằng màu sắc tươi sáng, với các biểu tượng cảm xúc (vui, buồn, lo lắng, tự hào,...) và bảng ghi chú. Đặt các vật dụng hỗ trợ như hộp thư góp ý, giấy note, hoặc sổ cảm xúc. 2. Quy trình thực hiện: Mỗi sáng: Khi vào lớp, mỗi học sinh sẽ gắn một biểu tượng cảm xúc (chọn sẵn) lên bảng để biểu đạt tâm trạng của mình (ví dụ: vui, mệt mỏi, lo lắng,...). Giờ giải lao/cuối tuần: Tổ chức một buổi chia sẻ nhóm, nơi học sinh ngồi thành vòng tròn để nói về cảm xúc của mình hoặc bất kỳ khó khăn nào trong học tập/cuộc sống. Các bạn khác lắng nghe và đưa ra lời khuyên. Giáo viên đóng vai trò là người hướng dẫn, khuyến khích sự chia sẻ tích cực. 3. Hoạt động bổ sung: Học sinh có thể viết ý tưởng cải thiện không khí lớp học hoặc những vấn đề muốn lớp cùng giải quyết, sau đó bỏ vào hộp thư góp ý. Kỹ năng hoặc khả năng được phát triển: Kỹ năng giao tiếp: Học sinh học cách diễn đạt cảm xúc và lắng nghe ý kiến của người khác một cách tôn trọng. Tư duy cảm xúc (EQ): Các em nhận ra rằng việc hiểu cảm xúc của mình và bạn bè là quan trọng trong việc xây dựng một môi trường học tập hòa hợp. Kỹ năng làm việc nhóm: Khi cùng nhau thảo luận và đưa ra ý tưởng, các em rèn luyện khả năng hợp tác và giải quyết vấn đề chung. Khả năng sáng tạo và tự quản: Các em tự tay trang trí “Góc Cảm Xúc” và chủ động quản lý các hoạt động liên quan. Tác động: Không khí lớp học trở nên thân thiện, giảm căng thẳng và áp lực. Học sinh phát triển sự đồng cảm, biết cách hỗ trợ bạn bè và cải thiện tinh thần học tập. Ví dụ thực tế: Một học sinh cảm thấy lo lắng về bài kiểm tra sắp tới có thể chia sẻ trong buổi họp nhóm.</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Kế hoạch dạy học "Tạo thiết bị ngăn viên phấn không bị vỡ khi thả từ độ cao 3 mét" I. Mục tiêu: Phát triển tư duy sáng tạo và kỹ năng giải quyết vấn đề. Hiểu các nguyên tắc cơ bản về hấp thụ lực, giảm va đập và bảo vệ vật thể. Rèn luyện kỹ năng làm việc nhóm, thử nghiệm và điều chỉnh thiết kế. Chuẩn bị trước buổi học: Vật liệu và dụng cụ cần thiết Ống hút, giấy bìa cứng, bóng bay, bông gòn, dây chun, hộp nhựa nhỏ, ống nhựa, xốp, khăn giấy. Kéo, băng dính, keo nến, thước dây. Viên phấn (hoặc vật thể dễ vỡ có kích thước tương tự). Các bước thực hiện trong lớp học: A. Giai đoạn mở đầu: Mô tả bài tập: Các em sẽ sử dụng các công cụ đơn giản để thiết kế và tạo ra một thiết bị giúp ngăn viên phấn bị vỡ khi thả từ độ cao 3 mét. Lý do của bài tập: Giới thiệu về khái niệm "tác động lực" và cách các vật dụng hoặc thiết bị có thể bảo vệ đồ vật khỏi bị vỡ hoặc hư hỏng khi chịu tác động từ một độ cao nhất định.2. Giới thiệu các khái niệm cơ bản: Lực tác động: Khi một vật bị thả từ độ cao, sẽ có lực tác động lên vật đó khi nó va chạm với mặt đất. Chúng ta cần tìm cách giảm lực tác động để bảo vệ viên phấn. Hấp thụ và phân tán lực: Các thiết bị bảo vệ có thể hấp thụ hoặc phân tán lực va chạm để làm giảm tác động lên vật thể cần bảo vệ. - Đặt câu hỏi dẫn dắt học sinh: “Tại sao viên phấn lại dễ vỡ khi rơi từ độ cao?” “Làm thế nào để giảm lực tác động khi nó chạm đất?” “Các thiết bị trong cuộc sống thực như túi khí ô tô hay mũ bảo hiểm đã được thiết kế như thế nào để bảo vệ vật thể?” - Giới thiệu nhiệm vụ: Yêu cầu học sinh sử dụng các vật liệu đơn giản để thiết kế một thiết bị có thể bảo vệ viên phấn khi rơi từ độ cao 3 mét mà không bị vỡ. B. Giai đoạn làm việc nhóm (20-30 phút): Thử nghiệm và sáng tạo Phân nhóm: Chia học sinh thành các nhóm 3-4 người, đảm bảo mỗi nhóm có các vai trò như thiết kế, thử nghiệm, ghi chép. Hỗ trợ trong quá trình thiết kế: Gợi ý các nguyên tắc vật lý: “Dùng vật liệu mềm để hấp thụ lực (ví dụ: bông gòn, xốp).” “Tạo cấu trúc bảo vệ xung quanh viên phấn, giống như vỏ hộp hoặc đệm.” “Giảm tốc độ rơi bằng cách tăng sức cản (ví dụ: bóng bay hoặc dù).” 3. Thử nghiệm và cải thiện: • Các nhóm được thử nghiệm thả từ độ cao 1 mét trước khi thả từ 3 mét. Hỏi: "Thiết bị của các em có hiệu quả không? Nếu viên phấn bị vỡ, các em có thể cải tiến thiết kế như thế nào để giảm bớt tác động?" Khuyến khích học sinh thay đổi thiết kế và thử nghiệm lại để cải thiện kết quả. 4, Kết luận và phản hồi: Tóm tắt bài học: Học sinh sẽ rút ra được bài học về việc áp dụng kiến thức vật lý cơ bản (tác động lực, hấp thụ và phân tán lực) vào thực tế để giải quyết vấn đề. Phản hồi: Các em sẽ đánh giá thiết kế của mình, đưa ra các cải tiến và thảo luận với bạn bè về cách thức để hoàn thiện sản phẩm. Hoạt động này giúp học sinh cải thiện kỹ năng giải quyết vấn đề, tư duy sáng tạo, làm việc nhóm, đồng thời học hỏi các khái niệm vật lý cơ bản thông qua thực tiễn. 5. Cải tiến: Vừa rồi các em thấy trời mưa lũ các vũng trung du miền núi bị sạc lỡ núi, ddaaats di chuyển đến những nơi ấy rất cần cứu trợ nhưng đường đi rất khó khăn để tiếp cận các em hãy cũng cô suy nghĩ cách đưa thức ăn cứu trợ đến họ bằng thiết kế đồ đưa thức ăn sử dụng điều khiển nhé!</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Cách phản hồi và hỗ trợ học sinh yêu cầu “xem ví dụ” trong hoạt động STEAM Khi học sinh yêu cầu “xem ví dụ”, điều này có thể xuất phát từ sự lo lắng, thiếu tự tin hoặc chưa rõ ràng về cách thực hiện. Giáo viên nên vừa giải tỏa lo lắng của em, vừa khuyến khích sự sáng tạo cá nhân thay vì chỉ mô phỏng theo một mẫu cố định. 1. Phản hồi nhẹ nhàng và động viên - Trấn an cảm xúc: • “Thầy/Cô hiểu đôi khi bắt đầu một ý tưởng mới có thể khiến em cảm thấy bối rối. Nhưng đây chính là cơ hội để em thử nghiệm những suy nghĩ và ý tưởng của riêng mình.” “Không có đúng hay sai trong nghệ thuật – điều quan trọng là em tận hưởng quá trình sáng tạo.” Khuyến khích sự độc đáo: “Em hãy tưởng tượng nếu em là nhà phát minh duy nhất trên thế giới, sản phẩm của em sẽ trông như thế nào?” “Chúng ta không cần làm chính xác giống ai cả – chính ý tưởng của em mới làm sản phẩm đặc biệt.” Đề xuất cách hỗ trợ cụ thể Tổ chức hoạt động nhóm Khuyến khích và tôn vinh sự sáng tạo Ví dụ hỗ trợ minh họa (không áp đặt)..., Ví dụ: áp dụng “Nghệ thuật Rối bóng” vào phát triển ngôn ngữ cho học sinh thông qua môn Tiếng Việt.
-+ Qua việc tự thiết kế các mô hình nhân vật học sinh vận dụng môn Mỹ Thuật + sử dụng lời hát, giai điệu, âm thanh phù hợp với hoàn cảnh và tình huống giúp học sinh phát triển Âm nhạc. +Thiết kế hình nhân vật xác định vị trí đặt que để có thể cơ thể hoạt động (đi lại, ngồi, đưa tay, gật đầu,...) học sinh vận dụng môn Tự nhiên xã hội , khoa học. + Sử dụng các nhân vật để xây dựng lời thoại giúp học sinh phát triển ngôn ngữ + Sử dụng sự tương phản của bóng đèn qua màn để tạo bóng tạo thành câu chuyện sống động. Học sinh vận dụng kiến thức khoa học, toán học. Qua vận dụng rối bóng trong kể chuyện giúp học sinh tôi ngày càng tự tin trong giáo tiếp thuyết trình, học sinh vui vẻ tự nghiên cứu đưa ra các sáng tạo bất ngờ, học sinh tiến bộ và yêu thích các môn học.</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Chủ đề: BỨC TRANH ĐÈN LED THÔNG TIN VỀ BÀI HỌC Lớp 5 Thời lượng: 2 tiết Thời điểm tổ chức: Khi dạy nội dung chủ đề 2: Năng lượng, bài 7: Mạch điện đơn giản. Mô tả bài học: Nội dung Mạch điện đơn giản môn Khoa học lớp 5 có yêu cầu cần đạt như sau: Mô tả được cấu tạo và hoạt động của mạch điện thắp sáng gồm: nguồn điện, công tắc và bóng đèn. Để đạt được các yêu cầu này, trong bài học STEM “Bức tranh đèn LED”, học sinh sẽ tìm hiểu và tự thiết kế mạch điện đèn sáng có kích thước phù hợp, có giá trị ứng dụng, mang tính thẩm mĩ với bức tranh của nhóm. Nội dung chủ đạo và tích hợp trong bài học Môn học Yêu cầu cần đạt Môn học chủ đạo Khoa học - Mô tả được cấu tạo và hoạt động của mạch điện thắp sáng gồm: nguồn điện, công tắc và bóng đèn. Thực hành lắp được một mạch điện thắp sáng đơn giản. Môn học tích hợp Toán - Thực hiện được các phép tính cộng, trừ, nhân, chia các số tự nhiên. Vận dụng được tính chất của phép tính với số tự nhiên để tính nhẩm và tính hợp lí. Công nghệ Vẽ phác thảo, nêu được ý tưởng thiết kế một sản phẩm công nghệ đơn giản. Thiết kế được một sản phẩm thủ công kĩ thuật đơn giản theo hướng dẫn. Mĩ thuật Nhận biết được sự đa dạng của vật liệu tự nhiên, vật liệu nhân tạo trong các sản phẩm mĩ thuật. Biết lựa chọn, phối hợp các vật liệu tự nhiên, vật liệu nhân tạo phù hợp để thực hành, sáng tạo sản phẩm mĩ thuật. I. Yêu cầu cần đạt (của bài học) Mô tả được cấu tạo và hoạt động của mạch điện thắp sáng gồm: nguồn điện, công tắc, dây dẫn và bóng đèn. Mô tả được cách nối đèn LED với pin. Làm được công tắc đơn giản. Phác thảo được ý tưởng sản phẩm; thiết kế và chế tạo được một bức tranh có gắn đèn LED ứng dụng kiến thức về mạch điện đơn giản. Cẩn thận trong việc tiến hành đo các kích thước khi gắn dây điện và tính toán lắp đặt đèn tại vị trí nổi bật một cách khoa học. Giữ gìn vệ sinh và đảm bảo an toàn trong quá trình làm sản phẩm. Tích cực, chủ động đóng góp ý kiến để hoàn thiện sản phẩm của nhóm. II. Đồ dùng dạy học 1. Chuẩn bị của giáo viên Phiếu học tập. Phiếu đánh giá. Sản phẩm mẫu GV đã làm sẵn Nguyên vật liệu giáo viên cung cấp cho các nhóm STT Thiết bị/ Học liệu Số lượng Hình ảnh minh họa 1 Pin cúc áo 3V 5 pin/nhóm 2 Bóng đèn LED 1 túi/nhóm 3 Ghim cánh phượng đồng 1 túi/nhóm 4 Băng dính đồng 1 cuộn/nhóm 5 Kẹp giấy (bằng kim loại) 1 túi/nhóm 6 Bìa cứng 1 tờ 7 Mô hình bức tranh gắn đèn LED 1 mô hình dùng chung cho cả lớp 1. Chuẩn bị của học sinh - Giao cho mỗi nhóm tự chuẩn bị một số nguyên vật liệu như sau: STT Thiết bị/ Học liệu Số lượng Hình ảnh minh họa 1 Sách giáo khoa 1 cuốn/HS 2 Kéo học sinh 1 cây/nhóm 3 Bộ lắp ráp mạch điện đơn giản lớp 5 1 bộ/ nhóm 4 Compa 1 5 Thước kẻ 1 cây 6 Bút màu 1 hộp/ nhóm III. CÁC HOẠT ĐỘNG DẠY HỌC CHỦ YẾU 1. Hoạt động 1. Mở đầu (Xác định vấn đề) a) Khởi động - HS xem video về các hình ảnh vui chơi đêm Trung thu và trả lời các câu hỏi: * Làm sao để lồng đèn có thể sáng lên? → bật công tắc đèn pin, đốt nến,... GV dẫn dắt và chuyển ý: Em làm Bức tranh đèn LED để tặng người thân. Bức tranh phải đạt những yêu cầu gì? b) Giao nhiệm vụ Học sinh ghi nhận nhiệm vụ thực hiện một bức tranh đèn LED với các yêu cầu cụ thể vào vở: + Đèn LED sáng và gắn phù hợp với bức tranh. + Công tắc đèn đóng/ mở dễ dàng. + Các bộ phận của mạch điện gắn với nhau chắc chắn, gọn gàng. + Tranh được trang trí hài hòa, đẹp, sáng tạo. Chuyển ý: Vậy muốn làm được bức tranh đèn LED thì em cần thực hiện những công việc gì? 2. Hoạt động 2: Hình thành kiến thức mới (Nghiên cứu kiến thức nền) a/ Tìm hiểu một số bộ phận trong một mạch điện thắp sáng * Mục tiêu: Học sinh kể tên và nêu được vai trò của các bộ phận của một mạch điện thắp sáng. Các nhóm quan sát bộ lắp ráp một mạch điện đơn giản và thảo luận theo yêu cầu sau: Vòng 1: Nhóm chuyên gia + Nhóm 1 và nhóm 2: tìm hiểu vai trò, cấu tạo và hoạt động của nguồn điện. + Nhóm 3 và nhóm 4: tìm hiểu vai trò, cấu tạo và hoạt động của bóng đèn. + Nhóm 5 và nhóm 6: tìm hiểu vai trò, cấu tạo và hoạt động của dây dẫn. + Nhóm 7 và nhóm 8: tìm hiểu vai trò, cấu tạo và hoạt động của công tắc. - Vòng 2: Nhóm mảnh ghép: *Nhiệm vụ: Kể tên và mô tả vai trò, cấu tạo, hoạt động của các bộ phận trong một mạch điện thắp sáng. Các nhóm trình bày và chia sẻ trước lớp. Các nhóm theo dõi và nhận xét lẫn nhau. Giáo viên nhận xét và hướng dẫn học sinh rút ra kết luận. * Mạch điện thắp sáng đơn giản gồm các bộ phận: nguồn điện, công tắc, bóng đèn và dây dẫn. ** Pin có hai cực: cực dương (+) thường lồi, cực âm (-) bằng phẳng. ** Khi có dòng điện chạy qua bóng đèn sợi đốt thì sợi đốt bên trong bóng đèn sẽ nóng đến nhiệt độ cao và phát sáng. *** Mở rộng thêm nội dung: Cực dương Cực âm Bình ắc quy Cực dương Cực âm Bình ắc quy Chân âm Chân dương Băng dính đồng Chân âm Chân dương Băng dính đồng b/ Thí nghiệm “Lắp một mạch điện thắp sáng đơn giản” * Mục tiêu: HS thực hành lắp được một mạch điện thắp sáng đơn giản. HS quan sát, thảo luận và so sánh điểm giống nhau - khác nhau giữa hình 3a và 3b trong SGK/tr30. Học sinh trả lời và nhận xét. Giáo viên nhận xét. Học sinh xem video cách lắp mạch điện đơn giản. Học sinh thực hành thí nghiệm và ghi kết quả vào phiếu học tập 1. Học sinh trình bảy sản phẩm và nói rõ theo phiếu học tập 1. Học sinh rút ra kết luận. GV nhận xét và chốt bài học. ** Trong mạch điện, dây dẫn nối các bộ phận của mạch điện với nhau và cho dòng điện đi qua, nguồn điện cung cấp điện giúp bóng đèn phát sáng, công tắc dùng để đóng, ngắt mạch điện. 3. Hoạt động 3: Luyện tập và vận dụng Chuyển tiết: HS hát và múa cùng cây đèn LED: bài hát “Quê hương tươi đẹp”. * Cây đèn này gọi là đèn gì? → Đèn LED. *Trong đời sống hằng ngày, các em thấy đèn LED được dùng để trang trí, quảng cáo. GV chuyển ý. Giáo viên yêu cầu học sinh nhắc lại các tiêu chí đánh giá sản phẩm. Học sinh nhắc lại các tiêu chí đánh giá sản phẩm. GV chuyển ý. Giáo viên cho xem mô hình tranh gắn đèn LED. Học sinh quan sát mô hình. Giáo viên cho các em xem đoạn clip hướng dẫn làm công tắc đơn giản. - Học sinh nêu các bộ phận và nhắc lại các bước thực hiện làm công tắc sáng tạo. ** Tiến hành thực hiện: a) Đề xuất và lựa chọn giải pháp * Giáo viên chia lớp thành 6 nhóm. Các nhóm thảo luận, từ đó: + Phác thảo giải pháp, các bước tiến hành chế tạo bức tranh đèn LED và hoàn thành phiếu học tập 2. + Lựa chọn nguyên vật liệu tương ứng với các bộ phận của mạch điện và hoàn thành phiếu học tập 3. + Gợi ý: Nguồn điện, công tắc và đèn LED của mạch điện được bố trí như thế nào? Sử dụng các vật liệu nào để làm mạch điện? Băng dính đồng được dán như thế nào mang tính thẩm mĩ? Giáo viên theo dõi và hỗ trợ học sinh khi cần thiết. Đại diện các nhóm trình bày ý tưởng thiết kế bức tranh. Giáo viên tổng kết ý tưởng. ** GV lưu ý: cấu trúc mạch điện; tranh được sử dụng để treo tường hay để bàn. Chế tạo mẫu, thử nghệm và đánh giá: Tiến hành thiết kế sản phẩm. Khi hết thời gian làm sản phẩm giáo viên sẽ rung chuông. Các nhóm có 2 phút để thu gọn sạch sẽ khu vực làm việc.  Các nhóm tiến hành chế tạo và thử nghiệm sản phẩm theo bản vẽ đã được góp ý. Trong quá trình làm sản phẩm, các nhóm có thể điều chỉnh phương án (nếu cần). Ghi chú lại điều chỉnh này. Giáo viên quan sát và hỗ trợ các nhóm trong quá trình chế tạo và thử nghiệm sản phẩm. Các nhóm tự đánh giá sản phẩm của nhóm mình đã đạt các yêu cầu giáo viên đề ra ban đầu chưa. Chia sẻ, thảo luận và điều chỉnh: GV tổ chức triển lãm tranh. Đại diện các nhóm chia sẻ, giới thiệu về nội dung bức tranh và cách lắp mạch điện thắp sáng đèn LED. Các nhóm khác lắng nghe và nhận xét. Bình chọn nhóm có sản phẩm đáp ứng tốt các tiêu chí đề ra và có phần chia sẻ hay nhất. (cắm cây đèn LED trái tim vào hộp nhóm muốn bình chọn) Giáo viên khen ngợi nhóm học sinh tích cực tham gia hoạt động, nhận được nhiều cây đèn trái tim và động viên các nhóm học sinh làm chưa tốt để lần sau cố gắng hơn. Giáo viên nhận xét và tổng kết. Cải tiến, sáng tạo: Hãy sáng tạo thêm để bức tranh thú vị hơn với gợi ý: kéo một chi tiết trên bức tranh để đèn sáng. Giáo viên cho học sinh chia sẻ cảm nghĩ khi tham gia tiết học. * Từ sản phẩm trên có thể thiết kế thêm các Bài học STEM như: chủ đề nhà máy điện phát sáng, chủ đề máy quạt điện, đèn pin bỏ túi, đèn bàn học,.....
-Sản phẩm cây đa quê hương, Học sinh chọn vị trí đèn led trên tán cây Sản phẩm của nhóm cầu vòng, Học sinh chọn vị trí đèn led trên cối xay gió Sản phẩm của nhóm Rực rỡ, Học sinh chọn vị trí đèn led trên đèn xe</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>S006</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>- 'Học tập qua trải nghiệm' có nghĩa là Học qua trải nghiệm thực tế và tự mình thực hiện. Học sinh là người khám phá, giải quyết vấn đề và sáng tạo. Thay vì chỉ nghe giảng, các em trực tiếp làm – trực tiếp thử – trực tiếp rút ra bài học từ hành động của chính mình.- Giải thích:Học tập trải nghiệm là phương pháp trong đó học sinh chủ động tham gia và học thông qua các hành động và trải nghiệm thực tế, và là phương pháp cốt lõi của giáo dục STEAM.Tác động: Học tập qua trải nghiệm mang lại nhiều lợi ích và tác động tích cực đáng kể đến sự phát triển toàn diện của học sinh như: Tăng tính chủ động và hứng thú học tập, Phát triển tư duy phản biện và giải quyết vấn đề, Gắn kết lý thuyết với thực hành, Nâng cao kỹ năng làm việc nhóm và giao tiếp- Ví dụ:Học sinh tìm hiểu về Tính chất của nước, học sinh sẽ được tham gia hoạt động thực tế:+ Học sinh được phát các vật liệu đơn giản như cốc nước, thìa, muối, đường, cát, đá viên, và một số vật nổi/chìm (ví dụ: ghim giấy, nút chai). Các em sẽ tự tay thực hiện các thí nghiệm nhỏ: - Thí nghiệm hòa tan: Thử hòa tan muối, đường, cát vào nước và quan sát điều gì xảy ra, từ đó khám phá tính chất "nước là có thể hòa tan một số chất".- Thí nghiệm nổi/chìm: Thả các vật khác nhau vào nước để xem vật nào nổi, vật nào chìm, và thảo luận về nguyên nhân.- Thí nghiệm trạng thái: Quan sát đá viên tan chảy và nước đóng băng, nước đun sôi.. hiểu về ba thể của nước.Tác động: Qua các hoạt động này, học sinh không chỉ ghi nhớ các tính chất của nước một cách thụ động mà còn tự mình khám phá, quan sát, suy luận, và rút ra kết luận. Các em sẽ trực tiếp nhìn thấy muối biến mất trong nước, cảm nhận sự thay đổi trạng thái của đá, và tự tin giải thích tại sao ghim giấy lại chìm. Điều này giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn nhiều so với việc chỉ đọc từ sách giáo khoa.</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Tên hoạt động: “Góc sinh thái vui nhộn – Chuỗi thức ăn quanh ta”- Mục tiêu:Giúp học sinh tìm hiểu chuỗi thức ăn trong tự nhiên thông qua việc sáng tạo mô hình trang trí lớp học, đồng thời tạo không gian học tập gần gũi với thiên nhiên và thoải mái hơn.- Mô tả hoạt động:Học sinh sẽ được chia nhóm để thiết kế một “Góc sinh thái chuỗi thức ăn” trong lớp học bằng vật liệu tái chế.Các bước thực hiện:Lên ý tưởng: Mỗi nhóm chọn một hệ sinh thái (rừng, ao hồ, đồng cỏ...) và xác định chuỗi thức ăn điển hình: sinh vật sản xuất → tiêu thụ → phân hủy.Thực hiện ý tưởng: Học sinh sử dụng chai nhựa, hộp giấy, bìa cứng, ống hút... để tạo mô hình 3D các sinh vật (cây, động vật, nấm...). Thực hiện trang trí sơn màu, vẽ mắt, tạo hình dễ thương để mô hình sinh động và thân thiện.- Thuyết trình - Trưng bày sản phẩm: Các mô hình được sắp xếp thành một góc sinh thái cố định trong lớp, giúp lớp học thêm sinh động và học sinh thấy gần gũi với thiên nhiên.- Đánh giá – cải tiến: Mỗi nhóm trình bày về chuỗi thức ăn mình tạo ra và trả lời các câu hỏi về vai trò của từng sinh vật và Điều chỉnh cải tiến lại sản phẩm của nhóm.- Kỹ năng và năng lực phát triển:+ Tư duy hệ thống, hiểu biết khoa học+ Kỹ năng làm việc nhóm và thuyết trình+ Khả năng sáng tạo và sử dụng vật liệu tái chế+ Hình thành ý thức bảo vệ môi trường và yêu thiên nhiênHoạt động không chỉ giúp các em thõa sức sáng tạo mà làm không khí lớp học vui hơn, giúp học sinh yêu thiên nhiên.</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Kế hoạch dạy học: Bảo vệ viên phấn khi rơiMục tiêu bài học:Học sinh sử dụng kiến thức về vật lý và kỹ thuật để thiết kế một thiết bị bảo vệ viên phấn không bị vỡ khi rơi từ độ cao 3 mét, qua đó học sinh tự mình tư duy, thử nghiệm và cải tiến để tìm ra giải pháp tối ưu, từ đó rèn luyện tư duy logic và năng lực sáng tạo.1. Khởi động (10 phút)Giáo viên đặt câu hỏi khơi gợi:- “Điều gì xảy ra khi viên phấn rơi xuống đất?”- “Làm thế nào để bảo vệ một vật dễ vỡ?”Học sinh quan sát thí nghiệm thả viên phấn không có bảo vệ để tạo tình huống có vấn đề.2. Giao nhiệm vụ (5 phút)- Yêu cầu học sinh: “Hãy thiết kế một thiết bị đơn giản để ngăn viên phấn bị vỡ khi rơi từ độ cao 3 mét.”3. Làm việc nhóm – Thiết kế và chế tạo (30 phút)- Học sinh chia nhóm, thảo luận và thực hiện thiết kế.- Vật liệu cung cấp: giấy báo, băng keo, ống hút, dây thun, bọt biển, hộp carton nhỏ, bóng bay, túi nilon... - Giáo viên hỗ trợ, gợi ý và đặt câu hỏi thêm: "Tại sao con chọn vật liệu này? Thiết bị của con sẽ làm giảm lực va chạm như thế nào? Con có nghĩ đến việc bảo vệ phấn từ các cạnh không?" "Tại sao con chọn vật liệu này? Thiết bị của con sẽ làm giảm lực va chạm như thế nào? Con có nghĩ đến việc bảo vệ phấn từ các cạnh không?"...4. Thử nghiệm và cải tiến (15 phút)- Mỗi nhóm sẽ trình bày thiết bị của mình . Sau đó tiến hành thử nghiệm. Chọn một khu vực an toàn, mỗi nhóm thử thả thiết bị từ độ cao 3 mét, quan sát, ghi chép kết quả.- Thảo luận: - "Viên phấn của nhóm nào vẫn còn nguyên vẹn? Tại sao?"- "Thiết bị nào hoạt động hiệu quả nhất? Vì sao?"- "Chúng ta có thể cải thiện thiết bị như thế nào?"- "Bài học nào các em rút ra từ hoạt động này?" (Về vật liệu, cấu trúc, lực).5. Trình bày và tổng kết (10 phút)- Các nhóm trình bày sản phẩm và giải thích nguyên lý hoạt động.- Giáo viên chốt lại kiến thức bài học về độ bền của vật liệu và cấu trúc thiết kế qua trải nghiệm thực tế.</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Khi tham gia các hoạt động nghệ thuật trong STEAM, nhiều học sinh thường bối rối hoặc lo lắng vì không biết bắt đầu từ đâu. Do đó, giáo viên đóng vai trò quan trọng trong việc cung cấp tài liệu tham khảo mang tính định hướng, nhưng không ràng buộc tư duy sáng tạo của học sinh. Nếu một học sinh yêu cầu “xem ví dụ”, tôi sẽ chuẩn bị sẵn bộ sưu tập hình ảnh minh họa đa dạng – không phải là mẫu chuẩn để sao chép, mà là những gợi ý về màu sắc, chất liệu, kỹ thuật hoặc phong cách trình bày. Những hình ảnh này được lựa chọn kỹ để khơi gợi trí tưởng tượng và tạo cảm hứng, đồng thời giảm bớt áp lực cho học sinh khi bắt đầu.Sau khi học sinh xem tài liệu tham khảo, tôi sẽ đặt câu hỏi khơi mở như:- “Em thích chi tiết nào trong những ví dụ này?”- “Nếu làm theo cách riêng, em sẽ thay đổi điều gì?”- “Sản phẩm của em sẽ mang thông điệp gì?”Giáo viên tạo không khí an toàn sáng tạo và Hỗ trợ từng bước nhỏ. Nếu học sinh vẫn lúng túng, thì chia nhỏ quy trình sáng tạo: phác thảo ý tưởng, chọn màu sắc, lựa vật liệu... Điều này giúp giảm áp lực và tạo cảm giác “em có thể làm được”.Cách tiếp cận này kết hợp giữa định hướng và tự do sáng tạo, giúp học sinh cảm thấy an toàn khi thử nghiệm, đồng thời vẫn khuyến khích phát triển ý tưởng độc lập. Đây là điều cốt lõi trong giáo dục STEAM: học sinh không chỉ làm theo, mà phải sáng tạo, khám phá và thể hiện cá tính riêng của mình.</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động dạy học :MÔN: CÔNG NGHỆ - LỚP 4CHẬU CÂY TÁI CHẾ -- GÓC XANH SÁNG TẠO (2 TIẾT)Mô tả bài học: Hiểu được vai trò của cây xanh trong cuộc sống và môi trường. Biết tái sử dụng chai nhựa/thùng sữa/hộp giấy... để tạo ra chậu cây thân thiện với môi trường. Trồng và chăm sóc một số loại hoa và cây cảnh. Rèn luyện kỹ năng quan sát, làm việc nhóm, tư duy thiết kế và sáng tạo.II. Nội dung chủ đạo và tích hợpNội dung chủ đạo và tích hợp trong bài họcMôn họcYêu cầu cần đạtMôn học chủ đạoCông nghệ- Trình bày được đặc điểm của một số loại chậu trồng hoa và cây cảnh.- Trồng và chăm sóc được một số loại hoa và cây cảnh trong chậu.Môn học tích hợpToán- Sử dụng được một số dụng cụ thông dụng để thực hành cân, đo, đong, đếm.Khoa học- Hiểu thực vật sống và phát triển cần đủ yếu tố: Nước, ánh sáng, chất khoáng, không khí.Mĩ thuật- Phối hợp được một số kĩ năng: cắt, xé, dán, vẽ, in, ghép, nặn, uốn...trong thực hành, sáng tạo.III. YÊU CẦU CẦN ĐẠT- Lựa chọn vật liệu và sử dụng các dụng cụ để làm và trang trí chậu. - Tóm tắt được nội dung các bước trồng hoa, cây cảnh trong chậu. - Trồng được một chậu hoa trang trí lớp học theo chủ đề.- Thực hiện được việc ước lượng số đo trong một số trường hợp đơn giản. - Thể hiện tự tin khi trình bày ý kiến thảo luận, đề xuất ý tưởng, giới thiệu sản phẩm. - Từ đó hình thành và phát triển những năng lực chung và phẩm chất chủ yếu. - GDBVMT: GD học sinh yêu thiên nhiên, biết chăm sóc và bảo vệ cây xanh, bảo vệ môi trường sống.IV. ĐỒ DÙNG DẠY HỌC Chuẩn bị của GV– Rubrics đánh giá sản phẩm. Phiếu học tập.2. Chuẩn bị của HS:  Chai nhựa, lon sữa, hộp giấy đã qua sử dụng. Kéo, dao rọc giấy (có sự giám sát của giáo viên). Màu vẽ, giấy màu, băng keo. Đất trồng, hạt giống hoặc cây con nhỏ.V. CÁC HOẠT ĐỘNG DẠY HỌC CHỦ YẾUHOẠT ĐỘNG DẠY HỌCYÊU CẦU CẦN ĐẠTĐIỀU CHỈNHA. Khởi động (3 phút)- Giáo viên cho học sinh xem một đoạn video ngắn về ô nhiễm rác thải nhựa và tác động tích cực của cây xanh.”- GV hỏi hs: “Nội dung của video nói lên điều gì?”- Hs trả lời, nhận xét- GV chốt, chuyển ýTạo động cơ học tập tốt về thực hiện hoạt động học tập.B. Luyện tập – vận dụng (30 phút)Hoạt động 1: Đề xuất ý tưởng làm chậu cây và nêu tiêu chí.- Tìm hiểu các chậu cây.- Yêu cầu hs nêu lại các tiêu chí của chậu trồng cây- Tổ chức hs thảo luận nhóm 6 - trình bày ý tưởng của nhóm về cách làm chậu và trang trí, chọn cây và đưa ra tiêu chí cho nhóm mình.- GV mời đại diện nhóm chia sẻ và nêu các tiêu chí.- HS các nhóm bổ sung, nhận xét.- GV nhận xét, thống nhất tiêu chí chung cho cả lớp.- HS nhắc lại các tiêu chí.( Có lỗ thoát nước; Chậu chắc chắn, Tính sáng tạo và thẩm mỹ, Tính tái chế và thân thiện môi trường)HS đưa ra các ý tưởng và tiêu chí trang trí chậu cây.Hoạt động 2: Thực hiện làm chậu, trang trí chậu cây và trồng cây.* Chế tạo và thử nghiệm- GV tổ chức cho HS sử dụng chai nhựa/hộp sữa cũ, cắt và tạo hình thành chậu cây, trang trí chậu cây bằng màu nước, giấy màu, mắt dán, hình vẽ sinh động để tạo sản phẩm bắt mắt. và trồng cây vào chậu theo nhóm 6 (8 phút).- GV quan sát, hỗ trợ các nhóm gặp khó khăn.* Đánh giá và cải tiếnGV phát phiếu đánh giá và yêu cầu HS tự đánh giá sản phẩm tương ứng với những việc em đã làm.RUBRICS ĐÁNH GIÁ – CHẬU CÂY TÁI CHẾ (Tổng điểm: 10)Tiêu chí1 điểm2 điểm1. Sáng tạo – Thẩm mỹTrang trí đơn giản, thiếu điểm nhấnThiết kế độc đáo, trang trí sinh động2. Tái chế – Bảo vệ môi trườngDùng ít vật liệu tái chế, chưa thân thiệnSử dụng hoàn toàn vật liệu tái chế, thân thiện môi trường3. Kỹ thuật – Khả năng sử dụngChậu yếu, không có lỗ thoát nướcChậu chắc chắn, có lỗ thoát nước, phù hợp cây trồng4. Chăm sóc và ghi chépCây không sống hoặc không ghi chépCây sống tốt, có bảng theo dõi phát triển5. Trình bày – Hiểu biếtTrình bày chưa rõ, chưa hiểu rõ sản phẩmTrình bày tự tin, hiểu về cây, vật liệu và ý nghĩa tái chếXếp loại: 9–10 điểm: Tốt. 7–8 điểm: Đạt yêu cầu. 5–6 điểm: Cần cải thiện. &amp;lt;5 điểm: Cần hỗ trợ thêm- Các nhóm hoàn thành sản phẩm, GV yêu cầu các nhóm kiểm tra điều chỉnh sản phẩm theo các tiêu chí.- Cả lớp nhận xét, góp ý cho nhóm bạn.- GV tổng kết hoạt động chuyển sang hoạt động tiếp theo.Biết lựa chọn vật liệu tái chế để làm chậu cây, sử dụng các dụng cụ để thực hiện trang trí chậu.Học sinh tự đánh giáHoạt động 3: Giới thiệu và trưng bày sản phẩm - Học sinh giới thiệu về sản phẩm.- HS trưng bày sản phẩm và bảng thuyết trình.GV tổ chức cho các nhóm đánh giá đồng đẳng, trao đổi để xin ý kiến của bạn về sản phẩm của nhóm mình đã làm.- HS nhận xét và đánh giá kết quả.- GV cho HS bình chọn sản phẩm của các nhóm bạn.- GV nhận xét, tuyên dương.Thể hiện tự tin khi trình bày ý kiến thảo luận, đề xuất ý tưởng, giới thiệu sản phẩm.C. Tổng kết (2 phút)Tổ chức Góc xanh trong lớp học.Học sinh đem cây về nhà chăm sóc và theo dõi trong 2–3 tuần.Kết nối bài học về môi trường, biến đổi khí hậu, thực vật...Khắc sâu lại kiến thức cho học sinh liên hệ bản thân bảo vệ môi trường.Tích hợp hoạt động “Chậu cây tái chế - góc xanh sáng tạo” vào chương trình GDPT 2018. Áp dụng cho môn Tự nhiên và Xã hội (lớp 1, 2, 3) và Khoa học (lớp 4, 5).Bộ sáchLớpMôn họcChủ đề / Tên bài họcGợi ý tích hợp làm chậu cây tái chế (STEAM)Chân trời sáng tạo1Tự nhiên &amp;amp; Xã hộiBài 17: Giữ gìn vệ sinh môi trườngThiết kế và làm chậu cây tái chế, nâng cao ý thức bảo vệ môi trường2Tự nhiên &amp;amp; Xã hộiBài 19: Bảo vệ môi trườngThực hành làm và trang trí chậu cây từ chai nhựa, học về tái chế và bảo vệ môi trường3Tự nhiên &amp;amp; Xã hộiBài 24: Bảo vệ môi trườngSáng tạo sản phẩm tái chế, thảo luận lợi ích tái sử dụng vật liệu4Khoa họcBài 22: Thực vật cần gì để sống?Làm và trang trí chậu cây tái chế. Trồng cây trong chậu tái chế, quan sát điều kiện sống của cây4Khoa họcBài 25: Điều kiện sống của câyTheo dõi và ghi chép sự phát triển của cây trồng trong chậu tái chế5Khoa họcBài 26: Bảo vệ môi trườngDự án làm chậu cây từ chai nhựa tái chế, sáng tạo và trang trí chậu cây, tìm hiểu ý nghĩa bảo vệ môi trườngKết nối tri thức1Tự nhiên &amp;amp; Xã hộiBài 16: Giữ gìn môi trường xung quanhLàm và trang trí chậu cây tái chế để trang trí lớp, giáo dục ý thức bảo vệ môi trường2Tự nhiên &amp;amp; Xã hộiBài 17: Một số việc nên làm để bảo vệ môi trườngHoạt động làm chậu cây từ chai nhựa tái chế, sáng tạo trang trí chậu cây3Tự nhiên &amp;amp; Xã hộiBài 22: Tài nguyên thiên nhiên và con ngườiGiới thiệu ý tưởng tái chế chai nhựa để bảo vệ tài nguyên thiên nhiên. Tự do trang trí sáng tạo theo ý tưởng.4Khoa họcBài 25: Điều kiện sống của câyTrồng cây trong chậu tái chế và quan sát.5Khoa họcBài 27: Tài nguyên và cách bảo vệThiết kế sản phẩm tái chế từ chai nhựa làm chậu cây. Tự do trang trí sáng tạo theo ý tưởng.Cánh diều1Tự nhiên &amp;amp; Xã hộiBài 15: Giữ gìn vệ sinh nơi công cộngLàm chậu cây tái chế trang trí lớp, nâng cao ý thức cá nhân về môi trường. Tự do trang trí sáng tạo chậu cây theo ý tưởng.2Tự nhiên &amp;amp; Xã hộiBài 18: Giữ gìn và bảo vệ môi trường sốngLàm chậu cây từ chai nhựa, minh họa hành động bảo vệ môi trường. Tự do trang trí chậu cây sáng tạo theo ý tưởng.3Tự nhiên &amp;amp; Xã hộiBài 23: Trách nhiệm bảo vệ môi trườngTrình bày sản phẩm tái chế, thảo luận về ý nghĩa bảo vệ môi trường. Tự do trang trí sáng tạo theo ý tưởng.4Khoa họcBài 22: Thực vật cần gì để sống?Thực hiện làm chậu c6y tái chế và Tự do trang trí sáng tạo theo ý tưởng.Trồng cây trong chậu tái chế, ghi chép tìm hiểu điều kiện sống của cây5Khoa họcBài 25: Bảo vệ môi trường sốngDự án học tập dùng vật liệu tái chế bảo vệ môi trường. Tự do trang trí sáng tạo theo ý tưởng.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>S007</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>"Học tập trải nghiệm” là hình thức dạy học nhằm tổ chức hoạt động giúp cho HS chủ động tìm hiểu kiến thức thông qua các hoạt động trải nghiệm hoặc được khai thác, vận dụng các kiến thức vốn có để thực hành làm sản phẩm, vận dụng vào cuộc sống thực tiễn.Tác động của học tập trải nghiệm đối với HS là:- HS học đi đôi với hành.- HS học thông qua chơi.- HS học tập cảm thấy vui vẻ, tích cực, phù hợp với tâm lý lứa tuổi.- HS chủ động tham gia vào giờ học- HS được trải nghiệm, khám phá, được khai thác những kiến thức vốn có để tạo thành kiến thức mới. Và đặc biệt là các em biết kiến thức ấy cần để làm gì, học để làm gì?- HS yêu thích học tập, tự nghiên cứu, khám phá và hình thành được nhiều kiến thức cho bản thân, trở thành người có ích cho tương lai.Ví dụ: Khi học bài “Xếp hình” - môn Toán lớp 1, HS ban đầu hiểu đây là dạng trò chơi lắp ghép như lego. Nhưng khi GV dạy học theo hướng trải nghiệm, HS sẽ được vận dụng kiến thức vào thực tiễn, cùng xếp hình làm sản phẩm Gấp áo. Đó không chỉ là kiến thức nữa mà là sự trải nghiệm, vận dụng có hiệu quả kiến thức trong cuộc sống hằng ngày.</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Khi HS học về xem lịch lớp 1 tạo sự hào hứng khi được làm Tờ lịch sáng tạo.Minh họaHoạt động dạy họcKĩ năng HSHoạt động: Tìm hiểu về tờ lịch và thực hành làm sản phẩm- HS xem tờ lịch và trao đổi để tìm ra thứ, ngày – tháng.- HS đưa ra ý kiến.a) Đề xuất và lựa chọn giải pháp* Tìm hiểu về tờ lịch sáng tạo- HS quan sát mẫu tờ lịch và trả lời:Sản phẩm có hình gì?Sản phẩm được làm từ những vật liệu nào?HS chọn vật liệu và dụng cụ.Thực hành:HS xem clip hướng dẫn à nêu các bước làm sản phẩm.HS thống nhất tiêu chí của Tờ lịchb) Chế tạo sản phẩm- HS làm sản phẩm theo nhóm 4.Chia sẻ - Đánh giáTham quan sản phẩm à trình bày ý kiến.HS bình chọn sản phẩm đẹp, đáp ứng các tiêu chí.HS nêu hướng cải tiến, nêu ý nghĩa của tờ lịch.Kĩ năng quan sát, vận dụng kiến thức vốn cóKĩ năng quản lí thời gianKĩ năng giao tiếp - hợp tác.Kĩ năng giao tiếp - hợp tác, mô hình hóa, lên ý tưởng sáng tạo.Kĩ năng chia sẻ, khắc phục khi được góp ý.Kĩ năng phản hồi: Vận dụng sau bài học</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Tôi áp dụng bài học cho HS lớp 3:Hoạt động 1: Tình huống có vấn đề:Đặt tình huống: Phấn của lớp mình thường bị rơi rớt và gãy vụng. Vậy các em có suy nghĩ nên làm một thiết bị nào để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét không?GV cùng HS đặt ra các tiêu chí cho dụng cụ:1/ Có tác dụng để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét 2/ Được làm tự nguyên liêu dễ tìm3/ Phải chắc chắn, dùng nhiều lần Hoạt động 2: Thực hành làm sản phẩm a/ Đề xuất ý tưởng làm sản phẩmQuan sát thiết bị mẫu: Thiết bị có dạng hình gì? Được làm từ những nguyên vật liệu nào?Thảo luận vẽ ý tưởng lên giấy theo nhóm 4 và trình bày ý tưởngb) Thực hành:Nhóm chọn vật liệu theo bản thiết kế+ Các hộp hình khối có sẵn+ Các miếng bìa carton+ Keo dán+ Bút màu+ Nilong+ Ống nhựaHS làm sản phẩm theo nhóm 4Hoạt động 3: Thí nghiệm thả viên phấnHS cùng thả viên phấn để kiểm nghiệm sản phẩmBình chọn sản phẩm có hiệu quả nhấtCải tiến sản phẩm sau bài học.</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Nếu một học sinh yêu cầu 'xem ví dụ' liên quan việc tạo ra các sản phẩm có yếu tố nghệ thuật độc đáo, tôi sẽ cho HS xem và thực hiện sản phẩm “Những bức tranh cầu vồng” khi học tập vận dụng bài học về Số 7 - Lớp 1.Các em học các kiến thức về số 7: tập đếm số từ 1 đến 7 và tạo sản phẩm Cầu vồng bằng sự sáng tạo khi lựa chọn các vật liệu: bút màu, giấy màu, bông gòn, keo dán.... Các vật liệu được sắp xếp một cách có nghệ thuật để tạo nên một bức tranh hài hoà về thẩm mĩ nhưng đúng về thực tế. HS được vận dụng trí sáng tạo, được khai thác những hiểu biết không chỉ về toán học mà còn về tự nhiên và xã hội và chính tay tạo sản phẩm để trang trí lớp học của mình. Hoàn thành và sử dụng sản phẩm để trang trí lớp</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Dựa vào môn Công nghệ 3:Làm đồ chơi hoặc môn Khoa học 5: Năng lượng gió, mặt trời và nước chảyHoạt động 1: Tình huống có vấn đề:Việt Nam có số lượng xe máy rất nhiều nên tình trạng ô nhiễm môi trường vẫn đang diễn ra. Để thay thế xăng dầu cho các phương tiện, chúng ta có thể sử dụng năng lượng nào? Giới thiệu: Ngoài năng lượng mặt trời, điện, ta có thể sử dụng năng lượng gió... Thiết kế mô hình xe đa năng.HS đặt ra tiêu chí cho xe đa năng: 1/ Có thể chạy được.2/ Được làm tự nguyên liệu tái chế. 3/ Phải chắc chắn, sử dụng được lâu.Hoạt động 2: Thực hành:a/ Đề xuất ý tưởng:- Quan sát mô hình xe: Mô hình có dạng những hình gì? Được làm từ vật liệu nào? Xe hoạt động như thế nào?- Thảo luận, vẽ ý tưởng lên giấy theo nhóm 4 và trình bày ý tưởngb) Thực hành:- HS chọn vật liệu theo bản thiết kế+ Bìa carton: tròn, chữ nhật...+ Bong bóng+ Ống hút+ Keo dán+ Bút màu+ Que gỗHS làm sản phẩm theo nhóm 4Hoạt động 3: Thí nghiệm thả viên phấn- Tham gia “ Đua xe F1” à Thử nghiệm chiếc xe nào chạy nhanh nhất: bình chọn nhóm chiến thắng.- Cải tiến sản phẩm sau bài học.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>S008</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>"Học tập qua trải nghiệm" là phương pháp giáo dục mà học sinh trực tiếp sử dụng các giác quan để học tập trong suốt quá trình, thông qua các hoạt động thực tế thay vì chỉ học tập lý thuyết một chiều. Điều này giúp học sinh phát triển kỹ năng tư duy phản biện, khả năng giải quyết vấn đề và tăng cường sự sáng tạo. Tác động của phương pháp này đến học sinh rất lớn. Thứ nhất, nó tạo ra sự hứng thú và động lực học tập. Khi tham gia vào các hoạt động thực tế, học sinh dễ dàng kết nối kiến thức với cuộc sống hằng ngày. Thứ hai, học sinh phát triển khả năng làm việc nhóm và giao tiếp, vì họ thường phải hợp tác với nhau để hoàn thành nhiệm vụ.Ví dụ cụ thể: học sinh có thể thực hiện thí nghiệm để khám phá các khái niệm về lực và chuyển động (Sử dụng một chiếc xe đẩy nhẹ và một số vật nặng như sách. Sau đó đẩy xe với vài lực khác nhau và quan sát sự thay đổi về tốc độ rồi học sinh ghi nhận ảnh hưởng của lực đến chuyển động. Hay ở một ví dụ khác, học sinh lăn một quả bóng trên các bề mặt khác nhau như gạch, cỏ, nhựa rồi so sánh và giải thích tại sao bóng lăn xa hơn trên bề mặt mịn.) Thay vì chỉ đọc sách, việc tự tay thực hiện thí nghiệm giúp các em hiểu sâu hơn về lý thuyết và ghi nhớ lâu hơn. Từ đó, học sinh không chỉ học kiến thức mà còn hình thành thái độ tích cực đối với việc học.</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động: "Góc Kĩ năng sống"Mục đích : Phát triển kĩ năng sống thiết yếu cho học sinh.Mô tả hoạt động : Học sinh sẽ tạo ra một sản phẩm "Góc Kĩ năng sống" trong lớp để học hỏi và chia sẻ quan điểm với nhau. Mỗi tháng, một tổ sẽ thiết kế một poster trình bày ngắn gọn về một kỹ năng cụ thể như: Kĩ năng nấu ăn, kĩ năng quản lý tiền tiết kiệm hoặc kĩ năng giao tiếp Tiếng Anh với người nước ngoài. Các em có thể sử dụng video sưu tầm, hình ảnh, thực hành cắt dán hoặc vẽ trực tiếp lên poster. Sau đó trình bày ý tưởng của mình, lớp sẽ tham gia thảo luận học hỏi và đóng góp ý kiến.Ví dụ: Nếu tổ Một chọn "Kĩ năng nấu ăn", các em có thể dán hình ảnh mô tả món ăn đơn giản và quá trình chuẩn bị rồi đến các bước nấu ăn, nêm nếm. Nếu tổ Hai chọn "Kĩ năng quản lý tiền tiết kiệm", các em có thể chia sẻ cách làm ống heo tiết kiệm, cân nhắc sử dụng tiền để mua sắm hợp lí hơn nhằm tiết kiệm.Kỹ năng mong muốn học sinh phát triển :Kỹ năng thực hành : Học sinh sẽ vận dụng trải nghiệm của bản thân vào thiết kế poster. Giao tiếp tiếp : Các cải tiến về khả năng trình bày có bố cục rõ ràng và thuyết phục.Làm việc nhóm : Học tập hiệu quả trong quá trình chuẩn bị và thực hiện.Tư duy phản biện : Thảo luận và phản biện giúp các em rèn luyện khả năng tư duy logic."Góc Kĩ năng sống" không chỉ làm phong phú thêm ý tưởng học tập thông qua trải nghiệm mà còn mang lại học sinh những kĩ năng cần thiết trong cuộc sống hàng ngày.Một số hình ảnh minh họa poster về Góc Tiếng Việt</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Kế hoạch dạy học: "Thiết kế thiết bị bảo vệ viên phấn"Mục tiêu: Học sinh sẽ áp dụng kiến thức môn khoa học để thiết kế một thiết bị bảo vệ viên phấn không bị vỡ khi thả từ độ cao 3 mét.Bước 1: Giới thiệu bài tậpNêu mục tiêu và yêu cầu của bài tập.Thảo luận về tính chất của viên phấn và các yếu tố ảnh hưởng đến sự vỡ của nó.Bước 2: Tìm hiểu và thí nghiệmCung cấp các vật liệu như bông gòn, vỏ hộp, giấy, dây thun, và ống hút.Khuyến khích học sinh thí nghiệm với các vật liệu khác nhau để tìm ra cách bảo vệ viên phấn hiệu quả.Bước 3: Hướng dẫn thiết kếĐặt câu hỏi như: Thiết kế nào sẽ giảm thiểu lực tác động lên viên phấn?Làm thế nào để tạo ra một thiể bị bảo vệ chắc chắn nhưng nhẹ?"Bước 4: Thực hiện và thử nghiệmHọc sinh sẽ lắp ráp thiết bị và thử nghiệm bằng cách thả viên phấn từ độ cao 3 mét.Ghi nhận kết quả và phản hồi.Bước 5: Phân tích và cải tiếnThảo luận về những gì hoạt động tốt và những gì cần cải thiện.Khuyến khích học sinh chia sẻ ý tưởng và học hỏi từ nhau.Hoạt động này không chỉ giúp học sinh phát triển tư duy thực tiễn mà còn tạo cơ hội cho sự sáng tạo và hợp tác.</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Trong giáo dục STEAM, yếu tố “A (Art = Nghệ thuật)” đóng vai trò quan trọng trong việc biến ý tưởng thành hình ảnh thông qua biểu đạt sáng tạo và khai thác cảm nhận thẩm mỹ. Tuy nhiên, do hoạt động nghệ thuật không có "đáp án đúng", học sinh dễ cảm thấy lo lắng như “em không vẽ đẹp” hay “em không có khiếu”, nên việc đảm bảo cảm giác an toàn tâm lý là điều thiết yếu để phát huy tính sáng tạo. Tầm quan trọng của góc nhìn này được thể hiện ở 3 điểm sau: 1. Sáng tạo được sinh ra từ sự tự do và cảm giác an toàn Khi học sinh nói “em muốn xem ví dụ”, điều đó không có nghĩa là các em muốn sao chép, mà là do lo lắng không biết bắt đầu từ đâu. Giáo viên cần giúp các em cảm thấy an tâm để có thể thoải mái thể hiện ý tưởng của mình. 2. Tôn trọng sự đa dạng trong học tập Biểu đạt nghệ thuật có sự khác biệt rõ rệt giữa các cá nhân. Việc cho học sinh thấy nhiều ví dụ khác nhau (về hình dạng, màu sắc, chất liệu) sẽ giúp các em hiểu rằng mỗi người có thể có một cách sáng tạo riêng biệt, từ đó tăng sự tự tin khi làm bài. 3. Phát triển khả năng tự biểu đạt và sự tự tin Thông qua trải nghiệm sáng tạo, việc học sinh cảm nhận được “ý tưởng của mình được chấp nhận” sẽ góp phần nâng cao tính chủ động trong học tập và cảm nhận giá trị bản thân. Đó là nền tảng của sự phát triển lâu dài. Cách hỗ trợ:Chia sẻ ví dụ cụ thể: Tôi sẽ giới thiệu một số sản phẩm nghệ thuật từ các dự án STEAM trước đây, như các tác phẩm kết hợp giữa nghệ thuật và khoa học, chẳng hạn như mô hình kiến trúc sử dụng vật liệu tái chế hoặc sử dụng màu để mô tả âm thanh xung quanh thông qua các chấm và nét.Khuyến khích thử nghiệm: Tôi sẽ nói với học sinh rằng không có ý tưởng nào là sai bởi vì mỗi bông hoa mang màu sắc khác nhau sẽ tạo nên một khu vườn kì diệu. Khuyến khích em bắt đầu từ những hình dung đơn giản trong suy nghĩ, sau đó vẽ hoặc tạo hình từ các vật liệu dễ tìm.Tạo không gian thoải mái: Đảm bảo rằng không gian lớp học thoải mái khuyến khích sự thử nghiệm. Có thể đề xuất một khu vực quanh lớp học dùng để "thử nghiệm", nơi học sinh có thể tự do khám phá mà không cảm thấy áp lực.Hướng dẫn tư duy: Hỏi học sinh về sở thích cá nhân và những điều mà em cảm thấy hứng thú, từ đó hướng dẫn em tìm kiếm ý tưởng dựa trên sở thích đó.Bằng cách này, học sinh sẽ cảm thấy tự tin hơn và có động lực để thể hiện sự sáng tạo của mình.</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Hoạt động dạy học: "Làm xúc xắc học tập từ hộp giấy"Mục tiêu: Học sinh sẽ sử dụng hộp giấy để tạo ra xúc xắc, từ đó củng cố kiến thức về các bài học đã học và khuyến khích sự tham gia tích cực trong lớp học.Vật liệu cần chuẩn bị:Hộp giấy hình khối lập phương hoặc khối tam giác (có thể dùng hộp giấy, hộp bằng nhựa đựng bánh, hộp sữa, mút xốp).Giấy màu, bút lông, keo dán, kéo.Quy trình hoạt động:Giới thiệu hoạt động: Giải thích về cách sử dụng xúc xắc trong việc học. Mỗi mặt xúc xắc sẽ chứa tên bài học, câu hỏi hoặc hình ảnh liên quan đến bài học.Thảo luận nhóm: Chia học sinh thành nhóm nhỏ. Hướng dẫn các em chọn 6 bài học hoặc khái niệm quan trọng mà các em đã học trong thời gian gần đây.Thiết kế xúc xắc: Học sinh sẽ trang trí các mặt của xúc xắc bằng cách viết tên bài học, vẽ hình ảnh hoặc câu hỏi liên quan đến nội dung bài học.Sử dụng xúc xắc: Sau khi hoàn thành, học sinh sẽ lần lượt gieo xúc xắc. Mặt nào xuất hiện sẽ là bài học mà nhóm đó cần thảo luận hoặc ôn tập.Chủ đề hoặc bài học đề xuất:Tự nhiên và Xã hội (lớp 1-3):Chủ đề: Các hiện tượng tự nhiên.Bài học: Học về thời tiết, động vật, và thực vật.Khoa học (lớp 4-5):Chủ đề: Các khái niệm về năng lượng.Bài học: Các nguồn năng lượng, cách sử dụng năng lượng hiệu quả.Hoạt động này còn có thể áp dụng cho các môn học khác, nó không chỉ giúp học sinh ôn tập kiến thức mà còn thúc đẩy sự sáng tạo và khả năng làm việc nhóm.Một số hình ảnh và video minh họa thực tế:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>S009</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>"Học tập qua trải nghiệm" trong giáo dục STEAM là phương pháp giúp học sinh tiếp thu kiến thức thông qua việc trực tiếp làm, trực tiếp cảm nhận, trực tiếp khám phá, thay vì chỉ học lý thuyết thụ động. Triết lý này giúp biến lớp học thành môi trường mở, nơi học sinh chủ động tư duy, hành động trong suốt quá trình học. Từ đó, hình thành kiến thức, kỹ năng và thái độ một cách tự nhiên, bền vững. Đây là cách học hiệu quả và phù hợp với đặc điểm tâm lý lứa tuổi tiểu học.Là giáo viên lớp 2, tôi nhận thấy rằng khi được học qua trải nghiệm, học sinh trở nên nhiệt tình, tự tin, chủ động và sáng tạo hơn. Các em không chỉ học để biết, mà còn học để hiểu, học để làm, học để sống và phát triển đồng thời nhiều kỹ năng như hợp tác, sáng tạo và giải quyết vấn đề. Ví dụ: Trong môn Tự nhiên và Xã hội, chủ đề “Các mùa trong năm”, thay vì chỉ yêu cầu học sinh ghi nhớ kiến thức, tôi tổ chức một “Góc trải nghiệm mùa xuân”. Học sinh được quan sát hình ảnh hoa mai, hoa đào, nghe âm thanh chim hót và cùng nhau làm thiệp chúc Tết. Qua đó, các em không chỉ hiểu rõ đặc trưng mùa xuân mà còn phát triển kỹ năng cảm thụ nghệ thuật, khả năng trình bày suy nghĩ và tinh thần hợp tác nhóm.</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Để giúp cải thiện không khí lớp học và nâng cao kỹ năng giao tiếp, tôi đề xuất hoạt động trải nghiệm mang tên “Hộp điều ước hạnh phúc”, một hình thức kết hợp giữa tư duy sáng tạo, phát triển cảm xúc xã hội và mỹ thuật.Mỗi tuần, học sinh lớp 2 sẽ viết hoặc vẽ một điều ước tốt đẹp dành cho bạn bè, thầy cô, hoặc chính bản thân mình vào một tờ giấy nhỏ và bỏ vào chiếc hộp trang trí sẵn trong lớp học. Cuối tuần, cả lớp sẽ cùng nhau mở hộp, đọc ngẫu nhiên một số điều ước và cùng chia sẻ cảm nhận. Hoạt động này có thể lồng ghép vào tiết Sinh hoạt lớp hoặc môn Đạo đức.Thông qua hoạt động, tôi mong muốn phát triển ở học sinh các kỹ năng:- Giao tiếp tích cực: học sinh học cách diễn đạt ý tưởng một cách thân thiện, truyền cảm hứng.- Thể hiện cảm xúc: các em được khuyến khích nói lên mong muốn và quan tâm đến người khác.- Sáng tạo nghệ thuật: học sinh được tự do trang trí điều ước, sử dụng màu sắc, hình ảnh để truyền tải thông điệp.- Tư duy tích cực: từ những điều ước nhỏ, các em hình thành thói quen nhìn cuộc sống với ánh mắt lạc quan và yêu thương.Hoạt động tuy đơn giản nhưng giúp gắn kết lớp học như một gia đình nhỏ, nơi mỗi học sinh đều cảm thấy được lắng nghe và trân trọng.</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Khi học sinh được giao nhiệm vụ: “Tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi thả từ độ cao 3 mét”, tôi xem đây là cơ hội lý tưởng để phát triển tư duy thiết kế, giải quyết vấn đề và khả năng hợp tác nhóm ở học sinh lớp 2, đúng theo định hướng STEAM.Kế hoạch dạy học gồm 3 bước: 1. Khơi gợi và đặt vấn đề Tôi bắt đầu bằng một tình huống gần gũi: “Nếu em lỡ làm rơi viên phấn từ trên cao, điều gì sẽ xảy ra? Làm sao để phấn không vỡ?”. Câu hỏi gợi mở tiếp theo: “Theo em, vật gì có thể bảo vệ viên phấn giống như cách mũ bảo hiểm bảo vệ đầu người đi xe máy?” 2. Thử nghiệm - Thiết kế - Kiểm tra Học sinh làm việc theo nhóm 3 - 4 em, sử dụng các vật liệu đơn giản như: ly nhựa, bông gòn, ống hút, túi nilon, vải vụn, giấy cuộn, dây thun...Các em thảo luận, thiết kế “thiết bị bảo vệ phấn” và thử nghiệm bằng cách thả rơi từ độ cao (có kiểm soát).3. Phản tư - Cải tiến - Trình bàySau thử nghiệm, các nhóm cùng quan sát, đánh giá hiệu quả, đặt câu hỏi: “Vì sao thiết bị này bảo vệ phấn tốt hơn?”, “Chúng ta cần cải tiến điểm nào để thiết bị chắc chắn hơn?”Thông qua hoạt động này, học sinh được rèn luyện tư duy phản biện, tính kiên nhẫn, kỹ năng sáng tạo và giải quyết vấn đề thực tiễn, nền tảng quan trọng cho học tập liên môn STEAM.</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Trong giáo dục STEAM, yếu tố nghệ thuật không chỉ là phần "trang trí", mà là phương tiện thể hiện cảm xúc, cá tính và tư duy sáng tạo của học sinh. Khi một học sinh lớp 2 rụt rè hỏi: "Cô ơi, có ví dụ không ạ?", tôi hiểu rằng em đang lo lắng, sợ sai và cần một “ngọn hải đăng” để định hướng.Tuy nhiên, thay vì đưa ra một mẫu cụ thể - dễ làm học sinh bị “khuôn mẫu hóa”, tôi sẽ nhẹ nhàng khích lệ: + “Ý tưởng của con là duy nhất và không ai có thể nghĩ giống con được. Cô rất háo hức muốn xem phiên bản đặc biệt của con!” + Tôi có thể gợi ý mở như: “Con có thể dùng màu vẽ, giấy, nút chai, dây len... Tùy con chọn để kể câu chuyện riêng của mình nhé!”Để hỗ trợ cụ thể, tôi áp dụng các cách sau:+ Tạo không gian an toàn sáng tạo: không chấm điểm ngay, không so sánh giữa các sản phẩm.+ Trưng bày đa dạng tác phẩm học sinh để khẳng định “không có đúng - sai trong nghệ thuật”. + Đồng hành nhẹ nhàng: đặt câu hỏi khơi gợi như “Nếu con muốn thể hiện niềm vui, con sẽ dùng màu gì?” thay vì chỉ bảo chi tiết.Tôi tin rằng, khi được tự do sáng tạo trong tình yêu thương và tôn trọng, học sinh sẽ dần vượt qua nỗi sợ, mở khóa trí tưởng tượng và tự hào về sản phẩm “không giống ai” của chính mình.</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Trong một tiết học môn Tự nhiên và Xã hội lớp 2, tôi tổ chức hoạt động trải nghiệm mang tên: “Ngôi nhà tiết kiệm năng lượng”, nơi học sinh sử dụng vật liệu tái chế để sáng tạo ra mô hình ngôi nhà thân thiện với môi trường.- Vật liệu sử dụng: hộp sữa giấy, nắp chai, giấy báo cũ, ống hút đã qua sử dụng, que kem, bìa carton...- Quy trình hoạt động: Học sinh làm việc theo nhóm nhỏ, cùng nhau xây dựng mô hình ngôi nhà với mục tiêu: tận dụng tối đa ánh sáng tự nhiên (cửa sổ lớn), thông gió tốt (mái hở), có thùng rác phân loại hoặc khu vườn nhỏ từ chai nhựa tái chế. Giáo viên hướng dẫn từng bước và đặt câu hỏi gợi mở:- “Làm sao để nhà mát mà không cần quạt?”- “Vì sao nên trồng cây bên cửa sổ?”- “Con có thể sử dụng lại vật gì thay vì vứt đi?”- Bài học tích hợp:Hoạt động này giúp truyền tải kiến thức môn Tự nhiên và Xã hội lớp 2 qua chủ đề:- Tiết kiệm năng lượng và bảo vệ môi trường sống.- Tái sử dụng và phân loại rác thải.- Vai trò của cây xanh và ánh sáng tự nhiên.Qua hoạt động, học sinh không chỉ phát triển tư duy sáng tạo mà còn hình thành ý thức bảo vệ môi trường, kỹ năng hợp tác nhóm và trách nhiệm công dân nhỏ tuổi, đúng tinh thần giáo dục STEAM và GDPT 2018.center-37084000450215316420500</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>S010</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>“Học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp giúp học sinh tiếp cận kiến thức thông qua các hoạt động thực hành, khám phá và giải quyết vấn đề thực tế. Thay vì tiếp thu kiến thức một cách thụ động, các em được trực tiếp làm, trải nghiệm, thử nghiệm, từ đó rút ra kiến thức, phát triển tư duy, kỹ năng một cách tự nhiên và hiệu quả.Tác động của học tập qua trải nghiệm đến học sinhHiểu sâu và nhớ lâu: Khi học sinh thực hành hoặc tham gia các hoạt động trực tiếp, họ không chỉ hiểu rõ bản chất của vấn đề mà còn ghi nhớ kiến thức tốt hơn.Ví dụ: Trong bài học về năng lượng, học sinh có thể chế tạo một chiếc ô tô chạy bằng năng lượng mặt trời để hiểu cách chuyển hóa năng lượng.Khơi gợi sáng tạo và tò mò: Học tập qua trải nghiệm thúc đẩy học sinh đặt câu hỏi và tìm kiếm giải pháp, tạo động lực để khám phá những ý tưởng mới.Ví dụ: Khi thiết kế mô hình cầu từ que kem, học sinh phải thử nghiệm nhiều cách xây dựng để đạt độ bền tối ưu.Phát triển kỹ năng mềm: Hoạt động trải nghiệm thường yêu cầu hợp tác, giao tiếp và làm việc nhóm, giúp học sinh xây dựng kỹ năng xã hội cần thiết.Ví dụ: Thực hiện dự án STEAM như chế tạo máy lọc nước từ nguyên liệu đơn giản yêu cầu học sinh phối hợp để hoàn thành nhiệm vụ.Nhờ vậy, học tập qua trải nghiệm không chỉ giúp học sinh tiếp thu kiến thức hiệu quả mà còn trang bị các kỹ năng thực tế, chuẩn bị tốt cho tương lai.</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Ý tưởng hoạt động:“Hành trình khám phá sở thích và xây dựng không gian học tập cá nhân”Mục tiêu:Giúp học sinh nhận diện rõ sở thích cá nhân, phát triển kỹ năng tổ chức và tự quản lý không gian học tập sao cho phù hợp, từ đó nâng cao hiệu quả học tập và sự tự giác trong công việc.Mô tả hoạt động:Bước 1: Khám phá sở thích cá nhânMỗi học sinh sẽ được phát một tờ giấy để vẽ “bức tranh sở thích” của mình, thể hiện những điều các em yêu thích như âm nhạc, thể thao, sách truyện, phim ảnh hay các hoạt động ngoài trời. Sau đó, các em sẽ cùng chia sẻ và thảo luận với bạn bè trong lớp về những điểm chung và khác biệt trong sở thích của mỗi người, giúp tăng cường sự thấu hiểu và gắn kết giữa các bạn.Bước 2: Tạo không gian học tập cá nhânDựa trên hiểu biết về bản thân, học sinh sẽ thực hành thiết kế và sắp xếp lại “khu vực học tập nhỏ” ngay trong lớp học hoặc tại bàn học của mình. Các em có thể lựa chọn bố trí bàn ghế sao cho thuận tiện, chọn màu sắc, hình ảnh hay vật dụng yêu thích để trang trí, tạo ra môi trường học tập thoải mái và phù hợp nhất với phong cách riêng của mình, giúp tăng cảm hứng học tập.Bước 3: Đánh giá và chia sẻCuối buổi, các em trình bày về cách tổ chức không gian học tập, giải thích lý do chọn những yếu tố trang trí và bố trí đó, đồng thời chia sẻ những điều mới học được về sở thích và phương pháp học của bạn bè. Qua đó, các em phát triển kỹ năng giao tiếp, tự nhận thức và khả năng tự quản lý hiệu quả hơn.Kỹ năng và khả năng phát triển:Kỹ năng tổ chức và quản lý không gian học tập: Học sinh học cách tạo ra một môi trường học tập phù hợp với nhu cầu và sở thích cá nhân.Kỹ năng giao tiếp và chia sẻ: Học sinh có cơ hội thảo luận và chia sẻ về sở thích cá nhân, từ đó nâng cao khả năng giao tiếp và hiểu biết lẫn nhau.Sự sáng tạo và tự quản lý: Hoạt động này thúc đẩy học sinh suy nghĩ sáng tạo về không gian học tập của mình và giúp các em tự giác trong việc tổ chức không gian học tập hiệu quả.Kỹ năng tự nhận thức: Học sinh sẽ có cơ hội hiểu rõ hơn về cách thức học tập hiệu quả của bản thân, từ đó phát triển sự tự nhận thức và tự quản lý trong học tập.Hoạt động này giúp học sinh phát triển kỹ năng tổ chức, sáng tạo, giao tiếp và tự quản, đồng thời nâng cao sự tự giác trong học tập thông qua việc xây dựng không gian học tập cá nhân phù hợp và có ý nghĩa với mỗi em.</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>KẾ HOẠCH BÀI DẠY STEAM – LỚP 3Chủ đề: BẢO VỆ VIÊN PHẤN KHI RƠI TỪ ĐỘ CAO 3 MÉTI. YÊU CẦU CẦN ĐẠTKiến thức:Hiểu được các khái niệm cơ bản liên quan đến lực, trọng lực, ma sát và cách các yếu tố này ảnh hưởng đến vật thể khi rơi tự do.Nhận biết một số vật liệu có khả năng giảm chấn, phân tán lực khi va chạm.Kỹ năng:Rèn luyện kỹ năng giải quyết vấn đề, tư duy thiết kế, làm việc nhóm, kỹ năng trình bày.Thực hành chế tạo mô hình đơn giản từ vật liệu tái sử dụng.Thái độ:Hứng thú, tích cực tham gia vào hoạt động thực nghiệm.Có trách nhiệm và tinh thần hợp tác trong nhóm.Nhận thức được vai trò của khoa học trong cuộc sống thực tế.II. CHUẨN BỊ1. Giáo viên:Thang, hoặc một điểm cao an toàn để thả thiết bị.Mẫu thiết kế tham khảo (nếu cần).Phiếu quan sát kết quả, tiêu chí đánh giá.2. Học sinh:Vật liệu: phấn viết, chai nhựa, hộp sữa, hộp bánh, giấy mềm, bông, xốp, dây chun, ống hút, bóng bay đã xì hơi...Dụng cụ: kéo, hồ dán, thước, băng keo, đồng hồ bấm giờ (nếu có).III. TIẾN TRÌNH DẠY HỌC1. KHỞI ĐỘNG – ĐẶT VẤN ĐỀ (5–7 phút)Giáo viên đặt câu hỏi gợi mở:“Các em đã bao giờ làm rơi viên phấn chưa? Điều gì xảy ra?”“Tại sao viên phấn lại dễ vỡ khi rơi từ trên cao?”“Theo các em, có cách nào để viên phấn không bị vỡ khi rơi từ độ cao 3 mét không?”Nêu nhiệm vụ: “Thiết kế và chế tạo một thiết bị bảo vệ viên phấn khi rơi từ độ cao 3 mét bằng các vật liệu đơn giản.”2. KHÁM PHÁ VÀ PHÁT TRIỂN Ý TƯỞNG (10–12 phút)Chia lớp thành các nhóm 3–4 học sinh.Phát phiếu gợi ý thiết kế:Làm thế nào để giảm tốc độ rơi?Làm sao để phân tán hoặc hấp thụ lực khi chạm đất?Học sinh thảo luận nhóm, phác thảo sơ đồ hoặc mô tả ý tưởng thiết kế.Đại diện nhóm trình bày nhanh ý tưởng trước lớp.Giáo viên gợi mở, định hướng thêm nếu cần.3. CHẾ TẠO VÀ THỬ NGHIỆM (15–20 phút)Mỗi nhóm bắt tay vào chế tạo thiết bị bảo vệ viên phấn từ vật liệu đã chuẩn bị.Giáo viên quan sát, hỗ trợ kỹ thuật khi cần.Thử nghiệm lần 1:Mỗi nhóm thả thiết bị từ độ cao 3m.Quan sát xem viên phấn có bị vỡ không.Ghi nhận kết quả vào phiếu quan sát.Cải tiến:Nếu phấn vỡ, nhóm sẽ phân tích nguyên nhân, chỉnh sửa thiết kế và thử lại.4. TRÌNH BÀY VÀ THẢO LUẬN (7–10 phút)Mỗi nhóm trình bày sản phẩm hoàn chỉnh trước lớp:Thiết kế ban đầu và thay đổi (nếu có).Vật liệu sử dụng và lý do chọn.Kết quả thử nghiệm.Thảo luận chung:“Thiết kế của nhóm em có gì đặc biệt?”“Lực đã được giảm như thế nào?”“Từ hoạt động này, em thấy điều gì thú vị?”5. KẾT LUẬN – MỞ RỘNG (3–5 phút)Tổng kết kiến thức:Khi vật rơi, lực tác động có thể giảm bằng cách:Giảm tốc độ rơi (dù, bong bóng, cánh...).Hấp thụ lực bằng vật liệu mềm (xốp, bông, giấy...).Phân tán lực qua cấu trúc thiết kế (hộp đệm, bao bọc...).Liên hệ thực tế:Thiết bị bảo vệ như mũ bảo hiểm, túi khí ô tô, hộp vận chuyển hàng dễ vỡ...Dặn dò:Tìm thêm ví dụ thực tế về các thiết bị giảm chấn.Suy nghĩ: "Nếu thay phấn bằng trứng gà, em sẽ làm thế nào để bảo vệ nó?"IV. TIÊU CHÍ ĐÁNH GIÁ:Tiêu chíMức độ 1Mức độ 2Mức độ 3Thiết kế sáng tạo☐☐☐Tính hiệu quả (phấn còn nguyên)☐☐☐Hợp tác nhóm☐☐☐Trình bày rõ ràng☐☐☐V. GỢI Ý PHÁT TRIỂN NĂNG LỰC:Năng lực giải quyết vấn đề và sáng tạo.Năng lực giao tiếp và hợp tác.Năng lực vận dụng kiến thức liên môn (Khoa học – Công nghệ – Mĩ thuật – Toán).Hình thành tư duy thiết kế – kỹ thuật</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Hiểu rõ nhu cầu của học sinh:Khi một học sinh yêu cầu "xem ví dụ" trong một hoạt động STEAM, điều đó cho thấy em đang tìm kiếm một khuôn mẫu để bắt đầu, một định hướng cụ thể để phát triển ý tưởng của mình. Việc cung cấp ví dụ không chỉ giúp học sinh hình dung rõ hơn về sản phẩm cuối cùng mà còn kích thích sự sáng tạo của em.Cách phản hồi và hỗ trợ:Đặt câu hỏi mở:" Em muốn tạo ra một sản phẩm như thế nào? Hãy thử hình dung sản phẩm đó sẽ trông như thế nào và nó sẽ làm được gì?""Em thích loại hình nghệ thuật nào? Màu sắc nào làm bạn cảm thấy hứng thú?""Em đã từng thấy những sản phẩm sáng tạo nào khiến bạn ấn tượng?"Những câu hỏi này giúp học sinh định hình rõ hơn ý tưởng của mình và tìm kiếm ví dụ phù hợp.Cung cấp các ví dụ đa dạng:Ví dụ đơn giản: Bắt đầu bằng những ví dụ đơn giản, dễ hiểu để học sinh có cái nhìn tổng quan. Ví dụ: một chiếc đèn ngủ hình con vật được làm từ chai nhựa tái chế, một bức tranh vẽ bằng các vật liệu tự nhiên.Ví dụ phức tạp: Sau khi học sinh đã có nền tảng, hãy giới thiệu những ví dụ phức tạp hơn, có tính nghệ thuật cao. Ví dụ: các tác phẩm điêu khắc động vật bằng kim loại, các thiết kế thời trang sáng tạo.Ví dụ từ cuộc sống: Chọn những ví dụ gần gũi với cuộc sống của học sinh để tạo sự liên kết. Ví dụ: các sản phẩm thủ công mỹ nghệ truyền thống, các thiết kế đồ họa trong các ấn phẩm hiện đại.Tạo ra một thư viện hình ảnh:Tạo một thư viện hình ảnh trực quan với nhiều phong cách, chất liệu và kỹ thuật khác nhau.Phân loại hình ảnh theo chủ đề để học sinh dễ dàng tìm kiếm.Khuyến khích học sinh tự mình tìm kiếm thêm các ví dụ trên internet.Tổ chức các buổi triển lãm nhỏ:Mời các học sinh khác chia sẻ sản phẩm của mình.Tạo không gian để học sinh cùng nhau thảo luận, đánh giá và học hỏi lẫn nhau.Khuyến khích sự sáng tạo cá nhân:Nhấn mạnh rằng ví dụ chỉ là một nguồn cảm hứng, không phải là một khuôn mẫu bắt buộc phải tuân theo.Khuyến khích học sinh kết hợp các ý tưởng khác nhau để tạo ra sản phẩm độc đáo của riêng mình.Đặt ra những câu hỏi mở để kích thích sự tư duy sáng tạo: "Bạn có thể thay đổi gì ở ví dụ này?", "Bạn có thể sử dụng vật liệu nào khác?", "Bạn có thể tạo ra một sản phẩm hoàn toàn mới dựa trên ý tưởng này không?"Giải tỏa lo lắng và khuyến khích sự sáng tạo:Tạo không khí thoải mái: Tạo một không gian học tập vui vẻ, nơi học sinh cảm thấy tự tin để chia sẻ ý tưởng và đặt câu hỏi.Khen ngợi sự cố gắng: Khen ngợi những nỗ lực của học sinh, dù kết quả có như mong đợi hay không.Đặt mục tiêu thực tế: Đặt ra những mục tiêu nhỏ, khả thi để học sinh cảm thấy tự tin hơn.Hỗ trợ cá nhân: Cung cấp sự hỗ trợ cá nhân cho từng học sinh để giúp họ vượt qua khó khăn.Kết luận:Việc cung cấp ví dụ là một cách hiệu quả để giúp học sinh hình thành ý tưởng và bắt đầu quá trình sáng tạo. Tuy nhiên, điều quan trọng là giáo viên cần tạo điều kiện để học sinh tự do khám phá và phát triển ý tưởng của riêng mình. Bằng cách kết hợp các phương pháp trên, giáo viên có thể giúp học sinh tự tin hơn và đạt được những kết quả tốt nhất trong các hoạt động STEAM</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>KẾ HOẠCH TỔ CHỨC HOẠT ĐỘNG DẠY HỌCTên hoạt động: Chế tạo chậu cây mini từ vật liệu tái chếMôn tích hợp: Hoạt động trải nghiệm, Mĩ thuật, Tự nhiên và Xã hộiThời gian thực hiện: 1 tiết (35-45 phút)1. Yêu cầu cần đạt:Học sinh biết cách tận dụng các vật liệu đã qua sử dụng (vỏ hộp sữa, chai nhựa, lon nước...) để tạo ra sản phẩm hữu ích.Phát triển khả năng sáng tạo, tư duy thẩm mỹ và kỹ năng hợp tác nhóm.Hình thành ý thức bảo vệ môi trường, tiết kiệm tài nguyên thông qua hành động cụ thể.2. Chuẩn bị:Giáo viên:Mẫu sản phẩm: 1–2 chậu cây tái chế từ các chất liệu khác nhau.Hình ảnh các mẫu sản phẩm từ đơn giản đến sáng tạo.Tranh minh họa hoặc slide trình chiếu (nếu có).Câu hỏi gợi mở giúp học sinh phát triển ý tưởng.Cây nhỏ/giống rau mầm, đất sạch, thìa nhựa hoặc dụng cụ xúc đất.Học sinh:Vật liệu tái chế: chai nhựa, hộp sữa, ly giấy, thìa nhựa, vải vụn, nút chai, giấy báo cũ...Dụng cụ: kéo, hồ dán, keo nến (nếu có), bút màu, giấy màu, dây ruy băng.3. Tiến trình tổ chức:A. Khởi động (5–7 phút):Trình chiếu video/hình ảnh về ô nhiễm rác thải nhựa.Giáo viên đặt câu hỏi:"Em bắt gặp chai nhựa trong những tình huống nào?""Chai nhựa nếu bỏ ra môi trường sẽ gây ra những hậu quả gì?"Em đã từng dùng hộp sữa, chai nhựa chưa? Em thường làm gì với chúng sau khi dùng?Em có biết chúng ta có thể "biến hóa" các món đồ bỏ đi thành những sản phẩm hữu ích không?Giới thiệu một số sản phẩm mẫu (tranh ảnh, sản phẩm thật nếu có).Nêu nhiệm vụ của tiết học: "Hôm nay chúng ta sẽ cùng nhau tạo ra một chậu cây mini bằng vật liệu tái chế!"B. Hình thành ý tưởng (7–10 phút):Chia nhóm (2–4 học sinh/nhóm), phát cho mỗi nhóm phiếu gợi ý:Nhóm em muốn làm chậu cây hình gì? (ví dụ: con mèo, robot, bông hoa...)Nhóm em sẽ dùng vật liệu gì?Trang trí như thế nào cho sinh động?Các nhóm vẽ nhanh hoặc mô tả miệng về ý tưởng trước khi bắt tay vào làm.C. Thực hành sáng tạo (20–25 phút):Học sinh thực hiện các bước:Làm sạch và cắt tạo hình vật liệu tái chế thành hình dáng chậu cây.Trang trí bằng giấy màu, bút vẽ, dây ruy băng...Cho đất và cây nhỏ/rau mầm vào chậu.Giáo viên hỗ trợ các nhóm gặp khó khăn, khuyến khích sáng tạo.D. Trưng bày – Chia sẻ sản phẩm (5–7 phút):Mỗi nhóm trưng bày sản phẩm trước lớp.Đại diện nhóm trả lời:Nhóm em đã sử dụng những vật liệu gì?Điều gì đặc biệt ở chậu cây nhóm em?Qua hoạt động này, nhóm em học được điều gì?4. Đánh giá:Thông qua quan sát quá trình làm việc nhóm, sản phẩm và phần chia sẻ, giáo viên đánh giá các tiêu chí:Sự sáng tạo, tính ứng dụng.Tính thẩm mỹ.Mức độ hợp tác, phân công nhóm.Ý thức bảo vệ môi trường.5. Mở rộng – Dặn dò:Học sinh mang chậu cây về nhà chăm sóc, quan sát và ghi lại sự phát triển hằng ngày.Khuyến khích học sinh sáng tạo thêm sản phẩm tái chế khác ở nhà.Gợi ý tổ chức "góc tái chế sáng tạo" tại lớp để trưng bày sản phẩm.6. Gợi ý phát triển năng lực:Năng lực giải quyết vấn đề và sáng tạo.Năng lực hợp tác và giao tiếp.Năng lực thẩm mỹ và tư duy thiết kế.Năng lực bảo vệ môi trường và sống bền vững.Kết nối bài học với môn học khác:MÔN TỰ NHIÊN VÀ XÃ HỘI (Lớp 1, 2, 3)Chủ đề: Cây và môi trường sốngLớp 1: Nhận biết một số bộ phận của cây, cách chăm sóc cây.Lớp 2: Vai trò của cây xanh với môi trường sống.Lớp 3: Điều kiện sống của cây và ý thức bảo vệ cây xanh.Ví dụ : Sau khi làm chậu cây, học sinh được hướng dẫn ghi chép sự phát triển của cây mỗi ngày → rèn kỹ năng quan sát, mô tả.Chủ đề: Bảo vệ môi trườngLớp 2 – Bài: Em và môi trường xung quanhLớp 3 – Bài: Giữ gìn vệ sinh nơi công cộngVí dụ : Thảo luận về tác hại của rác thải nhựa, lợi ích của việc tái chế chai nhựa thành chậu cây → giúp học sinh hình thành hành vi thân thiện với môi trường.MÔN MĨ THUẬT (Lớp 1, 2, 3)Chủ đề: Tạo hình từ vật liệu khác nhauLớp 1: Làm đồ vật từ vật liệu thiên nhiên và phế liệu.Lớp 2: Trang trí sản phẩm tạo hình.Lớp 3: Thiết kế và sáng tạo sản phẩm thủ công.Ví dụ : Trang trí chậu cây theo phong cách ngộ nghĩnh (hình thú cưng, robot...) bằng màu, giấy màu, dây vải → phát triển tư duy tạo hình và thẩm mỹ.MÔN KHOA HỌC Chủ đề: Sự phát triển của thực vậtQuan sát cây nảy mầm, tìm hiểu các yếu tố ảnh hưởng đến sự phát triển của cây như nước, ánh sáng, đất...Ví dụ: Học sinh trồng hạt đậu vào chậu tái chế và theo dõi quá trình lớn lên → liên kết thực hành – lý thuyết. MÔN TOÁN Chủ đề: Đo lường – Hình học – Số học ứng dụngLớp 2: Đo chiều cao cây, ước lượng kích thước chậu cây.Lớp 3: Tính chu vi miệng chậu, tính diện tích vỏ dán quanh chậu.Ví dụ : Học sinh dùng thước dây đo chu vi miệng chậu để cắt giấy màu dán xung quanh → ứng dụng kiến thức về đo độ dài, chu vi trong thực tế. HOẠT ĐỘNG TRẢI NGHIỆM Chủ đề: Tự phục vụ – Hợp tác – Bảo vệ môi trườngLên kế hoạch làm chậu cây, phân công việc theo nhóm.Trưng bày, giới thiệu sản phẩm với lớp, nêu cảm nhận của bản thân. Ví dụ: Hoạt động nhóm cùng nhau làm sản phẩm – giao bạn A cắt chai, bạn B tô màu, bạn C cho đất vào – phát triển năng lực hợp tác, tổ chức công việc.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/outputs/excel/steam_exam_responses.xlsx
+++ b/data/outputs/excel/steam_exam_responses.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,27 +484,59 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>Học tập qua trải nghiệm là một triết lí giáo dục toàn diện (Bartle, E, 2015), trong đó người học và những trải nghiệm của họ đóng vai trò trung tâm trong quá trình học tập. Học tập trải nghiệm chuyển từ việc giảng dạy chủ yếu là truyền đạt sang một phương pháp tiếp cận yêu cầu học sinh hợp tác và học hỏi lẫn nhau thông qua các trải nghiệm trực tiếp gắn liền với các vấn đề thực tế. Học tập qua trải nghiệm giúp các hoạt động dạy học trở nên thú vị hơn, thu hút sự tham gia học tập của học sinh, từ đó tăng động lực học tập của các em. Bên cạnh đó, việc thường xuyên vận dụng các kinh nghiệm để giải quyết các vấn đề góp phần giúp học sinh phát triển năng lực, phẩm chất cần thiết.Ví dụ: Với yêu cầu cần đạt là nêu và luyện tập được một số cách ứng phó, giảm nhẹ rủi ro thiên tai, thay vì giảng giải về các loại thiên tai và cách ứng phó, giáo viên tổ chức một bài học theo hướng tiếp cận STEAM với chủ đề Xây dựng mô hình phòng chống động đất. Những hoạt động trong bài học này đòi hỏi học sinh phải chủ động tham gia, hợp tác cùng nhau để hoàn thành sản phẩm, qua đó vừa phát triển năng lực thực hành, sáng tạo, vừa nâng cao nhận thức và kĩ năng ứng phó với thiên tai.Tài liệu tham khảo: Bartle, E. (2015). Experiential learning: an overview. Institute for Teaching and Learning Innovation (Issue March). https://itali. uq. edu. au/filething/get/1860/Experiential_learning_overview_Final_16_Mar_15. pdf% 0Aitali. uq. edu. au.</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động Lắp ráp quạt thông minhTình huống tạo vấn đề: thời tiết nắng nóng ở thành phố Hồ Chí Minh, có những cách nào giúp con người giảm nóng xuất hiện nhu cầu làm quạt.Học sinh tìm hiểu về lịch sử ra đời và phát triển của quạt điện, tìm hiểu nguyên lí hoạt động của quạt điện, vận dụng những lí thuyết đã học về mạch điện (khoa học), lắp ráp mạch điện và cánh quạt để quạt có thể quay. Với hình thức tổ chức chia nhóm. Mỗi nhóm có hai bạn, nhằm tăng sự tham gia của cá nhân, đồng thời là sự trao đổi và hợp tác nhóm để hoàn thiện sản phẩm. Sau đó, các nhóm thử nghiệm sản phẩm. Chia sẻ về sản phẩm và các cải tiến có thể thực hiện nếu quạt không quay. Giáo viên cần khuyến khích và hỗ trợ học sinh tìm ra các lỗi để sửa chữa và cải tiến, thay vì phê bình. Trải nghiệm tạo ra sản phẩm cũng là một kiến thức cho học sinh. Các hoạt động giúp học sinh ôn lại kiến thức về mạch điện kín. Đồng thời, giúp học sinh liên hệ được kiến thức với vấn đề thực tiễn, các em được phát triển các năng lực giải quyết vấn đề, giao quyết và hợp tác.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Với yêu cầu này, ở khuôn khổ dạy cho học sinh tiểu học, giáo viên sẽ tiến hành cho học sinh tìm hiểu bài học trước khi tham gia thí nghiệm (tìm hiểu trước khi đến lớp). Sau đó, học sinh tiến hành các thí nghiệm, có thể ghép các nhóm trùng ý tưởng.Những câu hỏi gợi mở:- Khi được thả từ độ cao 3 mét, viên phấn có bị vỡ không?- Em có thể làm gì để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét? (HS dự đoán)- Nếu được bao bọc, phấn có thể bị vỡ không? Dẫn đến ý tưởng dùng giấy hoặc nhiều lớp ni-lông bao bọc viên phấn.- Có thể làm cho viên phấn “bay” và đáp đất an toàn không? Dẫn đến ý tưởng thiết kế dù và thả phấn với dù.Tuỳ vào khả năng của học sinh, giáo viên có thể lựa chọn một phương án và tìm cách tốt nhất của phương án đó. Ví dụ, sử dụng một vật liệu bao bọc, học sinh có thể thử nghiệm với nhiều vật liệu để tìm ra vật liệu nào bao bọc là tốt nhất (Nếu dùng vật mềm (giấy, vải, xốp...) để bao bọc thì lực va chạm giảm hoặc bao bọc bao ít lớp với nhiều lớp...)</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Với câu hỏi này, cũng như đáp án trước khi tập huấn, tôi sẽ cho học sinh xem các sản phẩm STEAM (các sản phẩm của học sinh cũ hoặc những sản phẩm sưu tầm được) với đa dạng hình thức, từ sản phẩm được cho là đẹp nhất đến sản phẩm được cho là chưa ổn về tính thẩm mĩ. Học sinh sẽ tự lựa chọn sản phẩm ví dụ mà bản thân được cho là đẹp, phù hợp với bản thân tham khảo, không đánh giá và gọi tên đẹp hay không đẹp cho sản phẩm. Các sản phẩm STEAM cần được đánh giá dựa trên các tiêu chí phù hợp mà HS thống nhất (khuyến khích sự tham gia và chủ động của HS khi thiết kế các sản phẩm). Bên cạnh đó, khi tạo ra các sản phẩm minh hoạ, giáo viên cần lưu ý không thiết kế quá hoàn hảo. Điều này vô tình tạo áp lực cho học sinh khi quan sát sản phẩm và trở nên lo lắng.</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Môn Tự nhiên và Xã hội 2 :Yêu cầu cần đạt : Phân biệt được một số loại biển báo giao thông (biển báo chỉ dẫn; biển báo cấm; biển báo nguy hiểm).Hoạt động dạy học : HS thiết kế các biển báo giao thông bằng các bìa các-tông hoặc bìa cứng của hộp bánh, kẹo. Sau đó, tìm hiểu về ý nghĩa của biển báo đã thực hiện và tiến hành chia sẻ để có thể học hỏi lẫn nhau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
           <t>Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp học tập trong đó học sinh chủ động tham gia vào quá trình học thông qua việc trải nghiệm thực tế, thực hành, khám phá và phản tư (suy ngẫm lại những gì đã làm và học được). Thay vì chỉ tiếp thu kiến thức qua sách vở hay bài giảng, các em học sinh được tự mình thực hiện, thử nghiệm và rút ra bài học từ chính trải nghiệm cá nhân. Đây là cách học giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn. Tác động của học tập qua trải nghiệm đến học sinh: Tăng hứng thú và động lực học tập: Khi học sinh được "làm thật", các em cảm thấy việc học trở nên gần gũi, thú vị hơn, từ đó chủ động hơn trong quá trình học. Phát triển tư duy phản biện và giải quyết vấn đề: Trải nghiệm thực tế thường đi kèm với những tình huống phức tạp, đòi hỏi học sinh phải quan sát, phân tích, đưa ra quyết định và thử nghiệm các giải pháp khác nhau. Nâng cao kỹ năng hợp tác và giao tiếp: Nhiều hoạt động trải nghiệm yêu cầu học sinh làm việc theo nhóm, từ đó các em học cách lắng nghe, trao đổi và làm việc hiệu quả với người khác. Liên hệ kiến thức với thực tế: Học sinh hiểu rõ hơn về ý nghĩa của những gì mình học, vì các kiến thức được ứng dụng trực tiếp trong các tình huống cụ thể, thực tế. Dẫn chứng ví dụ minh hoạ: Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo) Bài 8. Nguồn sáng và sự truyền ánh sáng (trang 34). Hoạt động: Tổ chức cho học sinh lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Khi tìm hiểu về nguồn sáng, giáo viên có thể tổ chức hoạt động trải nghiệm cho học sinh tự lắp ráp một mạch điện đơn giản để tạo ra nguồn sáng. Mục tiêu của hoạt động: + Giúp học sinh nhận biết được khái niệm nguồn sáng và hiểu được cách ánh sáng được tạo ra từ nguồn điện. + Củng cố kiến thức về sơ đồ mạch điện đơn giản và nguyên lý hoạt động của một số thiết bị điện đơn giản trong thực tiễn. + Phát triển năng lực tự học, hợp tác nhóm và vận dụng kiến thức vào thực tiễn. Hình thức tổ chức: Giáo viên chia lớp thành các nhóm nhỏ. Mỗi nhóm được phát dụng cụ: pin, dây điện, bóng đèn nhỏ, công tắc, băng dính. Học sinh tự lắp ráp mạch điện theo sơ đồ đơn giản để làm thành một chiếc đèn pin mini. Sau khi lắp ráp xong, các nhóm thử bật/tắt đèn, quan sát ánh sáng phát ra và thảo luận: + Nguồn sáng trong mạch điện này là gì? + Ánh sáng truyền đi theo đường nào? + Nếu ngắt công tắc, chuyện gì xảy ra? Kết luận: Qua hoạt động trải nghiệm này, học sinh không chỉ hiểu rõ hơn về nguồn sáng và sự truyền ánh sáng mà còn biết cách ứng dụng kiến thức để tạo ra thiết bị đơn giản phục vụ cuộc sống. Đồng thời, giúp các em rèn kỹ năng thực hành, làm việc nhóm và tư duy khoa học, khắc sâu kiến thức, vận dụng có hiệu quả các kiến thức đã học vào thực tiễn cuộc sống.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Môn Toán 4 (Bộ sách Chân trời sáng tạo) Bài 21. Em làm được những gì? (Trang 67) Hoạt động: Thực hành – Vận dụng I. Mục tiêu: Củng cố và khắc sâu kiến thức về cấu tạo số có sáu chữ số. Nhận biết hàng và lớp trong số tự nhiên. Phát triển kỹ năng tư duy logic, phân tích dữ kiện và giao tiếp hợp tác nhóm. Khơi gợi sự tò mò, thích thú, tạo không khí thoải mái trong lớp học Toán. II. Tiến trình baì dạy Khởi động: Trò chơi “Đi tìm ẩn số” 1.1. Đặt vấn đề (tình huống mở): “Hôm qua, thầy có mua một cái ổ khóa có mật mã gồm 5 chữ số. Nhưng thầy đã làm lạc mất tờ giấy ghi mật mã. Thầy chỉ nhớ rằng: Chữ số ở hàng chục nghìn KHÔNG phải là số 2. Chữ số ở hàng đơn vị là một số lẻ. * Nhiệm vụ của học sinh: Làm việc cá nhân hoặc theo cặp để phân tích từng đáp án, từ đó loại trừ và lựa chọn đáp án đúng. Gợi ý đáp án: 2540004-1780823 789 → chữ số hàng chục nghìn là 2 ❌ (loại) 2425704-1574652 758 → hàng đơn vị là 8 (số chẵn) ❌ (loại) 3556004-1395758 217 → hàng chục nghìn ≠ 2, hàng đơn vị là 7 (số lẻ) ✅ (đúng) 2400304-2132785 214 → hàng đơn vị = 4 (số chẵn) ❌ (loại) Vậy đáp án đúng là: c. 58 217 2. Thực hành – Vận dụng 2.1. Các nhóm quan sát ổ khoá thảo luận và đề xuất ý tưởng
 2.2. Nêu các tiêu chí của sản phẩm. Sử dụng để lập các số có 6 chữ số. Mỗi hàng được trình bày trên một cột, bao gồm hình vẽ và chú thích về hàng đó. Các chữ số được viết rõ ràng, đảm bảo tính thẩm mĩ. Chắc chắn, dễ sử dụng. 3534414-109748
 Lên ý tưởng – Thiết kế chi tiết + Nhóm sử dụng vật liệu gì để làm sản phẩm? + Sản phẩm gồm những bộ phận nào? + Cách làm sản phẩm như thế nào? + Công dụng của sản phẩm đó là gì? Các nhóm chia sẻ ý tưởng. Các nhóm thảo luận – Phân công nhiệm vụ Chế tạo và thử nghiệm Chia sẻ, thuyết minh về sản phẩm Vận dụng Sử dụng bộ chữ số lập nhanh các số sau: a. Số lớn nhất có 6 chữ số Số gồm 3 trăm nghìn, 4 chục nghìn, 6 nghìn, 5 trăm, 8 chục và 2 đơn vị. Số gồm 5 trăm nghìn, 2 chục nghìn, 4 nghìn, 1 trăm, 3 chục và 7 đơn vị. Hãy nêu giá trị của chữ số 5 trong số 258 139 2.9. Đánh giá, cải tiến sản phẩm 3. Học sinh chia sẻ những kiến thức về STEAM mà các em đã tiếp thu được qua bài học. * Các kỹ năng phát triển cho học sinh thông qua các hoạt động trên. Tư duy logic và giải quyết vấn đề Các em phải suy luận, tìm quy luật và thử nghiệm các cách sắp xếp khác nhau để tạo ra bộ chữ số bí ẩn đúng yêu cầu. Khả năng đặt giả thiết và kiểm tra giả thiết thông qua thực hành. Kỹ năng vận dụng kiến thức toán học vào thực tiễn Ứng dụng kiến thức về cấu tạo số, hàng và lớp của các số tự nhiên trong việc chế tạo và kiểm tra bộ chữ số. Rèn luyện khả năng tính toán nhanh, chính xác và liên hệ số học vào trò chơi, mô hình thực tế. Kỹ năng làm việc nhóm và giao tiếp Các em được khuyến khích thảo luận, chia sẻ ý tưởng, phân công nhiệm vụ và cùng nhau giải quyết thử thách. Phát triển khả năng lắng nghe, trình bày ý tưởng và tiếp nhận ý kiến phản hồi. Kỹ năng sáng tạo và thiết kế Các em không chỉ tìm ra bộ chữ số đúng mà còn được tự tay thiết kế, trang trí hoặc nghĩ cách trình bày bộ chữ số bí ẩn sao cho hấp dẫn. Khơi dậy óc sáng tạo và khả năng thể hiện cá nhân trong sản phẩm STEAM. Kỹ năng sử dụng công cụ và thao tác kỹ thuật Tùy vào hình thức tổ chức (dùng giấy, bìa màu, que tính, hay phần mềm thiết kế số), các em được rèn luyện kỹ năng cắt, dán, lắp ghép, sắp xếp hoặc thao tác trên phần mềm đơn giản. Kỹ năng tự đánh giá và điều chỉnh Các em tự kiểm tra sản phẩm, đối chiếu với yêu cầu đề bài, phát hiện lỗi sai và điều chỉnh để hoàn thiện sản phẩm tốt hơn. Tạo thói quen tự học, tự chịu trách nhiệm với kết quả của bản thân.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học: Học sinh hiểu được nguyên lý giảm va chạm, bảo vệ vật thể. Rèn kỹ năng tư duy logic, giải quyết vấn đề. Rèn kỹ năng làm việc nhóm, thử nghiệm và cải tiến sản phẩm. Phát triển kỹ năng thuyết trình, diễn giải ý tưởng. 2. Các hoạt động chính 2.1. Khởi động Giáo viên đặt vấn đề bằng một số câu hỏi gợi mở: Nếu thả một viên phấn từ tầng 2 xuống sân, điều gì sẽ xảy ra? Làm thế nào để viên phấn không bị vỡ? Học sinh suy nghĩ, đưa ra các dự đoán và chia sẻ ý tưởng. 2.2. Thực hành Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ khi thả từ độ cao 3m.” Giáo viên tổ chức cho học sinh thảo luận nhóm lên ý tưởng, vẽ phác thảo thiết bị. * Gợi ý một số câu hỏi mà giáo viên có thể sử dụng giúp học sinh tìm ý tưởng làm sản phẩm. + Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ, chuyện gì sẽ xảy ra? Tại sao? + Theo em, điều gì khiến viên phấn bị vỡ khi rơi xuống đất? + Làm sao để giảm lực tác động lên viên phấn? + Làm cách nào để giảm tốc độ rơi của viên phấn? Các nhóm thống nhất ý tưởng, hoàn thiện bản vẽ phát thảo. Lựa chọn vật liệu, dụng cụ và tiến hành chế tạo sản phẩm “Chiếc dù kỳ diệu”. Đại diện các nhóm giới thiệu sản phẩm đã chế tạo. Các nhóm thử nghiệm lần 1. Thả thử từ độ cao 3m (có thể thả từ cầu thang hoặc ghế cao). Ghi nhận kết quả: Viên phấn còn nguyên/ vỡ nhẹ/ vỡ nát. Trong quá trình các nhóm chế tạo và thử nghiệm, giáo viên có thể đặt một số câu hỏi gợi mở: + Dù của nhóm em đang mở ra tốt chưa? Có chỗ nào bị gấp hoặc co lại không? + Khi thả xuống, viên phấn rơi nhanh hay chậm? Tại sao? + Dù có giữ được phương thẳng đứng hay bị nghiêng? Điều này ảnh hưởng gì đến viên phấn? + Nếu dù của nhóm bị rơi nhanh, nhóm sẽ điều chỉnh gì? + Sợi dây nối dù và viên phấn dài ngắn thế nào thì hợp lý? + Viên phấn có bị va đập vào đất mạnh không? Tại sao? Câu hỏi sau thí nghiệm (phân tích &amp;amp; cải tiến) + Dù nilon của nhóm em hoạt động hiệu quả chưa? Vì sao? + Viên phấn có bị vỡ hay sứt mẻ không? Nguyên nhân do đâu? + Phần nào của thiết bị hoạt động tốt nhất? Phần nào cần cải tiến? + Nếu được làm lại, nhóm em sẽ thay đổi điều gì? (kích thước dù, số dây, hình dáng dù, ...) + Ngoài dù, còn cách nào khác để bảo vệ viên phấn khi rơi không? + Bài học nhóm em rút ra từ thí nghiệm này là gì? Kết luận: “Qua hoạt động hôm nay, các em không chỉ tìm cách bảo vệ một viên phấn, mà còn học được cách tư duy thiết kế, xử lý vấn đề thực tế và sáng tạo ra giải pháp từ những vật liệu đơn giản nhất. Đó chính là kỹ năng mà bất kỳ người kỹ sư, nhà phát minh hay người giải quyết vấn đề nào cũng cần có.”</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Trong giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật, điều quan trọng không phải là làm đẹp, giống nhau hay đúng theo một mẫu quy định, mà là mỗi bạn có thể thể hiện ý tưởng của mình theo cách riêng. Mỗi sản phẩm đều mang một dấu ấn đặc biệt của người làm ra nó. Nếu các em cảm thấy băn khoăn chưa biết làm thế nào hoặc muốn xem ví dụ, điều đó rất bình thường. Khi chúng ta sáng tạo, ai cũng có lúc chưa biết bắt đầu từ đâu. Nhưng hãy nhớ: mẫu thầy cho các em xem chỉ là gợi ý thôi. Các em có thể từ đó nghĩ thêm và làm khác đi, chọn màu sắc khác, hoặc tạo ra một cách trang trí độc đáo, sáng tạo hơn. Đó chính là tinh thần của STEAM - không sợ sai, không sợ khác biệt, mà chỉ cần dám nghĩ, dám thử và dám sáng tạo.” Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh: Chuẩn bị nhiều ví dụ đa dạng. Không chỉ một mẫu duy nhất mà là nhiều mẫu khác nhau về hình dạng, màu sắc, vật liệu để học sinh hiểu rằng: một ý tưởng có thể có rất nhiều cách thể hiện. Ví dụ: Với đề tài “làm con cá bằng thùng carton”, có thể có con cá tròn, con cá dài, cá màu đỏ, cá đính vảy từ giấy màu, cá từ nắp chai... Giải thích rõ mục đích của việc xem ví dụ. Nhấn mạnh rằng: “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng mà không ai giống được.” Cách này giúp học sinh bớt lo lắng về việc phải làm giống hệt. Gợi ý bằng câu hỏi mở. Thay vì đưa sẵn đáp án, hãy dẫn dắt bằng các câu hỏi để kích thích ý tưởng: + “Nếu là em, em thích làm con cá màu gì?” + “Em muốn trang trí thêm gì cho con vật/phương tiện của mình để nó khác biệt?” + “Em nghĩ vật liệu nào có thể làm thành cái đuôi đẹp hơn không?” Cho học sinh thử nghiệm và sửa chữa. Khuyến khích học sinh thử làm một chi tiết nhỏ trước (ví dụ: vẽ mắt con vật, cắt thử một bánh xe...) để giảm bớt áp lực “làm cả mô hình ngay một lúc”. Động viên: “Nếu chưa ưng ý mình có thể làm lại mà — quan trọng là mình đang thử nghiệm.” 5. Luôn khen ngợi nỗ lực và ý tưởng của học sinh. Dù sản phẩm còn vụng về, giáo viên vẫn nên khen ý tưởng của các em. Chẳng hạn: “Thầy thích cách em làm bánh xe tròn bằng nắp chai đấy – rất lạ và độc đáo.” Điều này giúp học sinh thấy giá trị từ việc sáng tạo, chứ không phải chỉ từ việc làm đúng , làm đẹp.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Hoạt động: "Sáng tạo các mô hình phương tiện giao thông &amp;amp; con vật từ lịch để bàn, bìa tạp chí hoặc thùng carton đã qua sử dụng." 1. Mục tiêu: Nâng cao kỹ năng tư duy thiết kế (Design Thinking). Rèn luyện kỹ năng cắt, dán, lắp ghép mô hình. Hiểu biết cơ bản về phương tiện giao thông và các loài động vật. Tái chế, bảo vệ môi trường và ứng dụng vật liệu tái sử dụng vào sáng tạo. 2. Nội dung - Học sinh sẽ sử dụng giấy bìa cứng, bìa tạp chí, lịch để bàn đã qua sử dụng, thùng giấy carton cũ kết hợp với các vật liệu tái chế khác để thiết kế và lắp ghép mô hình: + Các loại phương tiện giao thông: xe buýt, xe máy, máy bay, thuyền, ô tô... + Các con vật quen thuộc: chó, mèo, cá, voi, chim, rùa, ... 3. Các hoạt động chính 3.1. Khởi động Tạo hứng thú, kết nối bài học với thực tế. Cách thực hiện: Giáo viên cho học sinh xem tranh ảnh/video ngắn về các loại phương tiện giao thông và các con vật quen thuộc. Đặt câu hỏi gợi mở: + Em đã biết được những phương tiện giao thông nào? + Con vật nào em yêu thích nhất? Vì sao? Học sinh chia sẻ ý kiến, tạo không khí vui vẻ, hứng thú. 3.2. Khám phá Học sinh tự tìm hiểu, nhận diện và hình thành ý tưởng sáng tạo. Cách thực hiện: - Giáo viên hướng dẫn học sinh quan sát tranh mẫu các phương tiện, con vật và giới thiệu vật liệu tái chế có thể sử dụng (thùng carton, chai nhựa, ống hút...) - Học sinh: + Chọn đối tượng muốn làm (1 phương tiện hoặc 1 con vật). + Chia nhóm, phân công nhiệm vụ cho các thành viên trong nhóm. + Vẽ phác thảo ý tưởng ra giấy. + Liệt kê các nguyên liệu cần thiết để làm mô hình. 3.3. Luyện tập – Thực hành Học sinh vận dụng kiến thức, kỹ năng để chế tạo sản phẩm. Cách thực hiện: Học sinh thực hành: + Cắt, dán, ghép các vật liệu đã chuẩn bị để tạo thành mô hình. + Trang trí, tô màu cho mô hình thêm sinh động. Giáo viên quan sát, hỗ trợ kỹ thuật cắt dán an toàn, góp ý về ý tưởng và kết cấu mô hình. 3.4. Vận dụng – Mở rộng Học sinh vận dụng sản phẩm vào hoạt động thực tế và phát triển năng lực thuyết trình, hợp tác. Cách thực hiện: Học sinh trưng bày sản phẩm. Đại diện từng nhóm/cá nhân giới thiệu về sản phẩm: + Tên mô hình. + Vật liệu sử dụng. + Cách làm và điều thú vị của sản phẩm. Giáo viên và học sinh nhận xét, tuyên dương sản phẩm sáng tạo, độc đáo. Một số sản phẩm mẫu giáo viên đã thực hiện
 Hình ảnh mô hình xe đạp Hình ảnh mô hình thuyền buồm
@@ -512,35 +544,869 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Ngay từ khi một đứa trẻ được sinh ra, chúng đã học hỏi thông qua kinh nghiệm - đó là cách một đứa trẻ sớm nhận ra rằng việc than vãn sẽ thu hút sự chú ý của cha mẹ chúng và việc nhìn thấy bình sữa có nghĩa là đã đến lúc ăn. Nhờ những trải nghiệm này mà một đứa trẻ sơ sinh có thể phát triển và lớn lên thành những con người có đầy đủ chức năng.Đọc về trải nghiệm của người khác qua sách giáo khoa rất khác với việc thực sự tự mình trải nghiệm. Ví dụ như học cách đạp xe. Chắc chắn, bạn có thể tìm hiểu khái niệm chung về đạp và cân bằng bằng cách đọc về nó hoặc xem ai đó thực hiện nó. Nhưng bạn sẽ không bao giờ thực sự biết làm thế nào cho đến khi bạn tự mình thử. Hay giờ nghệ thuật mang đến cho học sinh cơ hội khám phá khả năng sáng tạo và khám phá những màu sắc và hoa văn mới. Đất sét là một công cụ tuyệt vời để giúp học sinh thể hiện bản thân theo một cách khác. Thay đổi bằng các vật liệu nghệ thuật khác như sợi, hạt và phấn để giúp học sinh tìm thấy phương tiện yêu thích của mình.Bằng cách khuyến khích trải nghiệm thực tế, học sinh sẽ nắm chắc hơn về các khái niệm và cách mọi thứ hoạt động. Học tập trải nghiệm cũng thúc đẩy họ phản ánh nhiều hơn về hành động của mình và sáng tạo hơn trong việc tìm ra giải pháp cho một vấn đề. Học tập thông qua trải nghiệm sẽ giúp học sinh hiểu sâu hơn về bản thân cũng như đam mê, kỹ năng và sở thích của họ.</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Trở thành một giáo viên sáng tạo không phải là sở trường của tất cả các giáo viên, nhưng không có nghĩa điều đó không thể thực hiện được. Đối với nhiều giáo viên, sự sáng tạo đến với họ một cách hết sức tự nhiên, nhưng đối với một số người khác, điều đó dường như không phải là điều dễ dàng. Tuy nhiên, mỗi giáo viên đều mang trong mình những tiềm năng để trở thành người giáo viên sáng tạo.Các giáo viên sáng tạo không ngại thử thách, khó khăn. Họ luôn cởi mở và sử dụng tất cả những gì xung quanh họ để tạo nên những ý tưởng sáng tạo và các kĩ thuật dạy học cho lớp học của mình. Họ luôn tự nguyện trong việc thử thách bản thân, áp dụng các kĩ thuật dạy học và các phương pháp mới mà không lo sợ sự thất bại. Họ luôn tìm ra những ý tưởng từ đồng nghiệp và học sinh, sau đó sẽ áp dụng nó khi có cơ hội. Họ từng bước thoát ra ngoài cách tư duy đóng khung và luôn lắng nghe những ý tưởng mới. Ví dụ: 'Hãy thiết kế một hoạt động cho học sinh nhằm giúp không khí lớp học trở nên thoải mái hơn: Chiếc nón của em👕 Sáng tạo thiết kế🎨 Tự do phối màu💡 Thể hiện cá tính🏫 Quy định linh hoạt🤝 Gắn kết tập thể👉 Học sinh, sinh viên có thể tự thiết kế chiếc nón với màu sắc, slogan hoặc biểu tượng riêng, giúp họ thể hiện cá tính mà vẫn giữ được tính đồng bộ của trường lớp.✅ Tạo sự hứng thú✅ Nâng cao tinh thần đoàn kết✅ Kích thích sáng tạo✅ Phù hợp xu hướng thời trang✅ Không phá vỡ quy tắc nhà trường</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Quy trình hoạt động:1. Khởi động Giáo viên cầm viên phấn, hỏi: “Nếu cô/thầy thả viên phấn này xuống sàn, chuyện gì sẽ xảy ra?”Dẫn dắt: “Làm sao để thả mà không bị bể? Các em có thể thử không?”2. Thử thách đặt ra Mỗi nhóm có nhiệm vụ: Tìm ra cách thả viên phấn từ độ cao 1m mà không bị bể.3. Lập kế hoạch và chế tạo Các nhóm thảo luận, đưa ra giả thuyết.Thiết kế và chuẩn bị dụng cụ hỗ trợ (ví dụ: bọc phấn, làm "dù", tạo vùng đệm,...).Viết dự đoán: “Cách này sẽ giúp phấn không bể vì...”4. Thử nghiệm Mỗi nhóm thực hiện thử nghiệm trước lớp.Ghi lại kết quả: Thành công / Thất bại / Lý do.Nếu thất bại, cho nhóm cơ hội sửa lại và thử tiếp.5. Thảo luận &amp;amp; Rút ra bài học Hỏi học sinh: Tại sao phấn lại bể / không bể?Cách nào hiệu quả nhất? Vì sao?Điều này liên hệ gì tới cách chúng ta cư xử trong cuộc sống?Giáo viên tổng kết các bài học vật lý, kỹ năng, và nhân cách rút ra.*Bài học giúp học sinh:Hiểu về lực tác động và vận tốc:Viên phấn vỡ là do lực tác động khi chạm đất lớn. Nếu giảm lực (bằng cách giảm tốc độ rơi hoặc thay đổi bề mặt tiếp xúc), sẽ tránh làm hỏng vật – bài học cơ bản về động lực học.Tư duy giải quyết vấn đề:Một việc tưởng chừng đơn giản (như thả viên phấn không vỡ) đòi hỏi sự suy nghĩ, sáng tạo và thử nghiệm – kỹ năng cần thiết trong học tập và đời sống.Giá trị của sự nhẹ nhàng và cẩn trọng:Việc một hành động nhẹ nhàng có thể bảo vệ được một vật dễ vỡ là bài học về cách đối xử với người khác – nhất là những người “dễ tổn thương”.Thái độ với sai sót và thử nghiệm:Nếu viên phấn vỡ, đó là cơ hội để phân tích tại sao và làm lại – từ đó dạy học sinh về tinh thần kiên trì và học hỏi từ thất bại.</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>A (Art) đóng vai trò quan trọng như thế nào trong STEAM? -Định hướng thẩm mĩ cho học sinh -Kích thích khả năng sáng tạo, tư duy phản biện và giải quyết vấn đề -Giúp học sinh học trực quan tốt hơn Những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của học sinh🌱 1. Tạo không gian tự do và không phán xétKhông sợ sai: Sáng tạo cần sự liều lĩnh, nên hãy loại bỏ nỗi sợ bị chê, bị chối bỏ.Tôn trọng ý tưởng điên rồ: Một ý tưởng tưởng chừng “ngớ ngẩn” có thể là hạt giống cho điều vĩ đại.Không ép khuôn sớm: Đừng gò bó vào tiêu chuẩn ngay từ đầu – hãy để ý tưởng được “nở bung”.💡 2. Khơi gợi sự tò mò và đặt câu hỏiThay vì tìm câu trả lời, hãy hỏi “Tại sao không?”, “Nếu làm ngược lại thì sao?”, “Còn cách nào khác không?”.Đặt câu hỏi kích thích tư duy đa chiều giúp não bộ tìm kiếm giải pháp sáng tạo.📚 3. Tiếp xúc đa dạng với nghệ thuật, văn hóa, kiến thứcĐọc sách nhiều thể loại, xem phim, nghe nhạc, đi triển lãm, du lịch,...Sự va chạm giữa các lĩnh vực, nền văn hóa, ý tưởng sẽ tạo ra “tia lửa” sáng tạo.Người càng giàu trải nghiệm thì càng có nhiều chất liệu để sáng tạo.✍️ 4. Thực hành mỗi ngày – tạo thói quen sáng tạoViết mỗi ngày, vẽ mỗi ngày, phác thảo ý tưởng,... ngay cả khi không có cảm hứng.Sáng tạo không chỉ đến từ cảm hứng, mà từ kỷ luật.🧩 5. Tư duy kết hợp (combinatorial thinking)Học cách kết hợp những điều không liên quan: nghệ thuật + khoa học, âm nhạc + toán học, cổ điển + hiện đại,...Ví dụ: Steve Jobs từng nói học thư pháp giúp ông thiết kế font chữ đầu tiên cho máy tính Apple.🤝 6. Hợp tác và thảo luận với người khácLàm việc nhóm, chia sẻ ý tưởng với người từ lĩnh vực khác sẽ mang đến góc nhìn mới.Càng đa dạng quan điểm, khả năng nảy sinh giải pháp độc đáo càng cao.🧘 7. Giữ tinh thần thoải máiThiền, đi bộ, chơi thể thao, nghe nhạc,... giúp đầu óc thư giãn và dễ nảy sinh ý tưởng hơn.Nhiều ý tưởng sáng tạo không đến khi ngồi làm việc, mà xuất hiện bất ngờ – trong lúc tắm, đi dạo, hoặc mơ mộng.🔧 8. Sử dụng các công cụ hỗ trợ sáng tạoMind mapping (sơ đồ tư duy), brainstorming, sketchbook, chatGPT, AI hỗ trợ hình ảnh...Các công cụ này giúp bạn ghi lại, phát triển và thử nghiệm ý tưởng nhanh chóng.🧭 9. Chấp nhận thất bại như một phần tất yếuNhững người sáng tạo giỏi nhất cũng thường xuyên thất bại.Họ học được bài học từ đó, và dùng nó làm bàn đạp cho các ý tưởng mới.💬 10. Khuyến khích bản thân (hoặc người khác) biểu đạt cảm xúcCảm xúc chân thật là nguồn cảm hứng mạnh mẽ cho sáng tạo: viết, vẽ, hát, nhảy...Đặc biệt trong nghệ thuật, sự chân thành trong biểu đạt sẽ kết nối được với người xem/nghe/đọc.</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Bảng nhân, bảng chia dùng cho học sinh lớp 2, lớp 3Chuẩn bịNắp chai nhựa: nắp (nắp chai loại lớn càng tốt)Bìa carton/bảng gỗ không còn dùng đếnBút dạKeo dánCách làmViết đầy đủ bảng nhân bảng chia lên nắp chai Đính nắp chai lên bìa carton và sử dụng Làm đồ dùng học tập từ vật liệu tái chế là một hoạt động giáo dục sáng tạo, mang lại nhiều giá trị hơn là chỉ tạo ra sản phẩm. Khi học sinh tham gia vào quá trình này, các em không chỉ rèn kỹ năng thủ công mà còn học được những bài học quan trọng về môi trường, tư duy sáng tạo, và trách nhiệm xã hội. Dưới đây là những điều học sinh có thể học được:🧠 1. Tư duy sáng tạo và giải quyết vấn đềBiến cái cũ thành cái mới: Học sinh học cách nhìn vật liệu bỏ đi với con mắt sáng tạo – ví dụ: nắp chai có thể thành bánh xe, lon nước thành hộp bút,...Tư duy thiết kế: Các em phải suy nghĩ cách kết nối, trang trí, gia cố,... để sản phẩm vừa đẹp, vừa dùng được.♻️ 2. Ý thức bảo vệ môi trườngGiảm rác thải – tái sử dụng – tái chế: Các em nhận ra rằng không phải thứ gì cũ là phải bỏ đi.Hiểu được mối liên hệ giữa hành vi tiêu dùng cá nhân và sức khỏe của hành tinh.Trải nghiệm trực tiếp giúp bài học về môi trường trở nên gần gũi và sâu sắc hơn lý thuyết.🛠️ 3. Kỹ năng thủ công và kỹ thuật cơ bảnHọc cách cắt, dán, gắn kết, đo đạc, phối màu,...Phát triển sự khéo léo, kiên nhẫn và cảm quan thẩm mỹ.Có thể tích hợp liên môn: Toán (đo kích thước), Mỹ thuật (thiết kế, trang trí), Khoa học (tính chất vật liệu)...👥 4. Kỹ năng làm việc nhóm và giao tiếpKhi làm theo nhóm, học sinh học cách:Chia việcHợp tácLắng nghe ý kiến người khácTrình bày ý tưởng của mình🧭 5. Trách nhiệm và ý thức cộng đồngTừ hoạt động nhỏ, học sinh cảm nhận mình có thể góp phần thay đổi – dù là tiết kiệm một chai nhựa hay làm một món đồ có ích.Thúc đẩy lối sống có trách nhiệm, không hoang phí, biết quý trọng tài nguyên.🎯 6. Tinh thần tự lập và tự tinViệc tự tay làm ra đồ dùng mà các em sẽ sử dụng thật sự (như hộp bút, ống đựng bút, giá sách mini, sổ tay từ giấy vụn...) giúp tăng sự tự tin và tự hào về bản thân.✨ 7. Kết nối lý thuyết với thực tếHọc sinh không chỉ học “bảo vệ môi trường là gì” trong sách vở, mà trực tiếp hành động.Giáo dục trở nên sống động, trải nghiệm, gắn với thực tế – giúp học lâu, nhớ sâu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Theo David Kolb, học tập qua trải nghiệm là người học được trải nghiệm các hoạt động thực tế từ vận động, cảm xúc, khám phá ... để từ đó lĩnh hội được kiến thức mà mình cần học. Khi tự mình thực hiện các hoạt động, học sinh sẽ được rèn luyện năng lực và thái độ cần thiết.Tác động của học tập qua trải nghiệm đối với học sinh: - Hình thành nhận thức cho HS một cách tự nhiên, dễ nhớ: Khi được tham gia hoạt động, HS sẽ tự mình khám phá tri thức và nhờ vậy, HS sẽ hiểu sâu sắc và ghi nhớ dễ dàng hơn. - Hình thành cho HS năng lực tư duy, giải quyết vấn đề thực tế: Thoát khỏi lối mòn của việc học tập, HS có cơ hội vận dụng kiến thức, kỹ năng đã học vào hoạt động trải nghiệm. Chính những phát sinh, khó khăn thực tế sẽ khiến HS phải nhìn nhận lại thiết kế của mình và điều chỉnh. Đôi khi giải pháp lại đến từ những chi tiết nhỏ hoặc đơn giản. Điều này giúp HS liên kết thực tiễn tốt hơn. - Bồi dưỡng cho HS thái độ với môi trường tự nhiên và xã hội xung quanh: Giúp HS trải nghiệm cảm xúc với thế giới thực và bạn bè, vì vậy, bồi dưỡng cho HS thái độ trách nhiệm, yêu thương, ... - Phát huy tính chủ động và tích cực của HS: Việc tự lực thực hành và trải nghiệm thực tế đòi hỏi HS phải chủ động và tích cực tham gia vào quá trình học tập. Lứa tuổi tiểu học tò mò với thế giới xung quanh, thích các hoạt động vừa chơi vừa học, vừa thực hành vừa rút ra tri thức nên học tập trải nghiệm có thể khơi gợi động lực cho HS. Ví dụ: HS được trải nghiệm làm chiếc bè giao hàng vui vẻ với động cơ là que gỗ và một vài sợi dây thun. Qua việc trải nghiệm này, HS được củng cố kiến thức về tính chất của nước, sử dụng vật liệu chống nước, thiết kế động cơ. Ngoài ra, HS có thể chủ động và sáng tạo trong việc thiết kế bè chở hàng sao cho di chuyển được một quãng đường dài theo yêu cầu và chở được số hàng cần thiết. Việc chọn lựa các vật liệu và thử nghiệm cho bè chạy giúp HS dễ nhớ kiến thức liên quan đến tính chất của nước. Qua việc thiết kế chiếc bè vui vẻ, HS cũng có thái độ tôn trọng với những người lao động trong công tác vận chuyển hàng hóa để đưa hàng hóa đến tay người tiêu dùng.</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động đề xuất: Hãy thiết kế một sản phẩm giúp em thể hiện tình trạng làm bài của bản thân để GV có thể hỗ trợ kịp thời, đồng thời không làm phiền đến các bạn xung quanh. Tiêu chí của sản phẩm: 1/ Sản phẩm thể hiện được rõ ràng ít nhất 3 trạng thái: Em đang làm tốt, Em có khó khăn nhưng vẫn tiếp tục được, Em gặp khó khăn và không làm tiếp được. 2/ Dựng đứng được trên bàn, GV dễ quan sát. 3/ Trang trí theo cá tính riêng của HS. Hoạt động cụ thể: Hoạt động của HSKỹ năng/khả năng được phát triển1/ Lắng nghe GV nêu vấn đề: Em sẽ làm sản phẩm gì để thông báo tình trạng làm bài giúp GV có thể hỗ trợ kịp thời, đồng thời không làm phiền đến các bạn xung quanh?2/ Động não tìm ý tưởng: HS tham khảo một số vật dụng có thể dựng đứng được trên bàn để vẽ thiết kế về sản phẩm của bản thân. Chia sẻ ý tưởng trong nhóm đôi. 3/ Thiết kế sản phẩm: HS sử dụng những vật liệu dễ tìm kiếm như giấy bìa cứng, giấy màu, que gỗ, ... để thiết kế sản phẩm cá nhân. 4/ Triển lãm sản phẩm: HS tham quan các sản phẩm của các bạn trong lớp, đánh giá theo tiêu chí và bình chọn sản phẩm. 5/ Phản hồi và điều chỉnh: HS tự đánh giá quá trình học tập, đóng góp ý kiến cải tiến cho các sản phẩm và điều chỉnh sản phẩm của cá nhân. - Kỹ năng nhận diện vấn đề, nhận ra ý nghĩa của vấn đề đối với bản thân- Kỹ năng quan sát thực tế, động não các giải pháp đa dạng, khả năng chọn lựa giải pháp, phác họa thiết kế sản phẩm, chia sẻ ý tưởng- Khả năng giải quyết vấn đề, tận dụng các vật liệu sẵn có- Đánh giá ý tưởng, học hỏi từ bạn bè- Tự đánh giá về quá trình học tập của bản thân, tư duy phản biện để cải tiến sản phẩm. Qua đó, nhận thức được việc xác định tình trạng, cảm xúc bản thân là điều quan trọng (qua việc sử dụng sản phẩm). Minh họa</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Các hoạt động dạy học1/ Xác định vấn đềTrên thùng hàng hóa có ký hiệu này, đố em là ký hiệu gì? (Ký hiệu hàng hóa dễ vỡ)Nếu em là người nhận hàng, em sẽ làm gì với thùng hàng hóa này để đảm bảo hàng hóa an toàn? Giả sử em là người giao hàng, hãy thiết kế một thiết bị để giúp giao loại hàng hóa dễ vỡ được an toàn (trong bài học này, hàng hóa là hai viên phấn viết bảng). Trong quá trình giao hàng, người vận chuyển sẽ di chuyển các thùng hàng hóa sang các trạm. Vì vậy, hãy đảm bảo thiết bị của em giúp hàng hóa có rơi từ độ cao 3m vẫn được an toàn. Tiêu chí của sản phẩm:1/ Thiết bị giúp 1 viên phấn rơi từ độ cao 3 m vẫn không bị vỡ. 2/ Thiết bị có thể đóng và mở để lấy hàng hóa một cách dễ dàng. 3/ Thiết bị có thể sử dụng lại cho lần đóng gói sau. 4/ Thiết bị được ghi chú hàng hóa, tên người gửi một cách thẩm mĩ. 2/ Thiết kế thiết bịHS thảo luận nhóm để vẽ thiết kế của thiết bị:Quan sát những thiết bị bảo vệ chống va đập trong thực tế: nón bảo hiểm, thùng hàng điện tử (tivi, tủ lạnh, điện thoại di động), thùng hàng thủy tinh (bộ ly thủy tinh, bộ ấm trà bằng sứ) .... Những thiết bị đó có hình dáng và đặc điểm gì? Em sẽ thiết kế thiết bị với hình dáng như thế nào? Thiết bị của em sẽ có những bộ phận nào để đạt được tất cả các tiêu chí? Từng bộ phận sẽ sử dụng vật liệu nào? (GV có thể gợi ý một số vật liệu)Em dự định trang trí thiết bị như thế nào? Vật liệu gợi ý: 1 viên phấn Túi bong bóng khíMút xốp rửa chén Mút xốp trắng Kéo Dây Hộp giấy Băng keo trong Dây khóa kéo bằng vải Giấy bìa cứngHS chia sẻ bản vẽ, các nhóm khác nhận xét, GV góp ý. 3/ Thực hành HS thực hành thiết kế thiết bị đã vẽ với các vật liệu lựa chọn. 4/ Thử nghiệm HS thử nghiệm với 1 viên phấn ở độ cao 3m. Thử nghiệm lần đầu tiên với thiết bị Micro:bit để đỡ hao phấn. Thiết bị Micro:bit sẽ hiển thị số cường độ của lực va đập. HS thử nghiệm thành công với thiết bị Micro:bit thì sử dụng phấn để thử nghiệm. Trong quá trình thử nghiệm, HS có thể điều chỉnh thiết bị của mình để đạt các tiêu chí. Mở cuộc thi thả rơi viên phấn ở độ cao 3 m (cùng thiết bị). Nơi tổ chức có thể từ ban công lầu 1 của trường học, thả rơi phấn xuống sân trường. Các đội lần lượt nghe tiếng hô và thả phấn. 5/ Điều chỉnh HS về lớp để thảo luận về cách thức thực hiện thiết bị và đề xuất cải tiến. HS tự đánh giá quá trình học tập của bản thân.</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Có lẽ HS là người lo lắng, tự tin về khả năng sáng tạo nên mới yêu cầu như vậy. Trước hết, tôi sẽ giải thích để giải tỏa tâm lí cho HS. Nghệ thuật giúp con người giải phóng cảm xúc, thể hiện suy nghĩ và tình cảm của bản thân mà không dùng lời. Nghệ thuật rất đa dạng. Vì vậy, sản phẩm nghệ thuật không nhất thiết phải đạt được một tiêu chuẩn của một ai đó khác với người sáng tạo nghệ thuật. Những cách hỗ trợ cụ thể:- Tổ chức cho HS tìm hiểu về tác dụng của nghệ thuật đối với con người.- Tổ chức cho HS thể hiện, bộc lộ cảm xúc qua yếu tố nghệ thuật như vẽ, hát, nặn, ... trong các hoạt động vui vẻ như khởi động, trò chơi mà không đánh giá. Chẳng hạn, trong đợt tập huấn vừa qua, tôi được trải nghiệm việc thể hiện sự cảm nhận âm thanh để tạo thành bức tranh với đường nét, màu sắc đa dạng. - Tạo điều kiện cho HS tự chủ trong việc sáng tạo : HS được tự lựa chọn chủ đề, vật liệu, hình mẫu, cách thức để thể hiện yếu tố nghệ thuật trong sản phẩm. - Tạo không khí lớp học thân thiện để sự góp ý, nhận xét lẫn nhau giữa HS – HS và GV – HS không tạo sự phán xét. - Lồng ghép những yếu tố nghệ thuật khác trong hoạt động giáo dục của lớp như : đóng vai, múa, hát, đàn, thổi sáo, ...- Chú ý dạy học phân hóa trong quá trình tổ chức dạy học : cung cấp hướng dẫn nhiều hơn cho những nhóm HS còn chưa tự tin. - Tạo điều kiện cho tất cả HS được trưng bày, chia sẻ về sản phẩm của mình. Hiện nay, việc GV chỉ định mời một số HS chia sẻ về sản phẩm khiến HS ngầm hiểu rằng chỉ những sản phẩm đó mới là những sản phẩm tốt và đẹp. Vì vậy, GV có thể khéo léo thay đổi để cho tất cả HS được chia sẻ trước lớp. Nếu lớp học có đông HS và thời lượng không cho phép, GV có thể cho HS được chia sẻ trong nhóm có phạm vi nhỏ trước, sau đó sẽ ngẫu nhiên chọn HS lên trình bày, hoặc cho HS thay phiên lên trình bày (rải ra cho các buổi học). Việc chọn ngẫu nhiên, GV sử dụng một công cụ khác cho khách quan như bốc thăm, quay số, ...- Ngoài ra, việc đánh giá và bình chọn của các bạn trong lớp cũng có thể tác động đến tâm lý của HS. Bên cạnh tiêu chí yếu tố nghệ thuật, GV có thể tạo ra nhiều tiêu chí bình chọn để tất cả các nhóm được khen ngợi. Chẳng hạn, nhóm có sản phẩm đạt được mức tốt về yếu tố khoa học, nhóm trang trí đẹp, nhóm đoàn kết, nhóm tận dụng vật liệu thông minh, yếu tố nghệ thuật của sản phẩm rõ ràng và dễ hiểu, nhóm giữ gìn vệ sinh tốt, ...</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động dạy học : Sử dụng rác có thể tái chế được của lớp học để làm đồ chơi tặng cho các bạn nhỏ ở mái ấm tình thương trên địa bàn. 1/ Thống kê và sắp xếp lại rác có thể tái chế của lớp họcMỗi nhóm được giao 1 thùng rác tái chế (kích cỡ vừa phải). Trong vòng 2 tuần – 4 tuần, nhóm sẽ bỏ rác tái chế vào thùng. Sau đó, thống kê và sắp xếp lại rác có thể tái chế. Hoạt động này giúp HS có ý thức phân loại rác và hình dung được lượng rác thải mỗi ngày lớn như thế nào. 2/ Xác định vấn đềMùa hè đến nhưng nhiều bạn nhỏ ở mái ấm tình thương trên địa bàn không có nhiều đồ chơi như các bạn khác. Không cần những món đồ chơi đắt tiền, chính mỗi bạn có thể thể hiện sự chân thành khi tự tay làm đồ chơi để tặng cho các bạn ấy. Mỗi nhóm hãy làm một món đồ chơi để tặng lại cho các bạn nhỏ ấy với các tiêu chí sau : Đồ chơi được làm từ rác tái chế của lớp học. Đồ chơi có ý nghĩa và mang tính nhân văn. Đồ chơi chắc chắn, sử dụng được lâu dài. HS sắp xếp lại rác rồi mới giao nhiệm vụ để tránh việc tái chế rác thải nhưng một số hoạt động học tập, HS và GV phải mua thêm các vật liệu để thực hiện. HS cũng học được cách hỗ trợ nhau khi có thể trao đổi rác tái chế giữa các nhóm. Ngoài ra, HS học được cách giải quyết vấn đề từ chính những gì mình đang có (rác tái chế). Vật liệu là từ rác tái chế thu thập được nên mang yếu tố bất ngờ, hấp dẫn và thực tế. Hoạt động này giúp HS thấy ý nghĩa của việc tạo ra sản phẩm và giáo dục HS phẩm chất nhân ái (quan tâm, chia sẻ với bạn bè có hoàn cảnh khó khăn). 3/ Thiết kế bản vẽTừ những vật liệu đã có cùng với một số vật dụng cố định khác (kéo, keo, ...), HS phác thảo bản vẽ về món đồ chơi mà nhóm dự định thực hiện. 4/ Thực hiện thiết kế đồ chơiHS thực hành theo nhóm để làm ra món đồ chơi theo dự định. 5/ Trưng bày sản phẩmCác nhóm trưng bày và giới thiệu về sản phẩm. Các HS khác trải nghiệm với đồ chơi và cho ý kiến nhận xét, đánh giá. 6/ Phản hồi và điều chỉnhHS tự đánh giá quá trình học tập, đóng góp ý kiến cải tiến cho các sản phẩm và điều chỉnh sản phẩm của nhóm. Ngoài ra, sau khi gửi tặng đồ chơi đến mái ấm, HS sẽ nhận được phản hồi của chính các bạn nhỏ ở mái ấm – là người sử dụng để có những điều chỉnh cho các lần thiết kế sau. Hoạt động dạy học trên nếu giữ nguyên có thể nhằm dạy học cho môn Công nghệ lớp 3, 4 với chủ đề “Làm đồ chơi”, “Làm đồ chơi dân gian”. Nếu muốn tích hợp liên môn để trở thành bài học STEM, trong đó, môn Tự nhiên và Xã hội hoặc môn Khoa học là chủ đạo thì cần có sự điều chỉnh về tiêu chí của sản phẩm:Môn họcBài học Tiêu chí sản phẩmTự nhiên và Xã hội lớp 1Thực vật và động vật xung quanh Giữ 3 tiêu chí đã có. Bổ sung tiêu chí : Cách chơi liên quan đến phân loại cây theo nhu cầu sử dụng của con người (cây bóng mát, cây ăn quả, cây hoa, ...)Tự nhiên và Xã hội lớp 1Thực vật và động vật xung quanh Giữ 3 tiêu chí đã có. Bổ sung tiêu chí : Cách chơi liên quan đến biện pháp chăm sóc một số vật nuôi quen thuộc. Tự nhiên và Xã hội lớp 2Một số cơ quan bên trong cơ thể: vận động, hô hấp, bài tiết nước tiểuGiữ 3 tiêu chí đã có. Bổ sung tiêu chí : Đồ chơi giúp ghi nhớ tên và vị trí của các bộ phận thuộc các cơ quan vận động/hô hấp/bài tiết nước tiểu. Tự nhiên và Xã hội lớpTrái Đất trong hệ Mặt trời Giữ 3 tiêu chí đã có. Bổ sung tiêu chí : Đồ chơi với chủ đề Trái Đất trong hệ Mặt trời. Khoa học lớp 4Một số bệnh liên quan đến dinh dưỡngGiữ 3 tiêu chí đã có. Bổ sung tiêu chí : Đồ chơi giúp củng cố kiến thức về các bệnh liên quan đến dinh dưỡng. Khoa học lớp 4Chuỗi thức ănGiữ 3 tiêu chí đã có. Bổ sung tiêu chí : Đồ chơi với chủ đề là chuỗi thức ăn trong tự nhiên. Khoa học lớp 5Năng lượng điệnGiữ 3 tiêu chí đã có. Bổ sung tiêu chí : Đồ chơi sử dụng mạch điện và nguyên tắc của mạch điện. Khoa học lớp 5Năng lượng gióGiữ 3 tiêu chí đã có. Bổ sung tiêu chí : Đồ chơi sử dụng năng lượng gió để hoạt động.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>“Học tập qua trải nghiệm (Experiential Learning)” là triết lý giáo dục mà học sinh chủ động tham gia vào quá trình khám phá, thử nghiệm và rút ra kết luận từ các hoạt động thực tế. Thay vì tiếp thu kiến thức thụ động, các em sẽ "học đi đôi với hành", áp dụng lý thuyết vào thực tiễn để xây dựng hiểu biết sâu sắc.Lợi ích chínhTăng cường hiểu biết và ghi nhớ: Tự tay thực hiện giúp nắm vững kiến thức.Phát triển kỹ năng thế kỷ 21: Rèn luyện giải quyết vấn đề, tư duy phản biện, hợp tác, giao tiếp sáng tạo.Nâng cao động lực và hứng thú: Học sinh hào hứng hơn khi được chủ động tham gia và thấy kết quả cụ thể.Khuyến khích tự tin và độc lập: Tự mình tìm tòi, thử nghiệm và vượt qua thử thách giúp các em tự tin hơn.Ví dụ: Trong giáo dục STEAM, thay vì chỉ học công thức về lực nâng, học sinh có thể thiết kế, chế tạo và thử nghiệm mô hình máy bay. Việc trực tiếp quan sát và điều chỉnh thiết kế để mô hình bay được, giúp hiểu sâu sắc các nguyên lý khí động học, lực nâng, lực cản và trọng lực. Thất bại ban đầu sẽ giúp rèn luyện khả năng phân tích, tìm nguyên nhân và cải thiện giải pháp, đồng thời trải nghiệm niềm vui khi đạt được thành công.</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động "Góc Sáng Tạo &amp;amp; Giải Quyết Vấn Đề" là trải nghiệm học tập giúp chủ động tìm và giải quyết các vấn đề thực tế.Mô tả hoạt độngDiễn ra trong 2-3 buổi học, học sinh theo nhóm không chỉ giải quyết khó khăn hiện tại mà còn trang bị kỹ năng sống thiết yếu.1. Xác định vấn đề (Buổi 1): Thảo luận để tìm ra một vấn đề nhỏ trong học tập hoặc cuộc sống (ví dụ: khó tập trung, đồ dùng bừa bộn) và phân tích nguyên nhân.2. Lên ý tưởng &amp;amp; Thiết kế (Buổi 2): Chọn vấn đề, động não ý tưởng, và phác thảo hoặc xây dựng mô hình giải pháp (ví dụ: "hộp đựng điện thoại" khi học bài, "kệ sách mini"). Sau đó, trình bày và nhận phản hồi.3. Thực hiện &amp;amp; Chia sẻ (Buổi 3): Hoàn thiện giải pháp, trình bày sản phẩm cuối cùng và chia sẻ cách nó giúp ích.Kỹ năng phát triểnHọc sinh được rèn luyện:Giải quyết vấn đề: Từ nhận diện đến thực thi giải pháp.Tư duy phản biện &amp;amp; Sáng tạo: Đưa ra ý tưởng độc đáo và phù hợp.Hợp tác &amp;amp; Giao tiếp: Làm việc nhóm, chia sẻ và trình bày ý tưởng.Tự chủ &amp;amp; Trách nhiệm: Chủ động tìm và thực hiện giải pháp cho vấn đề của mình.Tư duy thiết kế: Thực hiện theo quy trình từ thấu cảm đến thử nghiệm.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học: "Cứu hạt phấn"Mục tiêu: Học sinh trải nghiệm quy trình thiết kế kỹ thuật, học cách giải quyết vấn đề và học từ thử nghiệm.1. Giới thiệu &amp;amp; Đặt vấn đề (15 phút)Hoạt động: Đặt câu hỏi nhiệm vụ về lý do phấn dễ vỡ và cách bảo vệ vật thể khỏi va đập.Gợi ý: Va chạm, vật liệu giòn, đệm, bao bì sản phẩm.2. Thảo luận Ý tưởng &amp;amp; Thiết kế (30 phút)Hoạt động: Học sinh làm nhóm động não và phác thảo thiết bị bảo vệ phấn.Câu hỏi định hướng: Làm thế nào giảm tác động, vật liệu hấp thụ lực, cách giữ phấn ổn định, dễ sử dụng.3. Cung cấp Vật liệu &amp;amp; Chế tạo (45 phút)Vật liệu: Bìa các-tông, giấy, bông, xốp, ống hút, dây chun,...Hoạt động: Học sinh tự do lựa chọn vật liệu và chế tạo thiết bị. Giáo viên hỗ trợ và nhấn mạnh mỗi thử nghiệm là một bài học.4. Thử nghiệm &amp;amp; Cải tiến (20 phút)Hoạt động: Mỗi nhóm thả viên phấn từ độ cao 3 mét.Câu hỏi phản tư: Phấn có vỡ không? Tại sao? Bộ phận nào chưa hiệu quả? Cải tiến gì? Học được gì từ thiết kế này?5. Chia sẻ &amp;amp; Rút kinh nghiệm (10 phút)Hoạt động: Các nhóm chia sẻ bài học rút ra. Giáo viên tổng kết về lực, vật liệu và quy trình thiết kế.</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Khi học sinh muốn "xem ví dụ" trong hoạt động nghệ thuật STEAM, điều đó cho thấy các em đang thiếu tự tin hoặc cần điểm tựa. Giáo viên cần vừa hỗ trợ, vừa khơi gợi sáng tạo, thay vì đưa ra ví dụ hoàn chỉnh, hãy khuyến khích tư duy mở:"Trong nghệ thuật, mỗi người đều có ý tưởng độc đáo riêng. Thay vì ví dụ, hãy nghĩ về điều em muốn thể hiện qua tác phẩm: thông điệp, hình dáng, màu sắc? Cứ thoải mái tưởng tượng nhé, không có ý tưởng nào là 'sai' cả. Chúng ta sẽ biến ý tưởng của em thành hiện thực!"Hỗ trợ giải tỏa lo lắng &amp;amp; khuyến khích sáng tạoTập trung vào quá trình: Nhấn mạnh mục tiêu là học hỏi, thử nghiệm, không phải sản phẩm hoàn hảo. Chia nhỏ nhiệm vụ nếu cần.Cung cấp "đầu vào" đa dạng (không phải sản phẩm cuối cùng): + Gợi ý từ cuộc sống: "Nhìn xung quanh xem có gì truyền cảm hứng?"+ Hình ảnh/Video về kỹ thuật/vật liệu: Cho xem các kỹ thuật, vật liệu hoặc tác phẩm trừu tượng để mở rộng góc nhìn.+ Câu hỏi định hướng: "Em hình dung nó sẽ trông thế nào? Vật liệu này có thể giúp em thể hiện gì?"Hỗ trợ cá nhân: Lắng nghe, cùng "khởi động" ý tưởng (chứ không phải thiết kế hoàn chỉnh), và luôn khen ngợi nỗ lực và quá trình.</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: "Sáng Tạo Xanh: Đèn Lồng Từ Chai Nhựa"1. Giới thiệu hoạt độngGiáo viên hướng dẫn học sinh dùng chai nhựa tái chế để làm đèn lồng trang trí, qua đó giáo dục về tái chế và sáng tạo.2. Mô tả hoạt độngThời lượng: 2 buổi học (mỗi buổi 35 - 40 phút).Vật liệu: Chai nhựa, kéo, bút màu, dây đèn LED pin, keo, vật liệu trang trí phụ trợ.Các bước: a. Thảo luận &amp;amp; Lên ý tưởng (Buổi 1): Giới thiệu vấn đề rác thải nhựa, lợi ích tái chế. Học sinh phác thảo ý tưởng đèn lồng.b. Cắt &amp;amp; Tạo hình (Buổi 1): Hướng dẫn cắt chai nhựa an toàn theo hình dáng mong muốn.c. Trang trí &amp;amp; Lắp ráp (Buổi 2): Trang trí các mảnh nhựa, lắp ráp thành đèn lồng, và đặt đèn LED vào.d. Trưng bày &amp;amp; Chia sẻ (Buổi 2): Trưng bày sản phẩm, mỗi học sinh/nhóm chia sẻ về ý tưởng và bài học.3. Chủ đề/Bài học liên quan (Chương trình Giáo dục phổ thông 2018)Hoạt động này tích hợp các bài học về môi trường và vật liệu:+ Môn Tự nhiên và Xã hội (Lớp 1, 2, 3)Lớp 1: "Môi trường xung quanh / Bảo vệ môi trường": Nhận biết rác thải nhựa, tác hại và ý thức giữ gìn vệ sinh.Lớp 2: "Con người và môi trường / Sử dụng hợp lí tài nguyên": Hiểu tái chế giúp tiết kiệm tài nguyên.Lớp 3: "Giữ gìn vệ sinh môi trường / Phòng tránh tai nạn": Thực hành giữ gìn môi trường và an toàn sử dụng dụng cụ.+ Môn Khoa học (Lớp 4, 5)Lớp 4: "Vật chất và năng lượng - Vật liệu": Nhận biết và hiểu tính chất của nhựa.Lớp 5: "Môi trường và tài nguyên - Bảo vệ môi trường": Nhận thức tác hại rác thải nhựa, áp dụng 3R (Reduce - Reuse - Recycle) qua hoạt động.Hoạt động này không chỉ giúp học sinh tạo ra sản phẩm đẹp mà còn thấm nhuần ý nghĩa bảo vệ môi trường và sử dụng tài nguyên bền vững.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Học tập thông qua trải nghiệm là hướng tiếp cận giáo dục hiện đại dựa trên lý thuyết kiến tạo. Hướng tiếp cận này lấy học sinh làm trung tâm, cho phép học sinh trực tiếp tham gia vào các hoạt động quan sát, thực hành, tìm tòi, khám phá, thử sai để đạt được mục tiêu học tập nhất định. Quan điểm giáo dục này được thể hiện cụ thể trong các hoạt động STEAM như làm đồ chơi (xe phản lực bong bóng, đèn kéo quân, chuồn chuồn thăng bằng,...), đề xuất và thực hiện các sản phẩm bảo vệ môi trường (thùng rác phân loại rác, đèn ngủ tái chế, bình hoa tái chế,...), đề xuất và thực hiện giải pháp cho một số vấn đề trong cuộc sống hằng ngày (bình tưới nước tự động, quạt gió mini, túi giữ nhiệt,...),... Từ đó, học sinh được phát triển tư duy trực quan, tìm thấy niềm vui trong học tập, hạn chế dần cảm giác chán và sợ học để tích cực tham gia vào các hoạt động học tập hơn. Ngoài ra, các hoạt động này còn giúp học sinh kết hợp, vận dụng kinh nghiệm sẵn có với các kiến thức, kĩ năng đã được học để sáng tạo, giải quyết các vấn đề thực tiễn. Từ đó, học sinh tìm thấy ý nghĩa của việc học tập, góp phần kích thích động cơ học tập lâu dài cho học sinh. Ngoài ra, hướng tiếp cận này còn giúp gia tăng cơ hội tương tác xã hội cho học sinh thông qua các hoạt động nhóm, thảo luận, nhận xét, đánh giá. Vì vậy, bên cạnh việc được củng cố nhận thức và kĩ năng từ bạn bè, thầy cô, học sinh cũng phát triển được các kĩ năng giao tiếp hợp tác.</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Thiết kế một hoạt động cho học sinh nhằm giúp học sinh thực hiện được những việc làm cụ thể để giữ gìn trường học xanh, sạch, đẹp.Mục tiêuSau hoạt động này, học sinh có thể:- Khảo sát một số khu vực trường học cần được cải thiện về môi trường.- Đề xuất được một số một số việc làm cụ thể phù hợp với lứa tuổi nhằm giải quyết các vấn đề tương ứng với từng khu vực khảo sát.- Thực hiện được một số việc làm cụ thể phù hợp với lứa tuổi đã đề xuất- Hợp tác làm việc nhóm hiệu quả- Chủ động, tích cực tham gia vào nhiệm vụ được phân công.Hoạt động của học sinh- Học sinh chia thành các nhóm 4-5 thành viên để đi khảo sát một số khu vực trong trường học trong 15 phút (sân trường, hành lành lớp học, lớp học ở các tầng, nhà ăn, nhà vệ sinh,...) theo sự hướng dẫn của giáo viên để ghi lại vào phiếu quan sát những vấn đề cần được cải thiện (phiếu quan sát cần ghi cụ thể nhiệm vụ cho mỗi nhóm và các mục nội dung học sinh cần ghi nhận, có thể kết hợp cho học sinh sử dụng máy ảnh để chụp lại thực trạng nếu có điều kiện).- Sau đó, học sinh tự hoạt động nhóm trong vòng 10 phút để tìm ra giải pháp cho một số vấn đề phù hợp với khả năng và lứa tuổi của học sinh (làm sản phẩm STEAM, dọn dẹp, trồng cây, sửa chữa, cải tạo đồ vật, tái chế rác thải,...). - Tiếp theo, các nhóm học sinh tập trung tại khu vực lớp học để trình bày kết quả khảo sát và thảo luận nhóm.- Các nhóm lắng nghe, nhận xét kết quả của nhóm bạn và giáo viên bổ sung ý kiến nếu cần thiết.- Học sinh ghi nhận ý kiến từ các nhóm khác và điều chỉnh giải pháp nếu cần thiết. Sau đó, mỗi nhóm có 10 phút để phân công nhiệm vụ và chuẩn bị dụng cụ, vật liệu để thực hiện giải pháp của nhóm.- Các nhóm học sinh di chuyển về khu vực đã khảo sát và tiến hành thực hiện hoạt động nhóm và ghi nhận lại (ghi chép kết hợp với chụp ảnh nếu có thể) kết quả đã thực hiện được để báo cáo với lớp. Trong lúc đó, giáo viên lần lượt đi đến các khu vực để quan sát và hỗ trợ (nếu cần thiết).Sau 20 phút, học sinh tập trung tại lớp học và di chuyển lần lượt đến từng khu vực để lắng nghe báo cáo và đánh giả kết quả thực hiện của các nhóm, thảo luận về phương hướng cải tiến. Giáo viên nhận xét, đánh giá và rút ra kết luận về hoạt động mà các nhóm đã thực hiện giúp các em giữ gìn trường học xanh, sạch, đẹp; đoàn kết, hợp tác hiệu quả hơn và thể hiện được tinh thần trách nhiệm với công việc được phân công.</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Vật liệu cần chuẩn bị : phấn, túi nilon to, chỉ, băng keo, kéoHoạt động của học sinh- Học sinh phát biểu dự đoán về tình huống giáo viên đưa ra: Nếu thả một viên phấn từ độ cao 3 mét, thì điều gì sẽ xảy ra?- Sau đó, học sinh được hướng dẫn ra sân tầng lầu cách mặt đất 3 mét để thực hiện việc thả phấn và quan sát để kiểm chứng dự đoán của mình.- Giáo viên đặt vấn đề: “Vì sao viên phấn lại vỡ?”“Làm thế nào để viên phấn không bị vỡ khi dược thả từ độ cao 3 mét? “Hãy chia thành các nhóm 3 – 4 thành viên và dựa trên các kiến thức đã học hãy thảo luận tìm ra giải pháp trong vòng 5 phút.”- Các nhóm học sinh tiến hành thảo luận và lần lượt trình bày kết quả. Các nhóm lắng nghe, nhận xét giải pháp của nhóm bạn mình. Giáo viên cũng quan sát quá trình hoạt động nhóm, hỗ trợ khi cần thiết và góp ý trong phần trình bày kết quả thảo luận cho các nhóm. - Sau đó, giáo viên định hướng học sinh bằng cách đưa ra giải pháp làm dù nilon để giảm tốc độ rơi. Học sinh đề xuất cách làm thông qua quan sát dù nilon mẫu của giáo viên hoặc và giáo viên hướng dẫn học sinh cách làm (tùy đối tượng học sinh).- Học sinh tiến hành làm dù và được khuyến khích kết hợp với giải pháp đã đề xuất trước đó.- Sau 10 phút thực hiện sản phẩm, học sinh di chuyển ra hành lang lầu đề đánh giá hiệu quả của sản phẩm nhóm. - Sau đó, các nhóm di chuyển về lớp và trình bày về sản phẩm của mình: hiệu quả, cải tiến. Các nhóm còn lại lắng nghe, nhận xét. Giáo viên bổ sung ý kiến nếu cần thiết và rút ra kết luận về bài học: “Thông qua bài học vừa rồi, các em đã đưa ra và thực hiện được giải pháp giúp viên phấn không bị vỡ khi rơi từ vị trí cách mặt đất 3 mét. Hãy tiếp tục sáng tạo và cải thiện để giải pháp hoàn thiện hơn, có thể vận dụng vào các vấn đề tương tự trong cuộc sống.”</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Tôi sẽ đồng ý và đưa ra không chỉ một mà một vài ví dụ khác nhau để học sinh nhận xét và bày tỏ cảm xúc về nét đẹp của từng sản phẩm. Từ đó, học sinh có thể tự rút ra được việc tạo ra một sản phẩm nghệ thuật có thể được thực hiện bằng nhiều cách khác nhau và không có sản phẩm nào giống sản phẩm nào, mỗi sản phẩm sẽ có một nét đẹp và ý nghĩa riêng của nó. Từ đó, trấn an học sinh đừng quá lo lắng về việc phải tuân theo các nguyên tắc khi sáng tạo ra một sản phẩm có tính nghệ thuật độc đáo. Mỗi người sẽ có cảm nhận thẩm mĩ khác nhau và có cách biểu đạt cảm xúc khác nhau nên hãy tự tin thể hiện sản phẩm của mình. Ngoài ra tôi cũng sẽ trao đổi với học sinh hãy chủ động nhờ giáo viên nếu cần hỗ trợ trong quá trình thực hiện sản phẩm.Một số cách hỗ trợ cụ thể:Không nhận xét tiêu cực, cảm tính về sản phẩm của học sinh như: “Chưa đẹp”, “xấu”, “sản phẩm lỗi”. Thay vào đó, nhìn nhận những mặt tích cực mà học sinh đã làm được trong sản phẩm như: “bố cục thú vị”, “màu sắc kết hợp độc đáo”, “thể hiện cảm xúc đặc biệt”,...Ngoài ra, giáo viên cũng cần động viên học sinh trong quá trính thực hiện sản phẩm: “con đang làm rất tốt”, “thao tác đo đạc của con rất nhanh nhẹn và chính xác”, “con đã cắt/dán được ở những vị trí hợp lí”,...Tạo cơ hội cho học sinh thử nghiệm với nhiều cách khác nhau và khuyến khích hoạt động thử sai.Trưng bày sản phẩm của tất cả học sinh đã thực hiện để học sinh thấy được tính đa dạng trong nghệ thuật.</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động “Sử dụng giấy báo cũ đã qua sử dụng để làm túi giấy tái chế.”Vật liệu cần chuẩn bị: giấy báo cũ không còn sử dụng, kéo, keo, dây thừng.Thiết kế hoạt động- Học sinh được xem video về việc tiêu thụ túi nilon tràn lan trên thế giới. Từ đó, trả lời các câu hỏi về tác hại của việc sử dụng túi nilon sẽ ảnh hưởng như thế nào đến môi trường.- Sau đó, giáo viên đặt vấn đề về việc liệu có thể thay thế túi nilon bằng sản phẩm nào khác? Câu trả lời mong đợi là túi giấy.- Giáo viên định hướng học sinh sử dụng giấy báo đã qua sử dụng để tái chế thành túi giấy và trang trí theo sở thích.- Giáo viên cho học sinh xem một số mẫu túi sưu tầm được để học sinh có thể đề xuất cách làm túi giấy từ giấy báo cũ. - Tiếp theo, học sinh chia thành nhóm 2-3 học sinh để thiết kế mẫu túi và trình bày cách thực hiện trước lớp. Các nhóm góp ý, nhận xét lẫn nhau. Giáo viên bổ sung ý kiến nếu cần thiết.- Sau đó, các nhóm tiến hành thực hiện sản phẩm, trang trí theo sở thích nhóm và trình bày sản phẩm trước lớp. Các nhóm nhận xét lẫn nhau và đánh giá để cải tiến. - Giáo viên cho học sinh sử dụng và đánh giá độ bền của sản phẩm, báo cáo kết quả sau 3-4 tuần.Họat động này có thể sử dụng để giảng dạy trong:- Môn Tự nhiên và Xã hội: Mạch nội dung Trường học, Cộng đồng địa phương- Môn Khoa học: Mạch nội dung Sinh vật và môi trường</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Theo tôi hiểu “học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế, khám phá kiến thức thông qua quan sát, thử nghiệm và giải quyết vấn đề bằng chính đôi tay và tư duy của mình. Đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ kiến thức một cách tự nhiên và lâu dài mà còn tăng tính sáng tạo và chủ động học tập của các em. Một ví dụ cụ thể tôi từng áp dụng trong giờ học Tự nhiên và xã hội là: Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt, tưới nước mỗi ngày, quan sát quá trình hạt nảy mầm, phát triển thành cây non. Từ đó, các em hiểu được chu trình sinh trưởng của thực vật một cách sinh động hơn rất nhiều so với việc chỉ xem hình trong sách. Sau khi được thực hiện hoạt động này, các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn và vô cùng thích thú. Không chỉ vậy, các em còn hỗ trợ nhau thực hiện và trang trí sản phẩm của mình rất đẹp. Mỗi lần nhắc lại kiến thức này, các em đều có thể nhớ lại được hoạt động và trả lời chính xác nội dung bài học.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Trong lớp học của tôi, tôi đã thiết kế một hoạt động mang tên “Chia sẻ cùng Cô”. Đây là hoạt động mà vào đầu giờ học, mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn – ví dụ như hôm nay sắp xếp bàn ghế thế nào để tham gia các hoạt động trải nghiệm hay cách nhắc nhau giữ trật tự khi cô ra ngoài hoặc có thể chia sẻ một câu chuyện vui mà mình vừa trải qua. Đây là thời gian học sinh tôi rất yêu thích và cách tôi bắt đầu một ngày học tập của các em tích cực, vui vẻ hơn thay vì nếu ra các quy tắc kỷ luật. Hoạt động này đơn giản nhưng giúp học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể. Tư duy phản biện và lắng nghe tích cực: Các em học cách lắng nghe bạn mình nói và phản hồi một cách xây dựng. Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn, gọn gàng hơn hoặc học hiệu quả hơn. Tôi nhận thấy sau một thời gian, học sinh mạnh dạn hơn, biết chia sẻ, biết quan tâm đến bạn bè và tích cực đề xuất ý tưởng để cải thiện lớp học. Đây là cách giúp các em kết nối cuộc sống với việc học, rèn luyện kỹ năng thực tiễn và hình thành năng lực giải quyết vấn đề – đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh. Hình ảnh minh họa một số đề xuất của các em học sinh được tôi thực hiện:</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Với bài tập “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.” Tôi sẽ thiết kế kế hoạch bài dạy của tôi với các hoạt động mà học sinh được thực hiện theo nhóm (3 – 5 học sinh/nhóm) 1. Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau: “Các em đã bao giờ làm rơi viên phấn chưa?” “Tại sao viên phấn lại dễ vỡ?” “Theo các em, làm thế nào để bảo vệ phấn khi bị rơi từ trên cao?” Những câu hỏi này giúp học sinh liên hệ thực tế và xác định mục tiêu của hoạt động. 2. Thử nghiệm 1: - Học sinh thảo luận nhóm và tự lựa chọn các vật liệu mà các em có để thử nghiệm bài tập này. VD: Dùng khăn giấy quấn quanh viên phấn, dùng hộp bút vải để đựng viên phấn,..... Giao nhiệm vụ: Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long,... Học sinh cần thiết kế một “thiết bị bảo vệ phấn” sao cho viên phấn không bị vỡ khi thả từ độ cao 3 mét. Thực hành và thử nghiệm: Các nhóm thảo luận, thiết kế và lắp ráp mô hình. Sau đó, từng nhóm mang thiết bị ra thử nghiệm bằng cách thả viên phấn từ độ cao quy định và quan sát kết quả. Thảo luận và cải tiến: Học sinh chia sẻ thiết kế, giải thích vì sao thiết bị của mình có thể bảo vệ phấn. Nếu thiết bị chưa hiệu quả, các em được khuyến khích điều chỉnh để thử lại. Thông qua hoạt động này, học sinh sẽ phát triển các năng lực: Tư duy logic và sáng tạo: Vì các em phải vừa tìm ra ý tưởng, vừa giải thích được tính hợp lý của vật liệu. Giải quyết vấn đề thực tiễn: Vận dụng kiến thức về vật lý đơn giản như lực va đập, độ đàn hồi... để bảo vệ vật thể. Kỹ năng làm việc nhóm, giao tiếp và thử sai: Hoạt động giúp các em học cách lắng nghe, điều chỉnh kế hoạch và không ngại thất bại. Đây là một hoạt động STEAM tiêu biểu giúp học sinh rèn luyện tư duy thực tiễn ngay từ lớp 3 một cách hào hứng, hiệu quả và đầy sáng tạo.</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Khi học sinh tham gia hoạt động nghệ thuật, việc các em nói: “Em muốn xem ví dụ” là điều thường thấy. Trong tình huống này, tôi sẽ đưa ra một số ví dụ tham khảo đa dạng nhưng không áp đặt hay bắt buộc học sinh phải làm theo mà luôn khuyến khích các em sáng tạo theo ý tưởng riêng của mình. Tôi sẽ nói với học sinh: “Đây là một vài ví dụ để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác – miễn là thể hiện được ý tưởng của mình.” “Cái đẹp không chỉ có một kiểu. Quan trọng là con thể hiện được điều con nghĩ bằng cách riêng.” Những cách hỗ trợ cụ thể tôi sử dụng: Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối. Mỗi bạn đều có thể thể hiện ý tưởng theo cách riêng, miễn là có lý do, mục đích rõ ràng. Điều này giúp học sinh bớt lo lắng, mạnh dạn thử nghiệm và phát triển sự tự tin. Đa dạng hóa ví dụ và tài liệu tham khảo: Tôi cung cấp nhiều hình ảnh hoặc sản phẩm mẫu có phong cách khác nhau (về hình dáng, chất liệu, màu sắc...) để học sinh hiểu rằng không chỉ có một cách – từ đó tăng khả năng sáng tạo và tư duy thẩm mỹ cá nhân. Ngoài ra, tôi có thể nhờ các em học sinh khác trong lớp biểu diễn bằng nhiều hình thức khác nhau để khích lệ tinh thần và giảm bớt áp lực, lo lắng cho học sinh. Đề cao ý tưởng cá nhân và năng lực biểu đạt: Tôi luôn ghi nhận và khích lệ những sáng tạo riêng biệt, giúp học sinh cảm thấy ý tưởng của mình được trân trọng. Điều này góp phần nâng cao động lực học tập và phát triển giá trị bản thân – một nền tảng quan trọng trong giáo dục STEAM. →Trong giáo dục STEAM, yếu tố “A” – nghệ thuật – đóng vai trò quan trọng trong việc nuôi dưỡng trí tưởng tượng, khả năng biểu đạt và tư duy đa chiều. Bằng cách hỗ trợ nhẹ nhàng và định hướng hợp lý, giáo viên có thể giúp học sinh vượt qua rào cản tâm lý và phát triển tư duy sáng tạo một cách tự nhiên, bền vững.</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>Sử dụng vật liệu tái chế trong dạy học Chủ đề: Làm hộp bút từ chai nhựa cũ Môn học: Tự nhiên và Xã hội (lớp 3) hoặc Khoa học (lớp 4–5) Mục tiêu: Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa. Biết cách thiết kế một sản phẩm hữu ích từ đồ bỏ đi. Phát triển tư duy sáng tạo, kỹ năng giải quyết vấn đề và ý thức bảo vệ môi trường. Hoạt động dạy học: 1. Khởi động – Gợi vấn đề: GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa, nếu không tái chế thì chuyện gì sẽ xảy ra với môi trường?” “Chai nhựa bỏ đi có thể biến thành đồ dùng học tập gì?” Khám phá – Thiết kế: Học sinh quan sát một số mẫu hộp bút tái chế từ chai nhựa. Làm việc nhóm, phác thảo thiết kế hộp bút riêng: hình dạng, màu sắc, cách đóng mở nắp... Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa,... Chế tạo sản phẩm: Các nhóm tiến hành cắt, dán, gắn khóa kéo để tạo thành hộp bút theo thiết kế. Ghi lại những điều chỉnh khi gặp khó khăn (ví dụ: miệng hộp không khép kín, vật liệu dễ rách...). Trình bày và phản hồi: Mỗi nhóm giới thiệu sản phẩm và nêu cách sử dụng, điểm hay của thiết kế. Kết nối mở rộng: 3790950454346GV tổng kết: “Chúng ta đã học cách tái chế để tạo ra vật dụng hữu ích – vừa tiết kiệm, vừa bảo vệ môi trường. Đây chính là một hành động nhỏ nhưng ý nghĩa lớn.” Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp;amp; giải quyết vấn đề: Thiết kế sản phẩm từ vật liệu quen thuộc. Hợp tác và giao tiếp: Làm việc nhóm để hoàn thành sản phẩm. Ý thức môi trường: Hiểu giá trị của tái chế, giảm rác thải nhựa. Kết nối liên môn: Tự nhiên và Xã hội (hiểu môi trường) – Mỹ thuật (trang trí) – Công nghệ (chế tạo).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Trải nghiệm là quá trình cá nhân trực tiếp tiếp xúc, quan sát, tham gia vào hoạt động, từ đó hình thành kiến thức, kỹ năng và thái độ. Theo John Dewey, trải nghiệm trong giáo dục là sự tương tác giữa người học và môi trường, không đơn thuần là tiếp xúc sự kiện.Dạy học bằng trải nghiệm là phương pháp sư phạm trong đó giáo viên tạo ra tình huống thực tế để học sinh trực tiếp tham gia, qua đó rút ra bài học thông qua quan sát, phản ánh và vận dụng. David Kolb phát triển mô hình học tập trải nghiệm với 4 giai đoạn:Trải nghiệm cụ thể – tham gia hoạt động thực tiễn;Quan sát phản ánh – suy ngẫm về những gì đã trải qua;Khái niệm hóa trừu tượng – rút ra lý thuyết từ trải nghiệm;Thử nghiệm tích cực – vận dụng lý thuyết vào thực tiễn mới.Đây là mô hình học tập cá nhân hóa, lấy người học làm trung tâm, thúc đẩy sự chủ động, sáng tạo và phát triển kỹ năng mềm như giao tiếp, tư duy phản biện, làm việc nhóm.Tác động đến học sinh gồm: rút ngắn khoảng cách lý thuyết – thực tiễn; tăng hứng thú học tập; tiếp thu kiến thức qua nhiều giác quan; phát triển kỹ năng giải quyết vấn đề; chủ động tiếp nhận và xử lý thông tin; nâng cao tính sáng tạo; tạo tâm lý học tập tích cực.Ví dụ khi dạy bài “Chu vi hình chữ nhật” – Toán lớp 3Giáo viên cho học sinh ra sân trường hoặc trong lớp, dùng thước dây để đo chiều dài và chiều rộng một bàn học hoặc sân bóng.Học sinh thực hiện:Đo thực tế các cạnh.Tính chu vi theo công thức: C = (dài + rộng) × 2.Thảo luận nhóm và so sánh kết quả giữa các nhóm.</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: "Hành trình chinh phục vũ trụ"Mô tả hoạt động:Mục đích: Khuyến khích học sinh làm việc theo nhóm, phát triển kỹ năng giao tiếp, hợp tác và sáng tạo, đồng thời xây dựng môi trường lớp học tích cực.Thời gian thực hiện: 30-40 phút, thực hiện 1 lần/tháng hoặc khi cần cải thiện tinh thần nhóm trong lớp học.Chuẩn bị:Một tấm bản đồ vũ trụ lớn với 5 hành tinh (đặt tên các hành tinh: "Hành tinh Cười", "Hành tinh Biết Ơn", "Hành tinh Hợp Tác", "Hành tinh Sáng Tạo", "Hành tinh Thân Thiện").Thẻ nhiệm vụ riêng cho từng hành tinh (có các thử thách hoặc bài tập phù hợp).Một chiếc đồng hồ bấm giờ hoặc bộ đếm thời gian.Sticker ngôi sao hoặc hình ảnh biểu tượng để đánh dấu hành tinh đã chinh phục.Cách thực hiện:Chia lớp thành 5 nhóm (tương ứng với số lượng hành tinh). Mỗi nhóm sẽ là một "phi hành đoàn".Giáo viên giao cho từng nhóm nhiệm vụ ở mỗi hành tinh. Sau khi hoàn thành nhiệm vụ tại hành tinh của mình, nhóm đó sẽ di chuyển qua hành tinh khác (theo vòng tròn) để tiếp tục nhiệm vụ. Mỗi nhóm sẽ có khoảng 7 phút ở mỗi hành tinh.Nhiệm vụ của từng hành tinh:Hành tinh Cười: Cả nhóm phải sáng tạo một màn biểu diễn ngắn (câu chuyện hài, diễn kịch, hoặc tạo biểu cảm vui nhộn) để làm bạn cùng lớp cười.Hành tinh Biết Ơn: Mỗi thành viên trong nhóm viết một điều họ biết ơn về các thành viên còn lại trong nhóm và chia sẻ trước cả lớp.Hành tinh Hợp Tác: Nhóm được giao một nhiệm vụ giải đố (ví dụ: sắp xếp các mảnh ghép hình ảnh, xây tháp bằng cốc giấy). Hành tinh Sáng Tạo: Nhóm sẽ sáng tạo một sản phẩm ngắn như một điệu nhảy, bài hát, hoặc một bức tranh với chủ đề “Hạnh phúc”.Hành tinh Thân Thiện: Cả nhóm thảo luận và cùng viết ra 5 cách có thể làm không khí lớp học tốt hơn, sau đó trình bày với cả lớp.Khi hoàn thành nhiệm vụ ở mỗi hành tinh, nhóm sẽ được nhận một sticker ngôi sao để dán lên bản đồ vũ trụ. Nhóm nào chinh phục đủ 5 hành tinh trong thời gian quy định sẽ được công nhận là "Phi hành đoàn Xuất Sắc".Kỹ năng và khả năng muốn phát triển:Hợp tác nhóm: Học sinh học cách phân công nhiệm vụ, hỗ trợ nhau để hoàn thành mục tiêu.Giao tiếp và thuyết trình: Tăng khả năng chia sẻ ý tưởng và thể hiện bản thân trước tập thể.Sáng tạo và giải quyết vấn đề: Khuyến khích tư duy linh hoạt trong các hoạt động.Tư duy tích cực và cảm xúc xã hội: Xây dựng sự đồng cảm, biết ơn và thân thiện với bạn bè.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học: "Thiết kế thiết bị bảo vệ viên phấn"Mục tiêu học tập:Phát triển khả năng tư duy thực tiễn và kỹ năng giải quyết vấn đề.Khuyến khích sự sáng tạo và làm việc nhóm.Hiểu được các nguyên tắc vật lý cơ bản (giảm xung lực, phân tán lực tác động).Bước 1: Giới thiệu bài tập (10 phút)Bắt đầu bằng tình huống thực tế:Giáo viên đưa ra một viên phấn và hỏi:"Nếu thả viên phấn này từ độ cao 3 mét, điều gì sẽ xảy ra?"Khi học sinh trả lời: "Phấn sẽ vỡ", giáo viên đặt câu hỏi mở:"Theo các em, làm thế nào để ngăn viên phấn không vỡ mà chỉ sử dụng các công cụ đơn giản?"Giải thích yêu cầu:Giáo viên trình bày rõ bài tập:"Các em sẽ làm việc theo nhóm để thiết kế và tạo ra một thiết bị giúp bảo vệ viên phấn không bị vỡ khi thả từ độ cao 3 mét."Thảo luận ngắn:Học sinh chia sẻ nhanh ý tưởng ban đầu.Bước 2: Hướng dẫn thí nghiệm (15 phút)Giới thiệu nguyên tắc cơ bản:Giáo viên giải thích một số khái niệm vật lý:Giảm xung lực: Làm chậm sự thay đổi tốc độ (ví dụ: dùng vật liệu mềm, hấp thụ lực).Phân tán lực: Chia nhỏ lực tác động (ví dụ: bề mặt rộng, nhiều lớp đệm).Cân bằng và bảo vệ: Bao bọc viên phấn để tránh va đập trực tiếp.Hướng dẫn học sinh đặt câu hỏi thiết kế:"Vật liệu nào giúp hấp thụ lực tốt nhất?""Cấu trúc nào có thể bảo vệ viên phấn mà vẫn nhỏ gọn?""Làm thế nào để thử nghiệm tính hiệu quả của thiết bị?"Danh sách vật liệu gợi ý:Giấy bìa cứng, hộp nhựa nhỏ, bóng bay, mút xốp, bong bóng khí, băng keo, dây thun, cốc giấy, túi nilon, rơm.Bước 3: Làm việc nhóm (20-30 phút)Phân nhóm:Mỗi nhóm từ 3-4 học sinh.Thực hiện:Học sinh chọn vật liệu, thiết kế và tạo thiết bị bảo vệ viên phấn.Giáo viên hỗ trợ bằng cách đặt câu hỏi gợi ý:"Phần nào trong thiết bị giúp giảm lực tác động?""Làm thế nào để kiểm tra và cải tiến thiết kế?"Học sinh được thử nghiệm thiết kế và điều chỉnh nếu cần.Bước 4: Kiểm tra và đánh giá (15 phút)Thực nghiệm:Thả từng thiết bị từ độ cao 3 mét. Quan sát xem viên phấn có bị vỡ không.Thảo luận và đánh giá:Các nhóm chia sẻ:"Điều gì trong thiết kế của nhóm mình đã hiệu quả?""Nếu được làm lại, nhóm sẽ cải thiện gì?"Giáo viên khuyến khích tư duy phản biện và cải tiến:"Thiết bị nào nhỏ gọn và hiệu quả nhất?""Điểm khác biệt giữa thiết kế thành công và chưa thành công là gì?"Kết thúc buổi họcTổng kết bài học:Nhấn mạnh các nguyên tắc đã áp dụng (giảm xung lực, phân tán lực).Khích lệ sáng tạo:Gợi ý học sinh áp dụng tư duy này vào các tình huống thực tế khác (như bảo vệ đồ dễ vỡ khi di chuyển).Khen ngợi các nhóm về sự sáng tạo và nỗ lực.</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Động viên học sinh trướcHãy trấn an học sinh:"Không sao đâu! Đây là hoạt động để mình thử nghiệm và sáng tạo mà, không có đúng hay sai đâu. Cô rất mong chờ ý tưởng của em đấy!"Đặt câu hỏi để khơi gợi ý tưởng:"Em đã nghĩ đến điều gì chưa? Kể thử cho cô nghe xem nhé, mình sẽ cùng tìm cách làm cho nó thú vị hơn!""Nếu em được tự chọn màu sắc hoặc hình dáng, em muốn nó sẽ trông như thế nào?"2. Cho ví dụ để khơi gợi cảm hứngThay vì đưa ra một sản phẩm cụ thể, hãy chia sẻ một vài hình ảnh hoặc ý tưởng đơn giản:"Có người đã làm một chiếc robot và vẽ thêm hình trái tim trên đó, rất đáng yêu!""Có bạn tạo ra một cây cầu nhỏ xinh rồi trang trí bằng những màu sắc rực rỡ."Giải thích nhẹ nhàng:"Những ví dụ này chỉ để em tham khảo thôi. Cô tin rằng em sẽ có cách làm của riêng mình, và nó sẽ rất đặc biệt!"3. Đặt câu hỏi để học sinh tự nghĩ ra ý tưởngHãy giúp học sinh tưởng tượng:"Em thích chủ đề nào nhất? Ví dụ như thiên nhiên, vũ trụ, hay cảm xúc?""Nếu sản phẩm của em cần phải vừa chắc chắn vừa đẹp, em sẽ làm thế nào?""Em muốn dùng những vật liệu nào? Chúng có thể kết hợp với nhau ra sao?"4. Động viên học sinh thử từng bước nhỏHãy nói nhẹ nhàng:"Em thử vẽ phác thảo ý tưởng của mình lên giấy trước đi. Sau đó mình sẽ cùng tìm cách làm thật nhé!"Động viên khi học sinh lo lắng:"Đừng lo, nếu ý tưởng đầu tiên chưa ổn, mình có thể sửa hoặc làm lại. Đó là cách mà ai sáng tạo cũng phải làm đấy!"5. Hỗ trợ khi học sinh làm sản phẩmHãy giúp học sinh chọn vật liệu:"Em có thể dùng giấy màu, bút vẽ, keo, hoặc những thứ tái chế như chai nhựa, hộp giấy."Hướng dẫn kỹ thuật:"Nếu em cần giúp đỡ dán các mảnh lại với nhau hoặc làm cho sản phẩm chắc hơn, cứ gọi cô nhé!"6. Khen ngợi và khuyến khíchKhi học sinh hoàn thành sản phẩm, hãy khen:"Thật tuyệt vời! Phần này rất sáng tạo, cô rất thích cách em nghĩ ra ý tưởng như thế!"Nếu sản phẩm chưa xong, hãy động viên:"Cô thấy đây là khởi đầu rất tốt! Nếu em muốn làm thêm, thử nghĩ xem có thể thêm gì để làm nó đẹp hơn nữa nhé!"</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>BÀI HỌC STEM: CHẾ TẠO KÍNH VẠN HOATHÔNG TIN VỀ BÀI HỌCLớp 4Thời lượng: 2 tiếtThời điểm tổ chức: Trong chủ đề ánh sáng (môn Khoa học)Mô tả bài học: - Nội dung môn Khoa học, chủ đề ánh sáng có yêu cầu cần đạt liên quan đến việc tìm hiểu một số vật cho ánh sáng truyền qua và một số vật không cho ánh sáng truyền qua khi có ánh sáng từ vật truyền tới mắt.- Thực hiện thí nghiệm để tìm hiểu nguyên nhân một số vật cho ánh sáng truyền qua và một số vật không cho ánh sáng truyền qua.- Vận dụng được trong thực tế ở mức độ đơn giản kiến thức về một số vật cho ánh sáng truyền qua và một số vật không cho ánh sáng truyền qua. Để đạt được yêu cầu này, cũng như đáp ứng mục tiêu phát triển phẩm chất, năng lực học sinh trong bài học STEAM “Chế tạo kính vạn hoa”, học sinh sẽ tìm hiểu kiến thức về ánh sáng và vận dụng để thiết kế kính vạn hoa.Môn họcYêu cầu cần đạtMôn học chủ đạoKhoa học- Thực hiện thí nghiệm để tìm hiểu nguyên nhân một số vật cho ánh sáng truyền qua và một số vật không cho ánh sáng truyền qua.- Vận dụng được kiến thức về tính chất cho ánh sáng truyền qua hay không cho ánh sáng truyền qua của các vật để giải thích được một số hiện tượng tự nhiên và ứng dụng thực tế.Môn học tích hợpMĩ thuật- Vận dụng được độ đậm nhạt, nóng lạnh của màu trong thực hành, sáng tạo.- Vận dụng được ngôn ngữ nói hoặc viết, biểu đạt cơ thể, diễn hoạt hình ảnh động, xây dựng câu chuyện...để giới thiệu sản phẩm tác phẩm mĩ thuật.Hoạt động trải nghiệm- Thể hiện được nề nếp sinh hoạt, bước đầu hình thành thói quen tư duy khoa học- Tự lực thực hiện nhiệm vụ của mình theo sự phân công, hướng dẫn.II. Đồ dùng dạy học1. Chuẩn bị của giáo viên:- Video chế tạo kính vạn hoa.- Phiếu giao nhiệm vụ và hướng dẫn HS ghi chép.- Thiết bị và học liệu cho mỗi nhóm.2. Chuẩn bị của học sinh:TTThiết bị/Học liệuSố lượngHình ảnhminh họaTTThiết bị/Học liệuSố lượngHình ảnhminh họa1Hộp rỗng16Bìa A4 cứng22Giấy kiếng bông17Súng bắn keo13Bìa kiếng trong1 INCLUDEPICTURE "C:\\Users\\USER\\Desktop\\1.webp" \* MERGEFORMATINET 8Viết đỏ14Giấy màu59Keo 2 mặt1184785117475005Thước110Kéo1III. Các hoạt động dạy học chủ yếu1. Hoạt động 1: Mở đầu (Xác định vấn đề)- Giáo viên chiếu cho học sinh xem video kính vạn hoa, đặt câu hỏi Em nhìn thấy gì trong video? Em có thể làm nó bằng cách nào?- Học sinh xem video, trả lời câu hỏi: Em nhìn thấy ánh sáng truyền qua từ các màu sắc. Em có thể làm nó bằng những nguyên vật có sẵn như: giấy màu, giấy kiếng, giấy bông, keo,...2. Hoạt động 2: Hình thành kiến thức mới (Nghiên cứu kiến thức nền)a. Quan sát nhận biết ánh sáng truyền qua hay không truyền qua các vật:- Giáo viên đặt câu hỏi: trong thực tế em nhìn thấy những vật nào truyền được ánh sáng? những vật nào không truyền được ánh sáng?- Học sinh trả lời: trong thực tế em nhìn thấy những vật cho ánh sáng truyền qua là thước kẻ bằng nhựa trong tấm kính thủy tinh,... Những vật không cho ánh sáng truyền qua là tấm bìa cứng,...- Giáo viên chốt lại: Những vật cho ánh sáng truyền qua là thước kẻ bằng nhựa trong tấm kính thủy tinh. Những vật không cho ánh sáng truyền qua là tấm bìa cứng.b. Thực hành thí nghiệm tìm hiểu ánh sáng truyền qua hay không truyền qua các vật:- Giáo viên chia nhóm 5 học sinh (điếm số thứ tự chia ngẫu nhiên). Yêu cầu học sinh đến vị trí các nhóm, bầu nhóm trưởng, thư ký.- Giáo viên đặt vấn đề: Cho học sinh sử dụng đèn pin để nhận biết được ánh sáng truyền qua hay không truyền qua những vật nào?- Và nêu nhiệm vụ: Các em hãy tận dụng những nguyên vật liệu sẵn có, xem những vật liệu nào có thể nhìn thấy được ánh sáng của đèn?- Học sinh tiếp nhận nhiệm vụ, thực hiện thí nghiệm theo hướng dẫn, ghi chép lại kết quả vào phiếu học tập số 1 (ghi theo nhóm). Giáo viên quan sát, hỗ trợ, đôn đốc.- Tổ chức cho lớp làm thí nghiệm theo nhóm.- Lần lượt đặt ở khoảng giữa đèn và mắt một tấm bìa, một tấm kính thuỷ tinh, một quyển vở, một thước mêca, chiếc hộp sắt,...sau đó bật đèn pin. Hãy cho biết với những đồ vật nào ta có thể nhìn thấy ánh sáng của đèn?- Giáo viên tổ chức cho học sinh các nhóm báo cáo kết quả thí nghiệm theo các nội dung ghi chép và kết luận trong phiếu học tập số 1. So sánh kết quả của các nhóm, phân tích làm rõ nguyên nhân với các kết quả chưa chính xác.- Giáo viên chốt kiến thức:+ Những vật cho ánh sáng truyền qua là thước kẻ bằng nhựa trong, tấm kính thủy tinh,...+ Những vật không cho ánh sáng truyền qua là tấm bìa, quyển sách,... +Ánh sáng truyền theo đường thẳng và có thể truyền qua các lớp không khí, nước, thuỷ tinh, nhựa trong. Ánh sáng không thể truyền qua các vật cản sáng như: tấm bìa, tấm gỗ, quyển sách, chiếc hộp sắt hay hòn gạch,... Ứng dụng tính chất này người ta đã chế tạo ra các loại kính vừa che bụi mà vẫn có thể nhìn được, hay chúng ta có thể nhìn thấy cá bơi, ốc bò dưới nước,...c. Chia sẻ, thảo luận, điều chỉnh:- Giáo viên tổ chức cho các nhóm chia sẻ để chế tạo được kính vạn hoa của nhóm mình trong 4 phút. Yêu cầu các nhóm còn lại nhận xét, đánh giá nhóm bạn.- Học sinh chia sẻ.- Giáo viên nhận xét, đánh giá kết quả các nhóm. Tổng hợp kết quả đánh giá của từng nhóm. Chốt lại: Để cho ánh sáng truyền qua tốt, chúng ta nên chọn những vật độ trong suốt cao.3. Hoạt động 3: Luyện tập và vận dụng (Tìm giải pháp, chế tạo và chia sẻ)a. Đề xuất và lựa chọn giải pháp để chế tạo kính vạn hoa- Giáo viên yêu cầu học sinh nêu cách làm ánh sáng truyền qua vật trong suốt (nêu các bước thực hiện theo phiếu học tập số 2).- Giáo viên nêu nhiệm vụ tiếp theo: Yêu cầu học sinh phân công các bạn, lựa chọn các vật liệu và thực hành làm kính vạn hoa. *Với các tiêu chí: + Nhìn rõ ánh sáng được phát ra.+ Thấy được ánh sáng từ nhiều màu sắc khác nhau. + Trang trí đẹp.b. Chế tạo mẫu, thử nghiệm và đánh giá, thực hiện ở nhà- Các nhóm thực hiện cắt, trang trí, thử nghiệm kính vạn hoa theo các tiêu chí nêu trên.1. Phiếu học tập số 1Phiếu học tậpÁNH SÁNG TRUYỀN QUA NHỮNG VẬT NÀO?1. Nguyên vật liệu- 1 đèn pin, thước nhựa, mắt kính, quyển vở, bảng con,... 2. Thực hiện thí nghiệm- Sử dụng các nguyên vật liệu ở trên, tiến hành thí nghiệm theo hướng dẫn dưới đây ghi lại các quan sát và trả lời theo yêu cầu.- Lần lượt đặt ở khoảng giữa đèn và mắt một tấm bìa, một tấm kính thuỷ tinh, một quyển vở, một thước nhựa,...sau đó bật đèn pin. Hãy cho biết với những đồ vật nào ta có thể nhìn thấy ánh sáng của đèn?-Ghi lại kết quả vào bảng sau:Bảng conMắt kínhThước nhựaQuyển sáchVật cho ánh sáng đi quaVật không cho ánh sáng đi quaKết luận: Những vật cho ánh sáng truyền qua .............. Những vật không cho ánh sáng truyền qua...................2. Phiếu học tập số 2Phiếu học tậpCHẾ TẠO KÍNH VẠN HOA 1. Nguyên vật liệu- Hộp rỗng, giấy kiếng bông, bìa cứng, bìa kiếng, thước, súng bắn keo,...2. Thực hành chế tạo- Sử dụng các nguyên vật liệu ở trên, tiến hành thực hành chế tạo và thử nghiệm.3. Phiếu đánh giáĐánh dấu x vào cột đạt cho mỗi nội dung dưới đây để đánh giá kính vạn hoa của nhóm bạn nếu thực hiện đúng tiêu chí.Nội dungĐạtNhìn rõ ánh sáng được phát ra.Thấy được ánh sáng từ nhiều màu sắc khác nhau. Trang trí đẹp.Hoạt động trên có thể sử dụng để dạy chủ đề Ánh sáng trong môn Khoa học 4 của Chương trình GDPT 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Học tập trải nghiệm là phương pháp trong đó học sinh chủ động tham gia và học thông qua các hành động và trải nghiệm thực tế, và là phương pháp cốt lõi của giáo dục STEAM.Học tập trải nghiệm, hiểu một cách đơn giản, là học thông qua làm. Tổ chức học tập trải nghiệm là yêu cầu học sinh không chỉ áp dụng lý thuyết được học trên lớp , qua sách vở ... mà trong quá trình tham gia các hoạt động thực tế, vận dụng kiến thwusc đó vào các trải nghiệm trong cuộc sống, học tập , vui chơi ... Qua trải nhiệm học sinh hoàn thiện kiến thức, kỹ năng cần thiết. Học trải nghiệm trong STEAM là việc các học sinh được nắm nền tảng kiến thức bằng học tập trên lớp, kiến thức trong cuộc sống và vận dụng chúng vào thwujc tế thông qua việc tạo ra sản phẩm cụ thể. Minh chứng cụ thể: Học sinh được giáo viên gióa dục về sủ dụng kéo cắt đường thẳng, an toàn khi sử dụng kéo nhưng đó chỉ là kiến thức học sinh được nghe hoặc được thấy qua video thôi . Nhưng lớp học học sinh được sử dụng kéo cần trên tay, cách cụ thể để bảo vệ an toàn không cho cắt nhầm tay, mũi kéo đâm vào tay ... lúc đó biết mottj cách cụ thể việc làm gì là an toàn khi sử dụng kéo; Khi cắt ban đầu phải còn dùng thước kẻ đường chì nhưng chưa chắn việc sẽ cắt được thẳng trong một hoặc 2 lần đầu sử dụng mà trải qua nhiều lần cắt từ đó có kỹ năng, cách sử dụng thích hợp cắt thẳng hay cắt đường cong như ý muốn của học sinh.</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Một hoạt động giúp học sinh lớp tôi nhằm giúp các em cải thiện công việc học tập hặc cuộc sống hằng ngày, đó là hoạt động trồng và chăm sóc cây xanh trong lớp, hành lang dãy lớp học. Mục tiêu hoạt động này: - Tạo tinh thần doàn kết khi làm việc nhóm; tinh thần rách nhiệm mỗi cá nhân học sinh; yêu thiên nhiên, yêu cái đẹp biết bảo vệ mảng xanh; tạo mảng xanh trong lớp học và hành lang lớp học.- Kỹ năng học sinh học được: tưới cây, nhận biết loại cây cần nhiều nước, cây nào ít nước, cây nào ưa nắng, cây nào trồng trong nhà ; kỹ thuật trồng loại cây đơn giản; khéo tay, óc thẩm mỹ khi chọn chậu, làm chậu , trang trí chậu ; ...- Các bước: + Bước 1: Học sinh thảo luận chọn loại cây trồng thích hợp trồng hành lang ( ưa nắng) và cây trong trong phòng; + Bước 2: Giáo viên chia nhóm ( khoảng 6 nhóm / mỗi nhóm 2 chậu cây ; 6 chậu trồng ở hành lang và 6 chậu trồng trong lớp) + Bước 2: Giáo viên tìm nguồn kinh phí mua hoặc nguồn cây giống ( ở gia đình học sinh) ...; thực hiện mua , chuẩn bị vật liệu và dụng cụ thích hợp + Bước 3: Tiến hành cùng học sinh trồng vào châu ( có thể phối hợp phụ huynh tiến hành hỗ trợ trồng vào chậu ) + Bước 4: Thảo luận chăm sóc chậu cây với loại cây cụ thể; Giáo viên chốt cách chăm sóc ...+ Bước 5: Tiến hành chăm sóc, tuối cây; Giáo viên tổ chức thi đua , lập bảng kiểm nhận xét hàng tháng, có tuyên dương; có thể thay đổi loại cây phù hợp + Bước 6: Tổng kết , khen thưởng cuối năm học ...</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Giáo viên tổ chức cho học sinh trải nghiệm bằng cách xếp hàng ở dưới sân trường. Giáo viên thả viên phấn từ tầng 1, yêu cầu quan sát ( làm 5 lần để HS quan sát) . Sau đó, tập trung học sinh đưa ra bảng câu hỏi:Trước khi thả viên phấn ra sao? Độ cao khi thả viên phấn ?Trong khi rơi viên phấn như thế nào? Sau khi chạm đất thì viên phấn ra sao ? Hình dạng viên phấm lúc chưa rơi và sau khi rơi xuống sân khác nhau ra sao ? ... Từ nội dung câu hỏi và câu trả lời, GV đặt ra vấn đề thách đó trước lớp là thả viên phấn không bụi thông thường từ độ cao đó xuống đất mà không bị vỡ , gãy , phải còn nguyên như ban đầu.+ Bước 2: Tự học sinh chia nhóm lớp thành 7 nhóm ( mỗi nhóm 5 bạn) . Tự thảo luận , trải nghiệm trong thời gian 1 tuần. Nhóm nào thành công sẽ có thưởng ( đặc biệt nhóm nào đưa ra câu trả lời sớm nhất sẽ phần thưởng đặc biệt) + Bước 3: Hướng dẫn các nhóm cách ghi chép lại cách làm , cách xây dựng ý tưởng , tìm nguồn ý tưởng nếu bị chưa có hoặc bị thất bại ; chụp hình , quay phim để làm minh chứng, tạo ra sản phẩm ... Đồng thời giáo dục tính an toàn khi thả viên phấn;+ Bước 4: Giáo viên nhận sản phẩm, xem bảng thuyết mình ghi lại quá trình thực hiện, minh chứng hình ảnh ... lắng nghe mô tả cách làm từ cách nhóm ...+ Bước 5: Tổ chức thực nghiệm ( có tham gia phụ huynh, có quản lí giáo dục ...) . Từng nhóm thả sản phẩm của mình từ tầng 1 xuống sân , các bạn quan sát để nhận xét , đánh giá sau.Kết quả hoạt động này: Học sinh lớp 5.5 tạo ra 7 sản phẩm khác nhau:+ Sản phẩm 1: Bỏ viên phấn vào trong cục xốp thả xuống đất , viên phấn còn nguyên không gãy nhưng cách vị trí mong muốn gần 5 mét. + Sản phẩm 2: bỏ viên phấn vào trong túi ni lông cột chặt miệng , sau đó bỏ vào trong túi đựng nước khác thả xuống; do có nước xung quanh nhưng rơi mạnh, va chạm mạnh viên phấn gãy làm tư+ Sản phẩm 3: Cột dây vào trong ni lông như cái dù thả xuống ( như lính nhảy dù) không gãy nhưng lệch vị trí mong muốn khoảng 3 mét + Sản phẩm 4: bỏ vào hộp, bỏ giấy xung quanh viên phấn nằm ở giữa hộp . Thả xuống vân phấn còn nguyên nhưng lệch vị trí mong muốn 1 mét + Sản phẩm 5,6,7 cách làm giống sản phẩm thứ ba nhưng thất bại do là viên phấn bị gãy, hoặc không bung dù, các dây quyaasn vào nhau ...Sau đó, Giáo viên nêu yêu cầu thứ hai , sản phẩm thất bài tiếp tục cải tiến để thành công; sản phẩm thành công thì làm sao cho rơi trúng đích như mong muốn.</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Mục tiêu của hoạt động nghệ thuật trong STEAM là nuôi dưỡng tính sáng tạo. Giáo dục STEAM thường liên quan đến việc tạo ra các sản phẩm có yếu tố nghệ thuật độc đáo. Nếu một học sinh yêu cầu 'xem ví dụ' trong một hoạt động như vậy, Tôi sẽ đáp ứng nguyện vọng của học sinh bằng một trong hoạt động đơn giản thực hiện trong giờ ra chơi hoặc sau giờ học và chỉ thầy và trò như sau:- Cho học sinh xem 2 sản phẩm Steam của các bạn trong lớp; để tự bạn đó so sánh và hỏi xem em thích sản phẩm nào và vì sao ? Từ đó giảng giải và thuyết phục bé bằng sản phẩm đẹp hơn thu hút hơn và giá trị hơn nhờ có yếu tố nghệ thuật đôc đáo trong sản phẩm - Cho học sinh thổi chiếc kèn lá tạo ra âm thanh, và bạn khác thổi hay hơn hoặc dở hơn và yêu cầu bạn so sánh 2 âm thanh cùng 1 kèn tạo ra .... - So sánh sản phẩm các chậu cây xanh trong lớp do các bạn tạo ra; thích sản phẩm nào hơn nếu nhìn từ xa và vì sao ? ...Hãy đề xuất những cách hỗ trợ cụ thể để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh đóSau khi học sinh đó nhận ra sự khác nhau các sản phẩm để thấy yếu tố nghệ thuật trong các sản phẩm Steam; Giáo viên sẽ tạo ra sự tự tin và cảm giác an toàn cho học sinh bằng cách : + Hỏi học sinh vì sao câu chuyện 2 thầy trò nãy giờ chỉ có 2 người biết mà không đẻ các bạn khác biết ; Từ câu trả lời giảng dạy học sinh biết cách giáo viên đang bảo vệ cho trẻ, tránh các bạn khác phân biệt khi học sinh nhận xét cách các sản phẩm của các bạn trung thực trong câu chuyện hai thầy trò;+ Cho học sinh xem 2 tranh trừu tượng đắt giá nhất thế giới và cho học sinh nhận xét em nhìn thấy gì khi quan sát tranh ...; từ đó giáo dục sự sáng tạo nghệ thuật , chỉ là cảm nhận của một một vài người ; còn là năng khiếu từng người ....+ Giảng giải cho học sinh biết cùng yêu cầu nhưng do mỗi bạn, mỗi nhóm có suy nghĩ và sáng tạo riêng nên sản phẩm tạo ra khác nhau do sự sáng tạo nên tạo ra sự khác biệt ... + Giảng giải cho học sinh hiểu ngoài bạn có năng khiếu thì việc tạo ra sản phẩm đẹp còn nhờ quá trình rèn luyện, chăm chỉ trong học tập, cụ thể cho học sinh nhận ra cách vẽ bức tranh của chính học sinh ở lớp 1, cách vẽ ở lớp 5. Do đó, để tạo ra sản phẩm STEAM đẹp cần vốn sống , vốn kiến thức học được, sự sáng tạo và khả năng năng khiếu từng bạn.</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Từ các sản phẩm STEAM mà tôi và học sinh nghĩ ra từ kiến thức bài học trong Chương trình giáo dục 2018 hiện hành có rất nhiều bài học hoặc nội dung chủ đề thay thế bằng các bài học STEAM này sẽ giúp tiết học hào hứng và hiệu quả hơn, thu hút học sinh hơn. Không chỉ riêng các môn Tự nhiên xã hội mà ở môn Toán, môn Tin học, môn Công nghệ ở lớp 1,2,3 hoặc Khoa học mà ở môn Toán, môn Công nghệ , môn Mĩ thuật ở lớp 4 và 5 cũng có thể dạy bằng hình thức bài học STEAM này. Một số minh chứng như: 2.1 Các lớp 1,2,3 : - Môn Tự nhiên xã hội ở lớp 3 có bài 2 là Họ nội, họ ngoại thuộc chủ đề Gia đình thì có thể chuyển thành Bài học STEAM trong 2 tiết nhằm giúp học sinh tạo ra sơ đồ mạng ý nghĩa, bàn tay, cây có các nhánh, các phần là tên gọi các thành viên trong gia đình học sinh.- Môn Tự nhiên xã hội lớp 1 có bài 29, 30, 31, 32 thuộc chủ đề Trái đất và bầu trời có thể hoàn toàn sang dạy thành bài học STEAM trong 4 tiết tạo ra sản phẩm như ô cửa sổ - Môn Toán ở lớp 3: bài 22 Làm quen với chữ số La Mã , chủ đề 1: Ôn tập và bổ sung; chuyển đổi sang dạy bài học STEAM bằng cách tạo ra đồng hồ chữ số La Mã và xem giờ ( tích hợp bài 15 Xem đồng hồ ) ; Bài này dạy trong 2 tiết ; Sản phẩm tạo ra là mặt đồng hồ bằng chữ số La Mã 2.2 Các lớp 4,5: - Môn Khoa học lớp 5: Bài 11 Năng lượng mặt trời, gió và nước chảy thuộc chủ đề 2: Năng lượng ; Thay thế bằng bài mô hình máy phát điện ; Học sinh tạo ra sản phẩm sử dụng 3 nguồn năng lượng như: thuyền buồm, xe đua năng lượng mặt trời, mô hình máy phát điện từ nước chảy hoặc nhà máy thủy điện ... )</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là phương pháp học tập thông qua việc học sinh tham gia trực tiếp vào các hoạt động thực tiễn từ đó suy ngẫm và rút ra bài học, hình thành kiến thức, kỹ năng và thái độ cần thiết. Ý nghĩa của học tập qua trải nghiệm giúp học sinh:Ghi nhớ sâu sắc thông qua cảm xúc: Khi người học tham gia vào một trải nghiệm cụ thể, thông tin không chỉ được tiếp nhận một cách lý trí mà còn gắn liền với các cảm xúc, hình ảnh và tình huống tại thời điểm đó. Ví dụ, cảm giác vui vẻ khi làm một bông hoa yêu thương tự nở khi gặp nước sẽ được lưu giữ sâu hơn trong bộ nhớ.Cảm xúc mạnh mở cánh cổng trí nhớ: Sự ngạc nhiên hay bất ngờ trong quá trình trải nghiệm tạo ra dấu ấn mạnh mẽ cho cảm xúc. Điều này kích hoạt vùng hồi hải mã trong não giúp thông tin được ghi nhớ bền vững hơn. Vì vậy, những trải nghiệm lạ, hấp dẫn trong hoạt động tự làm mô hình máy tính cộng trừ sẽ là "bài học khó quên".Phát triển tư duy giải quyết vấn đề: Học tập qua trải nghiệm khuyến khích người học thử - sai – sửa, từ đó rút ra quy luật và giải pháp có thể được áp dụng vào các vấn đề tương tự trong tương lai.</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động sáng tạo không chỉ giúp các em học sinh nắm vững kiến thức mà còn là cơ hội giúp các em chủ động thực hành, trải nghiệm và từ đó hình thành các năng lực cần thiết của Chương trình Giáo dục Phổ thông 2018. Hoạt động: Làm tờ lịch sáng tạoMục tiêu: giúp học sinh nắm vững kiến thức về-Môn học chủ đạo Toán: Nhận biết được số ngày trong tháng; Thực hành xem lịch tháng.- Môn học tích hợp:Mĩ thuật: Thực hiện được các bước trong thực hành tạo ra sản phẩm; Sử dụng được vật liệu sẵn có để thực hành, sáng tạo; Sử dụng công cụ phù hợp với vật liệu và an toàn trong thực hành.-Tự nhiên xã hội: Nêu được tên, một số hoạt động và ý nghĩa của một sự kiện tương ứng với ngày tháng.Từ đó hình thành các năng lực giao tiếp và hợp tác khi làm việc nhóm, giải quyết vấn đề và sáng tạo thông qua hoạt động thực hành.Hoạt động cụ thể của học sinh: Tìm hiểu về các ngày trong tháng.Hoạt động cá nhân, nhóm để thiết kế quyển lịch có 12 tháng trong năm với các tiêu chí Ghi rõ tên tháng và thể hiện đúng số ngày trong tháng; Ghi chú sự kiến; Trang trí sáng tạo, đảm bảo tính thẩm mĩ, sử dụng được nhiều lần.Thực hành, trưng bày và chia sẻ, điều chỉnh sản phẩm.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Bài tập: 'Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.'Bài tập này có thể áp dụng ở lớp 3, môn Toán bài Hình tròn.Mục tiêu: giúp học sinh Nhận biết biểu tượng về hình tròn và một số yếu tố cơ bản của hình tròn: tâm, bán kính, đường kính của hình tròn. Sử dụng com pa để vẽ được hình tròn. Biết ứng dụng bài học vào thực tiễn, cụ thể là làm dù đồ chơi.Tăng sự quan tâm của học sinh khi tìm hiểu về các công nghệ tiên tiến, sự tự hào khi hoàn thành nhiệm vụ và có động lực học tập.Vật liệu: túi ni lông, dây, phấn. Dụng cụ: kéo, thước, bút lông.Các hoạt động học tậpHoạt độngMục tiêuTổ chức thực hiệnKhởi động3-5phTạo tình huống có vấn đềHọc sinh xem clip về việc vận chuyển các đồ dùng bằng dù ở các địa hình phức tạp, trong các cuộc chiến tranh,.. Nhận xét về hình dáng của dù, từ đó đặt ra nhu cầu tìm hiểu về hình tròn và các yếu tố của hình tròn để làm dù.Khám phá15phHọc sinh tìm hiểu các yếu tố cơ bản của hình tròn.học sinh quan sát hình tròn, chỉ ra tâm và bán kính. HS dùng compa hoặc cắt giấy tạo hình tròn, xác định và đo bán kính.Luyện tập 15phĐo và vẽ hình tròn có bán kính theo yêu cầuvẽ các hình tròn có bán kính 3 cm, 5 cm... trên giấy bìa để làm phần đế hoặc nắp cho thiết bị. GV hỗ trợ học sinh vẽ chính xác bằng compa/thước.Thực hành tạo sản phẩm 40 phThiết kếHS làm việc nhóm 3–4 em, sử dụng vật liệu và dụng cụ để tạo dù vận chuyển viên phấn: tính toán kích thước, chọn bán kính phù hợp cho dù.Thử nghiệm, điều chỉnhThả viên phấn ở độ cao theo yêu cầu, nếu phấn vỡ thì điều chỉnh thiết kế. Trang trí cho sản phẩmTrình bày, đánh giáCác nhóm giới thiệu thiết kế, nêu cách tính bán kính phù hợp và điều chỉnh sản phẩm. Giáo viên và học sinh khác phản hồi. Giáo viên đánh giá cả quá trình, sản phẩm, khả năng áp dụng toán học.Các câu hỏi đăt ra: Tại sao viên phấn dễ bị vỡ khi rơi?Nếu muốn bảo vệ viên phấn, em cần làm gì để giảm lực va chạm?Nếu làm dù, em chọn bán kính bao nhiêu để bảo vệ viên phấn?Em có thể dùng những vật liệu nào xung quanh mình để chế tạo sản phẩm?Nếu viên phấn vẫn vỡ sau lần thử đầu tiên, em nghĩ mình cần thay đổi điều gì trong thiết kế?Em hãy giải thích cách em chọn bán kính cho dù.Sản phẩm của em có điểm gì đặc biệt giúp bảo vệ viên phấn?Em có muốn cải tiến gì nếu làm lại lần nữa?</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Khi học sinh yêu cầu “xem ví dụ” cho thấy em đang cần sự định hướng hoặc thiếu tự tin. Giáo viên không dừng lại ở việc “cho xem mẫu”, mà cần hỗ trợ để học sinh phát triển sự sáng tạo.Các cách hỗ trợ:+ Gợi mở ý tưởng: có thể đưa ra đa dạng ví dụ, giúp học sinh hiểu rằng sáng tạo là tự do lựa chọn cách thể hiện, không phải bắt chước theo khuôn mẫu.+Khơi gợi cảm xúc và trải nghiệm với các câu hỏi gợi ý: thích màu gì?, Thấy điều gì thú vị?, Câu chuyện có thể tạo ra từ sản phẩm?...+Tạo không gian an toàn cho thử nghiệm và sai sót: STEAM không chỉ là tạo ra sản phẩm hoàn hảo, mà còn là quá trình thử - sai - sửa - thử lại. Cổ vũ học sinh mạnh dạn thử nghiệm để tìm điều thú vị.+Ghi nhận và tôn trọng cá tính sáng tạo: Khi học sinh đưa ra ý tưởng dù còn sơ khai, công nhận nỗ lực và giúp em phát triển thêm.+Tăng trải nghiệm: Chuẩn bị vật liệu thật đa dạng để trẻ được “chạm vào, chơi với, thử nghiệm”, giúp quá trình sáng tạo đến một cách tự nhiên từ cảm xúc và trực giác.+Xây dựng tinh thần hợp tác và giao tiếp: Khuyến khích học sinh trao đổi ý tưởng với bạn bè, cùng nhau phát triển sản phẩm.</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động : Sử dụng lõi giấy, hộp giấy bỏ đi để làm hộp đựng bút đa năng.THÔNG TIN VỀ BÀI HỌCLớp: 2Thời lượng: 3 tiếtThời điểm tổ chức: Khi dạy nội dung Khối trụ, khối cầu trong môn Toán.Mô tả bài học: Nội dung Khối trụ, khối cầu trong môn Toán có một số yêu cầu cần đạt như sau:- Nhận dạng được khối trụ, khối cầu thông qua việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật. - Nhận biết và thực hiện được việc gấp, cắt, ghép, xếp và tạo hình gắn với việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật. - Giải quyết được một số vấn đề thực tiễn đơn giản liên đến hình phẳng và hình khối đã học.Để đạt được các yêu cầu này, trong bài học STEM Hộp đựng bút đa năng, học sinh sẽ sử dụng các vật liệu phù hợp, sẵn có để làm một chiếc hộp đựng bút chứa được nhiều vật dụng.Nội dung chủ đạo và tích hợp trong bài học:Môn họcYêu cầu cần đạtMÔN HỌC CHỦ ĐẠOTOÁN– Nhận dạng được khối trụ, khối cầu thông qua việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật. - Nhận biết và thực hiện được việc gấp, cắt, ghép, xếp và tạo hình gắn với việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật. - Giải quyết được một số vấn đề thực tiễn đơn giản liên đến hình phẳng và hình khối đã học.MÔN HỌC TÍCH HỢPHoạt động trải nghiệm - Thể hiện được sự khéo léo, cẩn thận của bản thân qua sản phẩm dành tặng bè bạn. Mĩ thuật- Sử dụng hình, màu, vật liệu phù hợp để sáng tạo và trang trí cho sản phẩm.- Giới thiệu được sản phẩm của nhóm mình và chia sẻ cảm nhận về sản phẩm của các nhóm khác.II. Đồ dùng dạy học1. Chuẩn bị của Giáo viên- Các phiếu học tập và phiếu đánh giá.- Dụng cụ/vật liệu giáo viên cung cấp cho các nhóm học sinh:STTDụng cụ/vật liệuSố lượngHình ảnh minh hoạHoạt động nghiên cứu kiến thức nền1Nhóm đồ vật có dạng khối trụ, khối cầu, khối lập phương, khối hộp chữ nhật 1 bộ/nhóm2Hộp đồ dùng học hình khối lớp 21 bộ/nhómHoạt động chế tạo3Vỏ lon / vỏ chai nhựa đã cắt miệng3 cái/ nhóm4Lõi giấy 3 cái/ nhóm5Vỏ hộp sữa4 cái/ nhóm00006Hộp diêm1 cái/ nhóm71 hộp khối lập phương1 cái/ nhóm2. Chuẩn bị của học sinh- Mỗi nhóm (4-5 học sinh) tự chuẩn bị một số dụng cụ/vật liệu như sau:STTDụng cụ/vật liệuSố lượngHình ảnh minh hoạ1Vỏ lon nhựa hoặc lõi giấy12Hộp có dạng khối hộp chữ nhật nhỏ13Hộp có dạng khối lập phương nhỏ 14Băng keo 2 mặt 1 cuộn/ nhóm5Băng keo cuộn có họa tiết1 cuộn/ nhóm6Giấy màu4 tờ/ nhóm7Bút lông màu1 hộp/ nhóm8Kéo1 cái/ nhóm9Dây đăng ten1 dây/ nhóm 10Hồ dán1 lọ/ nhómIII. Các hoạt động dạy học chủ yếu1. Hoạt động 1: Mở đầu (Xác định vấn đề)a) Khởi động457851476366000- Giáo viên giới thiệu tình huống một số học sinh chưa chú ý sắp xếp vật dụng gọn gàng và cho HS xem một số hình ảnh về góc học tập ở nhà chưa gọn gàng của HS. - Học sinh quan sát ảnh và nêu nhận xét, ảnh hưởng của việc không ngăn nắp. Từ đó, học sinh nhận ra vấn đề cần sắp xếp các vật dụng gọn gàng, bút viết để đúng nơi, đúng chỗ để dễ tìm thấy khi cần sử dụng.- Giáo viên đặt vấn đề: Làm thế nào để đựng các vật dụng như bút, thước, kéo, gôm, đồ chuốt, ... gọn gàng, ngắn nắp trên bàn và dễ lấy khi cần sử dụng? - Học sinh động não, trả lời nhanh trong 1 phút (dự kiến: bỏ vào hộp bút, túi ni lông, bỏ vào một ngăn cặp, cột các đồ dùng bằng sợi thun, ...)- Giáo viên hỏi đáp cùng học sinh để HS nhận ra những hạn chế của mỗi đáp án, từ đó lựa chọn giải pháp tốt là hộp đựng bút đa năng, có nhiều ngăn đựng, mỗi ngăn đựng một loại đồ dùng để chứa các vật dụng gọn gàng, dễ tìm kiếm. Định hướng: làm hộp đựng bút đa năng để tặng bạn.b) Giao nhiệm vụ- Học sinh ghi nhận nhiệm vụ thực hiện một hộp đựng bút đa năng với các yêu cầu cụ thể vào vở:+ Hộp đựng bút đựng được từ 3 đến 5 loại đồ dùng học tập.+ Hộp đựng bút chắc chắn, dùng được lâu.+ Hộp đựng bút có kích thước phù hợp.+ Hộp đựng bút được thiết kế để dễ tìm thấy vật dụng.+ Hộp đựng bút được trang trí hài hòa, đẹp mắt. - Học sinh được dẫn dắt: Theo em hộp đựng bút đa năng có hình dáng ra sao?(Giống cái hộp hình chữ nhật.) Các em đã biết được các dạng hình khối gì? Còn có những dạng hình khối mà các em chưa biết và chúng ta sẽ cùng nhau tìm hiểu qua hoạt động tiếp theo đây để có thêm hiểu biết mà thực hiện làm hộp đựng bút đa năng.2. Hoạt động 2: Hình thành kiến thức mới (Nghiên cứu kiến thức nền)a) Tìm hiểu khối trụ, khối cầuGiáo viên tổ chức hoạt động để học sinh khám phá khối trụ, khối cầu. 00003. Hoạt động 3: Luyện tập và vận dụng (Tìm giải pháp, chế tạo và chia sẻ)a) Đề xuất và lựa chọn giải pháp* Khám phá hộp đựng bút đa năng- GV cho HS quan sát hình ảnh một số hộp đựng bút đa năng.3663874123699900 - GV hỏi đáp với HS để HS nhận ra đặc điểm của hộp đựng bút đa năng: + Vì sao gọi là hộp đựng bút đa năng? Chúng có điều gì đặc biệt? (Hộp đựng bút đa năng có thể đựng nhiều loại đồ vật: bút, viết, thước, kéo, băng keo, kẹp giấy, kẹp tóc, ... cũng có thể cắm hoa khô trang trí. Nó nhiều chỗ chứa, mỗi chỗ đựng riêng cho từng loại.) + Hộp đựng bút đa năng có giúp em dễ tìm kiếm đồ dùng học tập bên trong không? Các đồ dùng đựng bên trong hộp đựng bút đa năng có gọn gàng, ngăn nắp không? (Hộp đựng bút đa năng giúp em tìm lấy đồ dùng dễ dàng và nhanh chóng. Các vật dụng được sắp xếp gọn gàng trong từng ngăn riêng.)* Tìm cách thực hiện:- HS quan sát các hình ảnh hộp đựng bút đa năng và trả lời các câu hỏi do GV định hướng. + Hộp đựng bút đa năng này làm bằng vật liệu gì? + Hộp đựng bút đa năng này chứa các vật dụng ra sao? + Hộp đựng bút đa năng này được ghép bởi bao nhiêu khối hình? Đó là các khối hình gì?+ Các khối hình được ghép như thế nào để tạo thành hộp đựng bút đa năng?+ Kích thước các khối đều bằng nhau hay khác nhau? Vì sao? + Làm thế nào để chiếp hộp đựng bút đa năng đẹp? + Nếu là ngăn chứa bút hoặc thước thì em lựa chọn hộp làm ngăn có kích thước thế nào so với với chiều dài của bút viết thước? Ngăn có chiều dài khoảng bao nhiêu xăng -ti-mét? Ngăn có chiều rộng khoảng bao nhiêu xăng -ti-mét?+ Để dễ tìm thấy vật dụng đựng bên trong thì chiều cao mỗi lọ cắm phải thế nào? cao hơn hay thấp hơn đồ vật? Khi lọ đựng quá cao hoặc quá thấp so với đồ vật thì sao?Lọ đựng có chiều cao khoảng bao nhiêu xăng -ti-mét?- GV giới thiệu những vật liệu mà GV cung cấp sẵn (hoặc do HS chuẩn bị theo yêu cầu của GV): các hộp giấy khối hộp chữ nhật, khối lập phương có kích thước to, nhỏ khác nhau, các lõi giấy, vỏ lon có kích cỡ khác nhau, bút chì sáp, bìa giấy màu, băng keo hai mặt, hồ dán, ...- HS nêu tên dạng khối của các vật liệu có sẵn. (VD. Hộp giấy hình khối hộp chữ nhật, vỏ lon hình khối trụ, hộp diêm hình khối hộp chữ nhật, ...)- HS thảo luận nhóm, trả lời các câu hỏi trên Phiếu học tập 2 để thống nhất ý tưởng thiết kế: Hộp đựng bút đa năng của nhóm có mấy ngăn, mỗi ngăn đựng những gì? Hộp đựng bút đa năng tạo hình gì và ghép bởi các vật liệu có dạng khối nào?- HS trình bày miệng ý tưởng chung của nhóm.- Giáo viên tổng kết ý tưởng của các nhóm và nhấn mạnh các bước thực hiện quan trọng.- Học sinh có thể thay đổi về thiết kế so với ý tưởng ban đầu, giải thích lí do vì sao thay đổi thiết kế.b) Chế tạo mẫu, thử nghiệm và đánh giá- Học sinh được nhắc nhở về an toàn khi sử dụng kéo khi thực hành.- Học sinh hoạt động nhóm cùng chế tạo hộp đựng bút đa năng theo phương án đã đề xuất. - Giáo viên theo dõi quá trình học sinh thực hiện để nhắc nhở và hỗ trợ khi cần thiết.- Học sinh sắp xếp vật dụng vào hộp đựng bút để thử nghiệm sản phẩm.- Học sinh dựa trên các tiêu chí trong phiếu đánh giá sản phẩm (do giáo viên cung cấp) để thử nghiệm và tự đánh giá hộp đựng bút đa năng do nhóm làm ra.c) Chia sẻ, thảo luận và điều chỉnh- Các nhóm học sinh trưng bày sản phẩm của nhóm.- Gv tổ chức cho HS quan sát sản phẩm theo kĩ thuật phòng tranh. - Đại diện 1-2 nhóm học sinh được bình chọn có sản phẩm tốt trình bày về sản phẩm của nhóm. Các nhóm khác nhận xét, đánh giá.- Học sinh chia sẻ những khó khăn đã gặp phải, những điều đã làm tốt và chưa tốt trong quá trình làm hộp đựng bút đa năng đồng thời nêu ý kiến về cách thức cải tiến sản phẩm hộp đựng bút đa năng dựa trên nhận xét và góp ý của nhóm bạn.- Giáo viên nhận xét đánh giá kết quả các nhóm và tổng kết hoạt động.- Giáo viên tổ chức lại trò chơi “Ai nhanh hơn, ai gọn hơn?” để cất lại các vật dụng sau hoạt động thực hành, từ đó thấy được công dụng của chiếc hộp đựng bút đa năng. + Nếu em được bạn tặng chiếc hộp đựng bút đa năng do các bạn tự làm nên, em cảm thấy thế nào?- Giáo viên giáo dục HS niềm vui của việc cho và nhận, ý nghĩa của món quà gắn kết tình cảm bạn bè. Sản phẩm học sinh đã thực hiện:left869950025684305629500Đề xuất các chủ đề có thể giảng dạy (theo Chương trình Giáo dục Phổ thông năm 2018) cho các môn học: Tự nhiên và Xã hội ở lớp 1, 2.Số thứ tựChủ đềNội dung tích hợp trong chủ đề1Dùng li nhựa đã qua sử dụng để làm Chậu cây tự chế (lớp 1)Tự nhiên và Xã hội Nêu được việc làm phù hợp để chăm sóc, bảo vệ cây trồng. Làm được một số việc phù hợp để chăm sóc, bảo vệ cây trồng ở trường hoặc ở nhà. Mĩ thuật Thực hiện được các bước trong thực hành tạo ra sản phẩm. Sử dụng được vật liệu sẵn có để thực hành, sáng tạo. Biết chia sẻ ý định sử dụng sản phẩm. Biết cách sử dụng công cụ phù hợp với vật liệu và an toàn trong thực hành, sáng tạo. Toán Nhận biết được đơn vị đo độ dài: cm (xăng-ti-mét); đọc và viết được số đo độ dài trong phạm vi 100 cm. 2Sử dụng bìa carton, lá cây,... để làm Đồng hồ bốn mùa (lớp 2)Môn Tự nhiên và xã hội-Nêu được tên và một số đặc điểm của các mùa trong năm (ví dụ: mùa xuân, mùa hè, mùa thu, mùa đông; mùa mưa và mùa khô). - Lựa chọn được trang phục phù hợp theo mùa để giữ cơ thể khoẻ mạnh.Môn Mĩ thuật– Kết hợp vẽ, cắt, xé dán, ... trong thực hành, sáng tạo. – Trả lời được các câu hỏi: Sản phẩm dùng để làm gì? Dùng như thế nào?3Sử dụng bao ni lông để tạo mô hình Lá phổi trong tôi (lớp 2)Môn Tự nhiên xã hội-Chỉ ra được các bộ phận của cơ quan hô hấp.-Nhận biết chức năng của cơ quan hô hấp.-Tìm hiểu tác nhân gây hại cho cơ quan hô hấp.Môn Mĩ thuật -Biết xác định nội dung chủ đề và lựa chọn công cụ, vật liệu để thực hành.-Biết kết hợp vẽ, cắt, xé dán,... trong thực hành, sáng tạo.-Biết giữ vệ sinh trường, lớp, đồ dùng học tập,... trong thực, hành sáng tạo.4Sử dụng tập vở, bìa carton để làm Sổ tay thực vật (lớp 2)Môn Tự nhiên xã hội-Đặt và trả lời được câu hỏi về nơi sống của thực vật thông qua quan sát thực tế, tranh ảnh và (hoặc) video.-Nêu được tên và nơi sống của một số thực vật xung quanh.-Phân loại được thực vật theo môi trường sống.Môn Mĩ thuật-Thực hiện được các bước trong thực hành tạo ra sản phẩm.- Sử dụng được vật liệu sẵn có để thực hành, sáng tạo được một số mô hình liên quan đến chủ đề theo hình thức vẽ, xé, nặn và cắt, dán.-Trưng bày, chia sẻ được cảm nhận về sản phẩm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>S011</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là một phương pháp giáo dục trong đó học sinh được tham gia trực tiếp vào các hoạt động thực tiễn, thay vì chỉ tiếp thu kiến thức qua sách vở hay giảng giải lý thuyết. Phương pháp này nhấn mạnh vào việc "học thông qua làm", khuyến khích học sinh chủ động khám phá, thử nghiệm và rút ra bài học từ chính trải nghiệm của mình. Tác động của học tập qua trải nghiệm đến học sinh rất sâu sắc. Thứ nhất, nó giúp học sinh ghi nhớ kiến thức lâu hơn vì kiến thức gắn liền với cảm xúc và hành động cụ thể. Thứ hai, phương pháp này phát triển kỹ năng giải quyết vấn đề, tư duy phản biện và khả năng làm việc nhóm – những kỹ năng quan trọng trong thế kỷ 21. Ngoài ra, học sinh cũng cảm thấy hứng thú và tự tin hơn khi được tham gia vào quá trình học tập một cách tích cực và sáng tạo. Ví dụ, trong một dự án STEAM về chủ đề “Bảo vệ môi trường”, học sinh có thể thu gom rác thải tái chế, thiết kế mô hình thùng rác thông minh hoặc làm poster tuyên truyền. Qua đó, các em không chỉ học kiến thức liên môn về khoa học, công nghệ, kỹ thuật, nghệ thuật và toán mà còn nhận thức rõ hơn về vai trò của mình trong việc bảo vệ môi trường. Như vậy, học tập qua trải nghiệm chính là cầu nối giúp kiến thức trở nên sống động, gần gũi và ý nghĩa hơn với học sinh.</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Tên hoạt động: “Thiết kế vật dụng đựng đồ cá nhân thông minh” Mục tiêu: Giúp học sinh cải thiện thói quen sắp xếp góc học tập và rèn luyện kỹ năng giải quyết vấn đề. Mô tả hoạt động: Học sinh sẽ được giao nhiệm vụ thiết kế và tạo ra một vật dụng đựng đồ cá nhân (bằng bìa cứng, que kem, chai nhựa, v.v.) để đựng sách, bút, thước hoặc các vật dụng nhỏ thường xuyên bị thất lạc trên bàn học. Trước khi bắt tay vào làm, các em sẽ thảo luận theo nhóm để tìm hiểu thói quen học tập của bản thân, xác định những khó khăn như bàn học bừa bộn, đồ dùng bị mất, mất thời gian tìm kiếm... Tiếp theo, các nhóm sẽ lên ý tưởng thiết kế, vẽ bản phác thảo, lựa chọn vật liệu tái chế, và cùng nhau tạo ra sản phẩm. Cuối hoạt động, mỗi nhóm sẽ thuyết trình về thiết kế của mình, giải thích vì sao giá đựng đó phù hợp với nhu cầu của nhóm và cách nó giúp cải thiện không gian học tập. Kỹ năng và năng lực phát triển: Tư duy thiết kế và sáng tạo Kỹ năng hợp tác, giao tiếp trong nhóm Giải quyết vấn đề và ra quyết định Ý thức giữ gìn không gian học tập ngăn nắp, khoa học Hoạt động này không chỉ gắn với đời sống hàng ngày mà còn giúp học sinh phát triển các phẩm chất và năng lực cần thiết của công dân trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học cho bài tập: “Bảo vệ viên phấn khi rơi từ độ cao 3 mét” 1. Khởi động và khơi gợi vấn đề: Tôi sẽ bắt đầu bằng cách thả một viên phấn từ độ cao 3 mét để học sinh quan sát hiện tượng viên phấn bị vỡ. Sau đó, đặt câu hỏi: Vì sao viên phấn lại vỡ khi rơi từ trên cao? Nếu em muốn bảo vệ viên phấn, em sẽ làm như thế nào? Giao nhiệm vụ: Học sinh được chia thành các nhóm nhỏ. Mỗi nhóm sẽ thiết kế và tạo ra một thiết bị đơn giản có thể bảo vệ viên phấn khi thả từ độ cao 3 mét. Các em có thể sử dụng các vật liệu đơn giản như: Bìa cứng, giấy báo, xốp, bong bóng, dây thun, cốc nhựa, vải vụn, ống hút, hộp nhỏ, băng dính... Hướng dẫn học sinh thực hiện: Tôi sẽ gợi mở qua các câu hỏi: Làm sao để giảm lực tác động khi viên phấn chạm đất? Vật liệu nào có thể giúp hấp thụ lực hoặc bao bọc viên phấn tốt nhất? Thiết kế của em có thể chịu được nhiều lần thử không? Thử nghiệm và điều chỉnh: Các nhóm thử nghiệm thiết bị, quan sát kết quả và điều chỉnh nếu cần. Mỗi nhóm sẽ ghi lại quá trình thiết kế, lý do lựa chọn vật liệu và cải tiến sau thử nghiệm. Trình bày và đánh giá: Cuối buổi, học sinh trình bày sản phẩm và rút ra bài học về cách bảo vệ vật dễ vỡ, nguyên lý giảm chấn và sáng tạo trong giải quyết vấn đề. Hoạt động này giúp học sinh phát triển tư duy kỹ thuật, hợp tác nhóm và kỹ năng thử nghiệm sáng tạo.</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Khi một học sinh yêu cầu “xem ví dụ” trong một hoạt động STEAM có yếu tố nghệ thuật, điều này thường phản ánh sự lo lắng, thiếu tự tin hoặc sợ sai. Trong tình huống đó, tôi sẽ phản hồi bằng cách hỗ trợ tâm lý và khuyến khích sự sáng tạo, thay vì đưa ra một mẫu cố định có thể làm hạn chế ý tưởng cá nhân. Phản hồi gợi mở: “Tuy cô không có một ví dụ cụ thể, nhưng cô tin rằng mỗi bạn đều có ý tưởng riêng rất thú vị. Em có thể bắt đầu bằng cách nghĩ xem: Em muốn sản phẩm của mình trông như thế nào? Em muốn truyền tải điều gì qua đó?” Các cách hỗ trợ cụ thể: Gợi ý mở, không mang tính ràng buộc: Tôi có thể đưa ra một số ví dụ đa dạng từ các hoạt động trước (qua tranh ảnh hoặc mô hình) nhưng nhấn mạnh: “Đây chỉ là vài ý tưởng tham khảo, không phải mẫu chuẩn. Em hoàn toàn có thể tạo ra sản phẩm độc đáo theo cách của mình.” Khuyến khích quá trình thử nghiệm: Tôi khuyến khích học sinh vẽ phác thảo trước, thử nhiều cách phối màu, chất liệu, hình khối khác nhau để tìm ra phiên bản mà các em thích nhất. Tạo không gian an toàn để sáng tạo: Tôi nhấn mạnh rằng trong STEAM không có đúng – sai, mỗi sản phẩm đều phản ánh suy nghĩ và cá tính riêng, và điều đó làm nên giá trị của nghệ thuật. Bằng cách này, tôi giúp học sinh tự tin khám phá và phát triển khả năng sáng tạo của bản thân một cách tự nhiên và vui vẻ.</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động dạy học: Tên hoạt động: “Thiết kế mô hình phương tiện giao thông từ vật liệu tái chế” Mô tả hoạt động: Học sinh sẽ thu thập các vật liệu tái chế như hộp giấy, chai nhựa, nắp chai, que kem, bìa cứng... để thiết kế mô hình một phương tiện giao thông mà các em yêu thích (xe đạp, ô tô, tàu hỏa, thuyền, máy bay...). Các em sẽ làm việc theo nhóm, từ khâu lên ý tưởng, vẽ bản thiết kế, chọn vật liệu đến lắp ráp và trang trí mô hình. Mục tiêu: Rèn luyện tư duy thiết kế, sáng tạo và kỹ năng hợp tác nhóm Giáo dục ý thức bảo vệ môi trường qua việc tái sử dụng rác thải Giúp học sinh kết nối kiến thức thực tế với nội dung môn học Vật liệu gợi ý: Hộp carton, chai/lon nhựa, ống hút, dây chun, que kem, giấy màu, bút vẽ, kéo, keo dán... Chủ đề/bài học theo CT GDPT 2018 có thể tích hợp: Lớp 1 – Tự nhiên và Xã hội: Bài: “Các phương tiện giao thông” → Nhận biết và phân loại các loại phương tiện, vai trò trong cuộc sống. Lớp 2 – Tự nhiên và Xã hội: Bài: “An toàn khi tham gia giao thông” → Nêu các quy tắc và cách sử dụng phương tiện an toàn. Lớp 3 – Tự nhiên và Xã hội: Bài: “Bảo vệ môi trường” → Tái chế vật liệu để giảm rác thải nhựa, bảo vệ môi trường sống. Lớp 4 – Khoa học: Bài: “Năng lượng” → Tìm hiểu cách các phương tiện hoạt động (năng lượng gió, xăng, điện...). Lớp 5 – Khoa học: Bài: “Tác động của con người đến môi trường” → Liên hệ giữa giao thông và ô nhiễm, cách sống thân thiện môi trường. Hoạt động này không chỉ mang tính giáo dục bền vững mà còn khơi gợi sự đam mê sáng tạo và tư duy kỹ thuật ở học sinh tiểu học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>S012</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>"Học tập trải nghiệm” là hình thức dạy học nhằm tổ chức hoạt động giúp cho HS chủ động tìm hiểu kiến thức thông qua các hoạt động trải nghiệm hoặc được khai thác, vận dụng các kiến thức vốn có để thực hành làm sản phẩm, vận dụng vào cuộc sống thực tiễn.Tác động của học tập trải nghiệm đối với HS là:- HS học đi đôi với hành.- HS học thông qua chơi.- HS học tập cảm thấy vui vẻ, tích cực, phù hợp với tâm lý lứa tuổi.- HS chủ động tham gia vào giờ học- HS được trải nghiệm, khám phá, được khai thác những kiến thức vốn có để tạo thành kiến thức mới. Và đặc biệt là các em biết kiến thức ấy cần để làm gì, học để làm gì?- HS yêu thích học tập, tự nghiên cứu, khám phá và hình thành được nhiều kiến thức cho bản thân, trở thành người có ích cho tương lai.Ví dụ: Khi học bài “Xếp hình” - môn Toán lớp 1, HS ban đầu hiểu đây là dạng trò chơi lắp ghép như lego. Nhưng khi GV dạy học theo hướng trải nghiệm, HS sẽ được vận dụng kiến thức vào thực tiễn, cùng xếp hình làm sản phẩm Gấp áo. Đó không chỉ là kiến thức nữa mà là sự trải nghiệm, vận dụng có hiệu quả kiến thức trong cuộc sống hằng ngày.</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Khi HS học về xem lịch lớp 1 tạo sự hào hứng khi được làm Tờ lịch sáng tạo.Minh họaHoạt động dạy họcKĩ năng HSHoạt động: Tìm hiểu về tờ lịch và thực hành làm sản phẩm- HS xem tờ lịch và trao đổi để tìm ra thứ, ngày – tháng.- HS đưa ra ý kiến.a) Đề xuất và lựa chọn giải pháp* Tìm hiểu về tờ lịch sáng tạo- HS quan sát mẫu tờ lịch và trả lời:Sản phẩm có hình gì?Sản phẩm được làm từ những vật liệu nào?HS chọn vật liệu và dụng cụ.Thực hành:HS xem clip hướng dẫn à nêu các bước làm sản phẩm.HS thống nhất tiêu chí của Tờ lịchb) Chế tạo sản phẩm- HS làm sản phẩm theo nhóm 4.Chia sẻ - Đánh giáTham quan sản phẩm à trình bày ý kiến.HS bình chọn sản phẩm đẹp, đáp ứng các tiêu chí.HS nêu hướng cải tiến, nêu ý nghĩa của tờ lịch.Kĩ năng quan sát, vận dụng kiến thức vốn cóKĩ năng quản lí thời gianKĩ năng giao tiếp - hợp tác.Kĩ năng giao tiếp - hợp tác, mô hình hóa, lên ý tưởng sáng tạo.Kĩ năng chia sẻ, khắc phục khi được góp ý.Kĩ năng phản hồi: Vận dụng sau bài học</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Tôi áp dụng bài học cho HS lớp 3:Hoạt động 1: Tình huống có vấn đề:Đặt tình huống: Phấn của lớp mình thường bị rơi rớt và gãy vụng. Vậy các em có suy nghĩ nên làm một thiết bị nào để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét không?GV cùng HS đặt ra các tiêu chí cho dụng cụ:1/ Có tác dụng để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét 2/ Được làm tự nguyên liêu dễ tìm3/ Phải chắc chắn, dùng nhiều lần Hoạt động 2: Thực hành làm sản phẩm a/ Đề xuất ý tưởng làm sản phẩmQuan sát thiết bị mẫu: Thiết bị có dạng hình gì? Được làm từ những nguyên vật liệu nào?Thảo luận vẽ ý tưởng lên giấy theo nhóm 4 và trình bày ý tưởngb) Thực hành:Nhóm chọn vật liệu theo bản thiết kế+ Các hộp hình khối có sẵn+ Các miếng bìa carton+ Keo dán+ Bút màu+ Nilong+ Ống nhựaHS làm sản phẩm theo nhóm 4Hoạt động 3: Thí nghiệm thả viên phấnHS cùng thả viên phấn để kiểm nghiệm sản phẩmBình chọn sản phẩm có hiệu quả nhấtCải tiến sản phẩm sau bài học.</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Nếu một học sinh yêu cầu 'xem ví dụ' liên quan việc tạo ra các sản phẩm có yếu tố nghệ thuật độc đáo, tôi sẽ cho HS xem và thực hiện sản phẩm “Những bức tranh cầu vồng” khi học tập vận dụng bài học về Số 7 - Lớp 1.Các em học các kiến thức về số 7: tập đếm số từ 1 đến 7 và tạo sản phẩm Cầu vồng bằng sự sáng tạo khi lựa chọn các vật liệu: bút màu, giấy màu, bông gòn, keo dán.... Các vật liệu được sắp xếp một cách có nghệ thuật để tạo nên một bức tranh hài hoà về thẩm mĩ nhưng đúng về thực tế. HS được vận dụng trí sáng tạo, được khai thác những hiểu biết không chỉ về toán học mà còn về tự nhiên và xã hội và chính tay tạo sản phẩm để trang trí lớp học của mình. Hoàn thành và sử dụng sản phẩm để trang trí lớp</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Dựa vào môn Công nghệ 3:Làm đồ chơi hoặc môn Khoa học 5: Năng lượng gió, mặt trời và nước chảyHoạt động 1: Tình huống có vấn đề:Việt Nam có số lượng xe máy rất nhiều nên tình trạng ô nhiễm môi trường vẫn đang diễn ra. Để thay thế xăng dầu cho các phương tiện, chúng ta có thể sử dụng năng lượng nào? Giới thiệu: Ngoài năng lượng mặt trời, điện, ta có thể sử dụng năng lượng gió... Thiết kế mô hình xe đa năng.HS đặt ra tiêu chí cho xe đa năng: 1/ Có thể chạy được.2/ Được làm tự nguyên liệu tái chế. 3/ Phải chắc chắn, sử dụng được lâu.Hoạt động 2: Thực hành:a/ Đề xuất ý tưởng:- Quan sát mô hình xe: Mô hình có dạng những hình gì? Được làm từ vật liệu nào? Xe hoạt động như thế nào?- Thảo luận, vẽ ý tưởng lên giấy theo nhóm 4 và trình bày ý tưởngb) Thực hành:- HS chọn vật liệu theo bản thiết kế+ Bìa carton: tròn, chữ nhật...+ Bong bóng+ Ống hút+ Keo dán+ Bút màu+ Que gỗHS làm sản phẩm theo nhóm 4Hoạt động 3: Thí nghiệm thả viên phấn- Tham gia “ Đua xe F1” à Thử nghiệm chiếc xe nào chạy nhanh nhất: bình chọn nhóm chiến thắng.- Cải tiến sản phẩm sau bài học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>S013</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm nghĩa là học sinh được tự tay làm, tự mình khám phá để hiểu bài học thay vì chỉ ngồi nghe thầy cô giảng. Khi các em trực tiếp tham gia vào các hoạt động, như làm thí nghiệm, vẽ mô hình, chơi trò chơi học tập hay làm việc nhóm, các em sẽ hiểu bài sâu hơn và nhớ lâu hơn.Trong giáo dục STEAM – gồm Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật và Toán học – học sinh thường được học qua việc thử làm một điều gì đó thật thú vị. Ví dụ, thay vì chỉ học về cách nước bốc hơi, các em có thể làm thí nghiệm nấu nước và quan sát hơi nước bay lên. Hoặc khi học về hình học, các em có thể dùng que và đất nặn để tạo ra các hình khối.Một ví dụ cụ thể là khi lớp tổ chức hoạt động làm cầu bằng ống hút. Các em được chia nhóm, cùng nhau suy nghĩ cách xây cầu sao cho vững chắc, rồi tự tay lắp ráp. Nhờ đó, các em không chỉ hiểu thêm về kỹ thuật mà còn biết cách hợp tác, chia sẻ và giải quyết vấn đề.Như vậy, học tập qua trải nghiệm giúp học sinh tiểu học học vui hơn, hiểu bài dễ hơn và phát triển nhiều kỹ năng quan trọng cho tương lai.</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: “Hộp Điều Ước Lớp Mình” – Giúp lớp học trở nên thoải mái và thân thiện hơnMô tả hoạt động:- Giáo viên chuẩn bị một chiếc hộp trang trí đẹp, gọi là “Hộp Điều Ước”. - Mỗi tuần, học sinh được viết một điều ước nhỏ liên quan đến lớp học (ví dụ: “Em ước các bạn không nói chuyện khi học”, “Em muốn lớp mình có thêm cây xanh”, “Em mong các bạn thân thiện hơn”...). Các em sẽ viết điều ước lên giấy, ký tên hoặc không ký tùy thích, rồi bỏ vào hộp.- Cuối tuần, giáo viên cùng cả lớp mở hộp, đọc các điều ước (giữ kín danh tính nếu học sinh không ghi tên) và chọn ra 1–2 điều để cùng nhau thực hiện trong tuần tiếp theo. Có thể chia nhóm học sinh để lên kế hoạch và thực hiện điều ước đó.Kỹ năng và khả năng phát triển:- Kỹ năng giao tiếp và bày tỏ cảm xúc: Học sinh được nói lên suy nghĩ, mong muốn một cách tích cực.- Khả năng hợp tác và làm việc nhóm: Các em cùng nhau thực hiện những điều ước, học cách chia sẻ công việc.- Tư duy giải quyết vấn đề: Các em suy nghĩ về những điều khiến lớp học chưa thoải mái và tìm cách cải thiện.- Trách nhiệm và sự quan tâm đến tập thể: Học sinh hiểu rằng mình có thể góp phần làm cho lớp học tốt hơn.Hoạt động tuy đơn giản nhưng giúp lớp học trở nên vui vẻ, gắn kết và thân thiện hơn mỗi ngày.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Tên bài học: Giải cứu viên phấn I. Mục tiêu:Sau bài học, học sinh có thể:- Hiểu được nguyên nhân khiến vật dễ vỡ khi rơi từ trên cao.- Biết vận dụng kiến thức đơn giản về lực, đệm, và hấp thụ va chạm.- Thiết kế và thử nghiệm một thiết bị bảo vệ viên phấn.- Phát triển kỹ năng làm việc nhóm, tư duy sáng tạo và giải quyết vấn đề.II. Chuẩn bị:- Một vài viên phấn (để thử)- Hộp/thùng cao 3m hoặc ghế cao, thước dây- Các vật liệu đơn giản: ly nhựa, giấy báo, giấy mềm, vải vụn, bông gòn, ống hút, băng keo, dây thun, hộp giấy nhỏ, túi nilon...- Phiếu hướng dẫn và bảng tiêu chí đánh giá sản phẩmIII. Các bước dạy học cụ thể:1. Gợi mở vấn đề (5–7 phút)- Giáo viên kể chuyện: “Bác Bảng Trắng buồn lắm vì các viên phấn của bác luôn bị rơi và vỡ khi dạy học. Bác nhờ lớp mình chế tạo một thiết bị để cứu lấy những viên phấn tội nghiệp đó khi rơi từ tầng 2 xuống (3 mét). Các kỹ sư nhí của lớp mình sẵn sàng chưa?”- Gợi ý học sinh chia sẻ: “Khi đồ vật rơi xuống, điều gì xảy ra?” “Em có cách nào để bảo vệ viên phấn không bị vỡ không?”2. Hoạt động nhóm (20 phút)- Chia lớp thành các nhóm 3–4 học sinh.- Giao nhiệm vụ: “Hãy sử dụng các vật liệu được phát để thiết kế một thiết bị có thể bảo vệ viên phấn khi rơi từ độ cao 3 mét.”- Học sinh thảo luận, vẽ sơ đồ thiết kế nếu muốn, rồi bắt tay vào làm.- Giáo viên đi quan sát, hỗ trợ, đặt câu hỏi định hướng:“Phấn của em nằm ở đâu trong thiết bị?”“Lớp nào trong thiết bị sẽ giúp giảm lực va chạm?”“Nếu viên phấn vẫn bị vỡ, em nghĩ mình sẽ thay đổi gì?”3. Thử nghiệm (8–10 phút)- Mỗi nhóm đem sản phẩm lên thử nghiệm bằng cách thả từ độ cao 3 mét.- Sau mỗi lần thử, cả lớp quan sát và cùng đánh giá: viên phấn còn nguyên hay bị vỡ?- Giáo viên ghi kết quả vào bảng theo dõi.4. Chia sẻ (7–10 phút)- Đại diện mỗi nhóm trình bày thiết kế, quá trình làm việc, điều học được.- Gợi ý câu hỏi:“Vì sao thiết bị của nhóm em hiệu quả?”“Nếu làm lại, nhóm em sẽ thay đổi điều gì?”- Khen ngợi sự sáng tạo, hợp tác của học sinh.- Bảng tiêu chí đánh giá sản phẩm:Tiêu chíMức độ đạt đượcThiết kế sáng tạo⭐ – ⭐⭐ – ⭐⭐⭐Thiết bị bảo vệ được viên phấnCó – KhôngLàm việc nhóm hiệu quả⭐ – ⭐⭐ – ⭐⭐⭐Trình bày rõ ràng⭐ – ⭐⭐ – ⭐⭐⭐IV. Tổng kết:- Củng cố kiến thức.- Nhấn mạnh tầm quan trọng của sáng tạo và hợp tác trong giải quyết vấn đề thực tế.- Dặn dò: "Về nhà, hãy thử nghĩ thêm một món đồ dùng nào đó cần được bảo vệ và vẽ thiết kế của riêng em nhé!"</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Khi học sinh yêu cầu "xem ví dụ" trong một hoạt động STEAM có yếu tố nghệ thuật, đó thường là dấu hiệu cho thấy em đang thiếu tự tin hoặc lo lắng vì chưa hình dung được mình nên làm gì. Thay vì đưa ra ngay một mẫu hoàn chỉnh (dễ khiến em sao chép hoặc hạn chế sáng tạo), tôi sẽ áp dụng cách hỗ trợ linh hoạt hơn:1. Trấn an bằng ngôn ngữ tích cực:Tôi sẽ nhẹ nhàng nói: “Trong nghệ thuật, không có đúng hay sai. Mỗi sản phẩm đều là một cách kể câu chuyện của riêng mình – miễn là con dùng trái tim và trí tưởng tượng.” Câu nói này giúp học sinh cảm thấy an toàn khi sáng tạo.2. Hỗ trợ bằng “gợi ý hình ảnh mở”:Thay vì mẫu cố định, tôi có thể đưa ra một bộ thẻ ý tưởng gồm hình ảnh rời rạc như: hình khối, hoa văn, màu sắc, vật liệu, nhân vật... Học sinh có thể chọn một vài gợi ý để khơi nguồn cảm hứng mà vẫn đảm bảo giữ được dấu ấn cá nhân.3. Gợi ý bằng câu hỏi sáng tạo:“Nếu sản phẩm này có thể biến thành một con vật, nó sẽ là gì?”“Nếu con được vẽ một bộ áo giáp cho sản phẩm, con sẽ chọn màu gì? Vì sao?”“Có thể thêm gì để sản phẩm mang dấu ấn riêng của con?”4. Khuyến khích thử – không cần hoàn hảo:Tôi sẽ tạo cơ hội để em thử nghiệm trên giấy nháp hoặc mô hình mẫu bằng đất nặn, giúp em “làm ấm tay” mà không sợ sai. Cách tiếp cận này vừa giảm lo lắng, vừa mở rộng vùng sáng tạo, giúp học sinh khám phá và tin vào ý tưởng độc đáo của chính mình.</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>HOẠT ĐỘNG TRẢI NGHIỆM VỚI STEMCHỦ ĐỀ: HỘP ĐỰNG BÚT ĐỘC ĐÁO (2-3 tiết)Thời điểm tổ chức: Khi dạy nội dung thực hành đo, vẽ, lắp ghép, tạo hình gắn với một số hình phẳng và hình khối đã học.Mô tả hoạt động trải nghiệm:Hoạt động trải nghiệm giúp học sinh có thể:- Nhận dạng được khối trụ, khối cầu thông qua việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật.- Nhận biết và thực hiện được việc gấp, cắt, ghép, xếp và tạo hình gắn với việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật.Để đạt được các yêu cầu này, trong bài học STEM, học sinh sẽ hoàn thành một chiếc “hộp đựng bút” để nhận dạng được khối trụ và khối cầu cũng như thực hiện việc gấp, cắt, ghép các khối để tạo thành nhữngsàn phẩm sáng tạo theo sở thích cá nhân.Nội dung chủ đạo và tích hợp:Môn họcYêu cầu cần đạtMôn học chủ đạoToánNhận dạng được khối trụ, khối cầu thông qua việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật.Nhận biết và thực hiện được việc gấp, cắt, ghép, xếp và tạo hình gắn với việc sử dụng bộ đồ dùng học tập cá nhân hoặc vật thật.Môn tích hợpHoạt động trải nghiệmHoạt động khám phá và rèn luyện bản thânThể hiện được sự khéo léo, cẩn thận của bản thân qua sản phẩm tự làm.Biết sắp xếp đồ dùng học tập cá nhân ngăn nắp, gọn gàng.Mĩ thuậtSử dụng hình, màu, vật liệu phù hợp để sáng tạo và trang trí cho sản phẩm.Tạo được sản phẩm có dạng hình, khối cơ bản.I. Yêu cầu cần đạt (của bài học):- Phân biệt được khối trụ, khối cầu thông qua các đồ dùng, dụng cụ học tập.- Thực hiện được việc đo, cắt, ghép các hình trụ lại với nhau để tạo sản phẩm học tập Hộp đựng bút.- Vẽ được các hình khác nhau với màu sắc sáng tạo để trang trí sản phẩm.- Phối hợp màu sắc độc đáo giữa màu đậm và màu nhạt.- Tích cực, chủ động đóng góp ý kiến để hoàn thiện sản phẩm của cá nhân và các bạn cùng tham gia.- Cẩn thận trong tiến hành đo các kích thước và trong thao tác làm sản phẩm.- Ý thức trong việc thu xếp đồ dùng học tập ngăn nắp, gọn gàng.-Thể hiện sự khéo léo trong việc cắt, xé, dán để thực hiện sản phẩm. - Giữ gìn vệ sinh trong quá trình thực hiện sản phẩmII. Đồ dùng dạy học:Chuẩn bị của giáo viên- Các phiếu học tập và phiếu đánh giá (phụ lục)- Nguyên liệu giáo viên cung cấp cho mỗi nhóm (4 - 5 học sinh/ nhóm)STTNguyên liệu/ Học liệuSố lượngHình ảnh minh hoạ1Giấy màu12Đũa13Hộp giấy14Keo sữa15Bìa các-tông16Kéo17Sản phẩm mẫu1Chuẩn bị của học sinh:- Mỗi nhóm học sinh (4 - 5 học sinh) tự chuẩn bị các nguyên liệu như sau:STTNguyên liệu/ Học liệuSố lượngHình ảnh minh hoạ1Bút chì16521450002Thước kẻ15105404953000III. Các hoạt động dạy học chủ yếuHoạt động 1: Mở đầuKhởi động:Giáo viên chia lớp thành các nhóm nhỏ (4 - 5 học sinh/nhóm) theo tổ hoặc ngẫu nhiên.Học sinh nhận nhiệm vụ “Tạp hóa học tập” với yêu cầu mỗi nhóm sưu tầm từ 15 - 20 loại đồ dùng học tập, một loại có nhiều kích thước khác nhau (bút viết, thước, bút màu, kéo...).Các nhóm học sinh thực hiện nhiệm vụ trong vòng 2 phút. Sau đó trưng bày các đồ vật vừa sưu tầm được để lên bàn.Lưu ý: Giáo viên dặn dò học sinh nhớ đồ dùng học tập cá nhân đã cho nhóm mượn để sau khi kết thúc bài học có thể lấy về, tránh thất lạc.Đại diện 1-2 nhóm học sinh liệt kê các đồ dùng học tập có kích thước khác nhau mà nhóm đã sưu tầm được.Giáo viên đặt câu hỏi mở:- Các em thấy bày đồ học học tập trên bàn như thế này có đẹp mắt không? – Dạ không.- Khi mình để hết đồ dùng học tập lên bàn thì mình còn chỗ để sách, vở và những hoc cụ cho việc học tập của chúng ta nữa không? – Dạ không?- Trong vòng 5 giây các con hãy tìm bút màu xám nhé. Các con có thể tìm được không? – Dạ rất khó tìm.Giáo viên chốt lại để dẫn nhập vào chủ đề: Các em có rất nhiều loại đồ dùng học tập khác nhau như bút, thước, tẩy, ... Nếu bày hết các đồ dùng này trên bàn mà không có đồ đựng sẽ rất lộn xộn, khó để tìm kiếm và dễ thất lạc. Làm thế nào để các em có thể sắp xếp các đồ dùng học tập này một cách gọn gàng để khi cần dùng là có ngay mà không mất nhiều thời gian tìm kiếm?Giáo viên mời 2-3 học sinh trả lời.Giao nhiệm vụ:Giáo viên giới thiệu dụng cụ làm hộp bút. Nhóm trưởng của mỗi nhóm lên nhận nhiệm vụ: Làm một chiếc hộp đựng bút để có thể đựng được các đồ dùng học tập khác nhau trong “Tạp hóa học tập” một cách gọn gàng từ nguyên vật liệu theo danh sách.Để có được các vật liệu trang trí, học sinh sẽ phải thực hiện thử thách ở các hoạt động sau.Yêu cầu của sản phẩm Hộp bút đa năng như sau:- Hộp đựng có thể là hình tròn hoặc hình vuông nhưng phải có 3 ngăn để phân loại đồ dùng học tập (theo chiều cao).- Có thể nhìn thấy các dụng cụ học tập chứa bên trong mỗi ống đựng bút.- Hộp đựng có thể di chuyển được dễ dàng.- Hộp đựng được vẽ trang trí và kết hợp sáng tạo giữa màu đậm và màu nhạt.TRÒ CHƠI THU THẬP NGUYÊN LIỆU TRANG TRÍCác nhóm học sinh thu gom ngôi sao bằng cách tham gia thử thách “Mê cung hình học” với luật chơi như sau:Mỗi nhóm chọn một mê cung bất kì. Thực hiện trong vòng 5 phút.Các nhóm tìm đường thoát ra khỏi mê cung bằng cách trả lời câu hỏi hoặc làm theo hướng dẫn của mê cung.Các mê cung chứa các hình ảnh là chướng ngại vật có hình khối trụ (ví dụ: cá, hoa, hình tròn, tam giác,...).Mỗi chướng ngại vật vượt qua sẽ được 1 ngôi sao.1691639710313714750130721Danh sách nguyên liệu trang trí như sau:STTTên nguyên liệu1Stickers2Giấy màu3Bút sáp màu4Giấy hoa trang trí5Dây ruy băngHoạt động 2: Luyện tập và vận dụngKhám phá và đề xuất giải pháp- Các nhóm thảo luận về phương án làm sản phẩm và vẽ phác hoạ sản phẩm với các nội dung sau:Vẽ minh họa sản phẩm hộp đựng bút mà nhóm muốn thực hiện. Ghi rõ chiều cao của mỗi ống đựng.Nguyên vật liệu mà nhóm sử dụng để trang trí.Các bước làm ống đựng bút.Lưu ý: Thảo luận nhóm chỉ đủ nghe trong nhóm, không làm ảnh hưởng đến các nhóm khác.Các nhóm học sinh nhận nguyên vật liệu được cung cấp.Học sinh lắng nghe một số câu hỏi gợi ý:Dựa vào chiều cao của lõi giấy, phân loại đồ dùng như thế nào? (Đo chiều dài của các đồ dùng, lấy chiều cao của lõi giấy 10cm làm chuẩn, phân chia thành 3 loại: dài hơn 10cm, ngắn hơn 10cm, ngắn hơn 5cm – cục gôm, gọt bút chì).Làm thế nào để cắt lõi giấy làm ống đựng nhưng vẫn giữ được hình trụ của lõi? (Làm xẹp lõi giấy, kẻ một đường thẳng theo chiều ngang của lõi, cắt theo đường thẳng và nắn lại để lõi giấy có hình trụ ban đầu).Chiều cao của ống đựng như thế nào để có thể thấy được các đồ dùng chứa bên trong? (Chiều cao ống đựng nhỏ hơn chiều dài của đồ dùng chứa bên trong).Làm đáy của ống đựng như thế nào để ống đựng không bị đổ và dễ dàng di chuyển? (Dán chắc chắn ống đựng vào bìa carton).Sử dụng vật liệu nào để cố định ống đựng vào bìa carton và những lưu ý gì khi sử dụng vật liệu đó? (Sử dụng keo sữa, vừa dán vừa dùng tay nhấn giữ ống đựng vào bìa carton đến khi keo khô lại).Giáo viên nhắc lại yêu cầu sản phẩm trước khi các nhóm tiến hành thảo luận.Đại diện 2 nhóm giới thiệu bản thiết kế, mỗi nhóm trình bày trong vòng 3 phút với các nội dung sau: + Hình dạng, kích thước, nguyên vật liệu, các bước làm hộp đựng bút.+ Các nhóm khác lắng nghe, và nhận xét cho nhóm bạn.+ Giáo viên góp ý và giải đáp một số thắc mắc của học sinh (nếu có).Chế tạo mẫu, thử nghiệm và đánh giá:Học sinh lắng nghe tiến trình hoạt động chế tạo và thử nghiệm sản phẩm:Các thành viên trong nhóm làm sản phẩm theo phương án thiết kế của nhóm.Khi hết thời gian làm sản phẩm giáo viên sẽ rung chuông. Các nhóm có 1 phút để thu gọn sạch sẽ khu vực làm việc.Các nhóm học sinh tiến hành chế tạo và thử nghiệm sản phẩm bằng cách sắp xếp các đồ dùng trong “Tạp hóa học tập” vào hộp đựng bút.Các nhóm học sinh thực hiện nhiệm vụ trong 30 phút theo bản thiết kế đã được góp ý hoặc chỉnh sửa so với bản thiết kế ban đầu nhưng có kèm lý giải cho sự thay đổi đó. Ghi chú lại điều chỉnh này trong Phiếu học tập.Giáo viên quan sát và hỗ trợ các nhóm học sinh bằng cách giải đáp các câu hỏi phát sinh trong quá trình học sinh thực hiện chế tạo sản phẩm.Thảo luận và chia sẻ và điều chỉnh:Học sinh lắng nghe quy trình hoạt động báo cáo sản phẩm:Các nhóm cử đại diện 1 học sinh cầm sản phẩm có đựng sẵn “Tạp hóa học tập” và lên bảng để trưng bày.Đại diện 1 - 2 nhóm học sinh giới thiệu sản phẩm trong 2 phút với các yêu cầu sau:Giới thiệu hộp đựng bút: nguyên vật liệu, chiều cao của mỗi ống đựng.Chia sẻ những điều chỉnh so với bản thiết kế (kèm giải thích cho sự điều chỉnh đó) và cảm nhận về quá trình làm sản phẩm. Nội dung trình bày đầy đủ, ngắn gọn và thu hút người nghe.Các nhóm bình chọn sản phẩm của các nhóm khác bằng cách tặng ngôi sao. Mỗi nhóm học sinh được 2 ngôi sao để tặng cho nhóm khác.Giáo viên cho các nhóm hoàn thành phiếu học tập để chốt lại một số bước mà học sinh cần chú ý.Giáo viên tổng kết và tuyên dương đội được chọn nhiều sao nhất. Khuyến khích học sinh sáng tạo và chia sẻ với các bạn và thành viên khác trong gia đìnhPHIẾU HỌC TẬPĐiền số thứ tự các bước thực hiện vào cột đầu tiênSTTMô tảHình ảnh minh hoạCắt miếng bìa các-tông có kích thước phù hợp rồi dán vào thân để tạo đáy cho chiếc hộp bút.Đặt các chiếc bút và đồ dùng học tập vào hộp đựng bút vừa tạo.Dán các đoạn ống giấy, ta được thân của chiếc hộp đựng bút.Làm tương tự cho các miếng giấy khác màu, ta được các đoạn ống hút.Dùng hộp giấy có dạng khối hộp chữ nhật để làm khuôn.Dùng keo sữa để dán các đoạn ống giấy chồng xen kẽ lên nhau xung quanh hộp giấy.Dùng thước đo để cắt lấy hai đoạn từ ống giấy vừa tạo, mỗi đoạn dài 10cm.Dùng hết cả 2 miếng giấy màu, ta được 4 đoạn ống giấy.Cắt 2 miếng giấy màu hình chữ nhật có kích thước bằng nhau, mỗi hình có các cạnh lần lượt 10cm và 20 cm.Quấn miếng giấy màu lên chiếc đũa rồi dùng keo dán mép lại sau đó rút chiếc đũa ra, ta được 1 đoạn ống giấy.Phiếu đánh giá: Sản phẩmTên nhóm đánh giá:Tên nhóm được đánh giá: Tổng điểmĐánh dấu vào X vào ô tương ứng để đánh giá về sản phẩm và phần trình bày của nhóm bạn.STTCác tiêu chí1Sản phẩm cân đối, trang trí hài hoà, đẹp mắt2Sản phẩm có thể hoạt động tốt, rõ ràng3Sản phẩm có tính ứng dụng cao4Thuyết trình rõ ràng, cụ thể, sinh độngPhiếu đánh giá: Hoạt động nhómPHIẾU ĐÁNH GIÁ(Dành cho giáo viên)STTCác tiêu chí1Thái độ tham gia hoạt động tốt (tích cực, chủ động, đoàn kết,...)2Hợp tác nhóm tốt3Thuyết trình rõ ràng, cụ thể, sinh động4Hoàn thành sản phẩm đúng thời gian được giaoSản phẩm minh hoạ2524125112069-3200403235960003550920313690000333756023368000Hình ảnh thực tế HS thực hiện-32004021399500Từ sản phẩm đó, các Thầy/Cô hãy đề xuất một (hoặc nhiều) chủ đề hoặc bài học mà Thầy/Cô có thể giảng dạy (theo Chương trình Giáo dục Phổ thông năm 2018 cho các môn học: Tự nhiên và Xã hội ở lớp 1, 2, 3 hoặc Khoa học ở lớp 4, 5).Lớp 3 – Tự nhiên và Xã hộiChủ đề: Cơ thể người và các bộ phận chức năngHoạt động: Lắp ráp mô hình hệ tiêu hóa hoặc hệ tuần hoàn từ đất sét và giấy bìa.Vật liệu: đất sét nhiều màu, giấy bìa, kéo, keo dán, bút màu.Chủ đề: Trái đất và các hiện tượng thiên nhiênHoạt động: Làm mô hình núi lửa phun trào hoặc tạo mô hình mưa bằng bình xịt.Vật liệu: đất sét, baking soda, giấm, chai nhựa, bình xịt nước.Chủ đề: Văn hóa, lễ hội truyền thốngHoạt động: Thiết kế trang phục hoặc đồ chơi truyền thống bằng giấy màu và vải vụn.Vật liệu: giấy màu, vải vụn, băng keo, bút màu, hạt cườm.Lớp 4 – Khoa họcChủ đề: Sự chuyển thể của nướcHoạt động: Thí nghiệm đóng băng và làm tan đá, quan sát thay đổi trạng thái nước.Vật liệu: đá viên, nước, cốc nhựa, nhiệt kế, giấy thấm.Chủ đề: Tính chất của nước và không khíHoạt động: Làm mô hình đo áp suất không khí hoặc thí nghiệm với bóng bay, quạt.Vật liệu: bóng bay, chai nhựa, quạt mini, ống hút, cân nhỏ.Chủ đề: Vòng tuần hoàn của nước trong tự nhiênHoạt động: Thí nghiệm chu trình nước mô phỏng sự bốc hơi, ngưng tụ và mưa.Vật liệu: hộp nhựa trong suốt, bông gòn, nước, giấy bạc.Chủ đề: Làm nến từ dầu ănHoạt động: Sử dụng vật liệu có sẵn để làm nếnVật liệu: dầu ăn thừa, giấy vệ sinhLớp 5 – Khoa họcChủ đề: Sinh sản và phát triển của động vật, thực vậtHoạt động: Quan sát hạt giống nảy mầm và phác thảo vòng đời cây.Vật liệu: hạt giống, đất trồng, chậu nhỏ, kính lúp, giấy vẽ.Chủ đề: Năng lượng và các nguồn năng lượngHoạt động: Tạo mô hình quạt gió dùng năng lượng gió hoặc pin nhỏ.Vật liệu: mô-tơ nhỏ, quạt mini, giấy bìa, dây đồng, pin nhỏ, băng keo.Chủ đề: Tác động của con người đến môi trườngHoạt động: Thu gom, phân loại rác thải tái chế và thiết kế sản phẩm tái sử dụng.Vật liệu: chai nhựa, giấy vụn, bìa cứng, kéo, keo dán.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>S014</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>- Học tập qua trải nghiệm là sự hình thành các kiến thức mới nhờ việc phản ánh lại giữa kinh nghiệm đã có với trải nghiệm mới thông qua hành động của người học. Trong quá trình thực hành, học sinh sẽ giải quyết các vấn đề nảy sinh trong thực tiễn dựa trên kinh nghiệm cá nhân thông qua quan sát, đối chiếu, phản hồi để đưa ra một thích ứng mới. Từ đó vận dụng kinh nghiệm vừa học này vào môi trường học tập trong một tình huống mới bằng một trải nghiệm cụ thể.- Ví dụ: Việc thực hành làm sản phẩm tên lửa bằng bong bóng là một ví dụ minh họa cụ thể. Trong quá trình thiết kế và làm sản phẩm, học sinh sẽ thực hành đo quãng đường bay của tên lửa. Để tên lửa bay được xa hơn, học sinh sẽ thông qua kinh nghiệm, kiến thức đã có thực hiện cải tiến sản phẩm của mình. Các em sẽ lần lượt thử nghiệm cải tiến như thổi bong bóng căng hơn, làm thân tên lửa bằng vật liệu nhẹ hơn, làm đầu tên lửa nhỏ hơn để hạn chế lực cản của không khí,... Từ đó các em sẽ biết thêm về đặc điểm của các chất, lực đàn hồi, lực cản của không khí,... Ngoài ra, các em còn thể hiện được tính thẩm mĩ thông qua việc tạo hình và trang trí tên lửa bắt mắt.</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>- Hoạt động thiết kế hộp đựng bàn chải đánh răng tại lớp.- Mục tiêu: Học sinh sử dụng các chai, hộp nhựa tái chế để đựng bàn chải và kem đánh răng ở lớp. - Phát triển các năng lực, phẩm chất:+ Khả năng sáng tạo và tư duy thiết kế.+ Làm quen với hình hộp.+ Trang trí theo sở thích, rèn năng lực thẫm mỹ, vẽ, sử dụng màu sắc.+ Ý thức tái chế giảm rác thải nhựa.+ Ý thức giữ vệ sinh cá nhân.+ Giải quyết các vấn đề cụ thể trong đời sống hằng ngày.- Công cụ chuẩn bị: giấy, kéo, bút, thước, bút màu, keo dán, chai nhựa, hộp nhựa, hộp giấy mỏng.- Các hoạt động chính:1. Vẽ bản thiết kế hộp đựng bàn chải, kem đánh răng.2. Lựa chọn vật liệu, công cụ thực hiện.3. Tiến hành thực hiện sản phẩm theo thiết kế.4. Trang trí, hoàn thiện sản phẩm.5. Tự đánh giá sản phẩm, chia sẻ sản phẩm.6. Cải tiến sản phẩm.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>- Xác định vấn đề: + Xác định tình huống và vấn đề cần thực hiện: Làm sao cho viên phấn không vỡ khi thả từ độ cao 3m.- Phân tích vấn đề:+ Cho học sinh quan sát và đặt ra câu hỏi: Vì sao viên phấn bị vỡ? Cốt lõi: Do vật liệu cấu tạo và tác động của lực va chạm.- Đề xuất phương án giải quyết:Yêu cầu học sinh đưa ra phương án giải quyết:. Giảm độ rơi: làm dù cho viên phấn. Tăng độ đàn hồi: tạo bọc đệm xung quanh đủ dày, có lớp chống xốc.- Xác định các vật liệu, dụng cụ đơn giản cần dùng: bịch ni lông, khăn, vải, dây, ...- Tiến hành thực hiện:+ Học sinh làm việc nhóm, chế tạo sản phẩm, thử nghiệm, đánh giá sản phẩm theo tiêu chí.1. Tổ chức cho học sinh làm dù cho viên phấn:+ Hướng dẫn học sinh cắt hình tròn của dù bằng túi ni lông, cột dây+ Gợi ý cho HS khi thử nghiệm bằng cách tăng giảm độ rộng của dù, đục lỗ trên dù,...2. Tổ chức cho học sinh làm vỏ chống va đập cho viên phấn:+ Dùng vải, túi xốp, khăn bọc ngoài viên phấn.3. Thử nghiệm cho HS dùng cả 2 phương thức. - Chia sẻ kết quả, thảo luận:+ Học sinh chia sẻ, cải tiến sản phẩm của mình.</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>- Tôi sẽ cho học sinh xem các hình ảnh hoặc sản phẩm minh họa sưu tầm được trong quá trình giảng dạy (như thiết kế nhạc cụ hoặc thiệp, chậu cây, hộp đựng tự chế trong quá trình thực hiện...)- Cách hỗ trợ:+ Động viên học sinh nêu lên ý tưởng của mình.+ Hỗ trợ trong việc gợi ý về màu sắc, thiết kế khác nhau.+ Cho học sinh xem tranh, hình mẫu liên quan đến các thiết kế, công trình trên thực tế, giúp học sinh thấy được sự đa dạng, tính cá nhân trong thiết kế.+ Đưa ra mục tiêu vận dụng mang tính nghệ thuật, liên quan đến âm nhạc, hội họa.+ Đề cao sự sáng tạo, tuyên dương sản phẩm của học sinh theo một góc cạnh tốt bất kì.</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>* Hoạt động sử dụng chai, ly nhựa để làm máy hút bụi đơn giản:- Học sinh cùng tìm hiểu về cơ chế hoạt động của máy hút bụi.- Phân tích cấu tạo của máy hút bụi gồm các bộ phận chính nào.- Hướng dẫn học sinh thực hành lắp máy hút bụi đơn giản qua các bước :+ Tạo thân máy bằng chai nhựa và ly nhựa.+ Lắp ráp động cơ: lắp mạch điện đơn giản.+ Lắp máy hút bụi hoàn chỉnh.- Tổ chức cho học sinh trải nghiệm sản phẩm.- Đánh giá và cải tiến sản phẩm về kết cấu miệng hút và lưới lọc. (Hình ảnh Máy hút bụi đơn giản)* Các chủ đề dạy học mà học sinh có thể làm, trong đó sử dụng vật liệu tái chế :+ Chậu cây tự tưới (chậu cây có 2 lớp, áp dụng nguyên lý thẩm thấu để tự tưới).+ Máy hút bụi đơn giản (sử dụng hộp giấy hoặc chai nhựa)+ Chai đựng cơn mưa sắc màu (dạy bài hỗn hợp và dung dịch)+ Tên lửa chạy bằng bong bóng (dạy học về vật liệu, tính đàn hồi, lực đẩy của không khí)+ Vòng quay bánh xe nước (dạy học bài năng lượng nước chảy)+ Vườn cây diệu kì (tận dụng làm chậu trồng các cây mọc lên từ hạt, thân, lá,...)+ Làm xe buồm (dạy học năng lượng gió)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>S015</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là một quan điểm giáo dục, trong đó học sinh được tham gia các hoạt động nhằm phát triển tư duy, sáng tạo và khả năng giải quyết vấn đề. Qua các hoạt động khám phá, trải nghiệm như tìm hiểu thế giới tự nhiên như cách nhà khoa học đã thực hiện, thực hành những suy ngẫm để đánh giá cái tiến quá trình, phân tích và phát triển ý tưởng để thực hiện, tham gia các hoạt động tương tác xã hội,... tạo cơ hội cho học sinh từng bước tiếp cận tri thức, liên hệ và giải quyết các vấn đề của thực tiễn, phát triển hiểu biết, kỹ năng và thái độ của học sinh. Như vậy, hoạt động học tập qua trải nghiệm hướng tới việc phát triển những kỹ năng của thế kỷ 21 (sáng tạo - Creativity, hợp tác - Collaboration, tư duy phản biện - Critical Thinking và giao tiếp - Communication); các phẩm chất của công dân toàn cầu, có sự thích ứng với những biến đổi của xã hội. Ví dụ: Học sinh tham quan và tìm hiểu quy trình nhà máy cấp nước khai thác, xử lý nước và cung cấp đến hộ gia đình. Sau khi tìm hiểu về nhà máy nước, học sinh điều tra iểu vấn đề ô nhiễm nguồn nước tại khu vực quanh trường học và phân tích tác hại của ô nhiễm nước. Đồng thời, đề xuất cách giữ vệ sinh, làm sạch môi trường nước và có thể thực hiện một máy lọc nước đơn giản. Mô hình giới thiệu cho học sinh quan sát Sản phẩm học sinh thực hiện (dự kiến)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động đề xuất: Hãy thiết kế một sổ tay giúp phụ huynh dễ dàng theo dõi quá trình học tập hằng ngày và hỗ trợ học sinh chuẩn bị cho ngày học tiếp theo. Đối tượng: dành cho học sinh từ lớp 3 trở lên. Hoạt động của HS Kỹ năng/khả năng được phát triển 1. Tiếp nhận nhiệm vụ - Giáo viên đặt vấn đề: Mỗi ngày các bạn sẽ học rất nhiều môn học, mỗi môn học sẽ cần có sự chuẩn bị khác nhau cho bài học. Vì vậy, để phụ huynh có thể “đồng hành” cùng các bạn trong quá trình học tập, các bạn hãy thiết kế một sổ tay giúp phụ huynh có thể theo dõi quá trình học tập hẳng ngày và hỗ trợ học sinh trong việc chuẩn bị cho ngày học tiếp theo. - Lắng nghe, xác định vấn đề và nhiệm vụ cần thực hiện. - Giáo viên giới thiệu tiêu chí sản phẩm: ▪ Sổ tay gồm có 1 trang bìa và có từ 10 trang ghi thông tin. ▪ Trang bìa có các thông tin như: họ và tên, lớp học, tên trường. ▪ Trang ghi thông tin gồm: + Những hoạt động mà em yêu thích trong ngày học + Hoạt động ở nhà sẽ thực hiện có sự liên hệ với bài học + Đồ dùng học tập cần chuẩn bị cho buổi học tiếp theo + Có phần để phụ huynh ghi nhận xét, động viên ▪ Sổ tay chắc chắn và sử dụng được nhiều lần. ▪ Trình bày rõ ràng, bố cục hợp lý, có cá tính riêng - Chia sẻ, thảo luận với các bạn xung quanh về tiêu chí của sản phẩm. Đồng thời chia sẻ với giáo viên về những điểm chưa rõ hoặc cần bổ sung các tiêu chí sản phẩm. Lắng nghe các tiêu chí của sản phẩm. Giao tiếp và tư duy 2. Tìm ý tưởng và phác thảo ý tưởng - Thảo luận ý tưởng dự định thực hiện với các thành viên trong nhóm trong thời gian 8 phút. Phân tích và lựa chọn ý tưởng phù hợp để vẽ phác thảo sản phẩm (bản thiết kế cho sản phẩm). Trình bày được các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. Giới thiệu ý tưởng, bản thiết kế và lắng nghe góp ý. Động não, tư duy Lựa chọn và đánh giá những thuận lợi khó khăn của nhóm khi thực hiện ý tưởng. Phác thảo được sản phẩm. Xác định được các các nguyên vật liệu, dụng cụ cần dùng để có thể thiết kế sản phẩm. Lắng nghe, phản hồi tích cực, tiếp thu các ý kiến để điều chỉnh ý tưởng thiết kế sản phẩm. 3. Thiết kế sản phẩm Lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. Tiến hành thực hiện thiết kế. So sánh sản phẩm với tiêu chí đã đề ra. Kĩ năng ngôn ngữ, tính toán, cắt, dán, tính thẩm mĩ; hợp tác nhóm. Đánh giá được sản phẩm theo các tiêu chí 4. Giới thiệu sản phẩm và nhận xét - Đại diện các nhóm lần lượt giới thiệu sản phẩm và cách sử dụng sổ tay. - Lắng nghe, giao tiếp, tư duy phản biện. Giáo viên tổ chức cho tất cả học sinh nhận xét về sản phẩm và giáo viên cũng có một số góp ý. Giáo viên tổ chức cho các nhóm học sinh tự đánh giá về quá trình hoạt động và tổ chức cho học sinh bình chọn nhóm có sản phẩm được yêu thích. Lưu ý, học sinh không bình chọn cho nhóm của bản thân. Giáo viên tổng kết. Tiếp thu và cải tiến sản phẩm. Đánh giá và tự đánh giá</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động của GV Hoạt động của HS - Giáo viên dẫn dắt vào vấn đề: + Giảm thiệủ tai nạn thương tích do va chạm là một trong những yếu tố quan trọng trong cuộc sống. ? Bạn hãy tưởng tượng, điều gì sẽ xảy ra khi một quả sầu riêng hoặc một quả dừa rơi xuống mặt đất. + Hậu quả của va chạm thật nghiêm trọng. Do đó, việc tìm hiểu và chế tạo thiết bị hạn chế va chạm, giúp cho các sản phẩm nguyên vẹn là yếu tố cần thiết trong quá trình vận chuyển. Nội dung hoạt động này sẽ tìm hiểu và thiết kế thiết bị này. ? Trong trường hợp viên phấn khi từ độ cao lớn xuống mặt đất thì viên phấn như thế nào? ? Vậy có cách nào để bảo vệ viên phấn không bị vỡ khi được thả từ độ cao 3 mét hay không? - Giáo viên giao nhiệm vụ: Thiết kế và chế tạo ra một một thiết bị bảo vệ bảo vệ viên phấn không bị vỡ khi được thả từ độ cao 3 mét đảm bảo các tiêu chí sau: 1. Tiếp nhận nhiệm vụ Lắng nghe nội dung và trả lời câu hỏi. Xác định vấn đề tìm hiểu và nhiệm vụ cần thực hiện. + Bảo vệ viên phấn nguyên vẹn khi rơi từ độ cao 3 mét. + Sử dụng các vật liệu đơn giản. + Cầm tay được, không quá cồng kềnh, dễ mang theo. + Có tính thẩm mỹ. - Lắng nghe các tiêu chí của sản phẩm. Giáo viên chia lớp thành các nhóm, mỗi nhóm khoảng 6 thành viên. Giáo viên cung cấp cho học sinh một số vật liệu như: giấy, bút lông để thể hiện ý tưởng thực hiện sản phẩm. Giáo viên đề nghị các nhóm học sinh suy nghĩ và chia sẻ về ý tưởng thiết kế thiết bị. + Mẫu thiết kế + Các vật liệu cần thiết Trong trường hợp học sinh còn thụ động, chưa quen với việc đề xuất ý tưởng thì giáo viên khơi gợi ý tưởng thực hiện sản phẩm bằng cách đặt câu hỏi như sau: ? Tại sao viên phấn lại vỡ khi rơi từ độ cao lớn? ? Bằng cách nào để bảo vệ viên phấn không bị vỡ khi chạm đất? ? Thiết bị bảo vệ viên phấn không bị vỡ sẽ cần có những yếu tố nào? ? Bằng cách nào để thiết bị có thể tái sử dụng nhiều lần? Nhỏ gọn, dễ mang theo. ? Các nguyên vật liệu nào cần dùng làm thiết bị? Có dễ tìm kiếm hay không? Có thân thiện với môi trường không? ? Dự định sẽ trang trí thế nào? - Giáo viên tổ chức cho các nhóm trình bày ý tưởng thiết kế và góp ý. 2. Tìm ý tưởng và phác thảo ý tưởng về thiết bị Thảo luận nhóm và đề xuất ý tưởng. Thể hiện ý tưởng trên bảng vẽ và chi tiết hóa các thông tin nhằm làm rõ ý tưởng cho thiết kế của thiết bị. Đại diện các nhóm trình bày về ý tưởng thiết kế, lắng nghe và trao đổi với các ý kiến đóng góp. Tiếp thu các ý kiến để điều chỉnh ý tưởng thiết kế sản phẩm. - Giáo viên giới thiệu các nguyên vật liệu, dụng cụ: + 2 viên phấn + túi nilon + bông gòn 3. Thiết kế sản phẩm + dây + hộp giấy + băng keo + giấy bìa cứng + giấy A4 + kéo Giáo viên đề nghị học sinh căn cứ vào bản thiết kế và các dụng cụ, nguyên vật liệu được cung cấp để lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. Giáo viên tổ chức cho học sinh tiến hành thực hiện thiết kế. Lắng nghe và lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế. Tiến hành thực hiện sản phẩm theo mẫu để thiết kế. Thử nghiệm sản phẩm và so sánh sản phẩm với tiêu chí đã đề ra. (+ Bảo vệ viên phấn nguyên vẹn khi rơi từ độ cao 3 mét. + Sử dụng các vật liệu đơn giản. + Cầm tay được, không quá cồng kềnh, dễ mang theo. + Có tính thẩm mỹ.) Giáo viên tổ chức cho các nhóm giới thiệu sản phẩm đã thực hiện. Giáo viên tổ chức cho các nhóm nhận xét, đặt câu hỏi về sản phẩm do nhóm bạn thực hiện. Giáo viên đặt câu hỏi: ? Điều gì đã giúp cho sản phẩm của bạn có thể bảo vệ viên phấn? ? Bạn mong muốn thay đổi để cải thiện thiết bị không? Giáo viên tổ chức cho các nhóm học sinh tự đánh giá về quá trình hoạt động và tổ chức cho học sinh bình chọn nhóm có sản phẩm được yêu thích. Lưu ý, học sinh không bình chọn cho nhóm của bản thân. Giáo viên tổng kết. Giáo viên giới thiệu một số hình ảnh về quả của cây chò và cây dầu, cũng như sự phát tán hạt của loại cây này. 4. Giới thiệu sản phẩm và nhận xét - Đại diện các nhóm lần lượt giới thiệu sản phẩm. Đại diện các nhóm lắng nghe và phản hồi các câu hỏi. Tiến hành bình chọn. Lắng nghe.</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Khi một học sinh có mong muốn hiểu biết về “ví dụ” về sản phẩm STEAM có yếu tố nghệ thuật độc đáo thì tôi sẽ không cung cấp một câu trả lời mà thay vào đó là những gợi mở để giúp học sinh an tâm hơn và có sự củng cố về tính mở trong giáo dục STEAM thông qua cách thức như sau: Giới thiệu với học sinh một số sản phẩm STEAM đã được hoàn thành và gợi ý để học sinh nhận ra những thành tố của STEAM trong sản phẩm cũng như tính nghệ, sự sáng tạo qua từng sản phẩm. Ví dụ, việc tìm hiểu về mạch điện đơn giản, học sinh có thể tạo ra các sản phẩm như mô hình hải đăng, học sinh có thể trang trí, bố cục khác nhau để tạo thành những sản phẩm mang dấu ấn cá nhân riêng. Khi xem qua những sản phẩm này sẽ giúp học sinh nhận ra tính nghệ thuật, sự sáng tạo trong việc thực hiện sản phẩm. Đồng thời, nhấn mạnh việc chú trọng đến trải nghiệm, khám phá và sự cải tiến, nâng cao chất lượng sản phẩm chứ không phải việc tạo một sản phẩm hoàn hảo ngay lập tức. Bên cạnh đó, trong quá trình học sinh thực hiện sản phẩm sẽ có những gợi ý khác nhau để giúp học sinh tăng cường tính thẩm mỹ, tính cá nhân ở mỗi sản phẩm như việc trang trí thông qua hình dán có sẵn (sticker), hoặc tự cắt dán các hình sản phẩm, hoặc vẽ, tô màu,... (tùy vào khả năng vẽ của học sinh). Trong hoạt động đánh giá sản phẩm sẽ tập trung chính vào việc giải quyết các vấn đề, các thông tin khoa học, các yếu tố công nghệ, kỹ thuật trong việc thực hiện sản phẩm. Các yếu tố về nghệ thuật mang tính cá nhân sẽ là những góp ý giúp sản phẩm thẩm mỹ hơn nhưng không đánh giá, phê phán. Nhấn mạnh việc tôn trọng sự khác biệt trong việc đánh giá tính thẩm mỹ.</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Với ý tưởng này, giáo viên có thể tích hợp trong một số hoạt động như: + Tổ chức dạy học các nội dung liên quan đến giữa vệ sinh xung quanh trường, lớp. Trong môn Tự nhiên và Xã hội + Tổ chức cho học sinh trồng cây bằng chai nhựa để xem xét các điều kiện ảnh hưởng đến sự sinh trưởng, phát triển của cây xanh. Trong môn Khoa học, Công nghệ + Tổ chức dạy học các nội dung liên quan đến bảo vệ môi trường, giữ trái đất xanh sạch trong môn Lịch sử và Địa lí. + Ngoài ra, giáo viên có thể tổ chức cho học sinh làm một số sản phẩm như: mô hình vòng tuần hoàn của nước, mô hình vòng đời của động vật,... Ví dụ về việc tổ chức cho học sinh thiết kế bảng trưng bày về vòng đời của động vật bằng các vật liệu tái chế sau khi học sinh tìm hiểu nội dung về vòng đời của động vật. Hoạt động của GV Hoạt động của HS - Giáo viên dẫn dắt vào vấn đề: + Giới thiệu một số hình ảnh về vấn đề môi trường (bao gồm tích cực và tiêu cực), đề nghị học sinh chia sẻ sau khi xem qua những bức ảnh (phục lục) + Giáo viên đặt một vài câu hỏi: ? Chai nhựa, quần áo cũ, tập sách sau khi sử dụng sẽ đi đâu? ? Bạn hãy tưởng tượng, điều gì sẽ xảy ra khi môi trường xung quanh chúng ta càng ngày càng nhiều rác thải, nhất là rác thải nhựa? ? Bằng cách nào chúng ta có thể hạn chế giảm thiểu việc phát thải rác ra mô trường xung quanh? + Ô nhiễm do rác thải gây ra cho cuộc sống thật nghiêm trọng, đáng sợ. Do đó, việc tăng cường tái sử dụng hay sử dụng các vật liệu tái chế sẽ góp phần hạn chế việc phát thải rác ra mô trường xung quanh. Đây là một hành động thiết thực, vô cùng có ý nghĩa đối với môi trường sống. Nội dung, học tập hôm nay sẽ sử dụng vật liệu tái chế để tạo ra một sản phẩm mới. - Giáo viên giao nhiệm vụ: Hãy đề xuất và chế tạo bảng trưng bày về vòng đời của động vật bằng các vật liệu tái chế (quần áo cũ, chai nhựa, tập sách ....). Các sản phẩm này cần đảm bảo các yêu cầu sau: 1. Tiếp nhận nhiệm vụ Lắng nghe nội dung và trả lời câu hỏi. Xác định vấn đề tìm hiểu và nhiệm vụ cần thực hiện. + Minh họa được vòng đời của động vật. + Sử dụng các vật liệu tái chế. + Cầm tay được, không quá cồng kềnh, dễ sử dụng. + Đảm bảo an toàn khi sử dụng và tái sử dụng nhiều lần. + Có tính thẩm mỹ. - Lắng nghe các tiêu chí của sản phẩm. Giáo viên chia lớp thành các nhóm, mỗi nhóm khoảng 6 thành viên. Giáo viên đề nghị các nhóm học sinh suy nghĩ và chia sẻ về ý tưởng thiết kế thiết bị. + Mẫu thiết kế + Các vật liệu cần thiết Trong trường hợp học sinh còn thụ động, chưa quen với việc đề xuất ý tưởng thì giáo viên khơi gợi ý tưởng thực hiện sản phẩm bằng cách đặt câu hỏi như sau: ? Vòng đời của động vật gồm có những giai đoạn nào? ? Dự kiến những vật liệu tái chế nào sẽ sử dụng? ? Dự kiến trang trí gì cho sản phẩm. - Giáo viên tổ chức cho các nhóm trình bày ý tưởng thiết kế và góp ý. 2. Tìm ý tưởng và phác thảo ý tưởng về thiết bị Thảo luận nhóm và đề xuất ý tưởng. Thể hiện ý tưởng trên bảng vẽ và chi tiết hóa các thông tin nhằm làm rõ ý tưởng cho thiết kế của thiết bị. Đại diện các nhóm trình bày về ý tưởng thiết kế, lắng nghe và trao đổi với các ý kiến đóng góp. Tiếp thu các ý kiến để điều chỉnh ý tưởng thiết kế sản phẩm. Giáo viên giới thiệu các nguyên vật liệu, dụng cụ: + chai nhựa + vỏ lon + quần áo cũ + túi nilon + giấy bìa + bút màu + muỗng nhựa + băng keo + kéo Giáo viên đề nghị học sinh căn cứ vào bản thiết kế và các dụng cụ, nguyên vật 3. Thiết kế sản phẩm - Lắng nghe và lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế. liệu được cung cấp để lựa chọn các nguyên vật liệu, dụng cụ cần thiết để thiết kế sản phầm. - Giáo viên tổ chức cho học sinh tiến hành thực hiện thiết kế. Tiến hành thực hiện sản phẩm theo mẫu để thiết kế. Thử nghiệm sản phẩm và so sánh sản phẩm với tiêu chí đã đề ra. Giáo viên tổ chức cho các nhóm giới thiệu sản phẩm đã thực hiện. Giáo viên tổ chức cho các nhóm nhận xét, đặt câu hỏi về sản phẩm do nhóm bạn thực hiện. Giáo viên tổ chức cho các nhóm học sinh tự đánh giá về quá trình hoạt động và tổ chức cho học sinh bình chọn nhóm có sản phẩm được yêu thích. Lưu ý, học sinh không bình chọn cho nhóm của bản thân. Giáo viên tổng kết. 4. Giới thiệu sản phẩm và nhận xét - Đại diện các nhóm lần lượt giới thiệu sản phẩm. Đại diện các nhóm lắng nghe và phản hồi các câu hỏi. Tiến hành bình chọn. Lắng nghe. Một số sản phẩm (dự kiến)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>S016</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm trong giáo dục STEAM nghĩa là học sinh được học thông qua việc tham gia trực tiếp vào các hoạt động thực hành, khám phá và sáng tạo, thay vì chỉ tiếp nhận lý thuyết. Qua đó, các em xây dựng kiến thức dựa trên trải nghiệm cá nhân và sự tương tác với môi trường xung quanh, Cách tiếp cận này mang lại nhiều tác động tích cực như kích thích sự tò mò và ham học hỏi (khi học sinh được tự mình khám phá và đặt câu hỏi), phát triển tư duy phản biện và kỹ năng giải quyết vấn đề (vì học sinh phải thử nghiệm, điều chỉnh và rút ra kết luận từ thực tiễn) và tăng tính chủ động và hứng thú học tập, cảm thấy việc học có ý nghĩa và gắn với đời sống thực tế.Ví dụ: khi học về năng lượng sạch, thay vì chỉ đọc sách, học sinh có thể tự tay chế tạo mô hình máy phát điện gió hoặc đèn năng lượng mặt trời mini. Thông qua hoạt động chế tạo này, các em sẽ hiểu sâu hơn về nguyên lý vận hành, đồng thời rèn luyện kỹ năng thiết kế, tính toán và làm việc nhóm, từ đó học sinh học hiệu quả hơn, gắn kết kiến thức với thực tế và phát triển năng lực toàn diện.</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: “Hoa yêu thương nở rộ”Mục tiêu: tạo không khí lớp học tích cực và tích hợp yếu tố STEAM.Cách thực hiện:Học sinh được hướng dẫn cắt, gấp giấy bìa thành bông hoa có cánh có thể gập vào. Trên cánh hoa, các em viết lời chúc, lời cảm ơn hoặc lời động viên gửi tới thầy cô, bạn bè. Sau đó, từng em thả bông hoa vào chậu nước đặt giữa lớp. Khi thấm nước, các cánh hoa từ từ nở ra, hé lộ thông điệp yêu thương.Hoạt động giúp học sinh kết nối cảm xúc, tăng sự gắn kết trong lớp, đồng thời khám phá hiện tượng khoa học đơn giản (giấy thấm nước, chuyển động cơ học).Kỹ năng phát triển:Sáng tạo (thiết kế, trang trí bông hoa)Giao tiếp cảm xúc (viết và chia sẻ lời chúc)Hợp tác và đồng cảm (cùng tạo không khí tích cực)Khám phá khoa học (hiện tượng thấm nước)</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Mục tiêu: Học sinh trải nghiệm thiết kế, thử nghiệm và cải tiến sản phẩm, phát triển tư duy kỹ thuật và giải quyết vấn đề.Tiến trình:Khởi động (5 phút)Câu hỏi khơi gợi: “Nếu thả viên phấn từ độ cao 3m, chuyện gì sẽ xảy ra?” Học sinh dự đoán, thảo luận và thử thả thật để kiểm chứng.Dẫn dắt: “Vậy làm sao để thả mà không vỡ?”Thiết kế (15-20 phút)Chia nhóm 3-4 em.Thảo luận đề xuất giải pháp: bọc vật liệu mềm, làm hộp chống sốc, thiết kế dù giảm tốc độ rơi...Giáo viên gợi ý thêm: cân nhắc vật liệu sẵn có như: giấy, bìa carton, dây dù, túi nylon, ống hút, vải, bông gòn...Thử nghiệm - Cải tiến (10 phút)Mỗi nhóm thử thả sản phẩm từ độ cao 3m.Nếu thất bại, phân tích - cải tiến - thử lại (thúc đẩy tư duy thử sai, kiên trì).Chia sẻ (5 phút)Các nhóm trình bày sản phẩm, rút kinh nghiệm.GV khơi gợi: “Giải pháp nào hiệu quả? Nếu làm lại, nhóm sẽ cải thiện gì?”Kỹ năng phát triển:Tư duy sáng tạo - kỹ thuậtGiải quyết vấn đềHợp tác nhómHọc từ thất bại</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Khi học sinh tiểu học hỏi “Cô (thầy) có ví dụ không ạ?” trong hoạt động STEAM có yếu tố nghệ thuật, điều đó cho thấy các em cần thêm gợi ý hoặc đang thiếu tự tin.Tôi sẽ nhẹ nhàng động viên: “Không có đúng hay sai đâu, mỗi bạn sẽ có một ý tưởng rất riêng. Cô (thầy) có thể cho con xem vài cách làm, nhưng con hoàn toàn có thể sáng tạo theo ý mình nhé.”Tôi không đưa một mẫu cố định mà cho các em xem một vài hình ảnh đa dạng để thấy rằng mỗi sản phẩm có thể khác nhau. Sau đó, tôi hỏi khơi gợi:“Con muốn làm sản phẩm có màu sắc gì? Có thêm họa tiết hay trang trí nào không? Có vật liệu nào con thích dùng không?”Nếu học sinh còn lo lắng, tôi khuyến khích: “Con cứ thử làm trước, không cần hoàn hảo đâu. Mình có thể chỉnh sửa dần, vậy mới vui!”Quan trọng nhất là tạo cho các em cảm giác thoải mái, tự tin khi sáng tạo, không sợ bị so sánh.Ở hoạt động trình bày sản phẩm STEAM, giáo viên không nên bình chọn sản phẩm “đẹp nhất”. Thay vào đó, nên phân tích sự độc đáo, sáng tạo riêng trong từng sản phẩm của học sinh. Cách làm này sẽ khuyến khích “ART” trong các em nhiều hơn.</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: Chế tạo xe đồ chơi chạy bằng năng lượng mặt trờiSử dụng trong môn Khoa học lớp 5: Năng lượng mặt trời, ứng dụng công nghệ sạch.Học sinh sử dụng vật liệu tái chế để tạo ra xe đồ chơi chạy bằng năng lượng mặt trời.Vật liệu:Thân xe: bìa các-tông, vỏ hộp/chai phù hợpBánh xe: nắp chai nhựaTrục xe: ống hútTrang trí: vật liệu tái chếTấm pin năng lượng mặt trời mini + mô-tơ nhỏQuy trình:Khởi động Giáo viên cho học sinh xem video về ứng dụng năng lượng mặt trời trong đời sống (xe hơi, đèn, nhà máy...).Câu hỏi khơi gợi: “Con thấy năng lượng mặt trời được dùng để làm gì?” → Học sinh ghi nhận và chia sẻ.Dẫn dắt: “Liệu mình có thể tự làm một chiếc xe chạy bằng năng lượng mặt trời không? Sẽ làm như thế nào?”Khám phá:HS thực hiện thí nghiệm với tấm pin năng lượng mặt trời: kết nối với mạch điện đơn giản gồm bóng đèn, tấm pin và công tắc. Thử chiếu đèn hoặc đem ra nắng để quan sát và mô tả hiện tượngThực hiện tương tự với mô-tơ.Rút ra kết luận về hoạt động của tấm pin. Thiết kế - chế tạo:Học sinh thảo luận nhóm, lên ý tưởng, chọn vật liệu.Thực hành lắp ráp xe từ vật liệu tái chế + gắn pin năng lượng mặt trời.Thử nghiệm - cải tiến:Đưa xe ra ánh sáng (hoặc đèn học) kiểm tra hoạt động.Quan sát, phân tích và cải tiến thiết kế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>S017</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm (Experiential Learning) ở trường học là một triết lý giáo dục quan trọng, tập trung vào việc học thông qua thực hành và tương tác trực tiếp với môi trường thực tế. Phương pháp này giúp học sinh phát triển toàn diện cả về tri thức, kỹ năng và nhân cách. Học tập qua trải nghiệm không chỉ tập trung vào kiến thức học thuật mà còn giúp học sinh:Phát triển nhân cách: Tự tin, kỷ luật, và biết tôn trọng người khác.Hình thành các kỹ năng mềm: Giao tiếp, quản lý thời gian, làm việc nhóm.Hiểu và hòa mình vào thiên nhiên, xã hội.Một số hoạt động trải nghiệm có thể thực hiện như:Thực hành nông nghiệp và bảo vệ môi trường: Học sinh được tham gia trồng trọt, chăm sóc cây cối, hoặc các dự án bảo tồn thiên nhiên để hiểu về tầm quan trọng của lao động và môi trường.Tham quan và học tập ngoài trời: Nhà trường thường tổ chức các chuyến đi thực tế tới bảo tàng, công viên, doanh nghiệp, hay các khu di sản để học sinh khám phá, quan sát và học hỏi trực tiếp từ thực tế.Lao động tập thể: Học sinh tự thực hiện các công việc như lau dọn lớp học, phục vụ bữa trưa để rèn luyện tính tự giác, trách nhiệm, và làm việc nhóm.Dự án học tập: Học sinh tham gia các dự án nghiên cứu nhỏ, như thiết kế sản phẩm thủ công, phát triển ý tưởng kinh doanh, hay giải quyết vấn đề cụ thể trong cộng đồng.Học tập qua trải nghiệm không chỉ trang bị kiến thức mà còn nuôi dưỡng tâm hồn, xây dựng kỹ năng và chuẩn bị cho học sinh một cuộc sống trưởng thành trong xã hội hiện đại.</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động xây dựng quy tắc “Lớp học hạnh phúc” dựa trên sự đồng thuận.a) Cùng nhau tạo ra quy tắc lớp học: Thay vì giáo viên áp đặt toàn bộ quy tắc, hãy để học sinh tham gia vào việc xây dựng các quy định trong lớp. Ví dụ, các em có thể cùng nhau quyết định quy tắc về cách ứng xử với bạn bè, giữ gìn vệ sinh lớp học, hay cách giải quyết các mâu thuẫn. Điều này giúp các em cảm thấy mình có trách nhiệm và tiếng nói trong môi trường học tập của mình.Khảo sát tiêu chí mô hình lớp học hạnh phúc theo suy nghĩ của học sinh. Đây là cách giúp giáo viên hiểu rõ hơn về góc nhìn và mong muốn của học sinh về một ngày đi học hạnh phúc.Trước hết, tôi sẽ cho học sinh thảo luận nhóm để đưa ra định nghĩa về một ngày đi học hạnh phúc của các em. Qua việc thảo luận nhóm, học sinh sẽ có cơ hội tự do thể hiện cảm xúc và ý kiến cá nhân của mình, đồng thời trao đổi với bạn bè về các khía cạnh quan trọng trong trường học.199128515830200290131512061300 Học sinh thảo luận đưa ra tiêu chí lớp học hạnh phúcb) Cùng nhau giải quyết vấn đề- Bên cạnh đó giáo viên có thể khuyến khích học sinh tự giải quyết vấn đề thay vì đặt áp lực khiến giáo viên trở thành người duy nhất giải quyết vấn đề. Mỗi một phần trên bánh xe lựa chọn đại diện cho một kĩ năng giải quyết vấn đề mà học sinh có thể học hỏi và sử dụng sau đó.Giáo viên thiết kế bánh xe Lựa chọnMỗi một phần trên bánh xe Lựa chọn đại diện cho một kĩ năng giải quyết vấn đề mà học sinh có thể học hỏi và sử dụng sau đó. c) Khuyến khích tinh thần tôn trọng lẫn nhau- Đặt ra các quy tắc về việc tôn trọng ý kiến, cảm xúc của mỗi người, tránh việc chê bai, chế giễu hay bắt nạt. Mọi học sinh đều cần cảm thấy an toàn để thể hiện bản thân mà không bị sợ hãi.Ví dụ: Giáo viên giúp học sinh nhận thức được hệ quả của hành vi và các câu nói gây tổn thương và hiểu rằng thiệt hại có thể được cải thiện nhưng không bao giờ được sửa chữa. 1523365297815Dán bức tranh 2 bạn nhỏ lên bảng. Yêu cầu học sinh chia sẻ các ví dụ về những câu nói hoặc hành vi khiến chúng bị tổn thương. Mỗi khi có những câu nói hoặc hành vi khiến chúng tổn thương, học sinh sẽ vò nát một phần bức tranh cho đến khi bức tranh bị vo viên như quả bóng. Sau đó hỏi học sinh cảm giác của những bạn bị chế giễu, bắt nạt.Yêu cầu học sinh nêu cách thức giúp 2 bạn nhỏ. Khi học sinh đưa ra các ví dụ để khích lệ bạn, tờ giấy bị vò nát sẽ được duỗi ra lại cho đến khi trở lại bức tranh hoàn chỉnh ban đầu. Thông điệp qua hoạt động này là: “Người ta sẽ quên những gì bạn nói.Người ta sẽ quên những gì bạn làmNhưng người ta sẽ không bao giờ quên những cảm xúc mà bạn đã gây ra cho họ...” (Maya Angelou)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>A. Khởi động (10 phút)Hoạt động trải nghiệm: Trò chơi "Đừng làm trứng vỡ"Giáo viên phát cho mỗi nhóm một quả trứng (hoặc vật tương tự) và yêu cầu họ bảo vệ nó không bị vỡ khi thả từ độ cao 1m.Thảo luận ngắn: Những vật liệu nào có thể bảo vệ trứng? Lý do tại sao?Giới thiệu bài học:"Hôm nay, chúng ta sẽ thử sáng tạo thiết bị bảo vệ viên phấn khi thả từ độ cao 3m. Liệu các em có thể thành công không?"B. Nội dung bài học1. Giai đoạn 1: Tìm hiểu và định hướng (15 phút)Hoạt động quan sát: Giáo viên mời học sinh quan sát viên phấn khi thả từ độ cao thấp (1m, 2m) và ghi chú những hiện tượng xảy ra.Giải thích nguyên lý: Giáo viên trình bày đơn giản:Tác dụng của lực va chạm.Cách giảm thiểu lực va chạm bằng vật liệu mềm, túi khí, hoặc phân tán lực.2. Giai đoạn 2: Lập kế hoạch và thiết kế (20 phút)Hoạt động trải nghiệm nhóm: "Lên ý tưởng sáng tạo"Mỗi nhóm nhận bộ công cụ đơn giản và thảo luận cách bảo vệ viên phấn.Giáo viên khuyến khích các em vẽ phác thảo thiết kế lên giấy.Mỗi nhóm trình bày ý tưởng trước lớp.3. Giai đoạn 3: Thực hành và thử nghiệm (30 phút)Hoạt động trải nghiệm: "Xưởng chế tạo"Các nhóm bắt đầu chế tạo thiết bị dựa trên bản phác thảo.1. Sử dụng bóng bayCách làm:Thổi phồng 2-3 quả bóng bay cỡ nhỏ.Đặt viên phấn vào giữa các bóng bay đã thổi căng.Dùng dây chun hoặc băng dính cố định viên phấn bên trong lớp bóng bay.Lợi ích:Bóng bay có khả năng hấp thụ lực va chạm và giữ viên phấn an toàn.2. Hộp giấy và mút xốpCách làm:Sử dụng một hộp giấy nhỏ.Lót các miếng mút xốp hoặc bông ở đáy và xung quanh hộp.Đặt viên phấn vào giữa, đảm bảo không có khoảng trống để nó bị di chuyển khi rơi.Lợi ích:Mút xốp hoặc bông phân tán lực tác động, bảo vệ viên phấn.3. Dùng ống hút và băng dínhCách làm:Cắt các ống hút thành các đoạn nhỏ bằng chiều dài của viên phấn.Dùng băng dính quấn các ống hút xung quanh viên phấn, tạo thành một lớp bảo vệ dày.Lợi ích:Ống hút có thể giảm lực tác động trực tiếp lên viên phấn.4. Chế tạo túi khí miniCách làm:Sử dụng túi nilon hoặc túi bóng nhỏ.Thổi khí vào túi rồi buộc chặt, tạo thành một túi khí.Đặt viên phấn vào giữa túi khí và cố định bằng băng dính.Lợi ích:Túi khí hấp thụ lực va chạm hiệu quả.5. Dùng que gỗ tạo khung bảo vệCách làm:Sử dụng que kem hoặc que gỗ tạo thành một khung hộp xung quanh viên phấn.Bên trong khung, lót bông hoặc vải mềm để bảo vệ viên phấn.Lợi ích:Khung gỗ cứng giúp giảm tác động trực tiếp, còn vật liệu lót bảo vệ viên phấn.6. Kết hợp giấy gấp và băng dínhCách làm:Gấp giấy thành nhiều lớp để tạo thành một chiếc hộp hoặc nệm giấy dày.Bọc viên phấn bên trong và cố định bằng băng dính.Lợi ích:Giấy dày và lớp băng dính tăng cường khả năng hấp thụ lực.7. Dùng dây chun làm bộ giảm sốcCách làm:Buộc dây chun thành một lưới hoặc khung đỡ xung quanh viên phấn.Đảm bảo viên phấn được treo lơ lửng giữa các dây chun để giảm lực tác động.Lợi ích:Dây chun có độ đàn hồi cao, giảm va đập hiệu quả.8. Hộp nhựa mini với vật liệu đệmCách làm:Đặt viên phấn vào một hộp nhựa nhỏ.Lót bông, giấy mềm, hoặc vải vụn bên trong hộp.Đậy kín nắp và cố định bằng băng dính.Lợi ích:Hộp nhựa bảo vệ bên ngoài, trong khi lớp lót mềm bên trong bảo vệ viên phấn.9. Chế tạo dù mini giảm tốcCách làm:Dùng một miếng vải hoặc túi nilon lớn để làm chiếc dù nhỏ.Buộc dây vào các góc của túi và gắn viên phấn bên dưới.Khi thả, dù sẽ giảm tốc độ rơi, hạn chế lực va chạm.Lợi ích:Dù giảm tốc độ rơi, giảm đáng kể tác động khi chạm đất.10. Tạo quả bóng bảo vệCách làm:Dùng giấy báo hoặc giấy mềm vo thành quả bóng lớn, đặt viên phấn ở giữa.Quấn chặt lớp giấy bằng băng dính để cố định.Lợi ích:Lớp giấy mềm và dày bảo vệ viên phấn khỏi lực va chạm mạnh.Giáo viên đi lại hỗ trợ và động viên tinh thần sáng tạo.Thử nghiệm: Các nhóm lần lượt thả viên phấn từ độ cao 3m.Học sinh quan sát và ghi lại kết quả thử nghiệm.Nếu thiết bị không thành công, các nhóm có thể điều chỉnh và thử lại.</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Đưa ra các ví dụ gợi ý thay vì sản phẩm hoàn chỉnh. Ví dụ:Một hình ảnh hoặc phác thảo sơ bộ thay vì sản phẩm chi tiết.Mô tả ý tưởng như: "Một thiết kế có thể sử dụng các đường cong mềm mại, hoặc màu sắc tương phản mạnh để tạo điểm nhấn."Đưa ví dụ mở: "Một nhóm trước đây đã làm mô hình bằng que kem, còn nhóm khác dùng giấy bìa cứng. Em có thể dùng những vật liệu này hoặc thử điều gì đó khác biệt hơn!" Lắng nghe cảm xúc: "Có phải em đang lo không biết bắt đầu từ đâu? Đừng lo, mình sẽ cùng làm từng bước nhé."Nhấn mạnh rằng không có đúng hay sai:"Mỗi người đều có cách sáng tạo riêng. Quan trọng là em thử nghiệm ý tưởng của mình, ngay cả khi nó khác với ví dụ.Cung cấp kỹ thuật cơ bản: Hướng dẫn các bước ban đầu, chẳng hạn như cách phác thảo ý tưởng, chọn màu sắc, hoặc sử dụng công cụ./ "Hãy bắt đầu bằng việc vẽ một hình đơn giản hoặc thử xếp vật liệu theo cách thú vị."Sử dụng câu hỏi gợi mở: "Nếu em muốn làm sản phẩm này, em nghĩ điều gì sẽ làm nó nổi bật? Màu sắc nào hoặc hình dạng nào em muốn thử?"</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Môn Khoa học – Lớp 5Chủ đề: Sinh vật và môi trườngPhương pháp: Tích hợp STEAM (Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật, Toán học)Thời lượng: 2 tiếtYêu cầu cần đạt Chuẩn bịDành cho giáo viên:Tài liệu hoặc video ngắn về tái chế và bảo vệ môi trường.Một số sản phẩm mẫu từ vật liệu tái chế (chậu cây, hộp bút, mô hình robot, v.v.).Bảng minh họa quy trình tái chế.Dành cho học sinh:Các vật liệu tái chế dễ tìm: chai nhựa, bìa cứng, giấy báo, nắp chai, lon nhôm, ống hút, dây thừng, v.v.Kéo, băng dính, keo dán, bút màu, thước kẻ, dao rọc giấy.III. Tiến trình dạy học1. Khởi động (10 phút)Hoạt động:Chiếu video hoặc kể câu chuyện ngắn về tác hại của rác thải đối với môi trường.Đặt câu hỏi thảo luận:"Em thấy môi trường xung quanh chúng ta có vấn đề gì?""Theo em, tái chế rác thải mang lại lợi ích gì?"Kết nối: Giới thiệu bài học: "Hôm nay, chúng ta sẽ dùng các vật liệu tái chế để tạo ra sản phẩm sáng tạo, giúp bảo vệ môi trường."2. Hoạt động khám phá và định hướng (15 phút)Nội dung khoa học:Trình bày về các loại vật liệu có thể tái chế (chai nhựa, bìa cứng, kim loại, giấy, v.v.).Minh họa quy trình tái chế đơn giản.Hướng dẫn STEAM:Khoa học: Giải thích đặc điểm vật lý của các loại vật liệu tái chế.Công nghệ: Giới thiệu cách sử dụng các công cụ (kéo, dao rọc giấy, keo dán).Kỹ thuật: Hướng dẫn cách lắp ráp, cố định, và kết hợp các vật liệu.Nghệ thuật: Đưa ra ý tưởng trang trí để sản phẩm đẹp mắt.Toán học: Hướng dẫn đo đạc và tính toán kích thước cho mô hình.3. Hoạt động thực hành sáng tạo (50 phút)Nhiệm vụ:Chia học sinh thành nhóm 4-5 người.Yêu cầu: "Dùng các vật liệu tái chế, hãy tạo ra một sản phẩm có ích cho môi trường, ví dụ: thùng rác mini, chậu cây, hoặc đồ chơi tái chế."Hỗ trợ:Giáo viên quan sát và hỗ trợ các nhóm thực hiện:Gợi ý cách xử lý vật liệu (cắt, uốn, ghép).Khuyến khích học sinh thử nghiệm ý tưởng và điều chỉnh khi cần.4. Hoạt động trình bày và thảo luận (25 phút)Trình bày:Các nhóm giới thiệu sản phẩm của mình:Tên sản phẩm.Công dụng và cách thực hiện.Thảo luận:Các nhóm nhận xét sản phẩm của nhau dựa trên các tiêu chí: sáng tạo, thẩm mỹ, tính ứng dụng.Giáo viên tổng kết, khen ngợi sự sáng tạo và nỗ lực của học sinh.5. Hoạt động kết nối thực tiễn (10 phút)Hỏi – Đáp:"Em sẽ áp dụng bài học hôm nay như thế nào trong cuộc sống hàng ngày?"Gợi ý:Học sinh có thể tiếp tục tái chế các vật dụng ở nhà và thực hiện thêm sản phẩm.IV. Đánh giá bài họcĐánh giá sản phẩm:Tính sáng tạo, thẩm mỹ.Khả năng ứng dụng thực tế.Đánh giá quá trình:Sự tham gia tích cực trong nhóm.Khả năng giải quyết vấn đề.V. Mở rộngHoạt động nâng cao:Tổ chức cuộc thi sáng tạo từ vật liệu tái chế trong lớp hoặc toàn trường.Gửi sản phẩm của học sinh tham gia triển lãm hoặc ngày hội STEAM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>S018</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là quá trình học sinh tham gia trực tiếp vào các hoạt động thực tế để khám phá kiến thức thay vì chỉ nghe giảng. Khi được tự tay làm, quan sát và rút ra kết luận, học sinh dễ hiểu và nhớ lâu hơn. Phương pháp này giúp các em phát triển tư duy phản biện, kỹ năng giải quyết vấn đề và tăng sự tự tin. Học tập qua trải nghiệm là một phương pháp giáo dục mà học sinh học hỏi thông qua việc tham gia trực tiếp vào các hoạt động thực tế, thay vì chỉ tiếp thu kiến thức một cách thụ động từ sách vở hoặc giảng dạy lý thuyết. Phương pháp này nhấn mạnh sự tham gia, thực hành và phản ánh, giúp học sinh hiểu sâu hơn về nội dung học tập và rèn luyện các kỹ năng cần thiết trong cuộc sống. Tác động của học tập qua trải nghiệm đến học sinh: Phát triển kỹ năng thực tiễn: Học tập qua trải nghiệm giúp học sinh phát triển các kỹ năng như giải quyết vấn đề, làm việc nhóm, tư duy phản biện và sáng tạo. Thay vì chỉ ghi nhớ lý thuyết, học sinh được ứng dụng trực tiếp vào thực tế, từ đó hiểu sâu hơn và ghi nhớ lâu hơn. Tăng cường sự hứng thú và động lực học tập: Khi học sinh tham gia vào các dự án thực tế, sự tò mò và hứng thú của các em được khơi dậy, giúp các em thấy rõ ý nghĩa của kiến thức và kỹ năng học được. Xây dựng sự tự tin và trách nhiệm: Khi học sinh tự mình thực hiện các nhiệm vụ hoặc dự án, các em có cơ hội thấy rõ kết quả của nỗ lực bản thân, từ đó xây dựng sự tự tin và tinh thần trách nhiệm. Liên kết giữa lý thuyết và thực tế: Học sinh hiểu được cách kiến thức trong sách vở áp dụng vào cuộc sống, làm rõ hơn mối liên hệ giữa việc học và các tình huống thực tế. Ví dụ 1: “Kiến Trúc sư mơ ước - Thiết kế mô hình ngôi nhà mơ ước của em” Hình ảnh minh họa mô hình nhà Theo sáng tạo của mình bằng que diêm, que kem, tăm bông, bìa cạt tông, thân cây, các trụ gỗ hình chữ nhật và đất sét và keo nến với số lượng theo yêu cầu. Học sẽ tự phát thảo và xây dựng ngôi nhà/ toà nhà mơ ước của mình. Qua hoạt động trải nghiệm này, các em học được: Khoa học: Quan sát các toà nhà và quan sát sự phân bố lực. Kỹ thuật: Biết được cách làm sao cho ngôi nhà vững chắc. Nghệ Thuật: Thiết kế ngôi nhà phù hợp nơi mình chọn Toán học: Khi xây đựng học sinh sẽ đúc rút ra và điều chỉnh để tăng sức bền cho ngôi nhà của mình. Qua hoạt động này học sinh biết được khi mình tự làm được một điều gì đó cần phải suy nghĩ và cần nhiều công sức. Vì vậy phải biết quý trọng đồ của người khác và để người khác hiểu chúng ta phải tự luyện tập chia sẻ và học hỏi thì sẽ thành công. Ví dụ 2: Khi học về sự nổi và chìm Thế giới xung quanh có rất nhiều điều kì diệu, chúng luôn kích thích và sáng tạo sự hứng thú của học sinh với mong muốn được tham gia, khám phá và trải nghiệm để các em được hòa mình vào thiên nhiên tươi đẹp với nhiều trải nghiệm thú vị. + Đặt vấn đề: Khi thả các đồ vật vào nước thì điều gì sẽ sảy ra nhỉ? Hôm nay cô và các bạn lớp làm thí nghiệm “Vật chìm nổi” + Nguyên vật liệu để làm thí nghiệm như: Lá cây, sỏi, bóng, thuyền giấy, quả cam + Dự đoán xem, trong đồ vật đó, vật nào chìm, vật nào nổi nhé. + Tiến hành thí nghiệm: Học sinh được thả các vật như gỗ, sắt vào nước để quan sát. + Kết luận: Từ đó, các em hiểu rõ khái niệm nổi – chìm thay vì chỉ học lý thuyết. Học qua trải nghiệm còn giúp học sinh hứng thú, chủ động hơn trong học tập. Các em cũng học được cách hợp tác khi làm việc nhóm. Giáo dục STEAM là kết hợp các lĩnh vực này lại để tạo ra một phương pháp giáo dục toàn diện, khuyến khích học sinh: Tư duy sáng tạo: Khám phá, sáng tạo và đưa ra những ý tưởng mới. Giải quyết vấn đề: Áp dụng kiến thức đã học để giải quyết các tình huống thực tế. Làm việc nhóm: Hợp tác với người khác để đạt được mục tiêu chung. Học hỏi suốt đời: Luôn tò mò và tìm kiếm kiến thức mới. Các hoạt động của Steam Xây dựng robot: Học sinh thiết kế và lập trình robot để thực hiện các nhiệm vụ khác nhau. Thiết kế sản phẩm: Học sinh sử dụng các công cụ thiết kế để tạo ra sản phẩm thực tế. - Thí nghiệm khoa học: Học sinh thực hiện các thí nghiệm để khám phá các hiện tượng khoa học. Giải quyết vấn đề thực tế: Học sinh áp dụng kiến thức STEAM để giải quyết các vấn đề trong cuộc sống hàng ngày. Tóm lại, học tập qua trải nghiệm không chỉ giúp học sinh tiếp thu kiến thức tốt hơn mà còn rèn luyện nhiều kỹ năng sống quan trọng. Đây là nền tảng của giáo dục STEAM hiện đại, giúp học sinh học từ thực tiễn để ứng dụng vào cuộc sống hàng ngày.</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: “Góc Cảm Xúc – Lớp Học Thân Thiện” 1. Mục tiêu: Tạo không khí lớp học thoải mái, giúp học sinh thể hiện cảm xúc, đồng thời cải thiện kỹ năng giao tiếp, làm việc nhóm và khả năng thấu hiểu người khác. Mô tả hoạt động: 1. Thiết kế “Góc Cảm Xúc” trong lớp học: Dành một góc nhỏ trong lớp, trang trí bằng màu sắc tươi sáng, với các biểu tượng cảm xúc (vui, buồn, lo lắng, tự hào,...) và bảng ghi chú. Đặt các vật dụng hỗ trợ như hộp thư góp ý, giấy note, hoặc sổ cảm xúc. 2. Quy trình thực hiện: Mỗi sáng: Khi vào lớp, mỗi học sinh sẽ gắn một biểu tượng cảm xúc (chọn sẵn) lên bảng để biểu đạt tâm trạng của mình (ví dụ: vui, mệt mỏi, lo lắng,...). Giờ giải lao/cuối tuần: Tổ chức một buổi chia sẻ nhóm, nơi học sinh ngồi thành vòng tròn để nói về cảm xúc của mình hoặc bất kỳ khó khăn nào trong học tập/cuộc sống. Các bạn khác lắng nghe và đưa ra lời khuyên. Giáo viên đóng vai trò là người hướng dẫn, khuyến khích sự chia sẻ tích cực. 3. Hoạt động bổ sung: Học sinh có thể viết ý tưởng cải thiện không khí lớp học hoặc những vấn đề muốn lớp cùng giải quyết, sau đó bỏ vào hộp thư góp ý. Kỹ năng hoặc khả năng được phát triển: Kỹ năng giao tiếp: Học sinh học cách diễn đạt cảm xúc và lắng nghe ý kiến của người khác một cách tôn trọng. Tư duy cảm xúc (EQ): Các em nhận ra rằng việc hiểu cảm xúc của mình và bạn bè là quan trọng trong việc xây dựng một môi trường học tập hòa hợp. Kỹ năng làm việc nhóm: Khi cùng nhau thảo luận và đưa ra ý tưởng, các em rèn luyện khả năng hợp tác và giải quyết vấn đề chung. Khả năng sáng tạo và tự quản: Các em tự tay trang trí “Góc Cảm Xúc” và chủ động quản lý các hoạt động liên quan. Tác động: Không khí lớp học trở nên thân thiện, giảm căng thẳng và áp lực. Học sinh phát triển sự đồng cảm, biết cách hỗ trợ bạn bè và cải thiện tinh thần học tập. Ví dụ thực tế: Một học sinh cảm thấy lo lắng về bài kiểm tra sắp tới có thể chia sẻ trong buổi họp nhóm.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học "Tạo thiết bị ngăn viên phấn không bị vỡ khi thả từ độ cao 3 mét" I. Mục tiêu: Phát triển tư duy sáng tạo và kỹ năng giải quyết vấn đề. Hiểu các nguyên tắc cơ bản về hấp thụ lực, giảm va đập và bảo vệ vật thể. Rèn luyện kỹ năng làm việc nhóm, thử nghiệm và điều chỉnh thiết kế. Chuẩn bị trước buổi học: Vật liệu và dụng cụ cần thiết Ống hút, giấy bìa cứng, bóng bay, bông gòn, dây chun, hộp nhựa nhỏ, ống nhựa, xốp, khăn giấy. Kéo, băng dính, keo nến, thước dây. Viên phấn (hoặc vật thể dễ vỡ có kích thước tương tự). Các bước thực hiện trong lớp học: A. Giai đoạn mở đầu: Mô tả bài tập: Các em sẽ sử dụng các công cụ đơn giản để thiết kế và tạo ra một thiết bị giúp ngăn viên phấn bị vỡ khi thả từ độ cao 3 mét. Lý do của bài tập: Giới thiệu về khái niệm "tác động lực" và cách các vật dụng hoặc thiết bị có thể bảo vệ đồ vật khỏi bị vỡ hoặc hư hỏng khi chịu tác động từ một độ cao nhất định.2. Giới thiệu các khái niệm cơ bản: Lực tác động: Khi một vật bị thả từ độ cao, sẽ có lực tác động lên vật đó khi nó va chạm với mặt đất. Chúng ta cần tìm cách giảm lực tác động để bảo vệ viên phấn. Hấp thụ và phân tán lực: Các thiết bị bảo vệ có thể hấp thụ hoặc phân tán lực va chạm để làm giảm tác động lên vật thể cần bảo vệ. - Đặt câu hỏi dẫn dắt học sinh: “Tại sao viên phấn lại dễ vỡ khi rơi từ độ cao?” “Làm thế nào để giảm lực tác động khi nó chạm đất?” “Các thiết bị trong cuộc sống thực như túi khí ô tô hay mũ bảo hiểm đã được thiết kế như thế nào để bảo vệ vật thể?” - Giới thiệu nhiệm vụ: Yêu cầu học sinh sử dụng các vật liệu đơn giản để thiết kế một thiết bị có thể bảo vệ viên phấn khi rơi từ độ cao 3 mét mà không bị vỡ. B. Giai đoạn làm việc nhóm (20-30 phút): Thử nghiệm và sáng tạo Phân nhóm: Chia học sinh thành các nhóm 3-4 người, đảm bảo mỗi nhóm có các vai trò như thiết kế, thử nghiệm, ghi chép. Hỗ trợ trong quá trình thiết kế: Gợi ý các nguyên tắc vật lý: “Dùng vật liệu mềm để hấp thụ lực (ví dụ: bông gòn, xốp).” “Tạo cấu trúc bảo vệ xung quanh viên phấn, giống như vỏ hộp hoặc đệm.” “Giảm tốc độ rơi bằng cách tăng sức cản (ví dụ: bóng bay hoặc dù).” 3. Thử nghiệm và cải thiện: • Các nhóm được thử nghiệm thả từ độ cao 1 mét trước khi thả từ 3 mét. Hỏi: "Thiết bị của các em có hiệu quả không? Nếu viên phấn bị vỡ, các em có thể cải tiến thiết kế như thế nào để giảm bớt tác động?" Khuyến khích học sinh thay đổi thiết kế và thử nghiệm lại để cải thiện kết quả. 4, Kết luận và phản hồi: Tóm tắt bài học: Học sinh sẽ rút ra được bài học về việc áp dụng kiến thức vật lý cơ bản (tác động lực, hấp thụ và phân tán lực) vào thực tế để giải quyết vấn đề. Phản hồi: Các em sẽ đánh giá thiết kế của mình, đưa ra các cải tiến và thảo luận với bạn bè về cách thức để hoàn thiện sản phẩm. Hoạt động này giúp học sinh cải thiện kỹ năng giải quyết vấn đề, tư duy sáng tạo, làm việc nhóm, đồng thời học hỏi các khái niệm vật lý cơ bản thông qua thực tiễn. 5. Cải tiến: Vừa rồi các em thấy trời mưa lũ các vũng trung du miền núi bị sạc lỡ núi, ddaaats di chuyển đến những nơi ấy rất cần cứu trợ nhưng đường đi rất khó khăn để tiếp cận các em hãy cũng cô suy nghĩ cách đưa thức ăn cứu trợ đến họ bằng thiết kế đồ đưa thức ăn sử dụng điều khiển nhé!</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Cách phản hồi và hỗ trợ học sinh yêu cầu “xem ví dụ” trong hoạt động STEAM Khi học sinh yêu cầu “xem ví dụ”, điều này có thể xuất phát từ sự lo lắng, thiếu tự tin hoặc chưa rõ ràng về cách thực hiện. Giáo viên nên vừa giải tỏa lo lắng của em, vừa khuyến khích sự sáng tạo cá nhân thay vì chỉ mô phỏng theo một mẫu cố định. 1. Phản hồi nhẹ nhàng và động viên - Trấn an cảm xúc: • “Thầy/Cô hiểu đôi khi bắt đầu một ý tưởng mới có thể khiến em cảm thấy bối rối. Nhưng đây chính là cơ hội để em thử nghiệm những suy nghĩ và ý tưởng của riêng mình.” “Không có đúng hay sai trong nghệ thuật – điều quan trọng là em tận hưởng quá trình sáng tạo.” Khuyến khích sự độc đáo: “Em hãy tưởng tượng nếu em là nhà phát minh duy nhất trên thế giới, sản phẩm của em sẽ trông như thế nào?” “Chúng ta không cần làm chính xác giống ai cả – chính ý tưởng của em mới làm sản phẩm đặc biệt.” Đề xuất cách hỗ trợ cụ thể Tổ chức hoạt động nhóm Khuyến khích và tôn vinh sự sáng tạo Ví dụ hỗ trợ minh họa (không áp đặt)..., Ví dụ: áp dụng “Nghệ thuật Rối bóng” vào phát triển ngôn ngữ cho học sinh thông qua môn Tiếng Việt.
++ Qua việc tự thiết kế các mô hình nhân vật học sinh vận dụng môn Mỹ Thuật + sử dụng lời hát, giai điệu, âm thanh phù hợp với hoàn cảnh và tình huống giúp học sinh phát triển Âm nhạc. +Thiết kế hình nhân vật xác định vị trí đặt que để có thể cơ thể hoạt động (đi lại, ngồi, đưa tay, gật đầu,...) học sinh vận dụng môn Tự nhiên xã hội , khoa học. + Sử dụng các nhân vật để xây dựng lời thoại giúp học sinh phát triển ngôn ngữ + Sử dụng sự tương phản của bóng đèn qua màn để tạo bóng tạo thành câu chuyện sống động. Học sinh vận dụng kiến thức khoa học, toán học. Qua vận dụng rối bóng trong kể chuyện giúp học sinh tôi ngày càng tự tin trong giáo tiếp thuyết trình, học sinh vui vẻ tự nghiên cứu đưa ra các sáng tạo bất ngờ, học sinh tiến bộ và yêu thích các môn học.</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Chủ đề: BỨC TRANH ĐÈN LED THÔNG TIN VỀ BÀI HỌC Lớp 5 Thời lượng: 2 tiết Thời điểm tổ chức: Khi dạy nội dung chủ đề 2: Năng lượng, bài 7: Mạch điện đơn giản. Mô tả bài học: Nội dung Mạch điện đơn giản môn Khoa học lớp 5 có yêu cầu cần đạt như sau: Mô tả được cấu tạo và hoạt động của mạch điện thắp sáng gồm: nguồn điện, công tắc và bóng đèn. Để đạt được các yêu cầu này, trong bài học STEM “Bức tranh đèn LED”, học sinh sẽ tìm hiểu và tự thiết kế mạch điện đèn sáng có kích thước phù hợp, có giá trị ứng dụng, mang tính thẩm mĩ với bức tranh của nhóm. Nội dung chủ đạo và tích hợp trong bài học Môn học Yêu cầu cần đạt Môn học chủ đạo Khoa học - Mô tả được cấu tạo và hoạt động của mạch điện thắp sáng gồm: nguồn điện, công tắc và bóng đèn. Thực hành lắp được một mạch điện thắp sáng đơn giản. Môn học tích hợp Toán - Thực hiện được các phép tính cộng, trừ, nhân, chia các số tự nhiên. Vận dụng được tính chất của phép tính với số tự nhiên để tính nhẩm và tính hợp lí. Công nghệ Vẽ phác thảo, nêu được ý tưởng thiết kế một sản phẩm công nghệ đơn giản. Thiết kế được một sản phẩm thủ công kĩ thuật đơn giản theo hướng dẫn. Mĩ thuật Nhận biết được sự đa dạng của vật liệu tự nhiên, vật liệu nhân tạo trong các sản phẩm mĩ thuật. Biết lựa chọn, phối hợp các vật liệu tự nhiên, vật liệu nhân tạo phù hợp để thực hành, sáng tạo sản phẩm mĩ thuật. I. Yêu cầu cần đạt (của bài học) Mô tả được cấu tạo và hoạt động của mạch điện thắp sáng gồm: nguồn điện, công tắc, dây dẫn và bóng đèn. Mô tả được cách nối đèn LED với pin. Làm được công tắc đơn giản. Phác thảo được ý tưởng sản phẩm; thiết kế và chế tạo được một bức tranh có gắn đèn LED ứng dụng kiến thức về mạch điện đơn giản. Cẩn thận trong việc tiến hành đo các kích thước khi gắn dây điện và tính toán lắp đặt đèn tại vị trí nổi bật một cách khoa học. Giữ gìn vệ sinh và đảm bảo an toàn trong quá trình làm sản phẩm. Tích cực, chủ động đóng góp ý kiến để hoàn thiện sản phẩm của nhóm. II. Đồ dùng dạy học 1. Chuẩn bị của giáo viên Phiếu học tập. Phiếu đánh giá. Sản phẩm mẫu GV đã làm sẵn Nguyên vật liệu giáo viên cung cấp cho các nhóm STT Thiết bị/ Học liệu Số lượng Hình ảnh minh họa 1 Pin cúc áo 3V 5 pin/nhóm 2 Bóng đèn LED 1 túi/nhóm 3 Ghim cánh phượng đồng 1 túi/nhóm 4 Băng dính đồng 1 cuộn/nhóm 5 Kẹp giấy (bằng kim loại) 1 túi/nhóm 6 Bìa cứng 1 tờ 7 Mô hình bức tranh gắn đèn LED 1 mô hình dùng chung cho cả lớp 1. Chuẩn bị của học sinh - Giao cho mỗi nhóm tự chuẩn bị một số nguyên vật liệu như sau: STT Thiết bị/ Học liệu Số lượng Hình ảnh minh họa 1 Sách giáo khoa 1 cuốn/HS 2 Kéo học sinh 1 cây/nhóm 3 Bộ lắp ráp mạch điện đơn giản lớp 5 1 bộ/ nhóm 4 Compa 1 5 Thước kẻ 1 cây 6 Bút màu 1 hộp/ nhóm III. CÁC HOẠT ĐỘNG DẠY HỌC CHỦ YẾU 1. Hoạt động 1. Mở đầu (Xác định vấn đề) a) Khởi động - HS xem video về các hình ảnh vui chơi đêm Trung thu và trả lời các câu hỏi: * Làm sao để lồng đèn có thể sáng lên? → bật công tắc đèn pin, đốt nến,... GV dẫn dắt và chuyển ý: Em làm Bức tranh đèn LED để tặng người thân. Bức tranh phải đạt những yêu cầu gì? b) Giao nhiệm vụ Học sinh ghi nhận nhiệm vụ thực hiện một bức tranh đèn LED với các yêu cầu cụ thể vào vở: + Đèn LED sáng và gắn phù hợp với bức tranh. + Công tắc đèn đóng/ mở dễ dàng. + Các bộ phận của mạch điện gắn với nhau chắc chắn, gọn gàng. + Tranh được trang trí hài hòa, đẹp, sáng tạo. Chuyển ý: Vậy muốn làm được bức tranh đèn LED thì em cần thực hiện những công việc gì? 2. Hoạt động 2: Hình thành kiến thức mới (Nghiên cứu kiến thức nền) a/ Tìm hiểu một số bộ phận trong một mạch điện thắp sáng * Mục tiêu: Học sinh kể tên và nêu được vai trò của các bộ phận của một mạch điện thắp sáng. Các nhóm quan sát bộ lắp ráp một mạch điện đơn giản và thảo luận theo yêu cầu sau: Vòng 1: Nhóm chuyên gia + Nhóm 1 và nhóm 2: tìm hiểu vai trò, cấu tạo và hoạt động của nguồn điện. + Nhóm 3 và nhóm 4: tìm hiểu vai trò, cấu tạo và hoạt động của bóng đèn. + Nhóm 5 và nhóm 6: tìm hiểu vai trò, cấu tạo và hoạt động của dây dẫn. + Nhóm 7 và nhóm 8: tìm hiểu vai trò, cấu tạo và hoạt động của công tắc. - Vòng 2: Nhóm mảnh ghép: *Nhiệm vụ: Kể tên và mô tả vai trò, cấu tạo, hoạt động của các bộ phận trong một mạch điện thắp sáng. Các nhóm trình bày và chia sẻ trước lớp. Các nhóm theo dõi và nhận xét lẫn nhau. Giáo viên nhận xét và hướng dẫn học sinh rút ra kết luận. * Mạch điện thắp sáng đơn giản gồm các bộ phận: nguồn điện, công tắc, bóng đèn và dây dẫn. ** Pin có hai cực: cực dương (+) thường lồi, cực âm (-) bằng phẳng. ** Khi có dòng điện chạy qua bóng đèn sợi đốt thì sợi đốt bên trong bóng đèn sẽ nóng đến nhiệt độ cao và phát sáng. *** Mở rộng thêm nội dung: Cực dương Cực âm Bình ắc quy Cực dương Cực âm Bình ắc quy Chân âm Chân dương Băng dính đồng Chân âm Chân dương Băng dính đồng b/ Thí nghiệm “Lắp một mạch điện thắp sáng đơn giản” * Mục tiêu: HS thực hành lắp được một mạch điện thắp sáng đơn giản. HS quan sát, thảo luận và so sánh điểm giống nhau - khác nhau giữa hình 3a và 3b trong SGK/tr30. Học sinh trả lời và nhận xét. Giáo viên nhận xét. Học sinh xem video cách lắp mạch điện đơn giản. Học sinh thực hành thí nghiệm và ghi kết quả vào phiếu học tập 1. Học sinh trình bảy sản phẩm và nói rõ theo phiếu học tập 1. Học sinh rút ra kết luận. GV nhận xét và chốt bài học. ** Trong mạch điện, dây dẫn nối các bộ phận của mạch điện với nhau và cho dòng điện đi qua, nguồn điện cung cấp điện giúp bóng đèn phát sáng, công tắc dùng để đóng, ngắt mạch điện. 3. Hoạt động 3: Luyện tập và vận dụng Chuyển tiết: HS hát và múa cùng cây đèn LED: bài hát “Quê hương tươi đẹp”. * Cây đèn này gọi là đèn gì? → Đèn LED. *Trong đời sống hằng ngày, các em thấy đèn LED được dùng để trang trí, quảng cáo. GV chuyển ý. Giáo viên yêu cầu học sinh nhắc lại các tiêu chí đánh giá sản phẩm. Học sinh nhắc lại các tiêu chí đánh giá sản phẩm. GV chuyển ý. Giáo viên cho xem mô hình tranh gắn đèn LED. Học sinh quan sát mô hình. Giáo viên cho các em xem đoạn clip hướng dẫn làm công tắc đơn giản. - Học sinh nêu các bộ phận và nhắc lại các bước thực hiện làm công tắc sáng tạo. ** Tiến hành thực hiện: a) Đề xuất và lựa chọn giải pháp * Giáo viên chia lớp thành 6 nhóm. Các nhóm thảo luận, từ đó: + Phác thảo giải pháp, các bước tiến hành chế tạo bức tranh đèn LED và hoàn thành phiếu học tập 2. + Lựa chọn nguyên vật liệu tương ứng với các bộ phận của mạch điện và hoàn thành phiếu học tập 3. + Gợi ý: Nguồn điện, công tắc và đèn LED của mạch điện được bố trí như thế nào? Sử dụng các vật liệu nào để làm mạch điện? Băng dính đồng được dán như thế nào mang tính thẩm mĩ? Giáo viên theo dõi và hỗ trợ học sinh khi cần thiết. Đại diện các nhóm trình bày ý tưởng thiết kế bức tranh. Giáo viên tổng kết ý tưởng. ** GV lưu ý: cấu trúc mạch điện; tranh được sử dụng để treo tường hay để bàn. Chế tạo mẫu, thử nghệm và đánh giá: Tiến hành thiết kế sản phẩm. Khi hết thời gian làm sản phẩm giáo viên sẽ rung chuông. Các nhóm có 2 phút để thu gọn sạch sẽ khu vực làm việc.  Các nhóm tiến hành chế tạo và thử nghiệm sản phẩm theo bản vẽ đã được góp ý. Trong quá trình làm sản phẩm, các nhóm có thể điều chỉnh phương án (nếu cần). Ghi chú lại điều chỉnh này. Giáo viên quan sát và hỗ trợ các nhóm trong quá trình chế tạo và thử nghiệm sản phẩm. Các nhóm tự đánh giá sản phẩm của nhóm mình đã đạt các yêu cầu giáo viên đề ra ban đầu chưa. Chia sẻ, thảo luận và điều chỉnh: GV tổ chức triển lãm tranh. Đại diện các nhóm chia sẻ, giới thiệu về nội dung bức tranh và cách lắp mạch điện thắp sáng đèn LED. Các nhóm khác lắng nghe và nhận xét. Bình chọn nhóm có sản phẩm đáp ứng tốt các tiêu chí đề ra và có phần chia sẻ hay nhất. (cắm cây đèn LED trái tim vào hộp nhóm muốn bình chọn) Giáo viên khen ngợi nhóm học sinh tích cực tham gia hoạt động, nhận được nhiều cây đèn trái tim và động viên các nhóm học sinh làm chưa tốt để lần sau cố gắng hơn. Giáo viên nhận xét và tổng kết. Cải tiến, sáng tạo: Hãy sáng tạo thêm để bức tranh thú vị hơn với gợi ý: kéo một chi tiết trên bức tranh để đèn sáng. Giáo viên cho học sinh chia sẻ cảm nghĩ khi tham gia tiết học. * Từ sản phẩm trên có thể thiết kế thêm các Bài học STEM như: chủ đề nhà máy điện phát sáng, chủ đề máy quạt điện, đèn pin bỏ túi, đèn bàn học,.....
+Sản phẩm cây đa quê hương, Học sinh chọn vị trí đèn led trên tán cây Sản phẩm của nhóm cầu vòng, Học sinh chọn vị trí đèn led trên cối xay gió Sản phẩm của nhóm Rực rỡ, Học sinh chọn vị trí đèn led trên đèn xe</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>- 'Học tập qua trải nghiệm' có nghĩa là Học qua trải nghiệm thực tế và tự mình thực hiện. Học sinh là người khám phá, giải quyết vấn đề và sáng tạo. Thay vì chỉ nghe giảng, các em trực tiếp làm – trực tiếp thử – trực tiếp rút ra bài học từ hành động của chính mình.- Giải thích:Học tập trải nghiệm là phương pháp trong đó học sinh chủ động tham gia và học thông qua các hành động và trải nghiệm thực tế, và là phương pháp cốt lõi của giáo dục STEAM.Tác động: Học tập qua trải nghiệm mang lại nhiều lợi ích và tác động tích cực đáng kể đến sự phát triển toàn diện của học sinh như: Tăng tính chủ động và hứng thú học tập, Phát triển tư duy phản biện và giải quyết vấn đề, Gắn kết lý thuyết với thực hành, Nâng cao kỹ năng làm việc nhóm và giao tiếp- Ví dụ:Học sinh tìm hiểu về Tính chất của nước, học sinh sẽ được tham gia hoạt động thực tế:+ Học sinh được phát các vật liệu đơn giản như cốc nước, thìa, muối, đường, cát, đá viên, và một số vật nổi/chìm (ví dụ: ghim giấy, nút chai). Các em sẽ tự tay thực hiện các thí nghiệm nhỏ: - Thí nghiệm hòa tan: Thử hòa tan muối, đường, cát vào nước và quan sát điều gì xảy ra, từ đó khám phá tính chất "nước là có thể hòa tan một số chất".- Thí nghiệm nổi/chìm: Thả các vật khác nhau vào nước để xem vật nào nổi, vật nào chìm, và thảo luận về nguyên nhân.- Thí nghiệm trạng thái: Quan sát đá viên tan chảy và nước đóng băng, nước đun sôi.. hiểu về ba thể của nước.Tác động: Qua các hoạt động này, học sinh không chỉ ghi nhớ các tính chất của nước một cách thụ động mà còn tự mình khám phá, quan sát, suy luận, và rút ra kết luận. Các em sẽ trực tiếp nhìn thấy muối biến mất trong nước, cảm nhận sự thay đổi trạng thái của đá, và tự tin giải thích tại sao ghim giấy lại chìm. Điều này giúp kiến thức trở nên sống động, dễ hiểu và khó quên hơn nhiều so với việc chỉ đọc từ sách giáo khoa.</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Tên hoạt động: “Góc sinh thái vui nhộn – Chuỗi thức ăn quanh ta”- Mục tiêu:Giúp học sinh tìm hiểu chuỗi thức ăn trong tự nhiên thông qua việc sáng tạo mô hình trang trí lớp học, đồng thời tạo không gian học tập gần gũi với thiên nhiên và thoải mái hơn.- Mô tả hoạt động:Học sinh sẽ được chia nhóm để thiết kế một “Góc sinh thái chuỗi thức ăn” trong lớp học bằng vật liệu tái chế.Các bước thực hiện:Lên ý tưởng: Mỗi nhóm chọn một hệ sinh thái (rừng, ao hồ, đồng cỏ...) và xác định chuỗi thức ăn điển hình: sinh vật sản xuất → tiêu thụ → phân hủy.Thực hiện ý tưởng: Học sinh sử dụng chai nhựa, hộp giấy, bìa cứng, ống hút... để tạo mô hình 3D các sinh vật (cây, động vật, nấm...). Thực hiện trang trí sơn màu, vẽ mắt, tạo hình dễ thương để mô hình sinh động và thân thiện.- Thuyết trình - Trưng bày sản phẩm: Các mô hình được sắp xếp thành một góc sinh thái cố định trong lớp, giúp lớp học thêm sinh động và học sinh thấy gần gũi với thiên nhiên.- Đánh giá – cải tiến: Mỗi nhóm trình bày về chuỗi thức ăn mình tạo ra và trả lời các câu hỏi về vai trò của từng sinh vật và Điều chỉnh cải tiến lại sản phẩm của nhóm.- Kỹ năng và năng lực phát triển:+ Tư duy hệ thống, hiểu biết khoa học+ Kỹ năng làm việc nhóm và thuyết trình+ Khả năng sáng tạo và sử dụng vật liệu tái chế+ Hình thành ý thức bảo vệ môi trường và yêu thiên nhiênHoạt động không chỉ giúp các em thõa sức sáng tạo mà làm không khí lớp học vui hơn, giúp học sinh yêu thiên nhiên.</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học: Bảo vệ viên phấn khi rơiMục tiêu bài học:Học sinh sử dụng kiến thức về vật lý và kỹ thuật để thiết kế một thiết bị bảo vệ viên phấn không bị vỡ khi rơi từ độ cao 3 mét, qua đó học sinh tự mình tư duy, thử nghiệm và cải tiến để tìm ra giải pháp tối ưu, từ đó rèn luyện tư duy logic và năng lực sáng tạo.1. Khởi động (10 phút)Giáo viên đặt câu hỏi khơi gợi:- “Điều gì xảy ra khi viên phấn rơi xuống đất?”- “Làm thế nào để bảo vệ một vật dễ vỡ?”Học sinh quan sát thí nghiệm thả viên phấn không có bảo vệ để tạo tình huống có vấn đề.2. Giao nhiệm vụ (5 phút)- Yêu cầu học sinh: “Hãy thiết kế một thiết bị đơn giản để ngăn viên phấn bị vỡ khi rơi từ độ cao 3 mét.”3. Làm việc nhóm – Thiết kế và chế tạo (30 phút)- Học sinh chia nhóm, thảo luận và thực hiện thiết kế.- Vật liệu cung cấp: giấy báo, băng keo, ống hút, dây thun, bọt biển, hộp carton nhỏ, bóng bay, túi nilon... - Giáo viên hỗ trợ, gợi ý và đặt câu hỏi thêm: "Tại sao con chọn vật liệu này? Thiết bị của con sẽ làm giảm lực va chạm như thế nào? Con có nghĩ đến việc bảo vệ phấn từ các cạnh không?" "Tại sao con chọn vật liệu này? Thiết bị của con sẽ làm giảm lực va chạm như thế nào? Con có nghĩ đến việc bảo vệ phấn từ các cạnh không?"...4. Thử nghiệm và cải tiến (15 phút)- Mỗi nhóm sẽ trình bày thiết bị của mình . Sau đó tiến hành thử nghiệm. Chọn một khu vực an toàn, mỗi nhóm thử thả thiết bị từ độ cao 3 mét, quan sát, ghi chép kết quả.- Thảo luận: - "Viên phấn của nhóm nào vẫn còn nguyên vẹn? Tại sao?"- "Thiết bị nào hoạt động hiệu quả nhất? Vì sao?"- "Chúng ta có thể cải thiện thiết bị như thế nào?"- "Bài học nào các em rút ra từ hoạt động này?" (Về vật liệu, cấu trúc, lực).5. Trình bày và tổng kết (10 phút)- Các nhóm trình bày sản phẩm và giải thích nguyên lý hoạt động.- Giáo viên chốt lại kiến thức bài học về độ bền của vật liệu và cấu trúc thiết kế qua trải nghiệm thực tế.</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Khi tham gia các hoạt động nghệ thuật trong STEAM, nhiều học sinh thường bối rối hoặc lo lắng vì không biết bắt đầu từ đâu. Do đó, giáo viên đóng vai trò quan trọng trong việc cung cấp tài liệu tham khảo mang tính định hướng, nhưng không ràng buộc tư duy sáng tạo của học sinh. Nếu một học sinh yêu cầu “xem ví dụ”, tôi sẽ chuẩn bị sẵn bộ sưu tập hình ảnh minh họa đa dạng – không phải là mẫu chuẩn để sao chép, mà là những gợi ý về màu sắc, chất liệu, kỹ thuật hoặc phong cách trình bày. Những hình ảnh này được lựa chọn kỹ để khơi gợi trí tưởng tượng và tạo cảm hứng, đồng thời giảm bớt áp lực cho học sinh khi bắt đầu.Sau khi học sinh xem tài liệu tham khảo, tôi sẽ đặt câu hỏi khơi mở như:- “Em thích chi tiết nào trong những ví dụ này?”- “Nếu làm theo cách riêng, em sẽ thay đổi điều gì?”- “Sản phẩm của em sẽ mang thông điệp gì?”Giáo viên tạo không khí an toàn sáng tạo và Hỗ trợ từng bước nhỏ. Nếu học sinh vẫn lúng túng, thì chia nhỏ quy trình sáng tạo: phác thảo ý tưởng, chọn màu sắc, lựa vật liệu... Điều này giúp giảm áp lực và tạo cảm giác “em có thể làm được”.Cách tiếp cận này kết hợp giữa định hướng và tự do sáng tạo, giúp học sinh cảm thấy an toàn khi thử nghiệm, đồng thời vẫn khuyến khích phát triển ý tưởng độc lập. Đây là điều cốt lõi trong giáo dục STEAM: học sinh không chỉ làm theo, mà phải sáng tạo, khám phá và thể hiện cá tính riêng của mình.</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động dạy học :MÔN: CÔNG NGHỆ - LỚP 4CHẬU CÂY TÁI CHẾ -- GÓC XANH SÁNG TẠO (2 TIẾT)Mô tả bài học: Hiểu được vai trò của cây xanh trong cuộc sống và môi trường. Biết tái sử dụng chai nhựa/thùng sữa/hộp giấy... để tạo ra chậu cây thân thiện với môi trường. Trồng và chăm sóc một số loại hoa và cây cảnh. Rèn luyện kỹ năng quan sát, làm việc nhóm, tư duy thiết kế và sáng tạo.II. Nội dung chủ đạo và tích hợpNội dung chủ đạo và tích hợp trong bài họcMôn họcYêu cầu cần đạtMôn học chủ đạoCông nghệ- Trình bày được đặc điểm của một số loại chậu trồng hoa và cây cảnh.- Trồng và chăm sóc được một số loại hoa và cây cảnh trong chậu.Môn học tích hợpToán- Sử dụng được một số dụng cụ thông dụng để thực hành cân, đo, đong, đếm.Khoa học- Hiểu thực vật sống và phát triển cần đủ yếu tố: Nước, ánh sáng, chất khoáng, không khí.Mĩ thuật- Phối hợp được một số kĩ năng: cắt, xé, dán, vẽ, in, ghép, nặn, uốn...trong thực hành, sáng tạo.III. YÊU CẦU CẦN ĐẠT- Lựa chọn vật liệu và sử dụng các dụng cụ để làm và trang trí chậu. - Tóm tắt được nội dung các bước trồng hoa, cây cảnh trong chậu. - Trồng được một chậu hoa trang trí lớp học theo chủ đề.- Thực hiện được việc ước lượng số đo trong một số trường hợp đơn giản. - Thể hiện tự tin khi trình bày ý kiến thảo luận, đề xuất ý tưởng, giới thiệu sản phẩm. - Từ đó hình thành và phát triển những năng lực chung và phẩm chất chủ yếu. - GDBVMT: GD học sinh yêu thiên nhiên, biết chăm sóc và bảo vệ cây xanh, bảo vệ môi trường sống.IV. ĐỒ DÙNG DẠY HỌC Chuẩn bị của GV– Rubrics đánh giá sản phẩm. Phiếu học tập.2. Chuẩn bị của HS:  Chai nhựa, lon sữa, hộp giấy đã qua sử dụng. Kéo, dao rọc giấy (có sự giám sát của giáo viên). Màu vẽ, giấy màu, băng keo. Đất trồng, hạt giống hoặc cây con nhỏ.V. CÁC HOẠT ĐỘNG DẠY HỌC CHỦ YẾUHOẠT ĐỘNG DẠY HỌCYÊU CẦU CẦN ĐẠTĐIỀU CHỈNHA. Khởi động (3 phút)- Giáo viên cho học sinh xem một đoạn video ngắn về ô nhiễm rác thải nhựa và tác động tích cực của cây xanh.”- GV hỏi hs: “Nội dung của video nói lên điều gì?”- Hs trả lời, nhận xét- GV chốt, chuyển ýTạo động cơ học tập tốt về thực hiện hoạt động học tập.B. Luyện tập – vận dụng (30 phút)Hoạt động 1: Đề xuất ý tưởng làm chậu cây và nêu tiêu chí.- Tìm hiểu các chậu cây.- Yêu cầu hs nêu lại các tiêu chí của chậu trồng cây- Tổ chức hs thảo luận nhóm 6 - trình bày ý tưởng của nhóm về cách làm chậu và trang trí, chọn cây và đưa ra tiêu chí cho nhóm mình.- GV mời đại diện nhóm chia sẻ và nêu các tiêu chí.- HS các nhóm bổ sung, nhận xét.- GV nhận xét, thống nhất tiêu chí chung cho cả lớp.- HS nhắc lại các tiêu chí.( Có lỗ thoát nước; Chậu chắc chắn, Tính sáng tạo và thẩm mỹ, Tính tái chế và thân thiện môi trường)HS đưa ra các ý tưởng và tiêu chí trang trí chậu cây.Hoạt động 2: Thực hiện làm chậu, trang trí chậu cây và trồng cây.* Chế tạo và thử nghiệm- GV tổ chức cho HS sử dụng chai nhựa/hộp sữa cũ, cắt và tạo hình thành chậu cây, trang trí chậu cây bằng màu nước, giấy màu, mắt dán, hình vẽ sinh động để tạo sản phẩm bắt mắt. và trồng cây vào chậu theo nhóm 6 (8 phút).- GV quan sát, hỗ trợ các nhóm gặp khó khăn.* Đánh giá và cải tiếnGV phát phiếu đánh giá và yêu cầu HS tự đánh giá sản phẩm tương ứng với những việc em đã làm.RUBRICS ĐÁNH GIÁ – CHẬU CÂY TÁI CHẾ (Tổng điểm: 10)Tiêu chí1 điểm2 điểm1. Sáng tạo – Thẩm mỹTrang trí đơn giản, thiếu điểm nhấnThiết kế độc đáo, trang trí sinh động2. Tái chế – Bảo vệ môi trườngDùng ít vật liệu tái chế, chưa thân thiệnSử dụng hoàn toàn vật liệu tái chế, thân thiện môi trường3. Kỹ thuật – Khả năng sử dụngChậu yếu, không có lỗ thoát nướcChậu chắc chắn, có lỗ thoát nước, phù hợp cây trồng4. Chăm sóc và ghi chépCây không sống hoặc không ghi chépCây sống tốt, có bảng theo dõi phát triển5. Trình bày – Hiểu biếtTrình bày chưa rõ, chưa hiểu rõ sản phẩmTrình bày tự tin, hiểu về cây, vật liệu và ý nghĩa tái chếXếp loại: 9–10 điểm: Tốt. 7–8 điểm: Đạt yêu cầu. 5–6 điểm: Cần cải thiện. &amp;lt;5 điểm: Cần hỗ trợ thêm- Các nhóm hoàn thành sản phẩm, GV yêu cầu các nhóm kiểm tra điều chỉnh sản phẩm theo các tiêu chí.- Cả lớp nhận xét, góp ý cho nhóm bạn.- GV tổng kết hoạt động chuyển sang hoạt động tiếp theo.Biết lựa chọn vật liệu tái chế để làm chậu cây, sử dụng các dụng cụ để thực hiện trang trí chậu.Học sinh tự đánh giáHoạt động 3: Giới thiệu và trưng bày sản phẩm - Học sinh giới thiệu về sản phẩm.- HS trưng bày sản phẩm và bảng thuyết trình.GV tổ chức cho các nhóm đánh giá đồng đẳng, trao đổi để xin ý kiến của bạn về sản phẩm của nhóm mình đã làm.- HS nhận xét và đánh giá kết quả.- GV cho HS bình chọn sản phẩm của các nhóm bạn.- GV nhận xét, tuyên dương.Thể hiện tự tin khi trình bày ý kiến thảo luận, đề xuất ý tưởng, giới thiệu sản phẩm.C. Tổng kết (2 phút)Tổ chức Góc xanh trong lớp học.Học sinh đem cây về nhà chăm sóc và theo dõi trong 2–3 tuần.Kết nối bài học về môi trường, biến đổi khí hậu, thực vật...Khắc sâu lại kiến thức cho học sinh liên hệ bản thân bảo vệ môi trường.Tích hợp hoạt động “Chậu cây tái chế - góc xanh sáng tạo” vào chương trình GDPT 2018. Áp dụng cho môn Tự nhiên và Xã hội (lớp 1, 2, 3) và Khoa học (lớp 4, 5).Bộ sáchLớpMôn họcChủ đề / Tên bài họcGợi ý tích hợp làm chậu cây tái chế (STEAM)Chân trời sáng tạo1Tự nhiên &amp;amp; Xã hộiBài 17: Giữ gìn vệ sinh môi trườngThiết kế và làm chậu cây tái chế, nâng cao ý thức bảo vệ môi trường2Tự nhiên &amp;amp; Xã hộiBài 19: Bảo vệ môi trườngThực hành làm và trang trí chậu cây từ chai nhựa, học về tái chế và bảo vệ môi trường3Tự nhiên &amp;amp; Xã hộiBài 24: Bảo vệ môi trườngSáng tạo sản phẩm tái chế, thảo luận lợi ích tái sử dụng vật liệu4Khoa họcBài 22: Thực vật cần gì để sống?Làm và trang trí chậu cây tái chế. Trồng cây trong chậu tái chế, quan sát điều kiện sống của cây4Khoa họcBài 25: Điều kiện sống của câyTheo dõi và ghi chép sự phát triển của cây trồng trong chậu tái chế5Khoa họcBài 26: Bảo vệ môi trườngDự án làm chậu cây từ chai nhựa tái chế, sáng tạo và trang trí chậu cây, tìm hiểu ý nghĩa bảo vệ môi trườngKết nối tri thức1Tự nhiên &amp;amp; Xã hộiBài 16: Giữ gìn môi trường xung quanhLàm và trang trí chậu cây tái chế để trang trí lớp, giáo dục ý thức bảo vệ môi trường2Tự nhiên &amp;amp; Xã hộiBài 17: Một số việc nên làm để bảo vệ môi trườngHoạt động làm chậu cây từ chai nhựa tái chế, sáng tạo trang trí chậu cây3Tự nhiên &amp;amp; Xã hộiBài 22: Tài nguyên thiên nhiên và con ngườiGiới thiệu ý tưởng tái chế chai nhựa để bảo vệ tài nguyên thiên nhiên. Tự do trang trí sáng tạo theo ý tưởng.4Khoa họcBài 25: Điều kiện sống của câyTrồng cây trong chậu tái chế và quan sát.5Khoa họcBài 27: Tài nguyên và cách bảo vệThiết kế sản phẩm tái chế từ chai nhựa làm chậu cây. Tự do trang trí sáng tạo theo ý tưởng.Cánh diều1Tự nhiên &amp;amp; Xã hộiBài 15: Giữ gìn vệ sinh nơi công cộngLàm chậu cây tái chế trang trí lớp, nâng cao ý thức cá nhân về môi trường. Tự do trang trí sáng tạo chậu cây theo ý tưởng.2Tự nhiên &amp;amp; Xã hộiBài 18: Giữ gìn và bảo vệ môi trường sốngLàm chậu cây từ chai nhựa, minh họa hành động bảo vệ môi trường. Tự do trang trí chậu cây sáng tạo theo ý tưởng.3Tự nhiên &amp;amp; Xã hộiBài 23: Trách nhiệm bảo vệ môi trườngTrình bày sản phẩm tái chế, thảo luận về ý nghĩa bảo vệ môi trường. Tự do trang trí sáng tạo theo ý tưởng.4Khoa họcBài 22: Thực vật cần gì để sống?Thực hiện làm chậu c6y tái chế và Tự do trang trí sáng tạo theo ý tưởng.Trồng cây trong chậu tái chế, ghi chép tìm hiểu điều kiện sống của cây5Khoa họcBài 25: Bảo vệ môi trường sốngDự án học tập dùng vật liệu tái chế bảo vệ môi trường. Tự do trang trí sáng tạo theo ý tưởng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>S020</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>"Học tập qua trải nghiệm" là phương pháp giáo dục mà học sinh trực tiếp sử dụng các giác quan để học tập trong suốt quá trình, thông qua các hoạt động thực tế thay vì chỉ học tập lý thuyết một chiều. Điều này giúp học sinh phát triển kỹ năng tư duy phản biện, khả năng giải quyết vấn đề và tăng cường sự sáng tạo. Tác động của phương pháp này đến học sinh rất lớn. Thứ nhất, nó tạo ra sự hứng thú và động lực học tập. Khi tham gia vào các hoạt động thực tế, học sinh dễ dàng kết nối kiến thức với cuộc sống hằng ngày. Thứ hai, học sinh phát triển khả năng làm việc nhóm và giao tiếp, vì họ thường phải hợp tác với nhau để hoàn thành nhiệm vụ.Ví dụ cụ thể: học sinh có thể thực hiện thí nghiệm để khám phá các khái niệm về lực và chuyển động (Sử dụng một chiếc xe đẩy nhẹ và một số vật nặng như sách. Sau đó đẩy xe với vài lực khác nhau và quan sát sự thay đổi về tốc độ rồi học sinh ghi nhận ảnh hưởng của lực đến chuyển động. Hay ở một ví dụ khác, học sinh lăn một quả bóng trên các bề mặt khác nhau như gạch, cỏ, nhựa rồi so sánh và giải thích tại sao bóng lăn xa hơn trên bề mặt mịn.) Thay vì chỉ đọc sách, việc tự tay thực hiện thí nghiệm giúp các em hiểu sâu hơn về lý thuyết và ghi nhớ lâu hơn. Từ đó, học sinh không chỉ học kiến thức mà còn hình thành thái độ tích cực đối với việc học.</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: "Góc Kĩ năng sống"Mục đích : Phát triển kĩ năng sống thiết yếu cho học sinh.Mô tả hoạt động : Học sinh sẽ tạo ra một sản phẩm "Góc Kĩ năng sống" trong lớp để học hỏi và chia sẻ quan điểm với nhau. Mỗi tháng, một tổ sẽ thiết kế một poster trình bày ngắn gọn về một kỹ năng cụ thể như: Kĩ năng nấu ăn, kĩ năng quản lý tiền tiết kiệm hoặc kĩ năng giao tiếp Tiếng Anh với người nước ngoài. Các em có thể sử dụng video sưu tầm, hình ảnh, thực hành cắt dán hoặc vẽ trực tiếp lên poster. Sau đó trình bày ý tưởng của mình, lớp sẽ tham gia thảo luận học hỏi và đóng góp ý kiến.Ví dụ: Nếu tổ Một chọn "Kĩ năng nấu ăn", các em có thể dán hình ảnh mô tả món ăn đơn giản và quá trình chuẩn bị rồi đến các bước nấu ăn, nêm nếm. Nếu tổ Hai chọn "Kĩ năng quản lý tiền tiết kiệm", các em có thể chia sẻ cách làm ống heo tiết kiệm, cân nhắc sử dụng tiền để mua sắm hợp lí hơn nhằm tiết kiệm.Kỹ năng mong muốn học sinh phát triển :Kỹ năng thực hành : Học sinh sẽ vận dụng trải nghiệm của bản thân vào thiết kế poster. Giao tiếp tiếp : Các cải tiến về khả năng trình bày có bố cục rõ ràng và thuyết phục.Làm việc nhóm : Học tập hiệu quả trong quá trình chuẩn bị và thực hiện.Tư duy phản biện : Thảo luận và phản biện giúp các em rèn luyện khả năng tư duy logic."Góc Kĩ năng sống" không chỉ làm phong phú thêm ý tưởng học tập thông qua trải nghiệm mà còn mang lại học sinh những kĩ năng cần thiết trong cuộc sống hàng ngày.Một số hình ảnh minh họa poster về Góc Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học: "Thiết kế thiết bị bảo vệ viên phấn"Mục tiêu: Học sinh sẽ áp dụng kiến thức môn khoa học để thiết kế một thiết bị bảo vệ viên phấn không bị vỡ khi thả từ độ cao 3 mét.Bước 1: Giới thiệu bài tậpNêu mục tiêu và yêu cầu của bài tập.Thảo luận về tính chất của viên phấn và các yếu tố ảnh hưởng đến sự vỡ của nó.Bước 2: Tìm hiểu và thí nghiệmCung cấp các vật liệu như bông gòn, vỏ hộp, giấy, dây thun, và ống hút.Khuyến khích học sinh thí nghiệm với các vật liệu khác nhau để tìm ra cách bảo vệ viên phấn hiệu quả.Bước 3: Hướng dẫn thiết kếĐặt câu hỏi như: Thiết kế nào sẽ giảm thiểu lực tác động lên viên phấn?Làm thế nào để tạo ra một thiể bị bảo vệ chắc chắn nhưng nhẹ?"Bước 4: Thực hiện và thử nghiệmHọc sinh sẽ lắp ráp thiết bị và thử nghiệm bằng cách thả viên phấn từ độ cao 3 mét.Ghi nhận kết quả và phản hồi.Bước 5: Phân tích và cải tiếnThảo luận về những gì hoạt động tốt và những gì cần cải thiện.Khuyến khích học sinh chia sẻ ý tưởng và học hỏi từ nhau.Hoạt động này không chỉ giúp học sinh phát triển tư duy thực tiễn mà còn tạo cơ hội cho sự sáng tạo và hợp tác.</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Trong giáo dục STEAM, yếu tố “A (Art = Nghệ thuật)” đóng vai trò quan trọng trong việc biến ý tưởng thành hình ảnh thông qua biểu đạt sáng tạo và khai thác cảm nhận thẩm mỹ. Tuy nhiên, do hoạt động nghệ thuật không có "đáp án đúng", học sinh dễ cảm thấy lo lắng như “em không vẽ đẹp” hay “em không có khiếu”, nên việc đảm bảo cảm giác an toàn tâm lý là điều thiết yếu để phát huy tính sáng tạo. Tầm quan trọng của góc nhìn này được thể hiện ở 3 điểm sau: 1. Sáng tạo được sinh ra từ sự tự do và cảm giác an toàn Khi học sinh nói “em muốn xem ví dụ”, điều đó không có nghĩa là các em muốn sao chép, mà là do lo lắng không biết bắt đầu từ đâu. Giáo viên cần giúp các em cảm thấy an tâm để có thể thoải mái thể hiện ý tưởng của mình. 2. Tôn trọng sự đa dạng trong học tập Biểu đạt nghệ thuật có sự khác biệt rõ rệt giữa các cá nhân. Việc cho học sinh thấy nhiều ví dụ khác nhau (về hình dạng, màu sắc, chất liệu) sẽ giúp các em hiểu rằng mỗi người có thể có một cách sáng tạo riêng biệt, từ đó tăng sự tự tin khi làm bài. 3. Phát triển khả năng tự biểu đạt và sự tự tin Thông qua trải nghiệm sáng tạo, việc học sinh cảm nhận được “ý tưởng của mình được chấp nhận” sẽ góp phần nâng cao tính chủ động trong học tập và cảm nhận giá trị bản thân. Đó là nền tảng của sự phát triển lâu dài. Cách hỗ trợ:Chia sẻ ví dụ cụ thể: Tôi sẽ giới thiệu một số sản phẩm nghệ thuật từ các dự án STEAM trước đây, như các tác phẩm kết hợp giữa nghệ thuật và khoa học, chẳng hạn như mô hình kiến trúc sử dụng vật liệu tái chế hoặc sử dụng màu để mô tả âm thanh xung quanh thông qua các chấm và nét.Khuyến khích thử nghiệm: Tôi sẽ nói với học sinh rằng không có ý tưởng nào là sai bởi vì mỗi bông hoa mang màu sắc khác nhau sẽ tạo nên một khu vườn kì diệu. Khuyến khích em bắt đầu từ những hình dung đơn giản trong suy nghĩ, sau đó vẽ hoặc tạo hình từ các vật liệu dễ tìm.Tạo không gian thoải mái: Đảm bảo rằng không gian lớp học thoải mái khuyến khích sự thử nghiệm. Có thể đề xuất một khu vực quanh lớp học dùng để "thử nghiệm", nơi học sinh có thể tự do khám phá mà không cảm thấy áp lực.Hướng dẫn tư duy: Hỏi học sinh về sở thích cá nhân và những điều mà em cảm thấy hứng thú, từ đó hướng dẫn em tìm kiếm ý tưởng dựa trên sở thích đó.Bằng cách này, học sinh sẽ cảm thấy tự tin hơn và có động lực để thể hiện sự sáng tạo của mình.</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động dạy học: "Làm xúc xắc học tập từ hộp giấy"Mục tiêu: Học sinh sẽ sử dụng hộp giấy để tạo ra xúc xắc, từ đó củng cố kiến thức về các bài học đã học và khuyến khích sự tham gia tích cực trong lớp học.Vật liệu cần chuẩn bị:Hộp giấy hình khối lập phương hoặc khối tam giác (có thể dùng hộp giấy, hộp bằng nhựa đựng bánh, hộp sữa, mút xốp).Giấy màu, bút lông, keo dán, kéo.Quy trình hoạt động:Giới thiệu hoạt động: Giải thích về cách sử dụng xúc xắc trong việc học. Mỗi mặt xúc xắc sẽ chứa tên bài học, câu hỏi hoặc hình ảnh liên quan đến bài học.Thảo luận nhóm: Chia học sinh thành nhóm nhỏ. Hướng dẫn các em chọn 6 bài học hoặc khái niệm quan trọng mà các em đã học trong thời gian gần đây.Thiết kế xúc xắc: Học sinh sẽ trang trí các mặt của xúc xắc bằng cách viết tên bài học, vẽ hình ảnh hoặc câu hỏi liên quan đến nội dung bài học.Sử dụng xúc xắc: Sau khi hoàn thành, học sinh sẽ lần lượt gieo xúc xắc. Mặt nào xuất hiện sẽ là bài học mà nhóm đó cần thảo luận hoặc ôn tập.Chủ đề hoặc bài học đề xuất:Tự nhiên và Xã hội (lớp 1-3):Chủ đề: Các hiện tượng tự nhiên.Bài học: Học về thời tiết, động vật, và thực vật.Khoa học (lớp 4-5):Chủ đề: Các khái niệm về năng lượng.Bài học: Các nguồn năng lượng, cách sử dụng năng lượng hiệu quả.Hoạt động này còn có thể áp dụng cho các môn học khác, nó không chỉ giúp học sinh ôn tập kiến thức mà còn thúc đẩy sự sáng tạo và khả năng làm việc nhóm.Một số hình ảnh và video minh họa thực tế:</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>S021</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>"Học tập qua trải nghiệm" trong giáo dục STEAM là phương pháp giúp học sinh tiếp thu kiến thức thông qua việc trực tiếp làm, trực tiếp cảm nhận, trực tiếp khám phá, thay vì chỉ học lý thuyết thụ động. Triết lý này giúp biến lớp học thành môi trường mở, nơi học sinh chủ động tư duy, hành động trong suốt quá trình học. Từ đó, hình thành kiến thức, kỹ năng và thái độ một cách tự nhiên, bền vững. Đây là cách học hiệu quả và phù hợp với đặc điểm tâm lý lứa tuổi tiểu học.Là giáo viên lớp 2, tôi nhận thấy rằng khi được học qua trải nghiệm, học sinh trở nên nhiệt tình, tự tin, chủ động và sáng tạo hơn. Các em không chỉ học để biết, mà còn học để hiểu, học để làm, học để sống và phát triển đồng thời nhiều kỹ năng như hợp tác, sáng tạo và giải quyết vấn đề. Ví dụ: Trong môn Tự nhiên và Xã hội, chủ đề “Các mùa trong năm”, thay vì chỉ yêu cầu học sinh ghi nhớ kiến thức, tôi tổ chức một “Góc trải nghiệm mùa xuân”. Học sinh được quan sát hình ảnh hoa mai, hoa đào, nghe âm thanh chim hót và cùng nhau làm thiệp chúc Tết. Qua đó, các em không chỉ hiểu rõ đặc trưng mùa xuân mà còn phát triển kỹ năng cảm thụ nghệ thuật, khả năng trình bày suy nghĩ và tinh thần hợp tác nhóm.</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Để giúp cải thiện không khí lớp học và nâng cao kỹ năng giao tiếp, tôi đề xuất hoạt động trải nghiệm mang tên “Hộp điều ước hạnh phúc”, một hình thức kết hợp giữa tư duy sáng tạo, phát triển cảm xúc xã hội và mỹ thuật.Mỗi tuần, học sinh lớp 2 sẽ viết hoặc vẽ một điều ước tốt đẹp dành cho bạn bè, thầy cô, hoặc chính bản thân mình vào một tờ giấy nhỏ và bỏ vào chiếc hộp trang trí sẵn trong lớp học. Cuối tuần, cả lớp sẽ cùng nhau mở hộp, đọc ngẫu nhiên một số điều ước và cùng chia sẻ cảm nhận. Hoạt động này có thể lồng ghép vào tiết Sinh hoạt lớp hoặc môn Đạo đức.Thông qua hoạt động, tôi mong muốn phát triển ở học sinh các kỹ năng:- Giao tiếp tích cực: học sinh học cách diễn đạt ý tưởng một cách thân thiện, truyền cảm hứng.- Thể hiện cảm xúc: các em được khuyến khích nói lên mong muốn và quan tâm đến người khác.- Sáng tạo nghệ thuật: học sinh được tự do trang trí điều ước, sử dụng màu sắc, hình ảnh để truyền tải thông điệp.- Tư duy tích cực: từ những điều ước nhỏ, các em hình thành thói quen nhìn cuộc sống với ánh mắt lạc quan và yêu thương.Hoạt động tuy đơn giản nhưng giúp gắn kết lớp học như một gia đình nhỏ, nơi mỗi học sinh đều cảm thấy được lắng nghe và trân trọng.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Khi học sinh được giao nhiệm vụ: “Tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi thả từ độ cao 3 mét”, tôi xem đây là cơ hội lý tưởng để phát triển tư duy thiết kế, giải quyết vấn đề và khả năng hợp tác nhóm ở học sinh lớp 2, đúng theo định hướng STEAM.Kế hoạch dạy học gồm 3 bước: 1. Khơi gợi và đặt vấn đề Tôi bắt đầu bằng một tình huống gần gũi: “Nếu em lỡ làm rơi viên phấn từ trên cao, điều gì sẽ xảy ra? Làm sao để phấn không vỡ?”. Câu hỏi gợi mở tiếp theo: “Theo em, vật gì có thể bảo vệ viên phấn giống như cách mũ bảo hiểm bảo vệ đầu người đi xe máy?” 2. Thử nghiệm - Thiết kế - Kiểm tra Học sinh làm việc theo nhóm 3 - 4 em, sử dụng các vật liệu đơn giản như: ly nhựa, bông gòn, ống hút, túi nilon, vải vụn, giấy cuộn, dây thun...Các em thảo luận, thiết kế “thiết bị bảo vệ phấn” và thử nghiệm bằng cách thả rơi từ độ cao (có kiểm soát).3. Phản tư - Cải tiến - Trình bàySau thử nghiệm, các nhóm cùng quan sát, đánh giá hiệu quả, đặt câu hỏi: “Vì sao thiết bị này bảo vệ phấn tốt hơn?”, “Chúng ta cần cải tiến điểm nào để thiết bị chắc chắn hơn?”Thông qua hoạt động này, học sinh được rèn luyện tư duy phản biện, tính kiên nhẫn, kỹ năng sáng tạo và giải quyết vấn đề thực tiễn, nền tảng quan trọng cho học tập liên môn STEAM.</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Trong giáo dục STEAM, yếu tố nghệ thuật không chỉ là phần "trang trí", mà là phương tiện thể hiện cảm xúc, cá tính và tư duy sáng tạo của học sinh. Khi một học sinh lớp 2 rụt rè hỏi: "Cô ơi, có ví dụ không ạ?", tôi hiểu rằng em đang lo lắng, sợ sai và cần một “ngọn hải đăng” để định hướng.Tuy nhiên, thay vì đưa ra một mẫu cụ thể - dễ làm học sinh bị “khuôn mẫu hóa”, tôi sẽ nhẹ nhàng khích lệ: + “Ý tưởng của con là duy nhất và không ai có thể nghĩ giống con được. Cô rất háo hức muốn xem phiên bản đặc biệt của con!” + Tôi có thể gợi ý mở như: “Con có thể dùng màu vẽ, giấy, nút chai, dây len... Tùy con chọn để kể câu chuyện riêng của mình nhé!”Để hỗ trợ cụ thể, tôi áp dụng các cách sau:+ Tạo không gian an toàn sáng tạo: không chấm điểm ngay, không so sánh giữa các sản phẩm.+ Trưng bày đa dạng tác phẩm học sinh để khẳng định “không có đúng - sai trong nghệ thuật”. + Đồng hành nhẹ nhàng: đặt câu hỏi khơi gợi như “Nếu con muốn thể hiện niềm vui, con sẽ dùng màu gì?” thay vì chỉ bảo chi tiết.Tôi tin rằng, khi được tự do sáng tạo trong tình yêu thương và tôn trọng, học sinh sẽ dần vượt qua nỗi sợ, mở khóa trí tưởng tượng và tự hào về sản phẩm “không giống ai” của chính mình.</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Trong một tiết học môn Tự nhiên và Xã hội lớp 2, tôi tổ chức hoạt động trải nghiệm mang tên: “Ngôi nhà tiết kiệm năng lượng”, nơi học sinh sử dụng vật liệu tái chế để sáng tạo ra mô hình ngôi nhà thân thiện với môi trường.- Vật liệu sử dụng: hộp sữa giấy, nắp chai, giấy báo cũ, ống hút đã qua sử dụng, que kem, bìa carton...- Quy trình hoạt động: Học sinh làm việc theo nhóm nhỏ, cùng nhau xây dựng mô hình ngôi nhà với mục tiêu: tận dụng tối đa ánh sáng tự nhiên (cửa sổ lớn), thông gió tốt (mái hở), có thùng rác phân loại hoặc khu vườn nhỏ từ chai nhựa tái chế. Giáo viên hướng dẫn từng bước và đặt câu hỏi gợi mở:- “Làm sao để nhà mát mà không cần quạt?”- “Vì sao nên trồng cây bên cửa sổ?”- “Con có thể sử dụng lại vật gì thay vì vứt đi?”- Bài học tích hợp:Hoạt động này giúp truyền tải kiến thức môn Tự nhiên và Xã hội lớp 2 qua chủ đề:- Tiết kiệm năng lượng và bảo vệ môi trường sống.- Tái sử dụng và phân loại rác thải.- Vai trò của cây xanh và ánh sáng tự nhiên.Qua hoạt động, học sinh không chỉ phát triển tư duy sáng tạo mà còn hình thành ý thức bảo vệ môi trường, kỹ năng hợp tác nhóm và trách nhiệm công dân nhỏ tuổi, đúng tinh thần giáo dục STEAM và GDPT 2018.center-37084000450215316420500</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>S022</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là phương pháp giáo dục trong đó học sinh chủ động tham gia vào quá trình học thông qua việc làm, thử nghiệm, khám phá và giải quyết vấn đề thực tế. Thay vì chỉ tiếp thu kiến thức một cách thụ động qua sách vở hay lời giảng của giáo viên, học sinh được "học bằng cách làm", qua đó hiểu sâu sắc và ghi nhớ lâu hơn.Triết lý này đặc biệt quan trọng trong giáo dục STEAM (Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật và Toán học), vì nó tạo điều kiện cho học sinh kết nối kiến thức liên môn, phát triển tư duy phản biện, sáng tạo và kỹ năng giải quyết vấn đề.334152299245700Tác động của học tập qua trải nghiệm rất rõ rệt: học sinh trở nên hứng thú, tích cực và tự tin hơn khi được tham gia vào các hoạt động có ý nghĩa, phù hợp với thực tế cuộc sống. Quá trình trải nghiệm giúp các em hiểu rằng sai lầm là một phần tất yếu của học tập, từ đó hình thành tinh thần cầu tiến và kiên trì.Ví dụ: Với môn Khoa học lớp 5, bài “Vật dẫn điện, vật cách điện”, việc cho học sinh trải nghiệm chế tạo bộ đồ chơi Buzz Wire (Đường đua điện) sẽ giúp học sinh khắc sâu kiến thức và rèn được nhiều kỹ năng.</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Tổ chức cho học sinh thiết kế sản phẩm STEAM: Quạt thông minh điều chỉnh không khí lớp học (vận dụng sau khi học bài Khoa học lớp 5 “Mạch điện đơn giản”)41171131139200Mục tiêu: Giúp học sinh tạo ra một thiết bị nhỏ gọn có thể điều chỉnh nhiệt độ và làm thơm không khí lớp học bằng vật liệu tái chế và công nghệ đơn giản, từ đó mang lại không gian học tập dễ chịu và sáng tạo hơn. Hoạt động cụ thể:Học sinh sẽ được chia thành nhóm và thực hiện các bước sau:Khảo sát môi trường lớp học: Nhiệt độ, độ ẩm, mùi không khí,...Lên ý tưởng và thiết kế mô hình quạt thông minh bằng giấy bìa cứng, chai nhựa, motor mini, dây điện, pin, có thêm hộp nhỏ chứa tinh dầu thiên nhiên hoặc hoa khô để tạo hương thơm dễ chịu.Lập trình đơn giản (sử dụng microbit) để điều khiển quạt bật/tắt tự động theo nhiệt độ môi trường.Thuyết trình và phản biện: Mỗi nhóm trình bày ý tưởng, cách hoạt động và lợi ích của sản phẩm.Kỹ năng học sinh sẽ phát triển:Tư duy sáng tạo: Tìm giải pháp cải thiện môi trường học tập.Tư duy thiết kế kỹ thuật và công nghệ: Vẽ, lắp ráp, chỉnh sửa mô hình, làm quen với cảm biến, lập trình cơ bản.Hợp tác và giao tiếp: Làm việc nhóm, phân công nhiệm vụ, trình bày ý tưởng.Ý thức bảo vệ môi trường: Sử dụng vật liệu tái chế.Thông qua dự án này, học sinh vừa được trải nghiệm học tập thực tiễn, vừa thấy rõ giá trị việc áp dụng kiến thức để cải thiện cuộc sống hàng ngày.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học: “Tạo thiết bị bảo vệ viên phấn” - Thực hiện trong 2 tiết (70 phút)A. Khởi động (10 phút)- Giáo viên yêu cầu học sinh dự đoán: “Nếu chúng ta thả một viên phấn từ trên cao xuống, điều gì sẽ xảy ra?”- Cho học sinh thử kiểm chứng.- Kích thích hứng thú: Giáo viên chiếu một video ngắn minh họa vật thể bị vỡ khi va chạm mạnh và cách bảo vệ bằng các vật liệu mềm.- Giáo viên đặt vấn đề và giới thiệu nhiệm vụ: “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.”B. Phát triển bài học (25 phút)1. Thảo luận ý tưởng (10 phút):- Chia lớp thành các nhóm (6-7 học sinh / nhóm).- Đặt câu hỏi dẫn dắt: “Làm thế nào để giảm tốc độ rơi của thiết bị?”; “Có cách nào để bảo vệ viên phấn bên trong thiết bị?”; “Lớp bông/vải trong thiết bị có tác dụng gì?”- Yêu cầu mỗi nhóm trình bày ý tưởng sơ bộ.2. Chế tạo thiết bị (15 phút):- Cung cấp vật liệu cho các nhóm. (Viên phấn, hộp giấy nhỏ, bông gòn/ giấy vệ sinh/ vải mềm, bong bóng, băng dính, dây thun, kéo, dao rọc giấy.)- Các nhóm tiến hành chế tạo sản phẩm dựa trên ý tưởng của mình.C. Thử nghiệm và đánh giá (20 phút)- Thử nghiệm: Mỗi nhóm thả thiết bị của mình từ độ cao 3 mét. Kiểm tra xem viên phấn có còn nguyên vẹn không.- Thảo luận sau thử nghiệm: “Sản phẩm của nhóm đã thành công hay chưa? Vì sao?”; “Nếu làm lại, nhóm sẽ cải thiện thiết bị của mình như thế nào?”- Khen thưởng: Khen ngợi nhóm có thiết kế sáng tạo nhất, hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Khi gặp những tình huống tương tự như trên, bản thân tôi xin đề xuất những cách hỗ trợ để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh đó như sau:1. Cung cấp ví dụ nhưng không gò bó- Thay vì đưa một sản phẩm hoàn chỉnh, giáo viên có thể chia sẻ một vài ý tưởng nhỏ hoặc nguyên liệu gợi ý, như:Ví dụ trực tiếp: "Cô có thể vẽ một hình mặt trời trên hộp này để làm thiết bị của mình vui nhộn hơn. Con có thể thử vẽ những gì con thích!"Ví dụ trừu tượng: "Nhiều bạn sử dụng màu sắc để làm cho sản phẩm trở nên đặc biệt. Con có thể chọn màu yêu thích của mình để làm nổi bật thiết kế."2. Đặt ra giới hạn mở để thúc đẩy sáng tạo- Đưa ra các câu hỏi gợi mở để kích thích trí tưởng tượng, giúp học sinh tự tin bắt đầu theo cách riêng.:"Con nghĩ thiết bị của mình sẽ trông như thế nào nếu nó là sản phẩm từ tương lai?""Nếu con muốn thêm một câu chuyện vào thiết bị của mình, con sẽ kể điều gì?"3. Tạo không gian thực hành mà không sợ sai- Khuyến khích thử nghiệm: "Con không cần làm hoàn hảo ngay từ đầu đâu. Hãy thử làm thử trước. Nếu chưa ổn, chúng ta có thể chỉnh sửa cùng nhau."- Khen ngợi nỗ lực: "Cô thấy cách con thử kết hợp hai màu này rất thú vị. Con có muốn thử thêm một chút gì đó nữa không?"4. Cung cấp các công cụ hỗ trợ sáng tạo- Chuẩn bị sẵn các vật liệu giúp học sinh dễ dàng bắt đầu như: Mẫu hình vẽ đơn giản (hoa, trái tim, ngôi sao), những màu sắc gợi ý (xanh dương gợi cảm giác mát mẻ, vàng tượng trưng cho niềm vui), một số sticker, giấy màu, hoặc mẫu hình in sẵn.</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>SẢN PHẨM STEAM: TRỒNG CÂY TRONG VỎ TRỨNGTHÔNG TIN VỀ BÀI HỌCLớp: NămThời lượng: 2 tiếtThời điểm tổ chức: Khi dạy nội dung “Cây con mọc lên từ hạt” (môn Khoa học)Nội dung chủ đạo và tích hợp trong bài học: Môn họcYêu cầu cần đạtMôn họcchủ đạoKhoa học- Vẽ sơ đồ (hoặc sử dụng sơ đồ đã cho) ghi chú được tên của các bộ phận của hạt. - Thực hành được trồng cây bằng hạt.- Sử dụng sơ đồ đã cho, ghi chú được tên một số giai đoạn chính của cây con mọc lên từ hạt.- Trình bày được sự lớn lên của cây con.Môn họctích hợp Kỹ thuật- Tóm tắt được nội dung các bước gieo hạt, trồng cây con trong chậu.- Thực hiện được việc gieo hạt trong chậu.- Trồng và chăm sóc được một số loại hoa và cây cảnh trong chậu.Toán- Sử dụng được một số dụng cụ đơn giản để thực hành cân, đong, đo, đếm với các đơn vị đo đã học.Mĩ thuật- Lựa chọn, phối hợp được các vật liệu khác nhau để làm nên sản phẩm (vật dụng trang trí).I. Yêu cầu cần đạt (của bài học)- Vẽ sơ đồ (hoặc sử dụng sơ đồ đã cho) ghi chú được tên của các bộ phận của hạt. - Trình bày được các giai đoạn chính của cây con mọc lên từ hạt.- Thực hành trồng được cây trong vỏ trứng.- Hợp tác được các thành viên trong nhóm cùng hoàn thành nhiệm vụ.II. Đồ dùng dạy học:1. Chuẩn bị của Giáo viên- Các phiếu học tập và phiếu đánh giá.- Các video, hình ảnh hướng dẫn học sinh ...- Mô hình sản phẩm minh họa.2. Chuẩn bị của học sinh- Giao cho mỗi nhóm tự chuẩn bị một số nguyên vật liệu như sau:STTThiết bị/ Học liệuSố lượngHình ảnh minh hoạ1 Vỏ trứng24 vỏ37274510795002 Hạt đậu đen (xanh, đỏ)120 hạt38608034290003Chai đựng nước tưới (chai nhựa)8 chai540404-83820004Nắp chai nhựa (dùng làm đế giữ quả trứng thẳng)24 nắp340360-58553005Thìa để xúc đất bằng nhựa48 cái 531073-58136006Giấy màu có keo sẵn40 tờ454660-3124800 7Bút lông màu8 hộp494807-1680300III. Các hoạt động dạy học chủ yếu 1. Hoạt động 1. Mở đầu (Xác định vấn đề)a) Khởi động Lớp cùng hát bài “Gieo hạt” theo nhạc.- GV hỏi: Bạn nhỏ trong bài hát đã làm gì ?- Học sinh trả lời: Gieo hạt đậu xanh ?- GV hỏi: Vậy bạn nhỏ cảm thấy thế nào khi hạt nảy mầm ?- Học sinh trả lời: Rất vui sướng.- GV: Các em có muốn được thực hành tự tay mình ươm, trồng và chăm sóc cây từ giai đoạn hạt nảy mầm lên như thế nào không ?b) Giao nhiệm vụ- GV cho học sinh xem video hạt nảy mầm theo giai đoạn- Hạt nảy mầm theo giai đoạn, phân tích giai đoạn, hoàn thành sơ đồ, ghi chú được tên một số giai đoạn chính của cây con mọc lên từ hạt.2. Hoạt động 2: Hình thành kiến thức mới (Nghiên cứu kiến thức nền)- GV: Chiếu hạt đậu cho học sinh xem. Chúng mình cùng phân tích cấu tạo của hạt đậu gồm những gì nhé.- Phân tích cấu tạo của hạt:+ Hạt đậu gồm những bộ phận nào ? (vỏ, phôi và chất dinh dưỡng dự trữ) - GV: Cho học sinh xem video thí nghiệm:+ Điều kiện để hạt nảy mầm là gì ? - GV: Để trả lời câu hỏi này, mời lớp trao đổi trong nhóm hoàn thành vào phiếu học tập số 1 nhé.- GV gọi đại diện lần lượt các nhóm trình bày ý kiến thảo luận.- GV kết luận: Điều kiện để hạt nảy mầm là chọn được hạt giống tốt, có độ ẩm và nhiệt độ thích hợp (không quá lạnh cũng không quá nóng). - GV: Bây giờ thì mời các em xem đoạn phim quay lại quá trình phát triển thành cây con của hạt nhé. - GV: Chúng mình vừa xem xong đoạn phim, giờ cô mời các nhóm hoàn thành vào phiếu học tập số 2 bằng cách nối thông tin ở cột A và hình ở cột B để đúng với quá trình phát triển thành cây con của hạt.- GV gọi đại diện lần lượt các nhóm trình bày ý kiến thảo luận.- GV kết luận: 2-b, 3-a, 4-e, 5-c, 6-d3. Hoạt động 3: Luyện tập và vận dụnga) Đề xuất và lựa chọn giải pháp- Từ những vấn đề vừa thảo luận và trình bày các nhóm hãy cho biết nhóm mình sẽ thực hiện các bước gieo hạt như thế nào ?- GV yêu cầu học sinh hoàn thành phiếu học tập số 3 trong thời gian khoảng 5 phút.- GV gọi đại diện lần lượt các nhóm trình bày ý kiến thảo luận.- Giáo viên nhận xét- kết luận: Gieo hạt, lắp đất, che phủ, tưới nước. Rút ra Tiêu chí của sản phẩm:+ Hoàn thành được hạt trồng trong vỏ trứng.+ Vỏ trứng được trang trí đẹp mắt.b) Chế tạo mẫu, thử nghiệm và đánh giá- GV: Vậy để trồng cây trong vỏ trứng em hãy suy nghĩ ta cần các vật liệu gì ? (vỏ trứng, hạt đậu, nước, đất)- Quy ước an toàn khi sử dụng các vật dụng: Khi sử dụng các vật dụng như đất, nước tưới các em cần sử dụng cẩn thận, tránh làm bụi đất bám vào quần áo, vệ sinh sạch sẽ sau khi thực hành gieo hạt vào chậu xong, - Yêu cầu các nhóm thực hiện cần có sự phân công hợp tác cùng nhau.- Giáo viên theo dõi – giúp đỡ cho các nhóm.c) Chia sẻ, thảo luận và điều chỉnh- Giáo viên gọi đại diện các nhóm trình bày cách gieo hạt của nhóm.- Cho các nhóm tự do trình bày ý tưởng- mời đại diện các nhóm nhận xét, đóng góp các ý kiến điều chỉnh cho nhóm bạn (nếu có)- Giáo viên nhận xét – tuyên dương – Rút kinh nghiệm cho các nhóm – Định hướng điều chỉnh những sai sót...IV. Phụ lục1. Phiếu học tập - Phiếu học tập số 1Cho biết “Điều kiện để hạt nảy mầm” bằng cách hoàn thành vào bảng sau:Số thứ tựNội dung1..........................................................................................................................................................2..........................................................................................................................................................3..........................................................................................................................................................4..........................................................................................................................................................- Phiếu học tập số 2395414548831500Nối thông tin ở cột A và hình ở cột B để đúng với quá trình “Phát triển thành cây con của hạt.”-4037213768a/ Xung quanh rễ mầm mọc ra nhiều rễ con.00a/ Xung quanh rễ mầm mọc ra nhiều rễ con.395414510731500-3175167858b/ Hạt phình lên vì hút nước. Vỏ hạt nứt để rễ mầm nhú ra cắm xuống đất.00b/ Hạt phình lên vì hút nước. Vỏ hạt nứt để rễ mầm nhú ra cắm xuống đất.395443922518800-341225779c/ Hai lá mầm teo dần rồi rụng xuống. Cây con bắt đầu đâm chồi, rễ mọc nhiều hơn.00c/ Hai lá mầm teo dần rồi rụng xuống. Cây con bắt đầu đâm chồi, rễ mọc nhiều hơn.395443912358800-3412123588d/ Hai lá mầm xòe ra. Chồi mầm lớn dần và sinh ra các lá mới.00d/ Hai lá mầm xòe ra. Chồi mầm lớn dần và sinh ra các lá mới.39538133556000-341235636e/ Sau vài ngày, rễ mầm mọc nhiều hơn nữa, thân mầm lớn lên, dài ra và chui lên khỏi măt đất. 00e/ Sau vài ngày, rễ mầm mọc nhiều hơn nữa, thân mầm lớn lên, dài ra và chui lên khỏi măt đất. - Phiếu học tập số 3Các bướcNội dung1..........................................................................................................................................................2..........................................................................................................................................................3..........................................................................................................................................................4..........................................................................................................................................................5..........................................................................................................................................................Sản phẩm :</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>S023</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là phương pháp giáo dục trong đó học sinh chủ động tham gia vào quá trình học thông qua việc làm, thử nghiệm, khám phá và giải quyết vấn đề thực tế. Thay vì chỉ tiếp thu kiến thức một cách thụ động qua sách vở hay lời giảng của giáo viên, học sinh được "học bằng cách làm", qua đó hiểu sâu sắc và ghi nhớ lâu hơn.Triết lý này đặc biệt quan trọng trong giáo dục STEAM (Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật và Toán học), vì nó tạo điều kiện cho học sinh kết nối kiến thức liên môn, phát triển tư duy phản biện, sáng tạo và kỹ năng giải quyết vấn đề.334152299245700Tác động của học tập qua trải nghiệm rất rõ rệt: học sinh trở nên hứng thú, tích cực và tự tin hơn khi được tham gia vào các hoạt động có ý nghĩa, phù hợp với thực tế cuộc sống. Quá trình trải nghiệm giúp các em hiểu rằng sai lầm là một phần tất yếu của học tập, từ đó hình thành tinh thần cầu tiến và kiên trì.Ví dụ: Với môn Khoa học lớp 5, bài “Vật dẫn điện, vật cách điện”, việc cho học sinh trải nghiệm chế tạo bộ đồ chơi Buzz Wire (Đường đua điện) sẽ giúp học sinh khắc sâu kiến thức và rèn được nhiều kỹ năng.</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Tổ chức cho học sinh thiết kế sản phẩm STEAM: Quạt thông minh điều chỉnh không khí lớp học (vận dụng sau khi học bài Khoa học lớp 5 “Mạch điện đơn giản”)41171131139200Mục tiêu: Giúp học sinh tạo ra một thiết bị nhỏ gọn có thể điều chỉnh nhiệt độ và làm thơm không khí lớp học bằng vật liệu tái chế và công nghệ đơn giản, từ đó mang lại không gian học tập dễ chịu và sáng tạo hơn. Hoạt động cụ thể:Học sinh sẽ được chia thành nhóm và thực hiện các bước sau:Khảo sát môi trường lớp học: Nhiệt độ, độ ẩm, mùi không khí,...Lên ý tưởng và thiết kế mô hình quạt thông minh bằng giấy bìa cứng, chai nhựa, motor mini, dây điện, pin, có thêm hộp nhỏ chứa tinh dầu thiên nhiên hoặc hoa khô để tạo hương thơm dễ chịu.Lập trình đơn giản (sử dụng microbit) để điều khiển quạt bật/tắt tự động theo nhiệt độ môi trường.Thuyết trình và phản biện: Mỗi nhóm trình bày ý tưởng, cách hoạt động và lợi ích của sản phẩm.Kỹ năng học sinh sẽ phát triển:Tư duy sáng tạo: Tìm giải pháp cải thiện môi trường học tập.Tư duy thiết kế kỹ thuật và công nghệ: Vẽ, lắp ráp, chỉnh sửa mô hình, làm quen với cảm biến, lập trình cơ bản.Hợp tác và giao tiếp: Làm việc nhóm, phân công nhiệm vụ, trình bày ý tưởng.Ý thức bảo vệ môi trường: Sử dụng vật liệu tái chế.Thông qua dự án này, học sinh vừa được trải nghiệm học tập thực tiễn, vừa thấy rõ giá trị việc áp dụng kiến thức để cải thiện cuộc sống hàng ngày.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học: “Tạo thiết bị bảo vệ viên phấn” - Thực hiện trong 2 tiết (70 phút)A. Khởi động (10 phút)- Giáo viên yêu cầu học sinh dự đoán: “Nếu chúng ta thả một viên phấn từ trên cao xuống, điều gì sẽ xảy ra?”- Cho học sinh thử kiểm chứng.- Kích thích hứng thú: Giáo viên chiếu một video ngắn minh họa vật thể bị vỡ khi va chạm mạnh và cách bảo vệ bằng các vật liệu mềm.- Giáo viên đặt vấn đề và giới thiệu nhiệm vụ: “Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét.”B. Phát triển bài học (25 phút)1. Thảo luận ý tưởng (10 phút):- Chia lớp thành các nhóm (6-7 học sinh / nhóm).- Đặt câu hỏi dẫn dắt: “Làm thế nào để giảm tốc độ rơi của thiết bị?”; “Có cách nào để bảo vệ viên phấn bên trong thiết bị?”; “Lớp bông/vải trong thiết bị có tác dụng gì?”- Yêu cầu mỗi nhóm trình bày ý tưởng sơ bộ.2. Chế tạo thiết bị (15 phút):- Cung cấp vật liệu cho các nhóm. (Viên phấn, hộp giấy nhỏ, bông gòn/ giấy vệ sinh/ vải mềm, bong bóng, băng dính, dây thun, kéo, dao rọc giấy.)- Các nhóm tiến hành chế tạo sản phẩm dựa trên ý tưởng của mình.C. Thử nghiệm và đánh giá (20 phút)- Thử nghiệm: Mỗi nhóm thả thiết bị của mình từ độ cao 3 mét. Kiểm tra xem viên phấn có còn nguyên vẹn không.- Thảo luận sau thử nghiệm: “Sản phẩm của nhóm đã thành công hay chưa? Vì sao?”; “Nếu làm lại, nhóm sẽ cải thiện thiết bị của mình như thế nào?”- Khen thưởng: Khen ngợi nhóm có thiết kế sáng tạo nhất, hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Khi gặp những tình huống tương tự như trên, bản thân tôi xin đề xuất những cách hỗ trợ để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh đó như sau:1. Cung cấp ví dụ nhưng không gò bó- Thay vì đưa một sản phẩm hoàn chỉnh, giáo viên có thể chia sẻ một vài ý tưởng nhỏ hoặc nguyên liệu gợi ý, như:Ví dụ trực tiếp: "Cô có thể vẽ một hình mặt trời trên hộp này để làm thiết bị của mình vui nhộn hơn. Con có thể thử vẽ những gì con thích!"Ví dụ trừu tượng: "Nhiều bạn sử dụng màu sắc để làm cho sản phẩm trở nên đặc biệt. Con có thể chọn màu yêu thích của mình để làm nổi bật thiết kế."2. Đặt ra giới hạn mở để thúc đẩy sáng tạo- Đưa ra các câu hỏi gợi mở để kích thích trí tưởng tượng, giúp học sinh tự tin bắt đầu theo cách riêng.:"Con nghĩ thiết bị của mình sẽ trông như thế nào nếu nó là sản phẩm từ tương lai?""Nếu con muốn thêm một câu chuyện vào thiết bị của mình, con sẽ kể điều gì?"3. Tạo không gian thực hành mà không sợ sai- Khuyến khích thử nghiệm: "Con không cần làm hoàn hảo ngay từ đầu đâu. Hãy thử làm thử trước. Nếu chưa ổn, chúng ta có thể chỉnh sửa cùng nhau."- Khen ngợi nỗ lực: "Cô thấy cách con thử kết hợp hai màu này rất thú vị. Con có muốn thử thêm một chút gì đó nữa không?"4. Cung cấp các công cụ hỗ trợ sáng tạo- Chuẩn bị sẵn các vật liệu giúp học sinh dễ dàng bắt đầu như: Mẫu hình vẽ đơn giản (hoa, trái tim, ngôi sao), những màu sắc gợi ý (xanh dương gợi cảm giác mát mẻ, vàng tượng trưng cho niềm vui), một số sticker, giấy màu, hoặc mẫu hình in sẵn.</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>SẢN PHẨM STEAM: TRỒNG CÂY TRONG VỎ TRỨNGTHÔNG TIN VỀ BÀI HỌCLớp: NămThời lượng: 2 tiếtThời điểm tổ chức: Khi dạy nội dung “Cây con mọc lên từ hạt” (môn Khoa học)Nội dung chủ đạo và tích hợp trong bài học: Môn họcYêu cầu cần đạtMôn họcchủ đạoKhoa học- Vẽ sơ đồ (hoặc sử dụng sơ đồ đã cho) ghi chú được tên của các bộ phận của hạt. - Thực hành được trồng cây bằng hạt.- Sử dụng sơ đồ đã cho, ghi chú được tên một số giai đoạn chính của cây con mọc lên từ hạt.- Trình bày được sự lớn lên của cây con.Môn họctích hợp Kỹ thuật- Tóm tắt được nội dung các bước gieo hạt, trồng cây con trong chậu.- Thực hiện được việc gieo hạt trong chậu.- Trồng và chăm sóc được một số loại hoa và cây cảnh trong chậu.Toán- Sử dụng được một số dụng cụ đơn giản để thực hành cân, đong, đo, đếm với các đơn vị đo đã học.Mĩ thuật- Lựa chọn, phối hợp được các vật liệu khác nhau để làm nên sản phẩm (vật dụng trang trí).I. Yêu cầu cần đạt (của bài học)- Vẽ sơ đồ (hoặc sử dụng sơ đồ đã cho) ghi chú được tên của các bộ phận của hạt. - Trình bày được các giai đoạn chính của cây con mọc lên từ hạt.- Thực hành trồng được cây trong vỏ trứng.- Hợp tác được các thành viên trong nhóm cùng hoàn thành nhiệm vụ.II. Đồ dùng dạy học:1. Chuẩn bị của Giáo viên- Các phiếu học tập và phiếu đánh giá.- Các video, hình ảnh hướng dẫn học sinh ...- Mô hình sản phẩm minh họa.2. Chuẩn bị của học sinh- Giao cho mỗi nhóm tự chuẩn bị một số nguyên vật liệu như sau:STTThiết bị/ Học liệuSố lượngHình ảnh minh hoạ1 Vỏ trứng24 vỏ37274510795002 Hạt đậu đen (xanh, đỏ)120 hạt38608034290003Chai đựng nước tưới (chai nhựa)8 chai540404-83820004Nắp chai nhựa (dùng làm đế giữ quả trứng thẳng)24 nắp340360-58553005Thìa để xúc đất bằng nhựa48 cái 531073-58136006Giấy màu có keo sẵn40 tờ454660-3124800 7Bút lông màu8 hộp494807-1680300III. Các hoạt động dạy học chủ yếu 1. Hoạt động 1. Mở đầu (Xác định vấn đề)a) Khởi động Lớp cùng hát bài “Gieo hạt” theo nhạc.- GV hỏi: Bạn nhỏ trong bài hát đã làm gì ?- Học sinh trả lời: Gieo hạt đậu xanh ?- GV hỏi: Vậy bạn nhỏ cảm thấy thế nào khi hạt nảy mầm ?- Học sinh trả lời: Rất vui sướng.- GV: Các em có muốn được thực hành tự tay mình ươm, trồng và chăm sóc cây từ giai đoạn hạt nảy mầm lên như thế nào không ?b) Giao nhiệm vụ- GV cho học sinh xem video hạt nảy mầm theo giai đoạn- Hạt nảy mầm theo giai đoạn, phân tích giai đoạn, hoàn thành sơ đồ, ghi chú được tên một số giai đoạn chính của cây con mọc lên từ hạt.2. Hoạt động 2: Hình thành kiến thức mới (Nghiên cứu kiến thức nền)- GV: Chiếu hạt đậu cho học sinh xem. Chúng mình cùng phân tích cấu tạo của hạt đậu gồm những gì nhé.- Phân tích cấu tạo của hạt:+ Hạt đậu gồm những bộ phận nào ? (vỏ, phôi và chất dinh dưỡng dự trữ) - GV: Cho học sinh xem video thí nghiệm:+ Điều kiện để hạt nảy mầm là gì ? - GV: Để trả lời câu hỏi này, mời lớp trao đổi trong nhóm hoàn thành vào phiếu học tập số 1 nhé.- GV gọi đại diện lần lượt các nhóm trình bày ý kiến thảo luận.- GV kết luận: Điều kiện để hạt nảy mầm là chọn được hạt giống tốt, có độ ẩm và nhiệt độ thích hợp (không quá lạnh cũng không quá nóng). - GV: Bây giờ thì mời các em xem đoạn phim quay lại quá trình phát triển thành cây con của hạt nhé. - GV: Chúng mình vừa xem xong đoạn phim, giờ cô mời các nhóm hoàn thành vào phiếu học tập số 2 bằng cách nối thông tin ở cột A và hình ở cột B để đúng với quá trình phát triển thành cây con của hạt.- GV gọi đại diện lần lượt các nhóm trình bày ý kiến thảo luận.- GV kết luận: 2-b, 3-a, 4-e, 5-c, 6-d3. Hoạt động 3: Luyện tập và vận dụnga) Đề xuất và lựa chọn giải pháp- Từ những vấn đề vừa thảo luận và trình bày các nhóm hãy cho biết nhóm mình sẽ thực hiện các bước gieo hạt như thế nào ?- GV yêu cầu học sinh hoàn thành phiếu học tập số 3 trong thời gian khoảng 5 phút.- GV gọi đại diện lần lượt các nhóm trình bày ý kiến thảo luận.- Giáo viên nhận xét- kết luận: Gieo hạt, lắp đất, che phủ, tưới nước. Rút ra Tiêu chí của sản phẩm:+ Hoàn thành được hạt trồng trong vỏ trứng.+ Vỏ trứng được trang trí đẹp mắt.b) Chế tạo mẫu, thử nghiệm và đánh giá- GV: Vậy để trồng cây trong vỏ trứng em hãy suy nghĩ ta cần các vật liệu gì ? (vỏ trứng, hạt đậu, nước, đất)- Quy ước an toàn khi sử dụng các vật dụng: Khi sử dụng các vật dụng như đất, nước tưới các em cần sử dụng cẩn thận, tránh làm bụi đất bám vào quần áo, vệ sinh sạch sẽ sau khi thực hành gieo hạt vào chậu xong, - Yêu cầu các nhóm thực hiện cần có sự phân công hợp tác cùng nhau.- Giáo viên theo dõi – giúp đỡ cho các nhóm.c) Chia sẻ, thảo luận và điều chỉnh- Giáo viên gọi đại diện các nhóm trình bày cách gieo hạt của nhóm.- Cho các nhóm tự do trình bày ý tưởng- mời đại diện các nhóm nhận xét, đóng góp các ý kiến điều chỉnh cho nhóm bạn (nếu có)- Giáo viên nhận xét – tuyên dương – Rút kinh nghiệm cho các nhóm – Định hướng điều chỉnh những sai sót...IV. Phụ lục1. Phiếu học tập - Phiếu học tập số 1Cho biết “Điều kiện để hạt nảy mầm” bằng cách hoàn thành vào bảng sau:Số thứ tựNội dung1..........................................................................................................................................................2..........................................................................................................................................................3..........................................................................................................................................................4..........................................................................................................................................................- Phiếu học tập số 2395414548831500Nối thông tin ở cột A và hình ở cột B để đúng với quá trình “Phát triển thành cây con của hạt.”-4037213768a/ Xung quanh rễ mầm mọc ra nhiều rễ con.00a/ Xung quanh rễ mầm mọc ra nhiều rễ con.395414510731500-3175167858b/ Hạt phình lên vì hút nước. Vỏ hạt nứt để rễ mầm nhú ra cắm xuống đất.00b/ Hạt phình lên vì hút nước. Vỏ hạt nứt để rễ mầm nhú ra cắm xuống đất.395443922518800-341225779c/ Hai lá mầm teo dần rồi rụng xuống. Cây con bắt đầu đâm chồi, rễ mọc nhiều hơn.00c/ Hai lá mầm teo dần rồi rụng xuống. Cây con bắt đầu đâm chồi, rễ mọc nhiều hơn.395443912358800-3412123588d/ Hai lá mầm xòe ra. Chồi mầm lớn dần và sinh ra các lá mới.00d/ Hai lá mầm xòe ra. Chồi mầm lớn dần và sinh ra các lá mới.39538133556000-341235636e/ Sau vài ngày, rễ mầm mọc nhiều hơn nữa, thân mầm lớn lên, dài ra và chui lên khỏi măt đất. 00e/ Sau vài ngày, rễ mầm mọc nhiều hơn nữa, thân mầm lớn lên, dài ra và chui lên khỏi măt đất. - Phiếu học tập số 3Các bướcNội dung1..........................................................................................................................................................2..........................................................................................................................................................3..........................................................................................................................................................4..........................................................................................................................................................5..........................................................................................................................................................Sản phẩm :</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>S024</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>“Học tập qua trải nghiệm” trong giáo dục STEAM là phương pháp giúp học sinh tiếp cận kiến thức thông qua các hoạt động thực hành, khám phá và giải quyết vấn đề thực tế. Thay vì tiếp thu kiến thức một cách thụ động, các em được trực tiếp làm, trải nghiệm, thử nghiệm, từ đó rút ra kiến thức, phát triển tư duy, kỹ năng một cách tự nhiên và hiệu quả.Tác động của học tập qua trải nghiệm đến học sinhHiểu sâu và nhớ lâu: Khi học sinh thực hành hoặc tham gia các hoạt động trực tiếp, họ không chỉ hiểu rõ bản chất của vấn đề mà còn ghi nhớ kiến thức tốt hơn.Ví dụ: Trong bài học về năng lượng, học sinh có thể chế tạo một chiếc ô tô chạy bằng năng lượng mặt trời để hiểu cách chuyển hóa năng lượng.Khơi gợi sáng tạo và tò mò: Học tập qua trải nghiệm thúc đẩy học sinh đặt câu hỏi và tìm kiếm giải pháp, tạo động lực để khám phá những ý tưởng mới.Ví dụ: Khi thiết kế mô hình cầu từ que kem, học sinh phải thử nghiệm nhiều cách xây dựng để đạt độ bền tối ưu.Phát triển kỹ năng mềm: Hoạt động trải nghiệm thường yêu cầu hợp tác, giao tiếp và làm việc nhóm, giúp học sinh xây dựng kỹ năng xã hội cần thiết.Ví dụ: Thực hiện dự án STEAM như chế tạo máy lọc nước từ nguyên liệu đơn giản yêu cầu học sinh phối hợp để hoàn thành nhiệm vụ.Nhờ vậy, học tập qua trải nghiệm không chỉ giúp học sinh tiếp thu kiến thức hiệu quả mà còn trang bị các kỹ năng thực tế, chuẩn bị tốt cho tương lai.</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Ý tưởng hoạt động:“Hành trình khám phá sở thích và xây dựng không gian học tập cá nhân”Mục tiêu:Giúp học sinh nhận diện rõ sở thích cá nhân, phát triển kỹ năng tổ chức và tự quản lý không gian học tập sao cho phù hợp, từ đó nâng cao hiệu quả học tập và sự tự giác trong công việc.Mô tả hoạt động:Bước 1: Khám phá sở thích cá nhânMỗi học sinh sẽ được phát một tờ giấy để vẽ “bức tranh sở thích” của mình, thể hiện những điều các em yêu thích như âm nhạc, thể thao, sách truyện, phim ảnh hay các hoạt động ngoài trời. Sau đó, các em sẽ cùng chia sẻ và thảo luận với bạn bè trong lớp về những điểm chung và khác biệt trong sở thích của mỗi người, giúp tăng cường sự thấu hiểu và gắn kết giữa các bạn.Bước 2: Tạo không gian học tập cá nhânDựa trên hiểu biết về bản thân, học sinh sẽ thực hành thiết kế và sắp xếp lại “khu vực học tập nhỏ” ngay trong lớp học hoặc tại bàn học của mình. Các em có thể lựa chọn bố trí bàn ghế sao cho thuận tiện, chọn màu sắc, hình ảnh hay vật dụng yêu thích để trang trí, tạo ra môi trường học tập thoải mái và phù hợp nhất với phong cách riêng của mình, giúp tăng cảm hứng học tập.Bước 3: Đánh giá và chia sẻCuối buổi, các em trình bày về cách tổ chức không gian học tập, giải thích lý do chọn những yếu tố trang trí và bố trí đó, đồng thời chia sẻ những điều mới học được về sở thích và phương pháp học của bạn bè. Qua đó, các em phát triển kỹ năng giao tiếp, tự nhận thức và khả năng tự quản lý hiệu quả hơn.Kỹ năng và khả năng phát triển:Kỹ năng tổ chức và quản lý không gian học tập: Học sinh học cách tạo ra một môi trường học tập phù hợp với nhu cầu và sở thích cá nhân.Kỹ năng giao tiếp và chia sẻ: Học sinh có cơ hội thảo luận và chia sẻ về sở thích cá nhân, từ đó nâng cao khả năng giao tiếp và hiểu biết lẫn nhau.Sự sáng tạo và tự quản lý: Hoạt động này thúc đẩy học sinh suy nghĩ sáng tạo về không gian học tập của mình và giúp các em tự giác trong việc tổ chức không gian học tập hiệu quả.Kỹ năng tự nhận thức: Học sinh sẽ có cơ hội hiểu rõ hơn về cách thức học tập hiệu quả của bản thân, từ đó phát triển sự tự nhận thức và tự quản lý trong học tập.Hoạt động này giúp học sinh phát triển kỹ năng tổ chức, sáng tạo, giao tiếp và tự quản, đồng thời nâng cao sự tự giác trong học tập thông qua việc xây dựng không gian học tập cá nhân phù hợp và có ý nghĩa với mỗi em.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>KẾ HOẠCH BÀI DẠY STEAM – LỚP 3Chủ đề: BẢO VỆ VIÊN PHẤN KHI RƠI TỪ ĐỘ CAO 3 MÉTI. YÊU CẦU CẦN ĐẠTKiến thức:Hiểu được các khái niệm cơ bản liên quan đến lực, trọng lực, ma sát và cách các yếu tố này ảnh hưởng đến vật thể khi rơi tự do.Nhận biết một số vật liệu có khả năng giảm chấn, phân tán lực khi va chạm.Kỹ năng:Rèn luyện kỹ năng giải quyết vấn đề, tư duy thiết kế, làm việc nhóm, kỹ năng trình bày.Thực hành chế tạo mô hình đơn giản từ vật liệu tái sử dụng.Thái độ:Hứng thú, tích cực tham gia vào hoạt động thực nghiệm.Có trách nhiệm và tinh thần hợp tác trong nhóm.Nhận thức được vai trò của khoa học trong cuộc sống thực tế.II. CHUẨN BỊ1. Giáo viên:Thang, hoặc một điểm cao an toàn để thả thiết bị.Mẫu thiết kế tham khảo (nếu cần).Phiếu quan sát kết quả, tiêu chí đánh giá.2. Học sinh:Vật liệu: phấn viết, chai nhựa, hộp sữa, hộp bánh, giấy mềm, bông, xốp, dây chun, ống hút, bóng bay đã xì hơi...Dụng cụ: kéo, hồ dán, thước, băng keo, đồng hồ bấm giờ (nếu có).III. TIẾN TRÌNH DẠY HỌC1. KHỞI ĐỘNG – ĐẶT VẤN ĐỀ (5–7 phút)Giáo viên đặt câu hỏi gợi mở:“Các em đã bao giờ làm rơi viên phấn chưa? Điều gì xảy ra?”“Tại sao viên phấn lại dễ vỡ khi rơi từ trên cao?”“Theo các em, có cách nào để viên phấn không bị vỡ khi rơi từ độ cao 3 mét không?”Nêu nhiệm vụ: “Thiết kế và chế tạo một thiết bị bảo vệ viên phấn khi rơi từ độ cao 3 mét bằng các vật liệu đơn giản.”2. KHÁM PHÁ VÀ PHÁT TRIỂN Ý TƯỞNG (10–12 phút)Chia lớp thành các nhóm 3–4 học sinh.Phát phiếu gợi ý thiết kế:Làm thế nào để giảm tốc độ rơi?Làm sao để phân tán hoặc hấp thụ lực khi chạm đất?Học sinh thảo luận nhóm, phác thảo sơ đồ hoặc mô tả ý tưởng thiết kế.Đại diện nhóm trình bày nhanh ý tưởng trước lớp.Giáo viên gợi mở, định hướng thêm nếu cần.3. CHẾ TẠO VÀ THỬ NGHIỆM (15–20 phút)Mỗi nhóm bắt tay vào chế tạo thiết bị bảo vệ viên phấn từ vật liệu đã chuẩn bị.Giáo viên quan sát, hỗ trợ kỹ thuật khi cần.Thử nghiệm lần 1:Mỗi nhóm thả thiết bị từ độ cao 3m.Quan sát xem viên phấn có bị vỡ không.Ghi nhận kết quả vào phiếu quan sát.Cải tiến:Nếu phấn vỡ, nhóm sẽ phân tích nguyên nhân, chỉnh sửa thiết kế và thử lại.4. TRÌNH BÀY VÀ THẢO LUẬN (7–10 phút)Mỗi nhóm trình bày sản phẩm hoàn chỉnh trước lớp:Thiết kế ban đầu và thay đổi (nếu có).Vật liệu sử dụng và lý do chọn.Kết quả thử nghiệm.Thảo luận chung:“Thiết kế của nhóm em có gì đặc biệt?”“Lực đã được giảm như thế nào?”“Từ hoạt động này, em thấy điều gì thú vị?”5. KẾT LUẬN – MỞ RỘNG (3–5 phút)Tổng kết kiến thức:Khi vật rơi, lực tác động có thể giảm bằng cách:Giảm tốc độ rơi (dù, bong bóng, cánh...).Hấp thụ lực bằng vật liệu mềm (xốp, bông, giấy...).Phân tán lực qua cấu trúc thiết kế (hộp đệm, bao bọc...).Liên hệ thực tế:Thiết bị bảo vệ như mũ bảo hiểm, túi khí ô tô, hộp vận chuyển hàng dễ vỡ...Dặn dò:Tìm thêm ví dụ thực tế về các thiết bị giảm chấn.Suy nghĩ: "Nếu thay phấn bằng trứng gà, em sẽ làm thế nào để bảo vệ nó?"IV. TIÊU CHÍ ĐÁNH GIÁ:Tiêu chíMức độ 1Mức độ 2Mức độ 3Thiết kế sáng tạo☐☐☐Tính hiệu quả (phấn còn nguyên)☐☐☐Hợp tác nhóm☐☐☐Trình bày rõ ràng☐☐☐V. GỢI Ý PHÁT TRIỂN NĂNG LỰC:Năng lực giải quyết vấn đề và sáng tạo.Năng lực giao tiếp và hợp tác.Năng lực vận dụng kiến thức liên môn (Khoa học – Công nghệ – Mĩ thuật – Toán).Hình thành tư duy thiết kế – kỹ thuật</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Hiểu rõ nhu cầu của học sinh:Khi một học sinh yêu cầu "xem ví dụ" trong một hoạt động STEAM, điều đó cho thấy em đang tìm kiếm một khuôn mẫu để bắt đầu, một định hướng cụ thể để phát triển ý tưởng của mình. Việc cung cấp ví dụ không chỉ giúp học sinh hình dung rõ hơn về sản phẩm cuối cùng mà còn kích thích sự sáng tạo của em.Cách phản hồi và hỗ trợ:Đặt câu hỏi mở:" Em muốn tạo ra một sản phẩm như thế nào? Hãy thử hình dung sản phẩm đó sẽ trông như thế nào và nó sẽ làm được gì?""Em thích loại hình nghệ thuật nào? Màu sắc nào làm bạn cảm thấy hứng thú?""Em đã từng thấy những sản phẩm sáng tạo nào khiến bạn ấn tượng?"Những câu hỏi này giúp học sinh định hình rõ hơn ý tưởng của mình và tìm kiếm ví dụ phù hợp.Cung cấp các ví dụ đa dạng:Ví dụ đơn giản: Bắt đầu bằng những ví dụ đơn giản, dễ hiểu để học sinh có cái nhìn tổng quan. Ví dụ: một chiếc đèn ngủ hình con vật được làm từ chai nhựa tái chế, một bức tranh vẽ bằng các vật liệu tự nhiên.Ví dụ phức tạp: Sau khi học sinh đã có nền tảng, hãy giới thiệu những ví dụ phức tạp hơn, có tính nghệ thuật cao. Ví dụ: các tác phẩm điêu khắc động vật bằng kim loại, các thiết kế thời trang sáng tạo.Ví dụ từ cuộc sống: Chọn những ví dụ gần gũi với cuộc sống của học sinh để tạo sự liên kết. Ví dụ: các sản phẩm thủ công mỹ nghệ truyền thống, các thiết kế đồ họa trong các ấn phẩm hiện đại.Tạo ra một thư viện hình ảnh:Tạo một thư viện hình ảnh trực quan với nhiều phong cách, chất liệu và kỹ thuật khác nhau.Phân loại hình ảnh theo chủ đề để học sinh dễ dàng tìm kiếm.Khuyến khích học sinh tự mình tìm kiếm thêm các ví dụ trên internet.Tổ chức các buổi triển lãm nhỏ:Mời các học sinh khác chia sẻ sản phẩm của mình.Tạo không gian để học sinh cùng nhau thảo luận, đánh giá và học hỏi lẫn nhau.Khuyến khích sự sáng tạo cá nhân:Nhấn mạnh rằng ví dụ chỉ là một nguồn cảm hứng, không phải là một khuôn mẫu bắt buộc phải tuân theo.Khuyến khích học sinh kết hợp các ý tưởng khác nhau để tạo ra sản phẩm độc đáo của riêng mình.Đặt ra những câu hỏi mở để kích thích sự tư duy sáng tạo: "Bạn có thể thay đổi gì ở ví dụ này?", "Bạn có thể sử dụng vật liệu nào khác?", "Bạn có thể tạo ra một sản phẩm hoàn toàn mới dựa trên ý tưởng này không?"Giải tỏa lo lắng và khuyến khích sự sáng tạo:Tạo không khí thoải mái: Tạo một không gian học tập vui vẻ, nơi học sinh cảm thấy tự tin để chia sẻ ý tưởng và đặt câu hỏi.Khen ngợi sự cố gắng: Khen ngợi những nỗ lực của học sinh, dù kết quả có như mong đợi hay không.Đặt mục tiêu thực tế: Đặt ra những mục tiêu nhỏ, khả thi để học sinh cảm thấy tự tin hơn.Hỗ trợ cá nhân: Cung cấp sự hỗ trợ cá nhân cho từng học sinh để giúp họ vượt qua khó khăn.Kết luận:Việc cung cấp ví dụ là một cách hiệu quả để giúp học sinh hình thành ý tưởng và bắt đầu quá trình sáng tạo. Tuy nhiên, điều quan trọng là giáo viên cần tạo điều kiện để học sinh tự do khám phá và phát triển ý tưởng của riêng mình. Bằng cách kết hợp các phương pháp trên, giáo viên có thể giúp học sinh tự tin hơn và đạt được những kết quả tốt nhất trong các hoạt động STEAM</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>KẾ HOẠCH TỔ CHỨC HOẠT ĐỘNG DẠY HỌCTên hoạt động: Chế tạo chậu cây mini từ vật liệu tái chếMôn tích hợp: Hoạt động trải nghiệm, Mĩ thuật, Tự nhiên và Xã hộiThời gian thực hiện: 1 tiết (35-45 phút)1. Yêu cầu cần đạt:Học sinh biết cách tận dụng các vật liệu đã qua sử dụng (vỏ hộp sữa, chai nhựa, lon nước...) để tạo ra sản phẩm hữu ích.Phát triển khả năng sáng tạo, tư duy thẩm mỹ và kỹ năng hợp tác nhóm.Hình thành ý thức bảo vệ môi trường, tiết kiệm tài nguyên thông qua hành động cụ thể.2. Chuẩn bị:Giáo viên:Mẫu sản phẩm: 1–2 chậu cây tái chế từ các chất liệu khác nhau.Hình ảnh các mẫu sản phẩm từ đơn giản đến sáng tạo.Tranh minh họa hoặc slide trình chiếu (nếu có).Câu hỏi gợi mở giúp học sinh phát triển ý tưởng.Cây nhỏ/giống rau mầm, đất sạch, thìa nhựa hoặc dụng cụ xúc đất.Học sinh:Vật liệu tái chế: chai nhựa, hộp sữa, ly giấy, thìa nhựa, vải vụn, nút chai, giấy báo cũ...Dụng cụ: kéo, hồ dán, keo nến (nếu có), bút màu, giấy màu, dây ruy băng.3. Tiến trình tổ chức:A. Khởi động (5–7 phút):Trình chiếu video/hình ảnh về ô nhiễm rác thải nhựa.Giáo viên đặt câu hỏi:"Em bắt gặp chai nhựa trong những tình huống nào?""Chai nhựa nếu bỏ ra môi trường sẽ gây ra những hậu quả gì?"Em đã từng dùng hộp sữa, chai nhựa chưa? Em thường làm gì với chúng sau khi dùng?Em có biết chúng ta có thể "biến hóa" các món đồ bỏ đi thành những sản phẩm hữu ích không?Giới thiệu một số sản phẩm mẫu (tranh ảnh, sản phẩm thật nếu có).Nêu nhiệm vụ của tiết học: "Hôm nay chúng ta sẽ cùng nhau tạo ra một chậu cây mini bằng vật liệu tái chế!"B. Hình thành ý tưởng (7–10 phút):Chia nhóm (2–4 học sinh/nhóm), phát cho mỗi nhóm phiếu gợi ý:Nhóm em muốn làm chậu cây hình gì? (ví dụ: con mèo, robot, bông hoa...)Nhóm em sẽ dùng vật liệu gì?Trang trí như thế nào cho sinh động?Các nhóm vẽ nhanh hoặc mô tả miệng về ý tưởng trước khi bắt tay vào làm.C. Thực hành sáng tạo (20–25 phút):Học sinh thực hiện các bước:Làm sạch và cắt tạo hình vật liệu tái chế thành hình dáng chậu cây.Trang trí bằng giấy màu, bút vẽ, dây ruy băng...Cho đất và cây nhỏ/rau mầm vào chậu.Giáo viên hỗ trợ các nhóm gặp khó khăn, khuyến khích sáng tạo.D. Trưng bày – Chia sẻ sản phẩm (5–7 phút):Mỗi nhóm trưng bày sản phẩm trước lớp.Đại diện nhóm trả lời:Nhóm em đã sử dụng những vật liệu gì?Điều gì đặc biệt ở chậu cây nhóm em?Qua hoạt động này, nhóm em học được điều gì?4. Đánh giá:Thông qua quan sát quá trình làm việc nhóm, sản phẩm và phần chia sẻ, giáo viên đánh giá các tiêu chí:Sự sáng tạo, tính ứng dụng.Tính thẩm mỹ.Mức độ hợp tác, phân công nhóm.Ý thức bảo vệ môi trường.5. Mở rộng – Dặn dò:Học sinh mang chậu cây về nhà chăm sóc, quan sát và ghi lại sự phát triển hằng ngày.Khuyến khích học sinh sáng tạo thêm sản phẩm tái chế khác ở nhà.Gợi ý tổ chức "góc tái chế sáng tạo" tại lớp để trưng bày sản phẩm.6. Gợi ý phát triển năng lực:Năng lực giải quyết vấn đề và sáng tạo.Năng lực hợp tác và giao tiếp.Năng lực thẩm mỹ và tư duy thiết kế.Năng lực bảo vệ môi trường và sống bền vững.Kết nối bài học với môn học khác:MÔN TỰ NHIÊN VÀ XÃ HỘI (Lớp 1, 2, 3)Chủ đề: Cây và môi trường sốngLớp 1: Nhận biết một số bộ phận của cây, cách chăm sóc cây.Lớp 2: Vai trò của cây xanh với môi trường sống.Lớp 3: Điều kiện sống của cây và ý thức bảo vệ cây xanh.Ví dụ : Sau khi làm chậu cây, học sinh được hướng dẫn ghi chép sự phát triển của cây mỗi ngày → rèn kỹ năng quan sát, mô tả.Chủ đề: Bảo vệ môi trườngLớp 2 – Bài: Em và môi trường xung quanhLớp 3 – Bài: Giữ gìn vệ sinh nơi công cộngVí dụ : Thảo luận về tác hại của rác thải nhựa, lợi ích của việc tái chế chai nhựa thành chậu cây → giúp học sinh hình thành hành vi thân thiện với môi trường.MÔN MĨ THUẬT (Lớp 1, 2, 3)Chủ đề: Tạo hình từ vật liệu khác nhauLớp 1: Làm đồ vật từ vật liệu thiên nhiên và phế liệu.Lớp 2: Trang trí sản phẩm tạo hình.Lớp 3: Thiết kế và sáng tạo sản phẩm thủ công.Ví dụ : Trang trí chậu cây theo phong cách ngộ nghĩnh (hình thú cưng, robot...) bằng màu, giấy màu, dây vải → phát triển tư duy tạo hình và thẩm mỹ.MÔN KHOA HỌC Chủ đề: Sự phát triển của thực vậtQuan sát cây nảy mầm, tìm hiểu các yếu tố ảnh hưởng đến sự phát triển của cây như nước, ánh sáng, đất...Ví dụ: Học sinh trồng hạt đậu vào chậu tái chế và theo dõi quá trình lớn lên → liên kết thực hành – lý thuyết. MÔN TOÁN Chủ đề: Đo lường – Hình học – Số học ứng dụngLớp 2: Đo chiều cao cây, ước lượng kích thước chậu cây.Lớp 3: Tính chu vi miệng chậu, tính diện tích vỏ dán quanh chậu.Ví dụ : Học sinh dùng thước dây đo chu vi miệng chậu để cắt giấy màu dán xung quanh → ứng dụng kiến thức về đo độ dài, chu vi trong thực tế. HOẠT ĐỘNG TRẢI NGHIỆM Chủ đề: Tự phục vụ – Hợp tác – Bảo vệ môi trườngLên kế hoạch làm chậu cây, phân công việc theo nhóm.Trưng bày, giới thiệu sản phẩm với lớp, nêu cảm nhận của bản thân. Ví dụ: Hoạt động nhóm cùng nhau làm sản phẩm – giao bạn A cắt chai, bạn B tô màu, bạn C cho đất vào – phát triển năng lực hợp tác, tổ chức công việc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>S025</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Hiểu về triết lý giáo dụcGiáo dục STEAM nhấn mạnh vào việc học tập qua trải nghiệm.Theo tôi, 'học tập qua trải nghiệm' có nghĩa là phương pháp giúp học sinh khám phá kiến thức thông qua các hoạt động thực hành, quan sát, thử nghiệm và giải quyết vấn đề trong thực tế. Khác với cách học thụ động, phương pháp này đặt học sinh vào vai trò trung tâm, khuyến khích các em tự mình tìm tòi, đặt câu hỏi và rút ra bài học từ trải nghiệm của chính mình.Trong giáo dục STEAM, học tập qua trải nghiệm đóng vai trò quan trọng vì nó kết nối giữa lý thuyết và thực tiễn, giúp học sinh hiểu sâu sắc và vận dụng linh hoạt kiến thức ở các môn Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật và Toán học. Tôi là một giáo viên lớp 2, tôi nhận thấy ở độ tuổi này các em rất ham học hỏi và thích khám phá – phương pháp này giúp các em học một cách tự nhiên, hứng thú và chủ động.Dưới đây là một ví dụ cụ thể, gần gũi và sinh động hơn dành cho học sinh lớp 2, giúp minh họa rõ nét phương pháp “học tập qua trải nghiệm” trong giáo dục STEAM:Ví dụ cụ thể về “học tập qua trải nghiệm”: Tạo con vật bằng lá câyTrong giờ học Tự nhiên và xã hội kết hợp Nghệ thuật, tôi tổ chức cho học sinh lớp 2 một hoạt động thú vị là tạo con vật bằng lá cây. Trước tiên, các em được khuyến khích ra ngoài sân trường hoặc khu vườn nhỏ để tự tay thu thập các loại lá có màu sắc, hình dáng và kích thước khác nhau như lá cây phượng, lá bàng, lá me, hoặc lá cây xanh nhỏ.Sau đó, các em sẽ quan sát kỹ từng chiếc lá, suy nghĩ xem chiếc lá nào có thể dùng làm bộ phận nào trên con vật, ví dụ như lá to làm thân, lá nhỏ làm tai hoặc đuôi. Học sinh sử dụng thêm các vật liệu đơn giản như giấy màu, bút màu, keo dán và kéo để tạo hình con vật mình yêu thích như con bướm, con cá, hay con chim.Quá trình này đòi hỏi các em phải vận dụng khả năng quan sát, so sánh hình dạng, phối hợp màu sắc và sáng tạo để làm ra sản phẩm độc đáo. Đồng thời, các em học cách làm việc nhóm khi trao đổi ý tưởng, cùng nhau lựa chọn lá và chia sẻ vật liệu.Hoạt động không chỉ giúp các em phát triển tư duy thẩm mỹ và kỹ năng sáng tạo mà còn tăng khả năng tập trung, kiên nhẫn và kỹ năng giải quyết vấn đề khi gặp khó khăn trong việc kết dán hay phối hợp màu sắc.Nhờ đó, học sinh không chỉ tiếp thu kiến thức về thiên nhiên mà còn trải nghiệm niềm vui sáng tạo, làm cho bài học trở nên sinh động và ý nghĩa hơn.1720850698500 Hình ảnh minh họa “học tập qua trải nghiệm”: Tạo con vật bằng lá cây</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Ý tưởng sáng tạo: Hoạt động “Góc lớp học mơ ước” – Biến lớp học thành nơi em yêu thích (Học sinh lớp 2)Mục tiêu: Cải thiện không khí lớp học, giúp học sinh yêu thích không gian học tập của mình, đồng thời phát triển kỹ năng sáng tạo, hợp tác, tư duy khoa học và giải quyết vấn đề.Mô tả hoạt động:Giáo viên bắt đầu bằng một câu hỏi gợi mở: “Nếu được sáng tạo một góc đặc biệt trong lớp, các con muốn nơi đó như thế nào để vừa vui, vừa giúp mình học tốt hơn?”Học sinh được chia thành các nhóm nhỏ (3–4 bạn) để cùng nhau thiết kế một “Góc lớp học mơ ước”. Các nhóm có thể lựa chọn:Góc đọc sách thư giãn: Với thảm mềm, gối nhỏ, kệ sách mini và đèn đọc sách nhẹ nhàng.Góc nghệ thuật: Nơi học sinh tự do vẽ tranh, tô màu, xé dán, gấp giấy và trưng bày sản phẩm của mình.Góc thiên nhiên: Với cây xanh nhỏ, sỏi, vỏ ốc, tranh thiên nhiên do học sinh tự làm.Góc STEAM: Một khu vực nhỏ dành cho các hoạt động khám phá khoa học, lắp ráp mô hình đơn giản, xếp hình, làm thí nghiệm vui hoặc thử thách tư duy logic qua trò chơi.Mỗi nhóm sẽ:Vẽ sơ đồ thiết kế.Viết mô tả ý tưởng, công dụng và lợi ích.Liệt kê vật liệu cần chuẩn bị.Trình bày trước lớp bằng tranh vẽ hoặc mô hình thu nhỏ.Sau khi trình bày, cả lớp sẽ bình chọn ý tưởng khả thi và được yêu thích nhất để cùng xây dựng thật trong lớp học.Kỹ năng phát triển:Tư duy sáng tạo &amp;amp; thẩm mỹ: Thông qua thiết kế và trang trí góc học tập.Kỹ năng hợp tác &amp;amp; giao tiếp: Làm việc nhóm, trình bày ý tưởng trước lớp.Tư duy khoa học &amp;amp; giải quyết vấn đề: Đặc biệt với hoạt động tại Góc STEAM.Tự tin &amp;amp; chủ động: Khi được tham gia xây dựng không gian lớp học của chính mình.Ý nghĩa:Hoạt động này không chỉ khiến lớp học trở nên sinh động và thân thiện hơn mà còn giúp học sinh thấy mình có vai trò trong việc xây dựng một môi trường học tập tích cực – nơi các em được thể hiện, được sáng tạo và phát triển toàn diện cả về kỹ năng lẫn cảm xúc.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Tình huống học tập:Bài tập: "Sử dụng các công cụ đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét."Mục tiêu bài học:Giúp học sinh rèn tư duy thiết kế – kỹ thuật (Engineering Design Thinking).Phát triển khả năng làm việc nhóm, thử nghiệm – điều chỉnh và giải quyết vấn đề thực tiễn.Hiểu về các khái niệm cơ bản như lực tác động, bảo vệ, giảm chấn.Kế hoạch dạy học:Khởi động (5 phút):Giáo viên cho học sinh xem một đoạn video ngắn thả viên phấn từ trên cao bị vỡ14732001079500(Học sinh sẽ được xem video do chính tôi thực hiện thả viên phấn từ trên cao trong đợt tôi được đi tập huấn giai đoạn II)Và giáo viên sẽ đặt câu hỏi:Tại sao viên phấn lại vỡ?Nếu là các con, các con sẽ làm cách nào để giúp viên phấn “hạ cánh an toàn”?Giao nhiệm vụ (5 phút):Học sinh làm việc theo nhóm 3–4 em. Mỗi nhóm sẽ thiết kế và chế tạo một thiết bị bảo vệ viên phấn bằng các vật liệu đơn giản.Vật liệu gợi ý:Tên vật liệuTác dụngGợi ý sử dụng cụ thểHộp sữa giấy (rửa sạch)Làm vỏ bao bên ngoài, cứng cápCắt một đầu để cho viên phấn vào, đóng kín bằng băng keo.Giấy báo cũ hoặc giấy vụnLớp đệm giảm chấn, chống sốcVò giấy thành nhiều lớp nhét quanh viên phấn.Bông gòn hoặc vải vụnTăng độ êm, bảo vệ từ bên trongLót đáy và thành hộp chứa viên phấn.Ống hút nhựa cũLàm khung đỡ, giảm lực va chạmTạo thành “lồng bảo vệ” hoặc chân chống sốc.Lõi giấy vệ sinhLàm ống bảo vệ viên phấnChèn phấn vào giữa, quấn bên ngoài bằng bông hoặc giấy báo.Túi nylon đã qua sử dụngTạo phần dù hoặc dây treo giảm tốcGắn lên thiết bị để làm “dù giảm tốc” khi rơi.Hộp nhựa nhỏ (hộp kẹo, vỏ hộp đồ chơi)Vỏ bảo vệ chắc chắnGắn lớp xốp hoặc giấy bên trong để cố định viên phấn.Nắp chaiTạo chân đế hoặc thanh giảm xócGắn dưới đáy để đỡ lực va đập trực tiếp.Gợi ý đơn giản nhất cho học sinh lớp 2:👉 Mẫu thiết bị “tổ kén” bảo vệ phấn:Lõi giấy vệ sinh + giấy báo + băng keo + bông gòn.Cách làm:Đặt viên phấn vào giữa lõi giấy.Nhét bông và giấy báo ở hai đầu để giữ cố định.Quấn lõi giấy bằng thêm 2–3 lớp giấy báo, băng keo chắc lại.Tùy chọn: Gắn thêm túi nylon làm dù giảm tốc.✅ Yêu cầu kỹ thuật:Thiết bị phải nhẹ, không làm gãy phấn khi rơi từ độ cao 3 mét.Dễ chế tạo bằng tay, không cần dùng vật sắc nhọn.Có tính sáng tạo: hình dáng hoặc ý tưởng đặc biệt.Thực hành thiết kế – thử nghiệm (20 phút):Học sinh lên ý tưởng, vẽ sơ đồ, lắp ráp và thử nghiệm thả phấn từ độ cao.Thiết kế của nhóm con có giúp viên phấn không bị vỡ không?Nếu phấn vẫn vỡ, con sẽ điều chỉnh gì?Điều gì giúp bảo vệ viên phấn tốt nhất?Chia sẻ – đánh giá (10 phút):Mỗi nhóm trình bày sản phẩm, cách hoạt động và rút ra bài học. Giáo viên khuyến khích các nhóm học hỏi lẫn nhau.Kết luận:Hoạt động giúp học sinh vận dụng kiến thức vào thực tế, phát triển tư duy logic và khả năng sáng tạo. Quan trọng nhất, các em học được cách làm việc nhóm và kiên trì thử – sai – sửa, một kỹ năng nền tảng trong học tập và cuộc sống.</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Hiểu về hoạt động nghệ thuật trong giáo dục STEAM – Khơi dậy sự sáng tạo từ sự tự tinTrong các hoạt động STEAM, đặc biệt là những phần có yếu tố nghệ thuật, học sinh lớp 2 thường dễ cảm thấy bối rối, thiếu tự tin khi không biết bắt đầu từ đâu. Khi một em học sinh ngập ngừng hỏi: "Cô ơi, con có thể xem ví dụ không?", đó không phải vì em thiếu sáng tạo, mà vì em cần cảm giác an toàn để dám bắt đầu.Là giáo viên lớp 2, điều quan trọng đối với tôi không phải là đưa ra một mẫu cố định, mà là giúp em cảm thấy: “Mình có thể làm được.”Cách hỗ trợ cụ thể:Trấn an bằng sự công nhận:Giáo viên nên nói: “Trong nghệ thuật, mỗi ý tưởng đều tuyệt vời theo cách riêng. Con không cần làm giống ai cả, chỉ cần làm theo trí tưởng tượng của con thôi.”Câu nói đơn giản nhưng giúp học sinh cảm thấy được lắng nghe và được phép thử sai.Gợi ý thay vì mẫu cố định:Thay vì đưa ra sản phẩm hoàn chỉnh, giáo viên có thể chuẩn bị một vài ví dụ đa dạng, chưa hoàn thiện, kèm lời khuyến khích:“Con có thể dùng những ý tưởng này, hoặc tạo ra điều gì đó thật mới của riêng con!”Điều này giữ không gian sáng tạo mở và không gây áp lực.Sử dụng câu hỏi kích thích tưởng tượng:“Con thích con vật, cây hay món đồ nào nhất?”“Nếu chiếc lá là cánh, con sẽ làm thân bằng gì?”“Con muốn sản phẩm của mình có cảm xúc như thế nào – vui, buồn, hay ngộ nghĩnh?”Những câu hỏi này giúp học sinh tự hình dung và khởi động quá trình sáng tạo một cách nhẹ nhàng.Tập trung vào quá trình, không chỉ sản phẩm:Khen ngợi nỗ lực, sự kiên trì và ý tưởng của học sinh là cách nuôi dưỡng tình yêu sáng tạo. Ví dụ:“Cô thấy con thử rất nhiều kiểu dán khác nhau – đó là điều mà người sáng tạo giỏi thường làm!”Kết luận:Hoạt động nghệ thuật trong giáo dục STEAM không chỉ là tạo ra sản phẩm đẹp, mà là quá trình học sinh tự tin thử nghiệm, tưởng tượng và thể hiện bản thân. Khi giáo viên biết cách đồng hành và gợi mở đúng lúc, ngay cả học sinh nhút nhát nhất cũng có thể tạo ra những điều thật bất ngờ và đáng tự hào.</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>🌿 HOẠT ĐỘNG DẠY HỌC Chủ đề: “Ngôi nhà mát mẻ từ vật liệu tái chế”🎯 I. Mục tiêu hoạt độngSau hoạt động, học sinh có thể:Nhận biết ảnh hưởng của thời tiết (đặc biệt là nắng nóng) đến sinh hoạt và nhà ở.Hiểu được giá trị của việc tái sử dụng vật liệu trong cuộc sống.Thiết kế mô hình nhà đơn giản với các yếu tố “chống nóng” như: mái che, cửa sổ, cây xanh, thông gió...Rèn luyện kỹ năng sáng tạo, làm việc nhóm, thuyết trình và bảo vệ ý tưởng.🧰 II. Chuẩn bị💠 Của giáo viên:Tranh ảnh/video: Các kiểu nhà chống nóng, nhà ở miền nhiệt đới, nhà có mái xanh, nhà sinh thái...Phiếu giao nhiệm vụ nhóm, bảng tiêu chí đánh giá sản phẩm.💠 Của học sinh (mang từ nhà):Hộp sữa, hộp giấy, thùng carton, nắp chai, ống hút, lõi giấy vệ sinh, vải vụn, giấy báo, lon nước, lá cây khô, cỏ, vỏ trứng...Kéo, băng keo, hồ dán, bút màu, giấy màu.👩‍🏫 III. Quy trình thực hiện hoạt động (2 tiết học)Tiết 1 – Khám phá &amp;amp; Lên ý tưởngKhởi động (5 phút):Giáo viên chiếu hình ảnh ngôi nhà mùa hè và hỏi:“Mùa hè nóng bức, các con thường làm gì để thấy mát hơn? Ngôi nhà của con mùa hè có nóng không?”Gợi mở thảo luận về giải pháp chống nóng như trồng cây, làm mái che, mở cửa sổ thông gió...Tìm hiểu (10 phút):Giáo viên giới thiệu một số nguyên lý cơ bản giúp ngôi nhà mát hơn:Mái che màu sáng phản xạ ánh sáng.Cửa sổ tạo luồng gió.Cây xanh làm mát tự nhiên.Lên ý tưởng (20 phút):Học sinh làm việc theo nhóm 3–4 bạn.Lập kế hoạch: Ngôi nhà sẽ có gì? Mái che bằng gì? Cửa ra sao? Cây trồng ở đâu?Vẽ phác thảo sơ đồ nhà (trên giấy A4) và ghi chú vật liệu tái chế định dùng.Tiết 2 – Thực hành &amp;amp; Trình bàyChế tạo sản phẩm (30 phút):Các nhóm cùng nhau cắt, dán và lắp ráp vật liệu tái chế để tạo mô hình nhà.Giáo viên đi từng nhóm hỗ trợ kỹ thuật và khuyến khích sáng tạo.Thuyết trình &amp;amp; đánh giá (15 phút):Mỗi nhóm trình bày mô hình của mình trong 2–3 phút:“Ngôi nhà của nhóm em có gì đặc biệt?”“Nhóm em dùng những vật liệu nào để tái chế?”“Vì sao nhà em mát mẻ?”Tổng kết – Nhận xét (5 phút):Giáo viên tuyên dương nhóm sáng tạo, biết phối hợp tốt, mô hình có yếu tố thân thiện với môi trường.Giao nhiệm vụ về nhà: Chụp ảnh mô hình, viết vài dòng giới thiệu gửi cho cô (nếu có thể).📚 IV. Liên hệ chương trình Tự nhiên &amp;amp; Xã hội – lớp 2Bài họcNội dung tích hợpChủ đề 2: Thời tiết và cuộc sốngHiểu ảnh hưởng của thời tiết đến nhà ở, sinh hoạt.Chủ đề 5: Bảo vệ môi trường sốngBiết cách tái sử dụng đồ cũ, giảm rác thải, tiết kiệm tài nguyên.Chủ đề 1: Trường họcGiữ gìn lớp học sạch đẹp – có thể trưng bày mô hình tạo "góc học tập xanh".🏆 V. Tiêu chí đánh giá sản phẩm (gợi ý)Tiêu chíMức độ tối đaTận dụng vật liệu tái chế2 điểmThiết kế sáng tạo và hợp lý2 điểmCó yếu tố “chống nóng”2 điểmLàm việc nhóm hiệu quả2 điểmTrình bày tự tin, rõ ràng2 điểmTổng cộng10 điểm🌟 Mở rộng – Ý tưởng phát triển:Tổ chức triển lãm “Ngôi nhà xanh thân thiện với môi trường” tại lớp.Gợi ý phụ huynh cùng con thiết kế lại một góc nhỏ trong nhà hoặc sân chơi theo mô hình.Kết hợp bài học về tiết kiệm điện, trồng cây quanh nhà để làm mát tự nhiên.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>S026</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm trong giáo dục STEAM là phương pháp học sinh tích cực tham gia vào các hoạt động thực tiễn, giải quyết vấn đề thực tế, thay vì chỉ tiếp thu kiến thức lý thuyết. Phương pháp này khuyến khích học sinh khám phá, sáng tạo, và áp dụng kiến thức liên môn (Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật, Toán học) thông qua các dự án thực hành, thúc đẩy tư duy phản biện và kỹ năng hợp tác.Tác động của học tập qua trải nghiệm đến học sinh rất sâu sắc. Nó giúp học sinh phát triển sự tò mò, tự tin, và khả năng giải quyết vấn đề sáng tạo. Thay vì ghi nhớ thụ động, học sinh được khuyến khích đặt câu hỏi, thử nghiệm, và rút kinh nghiệm từ thất bại, từ đó xây dựng tư duy linh hoạt và khả năng tự học. Học tập qua trải nghiệm cũng tăng cường sự hứng thú, giúp học sinh gắn kết kiến thức với đời sống thực tiễn.Ví dụ cụ thể: Trong một dự án STEAM, học sinh lớp 4 được giao nhiệm vụ thiết kế một chiếc xe chạy bằng năng lượng gió. Các em sử dụng kiến thức khoa học để hiểu lực gió, kỹ thuật để chế tạo mô hình, và nghệ thuật để thiết kế xe bắt mắt. Qua quá trình thử nghiệm, điều chỉnh khi xe không chạy, các em học được cách hợp tác, tư duy sáng tạo, và kiên trì. Kết quả, học sinh không chỉ nắm vững kiến thức mà còn phát triển kỹ năng mềm cần thiết.</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động STEAM: Thiết kế hệ thống tổ chức góc học tập cá nhânMô tả hoạt động: Học sinh sẽ tham gia dự án “Thiết kế góc học tập cá nhân” để cải thiện không gian học tập tại nhà. Các em được chia thành nhóm 4-5 học sinh, sử dụng các vật liệu tái chế (hộp carton, chai nhựa, giấy màu) để tạo ra một mô hình góc học tập gọn gàng, tiện ích. Hoạt động gồm 3 giai đoạn: (1) Khảo sát nhu cầu cá nhân (vị trí để sách, bút, đèn học); (2) Phác thảo thiết kế, kết hợp kiến thức hình học (đo lường, sắp xếp không gian); (3) Chế tạo mô hình và trình bày ý tưởng trước lớp. Mỗi nhóm sẽ thuyết trình về thiết kế, giải thích cách nó giúp cải thiện việc học tập.Kỹ năng và khả năng phát triển: Hoạt động này giúp học sinh phát triển tư duy sáng tạo thông qua việc thiết kế giải pháp thực tế. Kỹ năng hợp tác được rèn luyện khi các em làm việc nhóm, phân chia nhiệm vụ. Tư duy kỹ thuật được củng cố qua việc đo lường, cắt ghép vật liệu. Học sinh cũng cải thiện kỹ năng thuyết trình và tư duy phản biện khi bảo vệ ý tưởng. Quan trọng hơn, các em học cách tổ chức không gian cá nhân, từ đó xây dựng thói quen học tập hiệu quả và trách nhiệm với môi trường (qua tái chế). Hoạt động này khuyến khích học sinh áp dụng kiến thức STEAM vào cuộc sống, tạo động lực học tập lâu dài.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học STEAM: Thiết kế thiết bị bảo vệ viên phấnKế hoạch dạy học: Hoạt động kéo dài 90 phút, chia thành 4 giai đoạn: (1) Khơi gợi (15 phút): Giới thiệu bài tập, thảo luận về lực rơi và cách bảo vệ vật dễ vỡ. (2) Lập kế hoạch (20 phút): Học sinh làm việc nhóm (3-4 em), phác thảo thiết kế thiết bị bảo vệ viên phấn. (3) Thực hành (40 phút): Các nhóm chế tạo thiết bị, thử nghiệm và điều chỉnh. (4) Trình bày (15 phút): Nhóm chia sẻ sản phẩm, giải thích nguyên lý.Câu hỏi gợi ý:Làm thế nào để giảm lực tác động khi viên phấn chạm đất?Những vật liệu nào có thể hấp thụ lực hoặc phân tán năng lượng?Hình dạng thiết bị ảnh hưởng thế nào đến hiệu quả bảo vệ?Làm sao để thiết bị dễ chế tạo nhưng vẫn chắc chắn?Vật liệu và dụng cụ:Vật liệu: Hộp carton, bông gòn, ống hút, băng keo, dây chun, giấy báo, túi nhựa nhỏ.Dụng cụ: Kéo, thước đo, viên phấn, thang hoặc ghế để thả từ độ cao 3 mét.Phấn dự phòng để thử nghiệm nhiều lần.Học sinh sẽ áp dụng kiến thức khoa học (lực, năng lượng), kỹ thuật (thiết kế, chế tạo), và toán học (đo lường kích thước). Hoạt động khuyến khích tư duy sáng tạo, giải quyết vấn đề, và hợp tác nhóm. Giáo viên quan sát, đặt câu hỏi định hướng, đảm bảo an toàn khi thử nghiệm.</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Hỗ trợ học sinh trong hoạt động nghệ thuật STEAMKhi học sinh yêu cầu “xem ví dụ” trong một hoạt động STEAM có yếu tố nghệ thuật, tôi sẽ đáp lại một cách khích lệ: “Tuyệt vời, em muốn khám phá ý tưởng! Thay vì xem một mẫu hoàn chỉnh, chúng ta hãy cùng xem một số ý tưởng nhỏ để khơi gợi sáng tạo của em, nhé?” Cách tiếp cận này giúp giảm áp lực và khuyến khích sự độc lập.Cách hỗ trợ cụ thể:Hiển thị ví dụ từng phần: Tôi sẽ cho học sinh xem các thành phần nghệ thuật đơn giản, như cách sử dụng màu sắc trong một mô hình cầu giấy hoặc cách sắp xếp hình khối trong thiết kế mô hình nhà. Ví dụ: “Em thấy cách bạn này dùng màu tương phản để làm nổi bật mô hình chưa? Em muốn thử gì tương tự?”Đặt câu hỏi khơi gợi: Hỏi học sinh: “Em muốn sản phẩm của mình trông vui tươi hay nghiêm túc? Em thích hình dạng nào?” để giúp các em hình dung ý tưởng riêng.Cung cấp vật liệu đa dạng: Chuẩn bị giấy màu, đất nặn, ống hút, hoặc vật liệu tái chế để học sinh tự do thử nghiệm, giảm lo lắng về việc “làm sai”.Khuyến khích thử và sai: Nhấn mạnh rằng không có đáp án đúng, như: “Cứ thử đi, nếu không ưng, mình làm lại!”Chia sẻ quy trình sáng tạo: Kể một câu chuyện về cách một nhà thiết kế tạo ra sản phẩm để truyền cảm hứng.</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động STEAM: Tạo chậu cây từ chai nhựa tái chếMô tả hoạt động: Học sinh lớp 2 sẽ tham gia hoạt động “Tạo chậu cây từ chai nhựa” trong 90 phút. Hoạt động gồm:Khởi động (15 phút): Thảo luận về vai trò của cây xanh và lợi ích của tái chế nhựa.Lập kế hoạch (20 phút): Nhóm 3-4 học sinh chọn chai nhựa, vẽ thiết kế (hình động vật hoặc hoa văn đơn giản).Thực hiện (40 phút): Học sinh cắt chai, trang trí bằng giấy màu, sơn an toàn, và dán hình vẽ (như gấu, chim). Đặt đất và cây nhỏ (như trầu bà) vào chậu.Trình bày (15 phút): Mỗi nhóm giới thiệu sản phẩm, chia sẻ cách chăm sóc cây.Vật liệu: Chai nhựa, đất, cây nhỏ, giấy màu, sơn nước an toàn, kéo, keo dán, bút màu.Chủ đề/Bài học (Tự nhiên và Xã hội lớp 2, sách Chân trời sáng tạo):Chủ đề: Cây cối quanh em (Bài: Cây cối giúp ích gì cho con người). Học sinh khám phá cách cây cung cấp oxy, làm đẹp môi trường qua việc tạo chậu cây.Chủ đề: Bảo vệ môi trường sống (Bài: Con người và môi trường). Hoạt động nhấn mạnh tái chế nhựa để giảm rác thải, nâng cao ý thức bảo vệ thiên nhiên.-76470732233320017037053251200004106837322311600-19050051371500395414553530500187388551371500Kỹ năng phát triển: Sáng tạo, làm việc nhóm, nhận thức môi trường và kỹ năng thủ công cơ bản.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>S027</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Học tập qua trải nghiệm là quá trình học sinh tiếp thu kiến thức và kỹ năng thông qua việc trực tiếp tham gia vào các hoạt động thực tiễn, thay vì chỉ tiếp nhận lý thuyết một cách thụ động. Trong giáo dục STEAM), phương pháp này được xem là cốt lõi, giúp học sinh phát triển tư duy sáng tạo, khả năng giải quyết vấn đề và hợp tác nhóm.Việc học qua trải nghiệm mang lại nhiều tác động tích cực cho học sinh. Trước hết, nó tạo ra sự hứng thú và chủ động trong học tập, bởi các em được "học mà chơi, chơi mà học". Khi được trực tiếp thao tác, thử nghiệm, học sinh dễ dàng ghi nhớ kiến thức sâu hơn và hiểu bản chất vấn đề. Thứ hai, phương pháp này khuyến khích học sinh đặt câu hỏi, quan sát, phân tích và rút ra kết luận – những kỹ năng tư duy bậc cao rất cần thiết trong thế kỷ 21.Ví dụ, trong một dự án STEAM về môi trường, học sinh có thể được giao nhiệm vụ thiết kế một mô hình máy lọc nước đơn giản. Qua quá trình thử nghiệm với các vật liệu như cát, than hoạt tính, vải lọc,... các em không chỉ hiểu về quy trình lọc nước mà còn học được cách hợp tác, giải quyết lỗi sai và trình bày ý tưởng.Như vậy, học tập qua trải nghiệm không chỉ giúp học sinh tiếp thu kiến thức một cách sinh động mà còn góp phần hình thành những phẩm chất và năng lực toàn diện, đáp ứng yêu cầu của giáo dục hiện đại.</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động STEAM: “Ngôi nhà chống lũ” – Thiết kế mô hình nhà an toàn cho vùng lũVới mong muốn học sinh vừa phát triển tư duy sáng tạo vừa nâng cao tinh thần trách nhiệm với cộng đồng, tôi thiết kế hoạt động STEAM mang tên “Ngôi nhà chống lũ”. Hoạt động này giúp học sinh hiểu về thiên tai, từ đó thiết kế mô hình nhà nổi phù hợp với điều kiện miền núi và vùng thường xuyên ngập lụt.Cách thực hiện:Học sinh làm việc theo nhóm (4–5 em). Mỗi nhóm sẽ:Tìm hiểu về tình hình lũ lụt ở miền núi Việt Nam và những khó khăn người dân gặp phải.Lên ý tưởng thiết kế một mô hình nhà có khả năng nổi khi lũ về hoặc chịu được ngập nước.Sử dụng vật liệu tái chế như bìa carton, chai nhựa, que gỗ, ống hút,... để chế tạo mô hình.Thử nghiệm mô hình bằng cách đặt trong chậu nước và quan sát khả năng nổi, độ ổn định.Trình bày mô hình và giải thích các yếu tố kỹ thuật đã được tính toán.Kỹ năng và năng lực phát triển:Tư duy khoa học – kỹ thuật: Hiểu được nguyên lý nổi, tính toán trọng lượng, độ nổi, kết cấu vững chắc.Khả năng sáng tạo và giải quyết vấn đề: Thiết kế mô hình phù hợp với điều kiện thực tế.Kỹ năng làm việc nhóm và thuyết trình: Hợp tác, phân chia nhiệm vụ và trình bày ý tưởng rõ ràng.Giáo dục đạo đức – xã hội: Học sinh hình thành ý thức chia sẻ, quan tâm đến những hoàn cảnh khó khăn trong cộng đồng.Thông qua hoạt động này, học sinh được trải nghiệm một cách sinh động, thiết thực và đầy nhân văn.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch dạy học bài tập: “Bảo vệ viên phấn”Mục tiêu:Giúp học sinh rèn luyện tư duy kỹ thuật, khả năng sáng tạo và giải quyết vấn đề thực tiễn.Hiểu và vận dụng kiến thức vật lý về lực, va chạm, đệm giảm chấn.1. Khởi động (5 phút):Tôi đưa ra tình huống: "Một viên phấn khi rơi từ độ cao 3 mét thường bị vỡ. Em hãy nghĩ cách để bảo vệ viên phấn không bị vỡ khi thả rơi."Câu hỏi gợi mở:Tại sao viên phấn lại vỡ khi rơi?Theo em, cần làm gì để giảm lực tác động lên viên phấn?2. Làm việc nhóm (20 phút):Học sinh được chia nhóm (3–4 em) và lựa chọn vật liệu đơn giản: giấy, bìa carton, ống hút, bong bóng, mút xốp, dây thun, túi nylon,...Yêu cầu:Thiết kế một thiết bị hoặc cấu trúc bảo vệ viên phấn.Có thể bọc, treo, đệm, làm giảm tốc độ rơi hoặc tản lực va chạm.Ghi lại quá trình thiết kế và lý do lựa chọn vật liệu.3. Thử nghiệm &amp;amp; đánh giá (10 phút):Mỗi nhóm trình bày sản phẩm và thử nghiệm bằng cách thả rơi viên phấn từ độ cao 3 mét.Cùng đánh giá mức độ hiệu quả, sáng tạo và giải thích cơ chế bảo vệ.4. Kết nối – mở rộng (5 phút):Câu hỏi thảo luận:Thiết bị của nhóm em áp dụng nguyên lý gì trong đời sống thực?Bài học từ hoạt động này có thể áp dụng vào lĩnh vực nào?Hoạt động giúp học sinh học qua trải nghiệm, tư duy thiết kế và làm việc nhóm hiệu quả trong giải quyết vấn đề thực tế.</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Khi một học sinh yêu cầu “xem ví dụ” trong một hoạt động STEAM có yếu tố nghệ thuật, điều đó cho thấy em đang lo lắng hoặc thiếu tự tin với ý tưởng của mình. Tôi sẽ nhẹ nhàng trấn an:“Trong hoạt động sáng tạo, mỗi bạn có thể có một cách làm riêng – không có mẫu nào là đúng hay sai hết. Ý tưởng của con rất đáng trân trọng!”Sau đó, tôi sẽ đưa ra một số ví dụ mở mang tính định hướng, chẳng hạn:“Có nhóm bạn thiết kế ngôi nhà nổi bằng chai nhựa để nổi trên mặt nước. Có nhóm làm móng nhà bằng ống hút để chống thấm. Có nhóm dùng bìa carton làm mái nhà dốc để nước mưa chảy nhanh hơn. Mỗi ngôi nhà đều rất khác nhau – vì các bạn ấy có những suy nghĩ riêng.”Tôi sẽ nhấn mạnh rằng những ví dụ này chỉ là gợi ý, còn sản phẩm của các em hoàn toàn có thể độc đáo hơn.Để khơi gợi sáng tạo, tôi có thể đặt câu hỏi:Nếu con sống ở vùng lũ, con mong muốn ngôi nhà của mình có gì đặc biệt?Con muốn trang trí ngôi nhà đó theo phong cách nào – hiện đại, dân gian, hay thiên nhiên?Qua đó, học sinh vừa cảm thấy được hỗ trợ, vừa có cơ hội phát triển ý tưởng cá nhân mà không bị gò bó, từ đó vượt qua sự e ngại và tự tin sáng tạo.</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động dạy học: “Quạt tay năng lượng – Sáng tạo từ rác tái chế”Mô tả hoạt động:Học sinh sẽ sử dụng các vật liệu tái chế như: que kem, bìa carton, chai nhựa, dây đồng cũ, pin cũ, cánh quạt từ chai nhựa,... để chế tạo một chiếc quạt mini chạy bằng pin hoặc tay quay. Đây là một sản phẩm sáng tạo, vừa có ứng dụng thực tiễn, vừa giúp học sinh hiểu về dòng điện và nguyên lý hoạt động của thiết bị điện đơn giản.Mục tiêu hoạt động:Rèn luyện tư duy kỹ thuật và sáng tạo.Giúp học sinh hiểu vai trò của năng lượng, mạch điện và tái sử dụng rác thải.Phát triển kỹ năng làm việc nhóm và trình bày ý tưởng.Chủ đề/Bài học liên quan theo chương trình Khoa học lớp 4, 5 (Chương trình GDPT 2018):🔹 Lớp 4 – Khoa học:Chủ đề: “Năng lượng”Bài: “Năng lượng điện” → Học sinh quan sát và giải thích cách quạt hoạt động nhờ nguồn điện.Chủ đề: “Vật liệu”Bài: “Tính chất một số vật liệu” → Nhận biết vật liệu tái chế có thể ứng dụng làm sản phẩm mới.🔹 Lớp 5 – Khoa học:Chủ đề: “Mạch điện”Bài: “Lắp mạch điện đơn giản” → Học sinh vận dụng kiến thức để kết nối pin, dây dẫn và motor.Chủ đề: “Bảo vệ môi trường”Bài: “Tác động của con người đến môi trường” → Liên hệ hành động tái chế để giảm rác thải điện tử, nhựa.Kết luận:Hoạt động giúp học sinh vừa học kiến thức khoa học, vừa vận dụng sáng tạo vào thực tế, đồng thời xây dựng ý thức bảo vệ môi trường thông qua việc tái chế hiệu quả và có mục đích.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Theo nhà triết học, giáo dục học Mỹ - John Dewey định nghĩa: “học tập qua trải nghiệm” xảy ra khi một người sau khi tham gia trải nghiệm nhìn lại và đánh giá lại, xác định cái gì là hữu ích hoặc quan trọng cần nhớ, và sử dụng những điều này để thực hiện các hoạt động khác trong tương lai...Đối với bản thân tôi, học tập qua trải nghiệm là phương pháp học tập hiệu quả nhất vì Khổng Tử đã từng nói: “Những gì tôi nghe, tôi sẽ quên; Những gì tôi thấy, tôi sẽ nhớ; Những gì tôi làm, tôi sẽ hiểu”. Tư tưởng này thể hiện tinh thần chú trọng học tập từ trải nghiệm và việc làm. 366064835585400Ví dụ 1 : Khi học sinh được học môn Toán, bài mối quan hệ phụ thuộc của hai đại lượng, giáo viên tổ chức cho các em đổ nước vào trong các chai. Cùng 1 xô nước, + Lượt 1: đổ vào các chai 0,5l – được 6 chai+ Lượt 2: đổ vào các chai 1,5l – được 3 chaiVí dụ 2: Học sinh thực hành trải nghiệm đo chu vi và tính đường kính cũng những vật quen thuộc. + Thông qua các hoạt động trải nghiệm giúp HS sử dụng nhiều giác quan một lúc (nghe, nhìn, chạm, ngửi, nói...) giúp tăng khả năng ghi nhớ.+ Các hoạt động giúp tối đa hóa khả năng sáng tạo, tính năng động và tích cực của học sinh.+HS được trải qua quá trình khám phá kiến thức và tìm giải pháp thực hiện từ đó giúp phát triển năng lực và tăng cường sự tự tin.+ Khi HS chủ động tham gia tích cực vào quá trình học, các em hứng thú hơn và chú ý hơn.</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Với chủ đề “Người bạn bé nhỏ” tôi đã thực hiện thiết kế bài học tích hợp rèn cho HS các năng lực chung và năng lực đặc thù khoa học thông qua bài học STEAM “Bài: Lên men dưa muối”Bài học đã kết hợp phát triển và hình thành các năng lực đặc thù:Khoa học:- Nhận ra được vi khuẩn có kích thước nhỏ, không thể nhìn thấy bằng mắt thường; chúng sống ở khắp nơi trong đất, nước, sinh vật khác,.. qua quan sát tranh ảnh, video.Biết những việc nên làm và không nên làm để giữ vệ sinh, bảo vệ sức khoẻ ở tuổi dậy thì.- Trình bày được ví dụ về việc sử dụng vi khuẩn có ích trong chế biến thực phẩm.- Mô tả được đặc điểm, phân loại vi khuẩn, lợi ích của vi khuẩn lactic trong lên men dưa cải chua từ đó nêu được quy trình muối dưa cải.Toán học:- Sử dụng được một số dụng cụ đơn giản để thực hành cân, đo, đong, đếm với các đơn vị đo đã học. Thực hiện tính toán theo tỉ lệ để trao đổi, giúp đỡ nhau trong học tập; cùng nhau hoàn thành 0,5kg dưa muối chua.Hoạt động 1 : Xác định vấn đề- Thông qua trò chơi Đuổi hình bắt chữ, tôi giúp HS khởi động, lấy hứng thú vào bài học. Đồng thời, qua hoạt động quan sát và nếm thử kim chi, HS được rèn năng lực quan sát, đặt câu hỏi về sự vật hiện tượng và mối quan hệ trong tự nhiên.- Bằng hoạt động giao và nhận nhiệm vụ hoàn thành sản phẩm STEM là 1 hũ dưa muối với các tiêu chí như sau:+ Dưa muối đảm bảo vệ sinh an toàn thực phẩm.+ Dưa muối vàng giòn, thơm ngon, chua chua ngọt ngọt.+ Hũ đựng dưa muối sạch sẽ, trang trí đẹp mắt.HS được rèn năng lực đưa ra dự đoán về sự vật hiện tượng và mối quan hệ trong tự nhiên. Việc HS tự đưa ra được các tiêu chí thể hiện việc quan sát trong thực tế cũng như năng lực phán đoán về hiện tượng lên men của dưa cải.Hoạt động 2: Nghiên cứu kiến thức nềnTìm hiểu đặc điểm của vi khuẩn và vệ sinh tuổi dậy thì: thông qua hoạt động xem clip về vi khuẩn, HS chỉ ra được các đặc điểm cơ bản của chúng và đề xuất được các biện pháp giữ vệ sinh phòng bệnh ở tuổi dậy thì. Từ hoạt động này, các năng lực chung như giao tiếp, làm việc nhóm cũng đc rèn cho HS một cách tự nhiên. Ngoài ra, việc HS dùng sơ đồ tư duy để mô tả các đặc điểm cũng như phân loại vi khuẩn cũng là một biện pháp thể hiện năng lực nhận thức khoa học tự nhiên cho các em đã được phát triển hiệu quả.Tìm hiểu lợi ích của vi khuẩn nói chung và vi khuẩn lactic trong lên men dưa cải chua và quy trình muối dưa cải: Sau khi thảo luận trong nhóm, HS được tiếp tục quan sát từ thực tế quy trình muối dưa cải để tự rút ra các bước cần thiết để hoàn thành một hũ dưa. HS hiểu sự lên men trong muối dưa cải chính là nhờ vào sự hoạt động của các vi khuẩn có lợi. Với 2 hoạt động trên, HS có thể hiểu sâu sắc về sự phân loại vi khuẩn trong thực tế. Như vậy, các em đã được rèn năng lực đặc thù Khoa học chính là Từ kết quả quan sát, thí nghiệm..., rút ra nhận xét, kết luận về đặc điểm và mối quan hệ giữa các sự vật, hiện tượng. Hoạt động 3: Tìm giải pháp, chế tạo và chia sẻ.HS đề xuất và lựa chọn giải pháp để hoàn thành một hũ dưa muối với trọng lượng nguyên liệu là 0,5kg. Thông qua bước này, HS được tích hợp rèn năng lực chung như giao tiếp, hợp tác. Bên cạnh đó, năng lực đặc thù của môn Khoa học là đề xuất được phương án kiểm tra dự đoán có cơ hội để phát triển một cách tự nhiên và hiệu quả. Với những tiêu chí của một hũ dưa ngon, đẹp mắt ban đầu đề ra – là những dự đoán được các em mạnh dạn đặt ra cho sản phẩm STEAM trong chủ điểm Người bạn bé nhỏ, tới hoạt động này, các em được đề xuất phương án kiểm tra dự đoán của chính mình. Điều này thúc đẩy niềm tin, tự hứng thú trong học tập của các em hơn bao giờ hết. Tiếp đó, HS được thảo luận nhóm để tính toán:+ Nhận biết vật liệu cần thiết cho 0,5kg dưa cải muối.+ Lựa chọn nguyên liệu phù hợp để làm dưa muối.Trong quá trình này, GV theo dõi và hỗ trợ học sinh khi cần thiết bằng cách đặt ra các câu hỏi định hướng, đặc biệt với các nhóm học sinh gặp khó khăn trong khi thảo luận.Ở bước chế tạo mẫu, thử nghiệm và đánh giá: HS bắt tay vào thực hiện muối dưa cải theo quy trình đã tìm hiểu. Qua thực tế kiểm chứng, HS sẽ tự điều chỉnh những phán đoán, những đề xuất chưa phù hợp. Như vậy, một lần nữa năng lực đặc thù Khoa học đã được rèn cho HS - đó là “Từ kết quả quan sát, thí nghiệm..., rút ra nhận xét, kết luận về đặc điểm và mối quan hệ giữa các sự vật, hiện tượng"2932176-68072</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Trong bài học này, học sinh sẽ thực hiện một thử thách thú vị: thiết kế một thiết bị đơn giản để bảo vệ viên phấn khỏi bị vỡ khi thả từ độ cao 3 mét. Bài học này không chỉ giúp phát triển kỹ năng tư duy và sáng tạo mà còn giúp học sinh hiểu rõ hơn về nguyên lý bảo vệ vật khỏi va đập. Đồng thời, học sinh sẽ được thực hành thiết kế, thử nghiệm và cải tiến sản phẩm một cách hiệu quả.Để bắt đầu, hãy suy nghĩ và trả lời một số câu hỏi sau:Nếu thả một viên phấn từ độ cao 3 mét mà không có bất kỳ sự bảo vệ nào, điều gì sẽ xảy ra?Tại sao một số vật liệu lại có khả năng bảo vệ vật khỏi va đập tốt hơn những vật liệu khác?Kể tên một số phương pháp hoặc thiết bị bảo vệ đồ vật khi bị rơi (Ví dụ: túi khí trong ô tô, hộp bảo vệ điện thoại).Điều gì sẽ xảy ra nếu bọc viên phấn bằng vật liệu mềm hoặc treo nó bằng dây?Với thử thách này, học sinh sẽ sử dụng những vật liệu đơn giản và dễ kiếm như bìa cứng, bong bóng khí, mút xốp, băng dính, dây chun và vải mềm để tạo ra thiết bị bảo vệ.Sau khi đã có ý tưởng, học sinh hãy phác thảo thiết kế, chọn vật liệu phù hợp và lắp ráp thiết bị bảo vệ. Khi hoàn thành, tiến hành thử nghiệm bằng cách thả viên phấn từ độ cao 3 mét và quan sát kết quả. Nếu viên phấn vẫn bị vỡ, phân tích nguyên nhân và điều chỉnh thiết kế để cải thiện hiệu quả bảo vệ. Lặp lại quá trình thử nghiệm này cho đến khi đạt được giải pháp tối ưu và viên phấn được bảo vệ an toàn.</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Trong giáo dục STEAM, việc khuyến khích học sinh tạo ra những sản phẩm nghệ thuật độc đáo là trọng tâm. Tuy nhiên, khi các em yêu cầu "xem ví dụ," đó thường là dấu hiệu của sự lo lắng hoặc thiếu định hướng.Khi học sinh cần hình mẫu, tôi sẽ nói với các em rằng mục tiêu là sự độc đáo và riêng biệt của mỗi cá nhân. Điều này giúp học sinh giải tỏa áp lực và mở rộng không gian sáng tạo.Để hỗ trợ học sinh hiệu quả, tôi có thể áp dụng các phương pháp sau:Định hướng bằng câu hỏi mở: Thay vì ví dụ cụ thể, tôi đặt những câu hỏi khơi gợi tư duy như: "Em muốn thể hiện điều gì qua tác phẩm này?" hay "Sẽ dùng màu sắc, hình khối nào để truyền tải ý tưởng?"Thảo luận yếu tố STEAM: Phân tích từng khía cạnh (Khoa học, Công nghệ, Kỹ thuật, Nghệ thuật, Toán học) để định hướng. Cung cấp đa dạng vật liệu: Kích thích ý tưởng bằng cách giới thiệu nhiều loại vật liệu khác nhau (giấy, màu, đất sét, vật liệu tái chế, v.v.), khuyến khích các em thử nghiệm để tìm ra sự kết hợp ưng ý.Tạo môi trường an toàn: Cho học sinh hiểu rằng mọi thử nghiệm, kể cả những lần chưa thành công, đều là một phần của quá trình sáng tạo. Không có gì là "sai" trong nghệ thuật; mỗi nỗ lực đều là một bước tiến.Bằng cách định hướng, khơi gợi và tạo môi trường hỗ trợ, tôi có thể giúp học sinh vượt qua nỗi lo lắng ban đầu, tự tin khám phá khả năng của bản thân và tạo ra những sản phẩm STEAM độc đáo. Điều này không chỉ nuôi dưỡng sự sáng tạo mà còn củng cố tư duy giải quyết vấn đề và niềm yêu thích học hỏi ở các em.</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Bài 4: THỰC HÀNH THIẾT KẾ NHÀ ĐỒ CHƠI – Số tiết: 3I. YÊU CẦU CẦN ĐẠT:- Vẽ phác thảo, nêu được ý tưởng thiết kế một sản phẩm công nghệ đơn giản.- Thiết kế được một sản phẩm thủ công kĩ thuật đơn giản theo hướng dẫn.Từ đó, góp phần hình thành các phẩm chất và năng lực chung.II. ĐỒ DÙNG DẠY HỌC: Giáo viên: - Các tranh, ảnh trong Bài 4.- Mô hình nhà đồ chơi đã hoàn thiện.- Vật liệu, dụng cụ thiết kế nhà đồ chơi theo gợi ý trong SGK. Học sinh: - Bút viết, bảng con và phấn/bút lông viết bảng.III. CÁC HOẠT ĐỘNG DẠY HỌC CHỦ YẾU:Tiết 1HOẠT ĐỘNG DẠY HỌCYÊU CẦU CẦN ĐẠTĐIỀU CHỈNHA. KHỞI ĐỘNG (5 phút)–HS quan sát hình ảnh khởi động trong SGK trang 19 và mô tả nội dung của hình ảnh đó.–HS nghe GV nhận xét và dẫn dắt học sinh vào bài học.Tạo hứng thú, tò mò và động cơ học tập tốt cho học sinh về bài học.B. LUYỆN TẬP: (30 phút)Hoạt động 1: Nêu được các bộ phận chính của mô hình nhà đồ chơi–HS làm việc theo trình tự:+ Làm việc cá nhân: Quan sát các mô hình nhà đồ chơi ở SGK trang 20; lựa chọn một mô hình muốn thiết kế, nêu các bộ phận chính của mô hình nhà đồ chơi đó.+ Làm việc nhóm 3: Học sinh trao đổi, chia sẻ với các bạn trong nhóm về mô hình nhà học sinh muốn thiết kế, nêu các bộ phận chính của mô hình nhà đồ chơi đó.–Một số học sinh trình bày. Cả lớp lắng nghe, nhận xét, bổ sung ý kiến (nếu có).–HS nghe GV nhận xét, kết luận.Học sinh nêu được các bộ phận chính của mô hình nhà đồ chơi.Hoạt động 2: Thực hành thiết kế nhà đồ chơi (phần vẽ phác thảo và chuẩn bị vật liệu, dụng cụ)* Tìm hiểu về yêu cầu sản phẩm và nhắc lại các bước thiết kế–HS trao đổi nhóm đôi, tìm hiểu về yêu cầu sản phẩm.–HS trình bày trước lớp.–HS nghe GV nhận xét và kết luận.–HS làm việc nhóm 4, tìm hiểu, thảo luận, trình bày khái quát về các bước thiết kế nhà đồ chơi.– HS nghe GV kết luận.– HS về các bước thiết kế nhà đồ chơi.* Hình thành ý tưởng; chuẩn bị vật liệu, dụng cụ và vẽ phác thảo nhà đồ chơi–HS làm việc nhóm đôi, trình bày ý tưởng về mô hình nhà đồ chơi.–HS nghe GV nhận xét.–HS chuẩn bị vật liệu, dụng cụ và tiến hành vẽ phác thảo nhà đồ chơi.–Học sinh tự nhận xét bản vẽ phác thảo của mình; trao đổi bản vẽ và nhận xét lẫn nhau (theo nhóm đôi hoặc nhóm 3, nhóm 4,...).–HS nghe GV nhận xét chung.* Chuẩn bị vật liệu và dụng cụ để thực hành thiết kế nhà đồ chơi (theo nhóm 4)– HS thực hành làm mô hình nhà đồ chơi theo nhóm 4, lựa chọn vật liệu và dụng cụ làm mô hình như trong SGK trang 23.Vẽ phác thảo, nêu được ý tưởng thiết kế nhà đồ chơi.Hoạt động nối tiếp–HS phát biểu về những nội dung đã tìm hiểu được trong tiết học này.–HS nghe GV nhận xét và kết luận.–HS tự nhận xét, đánh giá bản thân qua tiết học.–HS nghe GV nhận xét, đánh giá chung về quá trình học tập của học sinh.Tiết 2HOẠT ĐỘNG DẠY HỌCYÊU CẦU CẦN ĐẠTĐIỀU CHỈNHA. KHỞI ĐỘNG (5 phút)- HS nghe và hát bài hát, kết hợp với vỗ tay hoặc múa minh hoạ theo video.- HS nghe GV giới thiệu bài.Tạo hứng thú, tò mò và động cơ học tập tốt cho học sinh về bài học.B. KHÁM PHÁ: (30 phút)Hoạt động 1: Thực hành thiết kế mô hình nhà đồ chơi* Thực hành thiết kế mô hình nhà đồ chơi (thực hành theo nhóm 4)- HS thực hành thiết kế mô hình nhà đồ chơi theo nhóm 4 và làm theo các bước như hướng dẫn trong SGK trang 23, 24.- HS các nhóm kiểm tra, đối chiếu mô hình nhà đồ chơi nhóm vừa thiết kế với yêu cầu sản phẩm đã đặt ra trước đó, chỉnh sửa sản phẩm nếu sản phẩm chưa đạt yêu cầu. * Trưng bày và đánh giá– HS trưng bày và đánh giá sản phẩm.Thực hành thiết kế được mô hình nhà đồ chơi.Bằng các vật liệu tái chế.Hoạt động nối tiếp– HS thu gom vật liệu, dụng cụ; vệ sinh vị trí thực hành.– HS nghe GV nhận xét và kết luận: Dựa theo bản vẽ phác thảo, em thiết kế mô hình nhà đồ chơi. Khi thiết kế, em cần tuân thủ theo các bước như hướng dẫn. Lưu ý sử dụng vật liệu và dụng cụ đảm bảo an toàn, vệ sinh, tiết kiệm.Tiết 3HOẠT ĐỘNG DẠY HỌCYÊU CẦU CẦN ĐẠTĐIỀU CHỈNHA. KHỞI ĐỘNG (5 phút)- HS nghe và hát bài hát, kết hợp với vỗ tay hoặc múa minh hoạ theo video.- HS nghe GV giới thiệu bài.Tạo hứng thú, tò mò và động cơ học tập tốt cho học sinh về bài học.B. LUYỆN TẬP: (15 phút)– HS thảo luận nhóm đôi, kể tên những công việc chính cần thực hiện để thiết kế mô hình nhà đồ chơi.HS trình bày trước lớp.HS nghe GV nhận xét, kết luận.Ôn tập, củng cố kiến thức, kĩ năng đã hình thành và phát triển từ các hoạt động khám phá và thực hành trong bài.C. VẬN DỤNG: (15 phút)– Học sinh làm việc cá nhân, lựa chọn một đồ dùng học tập hoặc đồ chơi đơn giản theo gợi ý ở SGK trang 25.– Học sinh hình thành ý tưởng về sản phẩm em đã chọn, vẽ phác thảo và lựa chọn vật liệu, dụng cụ cần thiết.- Học sinh thực hành thiết kế sản phẩm đó vào thời gian ngoài giờ học.Vận dụng kiến thức, kĩ năng đã học trong bài vào thực tiễn cuộc sống để phát triển năng lực của học sinh.Hoạt động nối tiếp–HS tự đánh giá.–HS nghe GV nhận xét, đánh giá chung về quá trình học tập của học sinh.DƯỚI ĐÂY LÀ NHỮNG HÌNH ẢNH HỌC SINH LỚP TÔI ĐÃ THỰC HÀNH LÀM NHÀ ĐỒ CHƠI TỪ NHỮNG VẬT LIỆU TÁI CHẾỞ Chương trình Giáo dục Phổ thông 2018, môn Khoa học lớp 5 do tôi trực tiếp giảng dạy, tôi còn có thể cho các em một số chủ đề hoặc bài học để thực hành dùng vật liệu tái chế làm thành sản phẩm mới như :Dùng vỏ trứng để làm đèn, trồng câyDùng que kem làm mô hình nhà sử dụng năng lượng gió và năng lượng mặt trời.Dùng các hộp nhựa cũ để làm lồng đèn trung thu.Dùng các hũ thủy tinh cũ để thực hành muối dưa cải, làm sữa chua...</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>S029</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Học tập trải nghiệm là học tập thông qua thực tế, thực hành và từ những điều bản thân được trải nghiệm.Học tập trải nghiệm là phương pháp học tập trong đó học sinh chủ động tham gia và học thông qua các hoạt động thực hành và trải nghiệm thực tế. Từ những điều trải nghiệm được học sinh bắt đầu rút ra những bài học, quy tắc, hoặc khái niệm chung. Nói cách khác, học tập trải nghiệm là cách học thông qua thực hành.Học tập qua trải nghiệm có những tác động vượt trội:+ Nâng cao khả năng ghi nhớ và hiểu sâu kiến thức: Khi học sinh tự mình thực hiện một công việc, tự tay tìm tòi hoặc giải quyết một vấn đề học sinh có thể khắc sâu vào trí nhớ dài hạn. Việc trải nghiệm trực tiếp giúp các em tạo ra kết nối mạnh mẽ giữa lý thuyết và thực tiễn, làm cho kiến thức trở nên sống động, dễ hiểu và dễ nhớ hơn.Ví dụ: Thay vì đọc sách hoặc nghe giáo viên giảng dạy hay chỉ xem video về vật dẫn điện/vật cách điện. Với những kiến thức, hình ảnh chỉ nghe hoặc xem một cách thụ động học sinh sẽ nhanh quên. Nhưng khi học sinh được thực hành lựa chọn cách vật liệu dẫn điện/ cách điện từ thực hành thí nghiệm bản thân học sinh sẽ ghi nhận kết quả thí nghiệm, từ đó giúp học sinh ghi nhớ lâu hơn.+ Tăng cường sự chủ động, tự tin và hứng thú học tập: Khi học sinh được tự chủ trong quá trình học tập, được tự mình khám phá và đạt được thành quả, học sinh sẽ cảm thấy tự tin hơn vào năng lực của bản thân. Sự thành công từ các trải nghiệm thực tế thúc đẩy các em tiếp tục khám phá và học hỏi, biến việc học từ một nghĩa vụ thành một hành trình thú vị, đầy hứng khởi và ý nghĩa.Ví dụ: Khi cho học sinh tìm hiểu về những tính chất của nước, nếu học sinh chỉ đọc sách hoặc lắng nghe giáo viên truyền tải thì học sinh sẽ cảm thấy rất nhàm chán. Nhưng nếu học sinh được lựa chọn vật liệu mà nước có thể thấm qua sau đó học sinh thực hành để kiểm chứng thì học sinh sẽ hứng thú hơn. Qua đó,học sinh chủ động hơn trong việc tìm hiểu kiến thức mới thay cho việc áp đặt kiến thức từ giáo viên.+ Sáng tạo và đổi mới: Giúp kích thích sự sáng tạo cho học sinh khi được khuyến khích thử nghiệm những ý tưởng mới và tìm ra các giải pháp độc đáo cho vấn đề.Ví dụ: Từ nhửng kiến thức học sinh đã tìm hiểuvề những tính chất của nước, học sinh có thể suy nghĩ để lựa chọn vật liệu phù hợp để làm đáy tuyền, cánh buồm, túi ,....</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Hoạt động: Khởi động Bài STEM: Đèn pin bỏ túi- Giáo viên chia lớp thành các nhóm học sinh theo tổ hoặc thẻ màu (5-6 học sinh/nhóm).- Giáo viên tổ chức cho học sinh thảo luận nhóm kể tên các vật dụng cần thiết cho chuyến cắm trại qua đêm trong thời gian 3 phút, sau đó viết kết quả lên bảng nhóm.- Học sinh treo các bảng nhóm lên bảng lớn. Sau đó đại diện 1-2 nhóm chia sẻ về kết quả thảo luận.- Học sinh các nhóm khác và giáo viên nhận xét và bổ sung. - Giáo viên tổng hợp tất cả những vật dụng học sinh đã nêu và từ đó dẫn dắt đến nhu cầu cần có một chiếc đèn pin nhỏ gọn, tiện dụng trong những chuyến đi xa và qua đêm. - Học sinh tiếp nhận nhiệm vụ mới cho bài học là cùng thiết kế và chế tạo một chiếc đèn pin nhỏ gọn để sử dụng khi cần thiết.+ Những kỹ năng hoặc khả năng của các em mà GV muốn phát triển thông qua hoạt động này: Khi khởi động vào bài học từ một tình huống có vấn đề, học sinh phát triển kỹ năng tư duy phản biện, giải quyết vấn đề, tự học, làm việc nhóm và giao tiếp trong quá trình tìm kiếm giải pháp. Hoạt động này thường được thực hiện theo nhóm, học sinh cùng nhau thảo luận, chia sẻ ý tưởng, phân công nhiệm vụ và học hỏi lẫn nhau, giúp phát huy tinh thần làm việc nhóm của học sinh.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Tên bài học: Thử thách bảo vệ viên phấnMôn học tích hợp: Khoa học, Kỹ thuật, Toán học.Đối tượng: Học sinh lớp 5Thời lượng: 2 tiết Địa điểm: Lớp học và khu vực thử nghiệm (sân trường, hành lang).+ Tiết 1: Giới thiệu vấn đề, hình thành ý tưởng, thiết kế và chuẩn bị vật liệu.1/ Khởi động và đặt vấn đề Giáo viên đưa ra tình huống: “An đang đứng ở lầu 1, Bình đang đứng ở sân trường. Bình nhờ An lấy giúp một viên phấn. Theo em, An có thể đưa phần cho Bình bằng những cách nào?Học sinh thảo luận, đưa ra cách giải quyết tình huống. Sau đó GV chốt cách giải quyết phù hợp. Tiếp theo, GV đưa ra thử thách cho học sinh: “Sử dụng các công cụ và vật liệu đơn giản, hãy tạo ra một thiết bị để ngăn viên phấn không bị vỡ khi được thả từ độ cao 3 mét."Học sinh thảo luận ban đầu:Theo các em, tại sao viên phấn lại vỡ khi rơi?" (va chạm, độ cứng vật liệu)Làm thế nào để giảm thiểu lực tác dụng lên viên phấn khi va chạm?" (Giảm tốc độ, kéo dài thời gian va chạm, tăng diện tích tiếp xúc, vật liệu đàn hồi)2/ Hình thành ý tưởng và thiết kế Chia lớp thành các nhóm 6 học sinh. Yêu cầu các nhóm đặt tên cho đội của mình. Yêu cầu các nhóm thảo luận về các ý tưởng để bảo vệ viên phấn. Gợi ý các câu hỏi:+ Làm thế nào để tạo ra một lớp bảo vệ xung quanh viên phấn?+ Nên sử dụng vật liệu nào để giảm chấn động?+ Thiết bị của các em sẽ có hình dạng như thế nào?+ Làm sao để viên phấn không bị rơi ra ngoài?- Mỗi nhóm vẽ một bản phác thảo chi tiết thiết bị của mình trên giấy. Yêu cầu bản phác thảo phải thể hiện rõ: Hình dạng tổng thể của thiết bị; Cách viên phấn được đặt bên trong; Các vật liệu sử dụng cho từng bộ phận.- Giáo viên đi quanh các nhóm, lắng nghe các ý tưởng, đặt câu hỏi gợi mở để khuyến khích học sinh suy nghĩ sâu hơn và hoàn thiện bản thiết kế. Tuyệt đối không đưa ra giải pháp trực tiếp mà chỉ hướng dẫn về nguyên lý.- Các nhóm kiểm tra và nhận đủ vật liệu cần thiết. (Nhắc nhở học sinh về quy tắc an toàn khi sử dụng kéo và băng dính. Hướng dẫn các em giữ gìn trật tự và vệ sinh khu vực làm việc)Tiết 2: Chế tạo, thử nghiệm, đánh giá và chia sẻ.1/ Chế tạo thiết bị Nhắc lại nhiệm vụ và yêu cầu học sinh bắt đầu chế tạo dựa trên bản thiết kế đã có.Đưa ra tiêu chí đánh giá sản phẩm: Viên phấn không bị vỡ, viên phấn không bị rơi ra ngoài, sản phẩm đẹp mắt).Học sinh tiến hành chế tạo: Học sinh làm việc nhóm để lắp ráp, cắt, dán các vật liệu thành thiết bị bảo vệ viên phấn.Giáo viên quan sát, hỗ trợ khi cần thiết, giải đáp thắc mắc về vật liệu hoặc kỹ thuật lắp ráp cơ bản.Khuyến khích học sinh hợp tác, chia sẻ vật liệu hợp lý.2/ Thử nghiệm và đánh giá Yêu cầu các nhóm ngừng chế tạo và tập trung tại khu vực thử nghiệm đã chuẩn bị.Quy trình thử nghiệm:Giáo viên đo độ cao 3 mét (tầng 1 đến mặt đất).Mỗi nhóm lần lượt đặt viên phấn vào thiết bị của mình.Đại diện nhóm sẽ giữ thiết bị ở độ cao 3 mét và thả xuống.Giáo viên và các nhóm khác cùng quan sát xem viên phấn có bị vỡ hay không. Khuyến khích các nhóm học hỏi từ thiết kế của nhau.Nếu có thiết bị chưa thành công, có thể cho phép nhóm có 1-2 phút điều chỉnh nhanh và thử lại.Phát phiếu đánh giá sản phẩm (có thể là phiếu tự đánh giá và phiếu đánh giá chéo giữa các nhóm). Phiếu này bao gồm các tiêu chí:Viên phấn có còn nguyên vẹn không? (Có/Không)Thiết bị có sáng tạo không? (Thang điểm 1-5)Cách sử dụng vật liệu có hiệu quả không? (Thang điểm 1-5)Quá trình làm việc nhóm có hiệu quả không? (Thang điểm 1-5)3/ Tổng kết và chia sẻ Mời đại diện một số nhóm (bao gồm cả nhóm thành công và nhóm chưa thành công) chia sẻ về: Thiết kế của nhóm: Ý tưởng chính là gì? Tại sao thiết bị thành công/chưa thành công? Điều gì đã học được về lực, va chạm, vật liệu? Nếu làm lại, sẽ thay đổi điều gì?Giáo viên tổng kết và củng cố kiến thức.</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Khi một học sinh yêu cầu "xem ví dụ" thì đây thường là dấu hiệu của sự lo lắng, thiếu tự tin, hoặc cần một điểm tựa để bắt đầu. Học sinh có thể sợ làm sai, không biết bắt đầu từ đâu, chưa định hình được mỉnh sẽ làm gì hoặc cảm thấy ý tưởng của mình không đủ "độc đáo".Để giải tỏa lo lắng đồng thời khuyến khích sự sáng tạo của em học sinh đó, tôi sẽ thực hiện như sau: Thay vì ngay lập tức đưa ra một ví dụ hoàn chỉnh tôi sẽ khéo léo hỏi học sinh những khó khăn mà em ấy đang gặp phải, sau đó tôi sẽ đưa ra một số gợi ý ý tưởng hoặc một điểm khởi đầu nhỏ xíu để học sinh tự tin bắt đầu khám phá và đưa ra ý tưởng của mình hoặc tôi sẽ cho phép các nhóm chia sẻ những ý tưởng ban đầu của mình với nhau. Điều này có thể kích thích tư duy mà không dẫn đến việc sao chép.</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Kế hoạch Bài dạy: "Em tập làm kiến trúc sư" Tên bài học: "Em Tập Làm Kiến Trúc Sư" Môn học: Công nghệ (lớp 5) bài: Thiết kế nhà đồ chơiChủ đề liên quan: (Tùy thuộc vào chương trình cụ thể, có thể liên quan đến "Lắp ghép mô hình", "Vật liệu thông thường", "Đồ dùng trong gia đình").Đối tượng: Học sinh lớp 5.Thời lượng: 3 tiết học Tiết 1: Đặt vấn đề, tìm hiểu kiến thức nền, hình thành ý tưởng,Tiết 2: Thiết kế bản vẽ, chọn vật liệuTiết 3: Chế tạo sản phẩm, trưng bày &amp;amp; đánh giá.I. Mục tiêu bài họcSau khi hoàn thành nhiệm vụ, học sinh có thể:Nêu được các bộ phận cơ bản của một ngôi nhà (móng, tường, mái, cửa...).Biết cách lựa chọn và sử dụng một số vật liệu thông thường (giấy, bìa, vải...) để tạo hình.Hiểu được quy trình cơ bản của việc thiết kế và chế tạo một sản phẩm đơn giản.Tư duy thiết kế: Lên ý tưởng, phác thảo bản vẽ kỹ thuật đơn giản của ngôi nhà đồ chơi.Kỹ thuật chế tạo: Thực hiện các thao tác cắt, dán, lắp ghép, trang trí để tạo ra sản phẩm.Giải quyết vấn đề: Tìm cách khắc phục khó khăn khi chọn vật liệu, lắp ghép các bộ phận.Làm việc nhóm: Hợp tác, phân công nhiệm vụ và giao tiếp hiệu quả.Trình bày: Mô tả ý tưởng và sản phẩm của nhóm.Hứng thú và yêu thích môn Công nghệ thông qua hoạt động thực hành sáng tạo; Phát triển sự kiên trì, tỉ mỉ và tinh thần trách nhiệm với sản phẩm của mình; Biết lắng nghe, tôn trọng ý kiến của bạn bè và chia sẻ công việc; Có ý thức sử dụng tiết kiệm tái chế vật liệu và giữ gìn vệ sinh chung.II. Chuẩn bị1. Giáo viênTài liệu: Một số hình ảnh các kiểu nhà (nhà ở truyền thống, hiện đại, nhà sàn, biệt thự, nhà nông thôn...) để gợi ý.Dụng cụ hỗ trợ: Kéo, keo dán (keo sữa, keo nến - nếu có), băng dính, bút chì, thước kẻ, tẩy, bút màu/bút dạ.Vật liệu mẫu: Một số mẫu vật liệu thông thường có thể dùng làm nhà đồ chơi (các loại bìa carton dày mỏng, giấy màu, vải vụn, len sợi...).Phiếu đánh giá sản phẩm (có thể là tự đánh giá và đánh giá chéo).2. Học sinhThu thập vật liệu: Các loại bìa carton (thùng mì tôm, hộp bánh, hộp giày), giấy màu, giấy báo, vải vụn, len, chỉ, ống hút, que kem... (nhấn mạnh vật liệu tái chế sạch và an toàn).Mang theo dụng cụ học tập cá nhân: Kéo, keo dán, bút chì, thước, tẩy.III. Tiến trình dạy họcTiết 1: Đặt vấn đề, tìm hiểu kiến thức nền1/ Khởi động và Đặt vấn đề Giáo viên chiếu hoặc đưa hình ảnh một số ngôi nhà đẹp, độc đáo. "Các em có bao giờ mơ ước được tự tay thiết kế và xây nên một ngôi nhà của riêng mình không? Ngôi nhà đó sẽ trông như thế nào nhỉ?"Liên hệ thực tế: "Ngôi nhà là nơi chúng ta sống, sinh hoạt. Để có được một ngôi nhà chắc chắn và đẹp, các kỹ sư, kiến trúc sư đã phải thiết kế rất tỉ mỉ."Giới thiệu nhiệm vụ: "Hôm nay, chúng ta sẽ cùng nhau trở thành những kiến trúc sư nhí! Nhiệm vụ của mỗi nhóm là thiết kế một ngôi nhà đồ chơi từ các vật liệu thông thường mà chúng ta đã chuẩn bị." Nhấn mạnh yếu tố thiết kế: "Ngôi nhà của các em phải thể hiện được ý tưởng độc đáo và có các bộ phận cơ bản của một ngôi nhà."2/ Tìm hiểu và hình thành ý tưởng+ Thảo luận nhóm: Chia lớp thành các nhóm 6 học sinh. Yêu cầu các nhóm thảo luận về các câu hỏi: "Một ngôi nhà cần có những bộ phận cơ bản nào?" (Móng, tường, mái, cửa ra vào, cửa sổ)."Các em muốn ngôi nhà của mình trông như thế nào? (Nhà đơn giản, nhà hai tầng, nhà có sân vườn...)""Ngôi nhà này sẽ dành cho ai? (Búp bê, thú cưng, người ngoài hành tinh... – khuyến khích sự hài hước để kích thích sáng tạo).""Các em dự định sẽ dùng vật liệu nào cho từng bộ phận của ngôi nhà?"Xem các mẫu nhà (gợi ý): Giáo viên chiếu hoặc đưa các hình ảnh nhà để gợi ý về kiểu dáng, nhưng không đưa ra mẫu nhà đồ chơi hoàn chỉnh để tránh học sinh sao chép. "Các em thấy những ngôi nhà này có điểm gì đặc biệt? Chúng có thể giúp các em nảy ra ý tưởng gì không?"Lên ý tưởng ban đầu: Các nhóm thống nhất ý tưởng chung cho ngôi nhà của mình.Tiết 2: Thiết kế bản vẽ, chọn vật liệu1/ Thiết kế bản vẽHọc sinh cách vẽ phác thảo một ngôi nhà đơn giản trên giấy A4 (hình dạng tổng thể, vị trí cửa, cửa sổ, mái nhà...). Giải thích tầm quan trọng của bản vẽ kỹ thuật sơ bộ trước khi chế tạo.Thực hiện phác thảo: Mỗi nhóm vẽ bản phác thảo ngôi nhà đồ chơi của mình. Bản vẽ nên thể hiện: Hình dáng tổng thể của ngôi nhà (nhìn từ mặt trước, mặt bên).Vị trí các bộ phận cơ bản (cửa, cửa sổ, mái...).Ghi chú vật liệu dự kiến cho từng bộ phận (ví dụ: "mái nhà bằng bìa cứng", "cửa sổ bằng giấy màu").Màu sắc hoặc cách trang trí dự kiến.- Giáo viên hỗ trợ các nhóm, xem xét bản phác thảo, đặt câu hỏi gợi mở để khuyến khích học sinh suy nghĩ kỹ hơn về cấu trúc, độ bền và tính thẩm mỹ. "Phần mái nhà này có đủ chắc chắn không?", "Cửa sổ này có dễ mở không?", "Các em sẽ trang trí ngôi nhà này như thế nào để nó thật độc đáo?"2/ Dặn dò, chuẩn bị vật liệuYêu cầu các nhóm phân công nhiệm vụ cụ thể cho từng thành viên để chuẩn bị cho buổi chế tạo ở tiết sau (ai sẽ cắt, ai sẽ dán, ai trang trí...).Dặn dò: Nhắc nhở học sinh chuẩn bị đầy đủ vật liệu tái chế đã phân công và dụng cụ cá nhân cho tiết học sau.Tiết 3: Chế tạo sản phẩm, trưng bày &amp;amp; đánh giá.1/ Chế tạoNhắc lại nhiệm vụ và quy định an toàn: Nhanh chóng nhắc lại nhiệm vụ và nhấn mạnh việc sử dụng kéo, keo dán an toàn.Đưa ra tiêu chí đánh gia sản phẩmTiến hành chế tạo: Học sinh làm việc nhóm để cắt, dán, lắp ghép, tô màu, trang trí... theo bản vẽ đã thiết kế.Khuyến khích sự sáng tạo trong thực hành: "Nếu bản vẽ cần thay đổi một chút để phù hợp với vật liệu hoặc ý tưởng mới, các em có thể linh hoạt điều chỉnh nhé!"Giáo viên quan sát, hỗ trợ kỹ thuật, giải đáp thắc mắc (ví dụ: cách dán bìa chắc chắn, cách tạo hình cửa sổ...).Đảm bảo các nhóm làm việc hiệu quả, tất cả thành viên đều được tham gia.2/ Trưng bày &amp;amp; Chia sẻ Yêu cầu các nhóm hoàn thành sản phẩm và đặt lên khu vực trưng bày đã chuẩn bị.Mời đại diện các nhóm lên trình bày về ngôi nhà đồ chơi của mình: "Đây là ngôi nhà của ai? Tên gọi của nó là gì?""Các em đã sử dụng những vật liệu nào để tạo ra ngôi nhà này?""Bộ phận nào các em thấy khó làm nhất? Các em đã khắc phục như thế nào?""Điểm nào khiến ngôi nhà của nhóm em độc đáo nhất?""Các em đã học được gì qua hoạt động này?"Các nhóm khác có thể đặt câu hỏi hoặc đưa ra nhận xét tích cực cho nhóm trình bày.3/ Đánh giá và tổng kếtGiáo viên nhận xét chung về các sản phẩm, khen ngợi sự sáng tạo, nỗ lực và tinh thần làm việc nhóm của tất cả học sinh.Nhấn mạnh những ý tưởng độc đáo, cách sử dụng vật liệu thông minh và sự khéo léo trong chế tạo.</t>
         </is>
       </c>
     </row>
